--- a/models/bolser-lewis/source/bolser-lewis.xlsx
+++ b/models/bolser-lewis/source/bolser-lewis.xlsx
@@ -866,25 +866,25 @@
     <t>neuron-3</t>
   </si>
   <si>
-    <t>Soma in 265 (bolew)</t>
+    <t>Soma in 265 - Phrenic nucleus of C4 (bolew)</t>
   </si>
   <si>
     <t>neuron-4</t>
   </si>
   <si>
-    <t>Soma in 266 (bolew)</t>
+    <t>Soma in 266 - Phrenic nucleus of C5 (bolew)</t>
   </si>
   <si>
     <t>neuron-5</t>
   </si>
   <si>
-    <t>Soma in 262 (bolew)</t>
+    <t>Soma in 262 - Nucleus tractus solitarius(bolew)</t>
   </si>
   <si>
     <t>neuron-6</t>
   </si>
   <si>
-    <t>Soma in 264 (bolew)</t>
+    <t>Soma in 264 - Rostral ventrolateral medulla(bolew)</t>
   </si>
   <si>
     <t>neuron-7</t>
@@ -893,7 +893,7 @@
     <t>soma249_1</t>
   </si>
   <si>
-    <t>Soma in 249 (1) (bolew)</t>
+    <t>Soma in 249 (1) - Nodose ganglion of the Vagus nerve(bolew)</t>
   </si>
   <si>
     <t>neuron-8</t>
@@ -902,7 +902,7 @@
     <t>soma249_2</t>
   </si>
   <si>
-    <t>Soma in 249 (2) (bolew)</t>
+    <t>Soma in 249 (2) - Nodose ganglion of the Vagus nerve(bolew)</t>
   </si>
   <si>
     <t>neuron-9</t>
@@ -911,7 +911,7 @@
     <t>soma249_3</t>
   </si>
   <si>
-    <t>Soma in 249 (3) (bolew)</t>
+    <t>Soma in 249 (3) - Nodose ganglion of the Vagus nerve(bolew)</t>
   </si>
   <si>
     <t>neuron-10</t>
@@ -920,7 +920,7 @@
     <t>soma248_1</t>
   </si>
   <si>
-    <t>Soma in 248 (1) (bolew)</t>
+    <t>Soma in 248 (1) - Petrosal ganglion of the Glossopharyngeal nerve(bolew)</t>
   </si>
   <si>
     <t>neuron-11</t>
@@ -929,7 +929,7 @@
     <t>soma248_2</t>
   </si>
   <si>
-    <t>Soma in 248 (2) (bolew)</t>
+    <t>Soma in 248 (2) - Petrosal ganglion of the Glossopharyngeal nerve(bolew)</t>
   </si>
   <si>
     <t>neuron-12</t>
@@ -7676,146 +7676,6 @@
         <v>322</v>
       </c>
     </row>
-    <row r="116">
-      <c r="A116" s="24"/>
-      <c r="B116" s="8"/>
-      <c r="C116" s="58"/>
-      <c r="D116" s="25"/>
-      <c r="E116" s="59"/>
-      <c r="F116" s="25"/>
-      <c r="G116" s="25"/>
-      <c r="H116" s="60"/>
-      <c r="I116" s="61"/>
-      <c r="J116" s="22"/>
-      <c r="M116" s="16"/>
-      <c r="O116" s="17"/>
-    </row>
-    <row r="117">
-      <c r="A117" s="24"/>
-      <c r="B117" s="8"/>
-      <c r="C117" s="58"/>
-      <c r="D117" s="25"/>
-      <c r="E117" s="59"/>
-      <c r="F117" s="25"/>
-      <c r="G117" s="25"/>
-      <c r="H117" s="60"/>
-      <c r="I117" s="61"/>
-      <c r="J117" s="22"/>
-      <c r="M117" s="16"/>
-      <c r="O117" s="17"/>
-    </row>
-    <row r="118">
-      <c r="A118" s="24"/>
-      <c r="B118" s="8"/>
-      <c r="C118" s="58"/>
-      <c r="D118" s="25"/>
-      <c r="E118" s="59"/>
-      <c r="F118" s="25"/>
-      <c r="G118" s="25"/>
-      <c r="H118" s="60"/>
-      <c r="I118" s="61"/>
-      <c r="J118" s="22"/>
-      <c r="M118" s="16"/>
-      <c r="O118" s="17"/>
-    </row>
-    <row r="119">
-      <c r="A119" s="24"/>
-      <c r="B119" s="8"/>
-      <c r="C119" s="58"/>
-      <c r="D119" s="25"/>
-      <c r="E119" s="59"/>
-      <c r="F119" s="25"/>
-      <c r="G119" s="25"/>
-      <c r="H119" s="60"/>
-      <c r="I119" s="61"/>
-      <c r="J119" s="22"/>
-      <c r="M119" s="16"/>
-      <c r="O119" s="17"/>
-    </row>
-    <row r="120">
-      <c r="A120" s="24"/>
-      <c r="B120" s="8"/>
-      <c r="C120" s="58"/>
-      <c r="D120" s="25"/>
-      <c r="E120" s="59"/>
-      <c r="F120" s="25"/>
-      <c r="G120" s="25"/>
-      <c r="H120" s="60"/>
-      <c r="I120" s="61"/>
-      <c r="J120" s="22"/>
-      <c r="M120" s="16"/>
-      <c r="O120" s="17"/>
-    </row>
-    <row r="121">
-      <c r="A121" s="24"/>
-      <c r="B121" s="8"/>
-      <c r="C121" s="58"/>
-      <c r="D121" s="25"/>
-      <c r="E121" s="59"/>
-      <c r="F121" s="25"/>
-      <c r="G121" s="25"/>
-      <c r="H121" s="60"/>
-      <c r="I121" s="61"/>
-      <c r="J121" s="22"/>
-      <c r="M121" s="16"/>
-      <c r="O121" s="17"/>
-    </row>
-    <row r="122">
-      <c r="A122" s="24"/>
-      <c r="B122" s="8"/>
-      <c r="C122" s="58"/>
-      <c r="D122" s="25"/>
-      <c r="E122" s="59"/>
-      <c r="F122" s="25"/>
-      <c r="G122" s="25"/>
-      <c r="H122" s="60"/>
-      <c r="I122" s="61"/>
-      <c r="J122" s="22"/>
-      <c r="M122" s="16"/>
-      <c r="O122" s="17"/>
-    </row>
-    <row r="123">
-      <c r="A123" s="24"/>
-      <c r="B123" s="8"/>
-      <c r="C123" s="58"/>
-      <c r="D123" s="25"/>
-      <c r="E123" s="59"/>
-      <c r="F123" s="25"/>
-      <c r="G123" s="25"/>
-      <c r="H123" s="60"/>
-      <c r="I123" s="61"/>
-      <c r="J123" s="22"/>
-      <c r="M123" s="16"/>
-      <c r="O123" s="17"/>
-    </row>
-    <row r="124">
-      <c r="A124" s="24"/>
-      <c r="B124" s="8"/>
-      <c r="C124" s="58"/>
-      <c r="D124" s="25"/>
-      <c r="E124" s="59"/>
-      <c r="F124" s="25"/>
-      <c r="G124" s="25"/>
-      <c r="H124" s="60"/>
-      <c r="I124" s="61"/>
-      <c r="J124" s="22"/>
-      <c r="M124" s="16"/>
-      <c r="O124" s="17"/>
-    </row>
-    <row r="125">
-      <c r="A125" s="24"/>
-      <c r="B125" s="8"/>
-      <c r="C125" s="58"/>
-      <c r="D125" s="25"/>
-      <c r="E125" s="59"/>
-      <c r="F125" s="25"/>
-      <c r="G125" s="25"/>
-      <c r="H125" s="60"/>
-      <c r="I125" s="61"/>
-      <c r="J125" s="22"/>
-      <c r="M125" s="16"/>
-      <c r="O125" s="17"/>
-    </row>
   </sheetData>
   <printOptions gridLines="1" horizontalCentered="1"/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>

--- a/models/bolser-lewis/source/bolser-lewis.xlsx
+++ b/models/bolser-lewis/source/bolser-lewis.xlsx
@@ -212,7 +212,7 @@
     <t>Diencephalon</t>
   </si>
   <si>
-    <t>UBERON:0001894,NCBITaxon:99999,ILX:0103217</t>
+    <t>UBERON:0001894,ILX:0103217</t>
   </si>
   <si>
     <t>104,105,107in200</t>

--- a/models/bolser-lewis/source/bolser-lewis.xlsx
+++ b/models/bolser-lewis/source/bolser-lewis.xlsx
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1602" uniqueCount="1248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1600" uniqueCount="1246">
   <si>
     <t>id</t>
   </si>
@@ -1235,15 +1235,9 @@
     <t>c1_s</t>
   </si>
   <si>
-    <t>{"x": -100, "y":0}</t>
-  </si>
-  <si>
     <t>c1_t</t>
   </si>
   <si>
-    <t>{"x": 100, "y":0}</t>
-  </si>
-  <si>
     <t>source</t>
   </si>
   <si>
@@ -3638,7 +3632,7 @@
     <t>https://www.ncbi.nlm.nih.gov/pubmed/30090059</t>
   </si>
   <si>
-    <t>comment</t>
+    <t>description</t>
   </si>
   <si>
     <t>links</t>
@@ -4376,7 +4370,7 @@
         <v>41</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
     </row>
   </sheetData>
@@ -4412,14 +4406,21 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>36</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>1190</v>
-      </c>
+        <v>1188</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
     </row>
   </sheetData>
   <drawing r:id="rId2"/>
@@ -4460,68 +4461,68 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>1189</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>1190</v>
+      </c>
+      <c r="G1" s="6" t="s">
         <v>1191</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="80" t="s">
         <v>1192</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="I1" s="6" t="s">
         <v>1193</v>
-      </c>
-      <c r="H1" s="80" t="s">
-        <v>1194</v>
-      </c>
-      <c r="I1" s="6" t="s">
-        <v>1195</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="81" t="s">
-        <v>1196</v>
+        <v>1194</v>
       </c>
       <c r="B2" s="81" t="s">
-        <v>1197</v>
+        <v>1195</v>
       </c>
       <c r="C2" s="82"/>
       <c r="D2" s="83"/>
       <c r="E2" s="81" t="s">
-        <v>1198</v>
+        <v>1196</v>
       </c>
       <c r="F2" s="17" t="s">
-        <v>1199</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="81" t="s">
-        <v>1200</v>
+        <v>1198</v>
       </c>
       <c r="B3" s="81" t="s">
-        <v>1201</v>
+        <v>1199</v>
       </c>
       <c r="C3" s="82"/>
       <c r="D3" s="81" t="s">
-        <v>1202</v>
+        <v>1200</v>
       </c>
       <c r="E3" s="81"/>
       <c r="F3" s="17"/>
     </row>
     <row r="4">
       <c r="A4" s="62" t="s">
-        <v>1203</v>
+        <v>1201</v>
       </c>
       <c r="B4" s="62" t="s">
-        <v>1204</v>
+        <v>1202</v>
       </c>
       <c r="C4" s="84"/>
       <c r="D4" s="62"/>
       <c r="E4" s="62" t="s">
-        <v>1205</v>
+        <v>1203</v>
       </c>
       <c r="F4" s="62" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
       <c r="G4" s="25"/>
       <c r="H4" s="25"/>
@@ -4532,10 +4533,10 @@
         <v>260</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
       <c r="D5" s="62"/>
       <c r="E5" s="62"/>
@@ -4549,10 +4550,10 @@
         <v>262</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>1209</v>
+        <v>1207</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>1210</v>
+        <v>1208</v>
       </c>
       <c r="D6" s="62"/>
       <c r="E6" s="62"/>
@@ -4566,10 +4567,10 @@
         <v>265</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>1211</v>
+        <v>1209</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>1212</v>
+        <v>1210</v>
       </c>
       <c r="D7" s="62"/>
       <c r="E7" s="62"/>
@@ -4583,10 +4584,10 @@
         <v>267</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>1213</v>
+        <v>1211</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>1214</v>
+        <v>1212</v>
       </c>
       <c r="D8" s="62"/>
       <c r="E8" s="62"/>
@@ -4600,10 +4601,10 @@
         <v>269</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>1215</v>
+        <v>1213</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>1216</v>
+        <v>1214</v>
       </c>
       <c r="D9" s="62"/>
       <c r="E9" s="62"/>
@@ -4617,10 +4618,10 @@
         <v>271</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>1217</v>
+        <v>1215</v>
       </c>
       <c r="C10" s="17" t="s">
-        <v>1218</v>
+        <v>1216</v>
       </c>
       <c r="D10" s="62"/>
       <c r="E10" s="62"/>
@@ -4634,10 +4635,10 @@
         <v>273</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>1219</v>
+        <v>1217</v>
       </c>
       <c r="C11" s="17" t="s">
-        <v>1220</v>
+        <v>1218</v>
       </c>
       <c r="D11" s="62"/>
       <c r="E11" s="62"/>
@@ -4651,10 +4652,10 @@
         <v>276</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>1221</v>
+        <v>1219</v>
       </c>
       <c r="C12" s="17" t="s">
-        <v>1222</v>
+        <v>1220</v>
       </c>
       <c r="D12" s="62"/>
       <c r="E12" s="62"/>
@@ -4668,10 +4669,10 @@
         <v>279</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>1223</v>
+        <v>1221</v>
       </c>
       <c r="C13" s="17" t="s">
-        <v>1224</v>
+        <v>1222</v>
       </c>
       <c r="D13" s="62"/>
       <c r="E13" s="62"/>
@@ -4685,10 +4686,10 @@
         <v>282</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
       <c r="C14" s="17" t="s">
-        <v>1226</v>
+        <v>1224</v>
       </c>
       <c r="D14" s="62"/>
       <c r="E14" s="62"/>
@@ -4702,10 +4703,10 @@
         <v>285</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>1227</v>
+        <v>1225</v>
       </c>
       <c r="C15" s="17" t="s">
-        <v>1228</v>
+        <v>1226</v>
       </c>
       <c r="D15" s="62"/>
       <c r="E15" s="62"/>
@@ -4719,10 +4720,10 @@
         <v>288</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
       <c r="C16" s="17" t="s">
-        <v>1230</v>
+        <v>1228</v>
       </c>
       <c r="D16" s="62"/>
       <c r="E16" s="62"/>
@@ -4740,7 +4741,7 @@
         <v>Neuron population in superior cervical ganglion (1) (bolew)</v>
       </c>
       <c r="C17" s="17" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
       <c r="D17" s="62"/>
       <c r="E17" s="62"/>
@@ -4758,7 +4759,7 @@
         <v>Neuron population in superior cervical ganglion (2) (bolew)</v>
       </c>
       <c r="C18" s="17" t="s">
-        <v>1232</v>
+        <v>1230</v>
       </c>
       <c r="D18" s="62"/>
       <c r="E18" s="62"/>
@@ -4776,7 +4777,7 @@
         <v>Neuron population in superior cervical ganglion (3) (bolew)</v>
       </c>
       <c r="C19" s="17" t="s">
-        <v>1233</v>
+        <v>1231</v>
       </c>
       <c r="D19" s="62"/>
       <c r="E19" s="62"/>
@@ -4794,7 +4795,7 @@
         <v>Neuron population in superior cervical ganglion (4) (bolew)</v>
       </c>
       <c r="C20" s="17" t="s">
-        <v>1234</v>
+        <v>1232</v>
       </c>
       <c r="D20" s="62"/>
       <c r="E20" s="62"/>
@@ -4812,7 +4813,7 @@
         <v>Neuron population in superior cervical ganglion (5) (bolew)</v>
       </c>
       <c r="C21" s="17" t="s">
-        <v>1235</v>
+        <v>1233</v>
       </c>
       <c r="D21" s="62"/>
       <c r="E21" s="62"/>
@@ -4830,7 +4831,7 @@
         <v>Neuron population in superior cervical ganglion (6) (bolew)</v>
       </c>
       <c r="C22" s="17" t="s">
-        <v>1236</v>
+        <v>1234</v>
       </c>
       <c r="D22" s="62"/>
       <c r="E22" s="62"/>
@@ -4848,7 +4849,7 @@
         <v>Neuron population in superior cervical ganglion (7) (bolew)</v>
       </c>
       <c r="C23" s="17" t="s">
-        <v>1237</v>
+        <v>1235</v>
       </c>
       <c r="D23" s="62"/>
       <c r="E23" s="62"/>
@@ -4866,7 +4867,7 @@
         <v>Neuron population in superior cervical ganglion (8) (bolew)</v>
       </c>
       <c r="C24" s="17" t="s">
-        <v>1238</v>
+        <v>1236</v>
       </c>
       <c r="D24" s="62"/>
       <c r="E24" s="62"/>
@@ -4884,7 +4885,7 @@
         <v>Neuron population in superior cervical ganglion (9) (bolew)</v>
       </c>
       <c r="C25" s="17" t="s">
-        <v>1239</v>
+        <v>1237</v>
       </c>
       <c r="D25" s="62"/>
       <c r="E25" s="62"/>
@@ -4902,7 +4903,7 @@
         <v>Neuron population in superior cervical ganglion (10) (bolew)</v>
       </c>
       <c r="C26" s="17" t="s">
-        <v>1240</v>
+        <v>1238</v>
       </c>
       <c r="D26" s="62"/>
       <c r="E26" s="62"/>
@@ -4920,7 +4921,7 @@
         <v>Neuron population in superior cervical ganglion (11) (bolew)</v>
       </c>
       <c r="C27" s="17" t="s">
-        <v>1241</v>
+        <v>1239</v>
       </c>
       <c r="D27" s="62"/>
       <c r="E27" s="62"/>
@@ -4938,7 +4939,7 @@
         <v>Neuron population in superior cervical ganglion (12) (bolew)</v>
       </c>
       <c r="C28" s="17" t="s">
-        <v>1242</v>
+        <v>1240</v>
       </c>
       <c r="D28" s="62"/>
       <c r="E28" s="62"/>
@@ -4956,7 +4957,7 @@
         <v>Neuron population in superior cervical ganglion (13) (bolew)</v>
       </c>
       <c r="C29" s="17" t="s">
-        <v>1243</v>
+        <v>1241</v>
       </c>
       <c r="D29" s="62"/>
       <c r="E29" s="62"/>
@@ -4974,7 +4975,7 @@
         <v>Neuron population in superior cervical ganglion (14) (bolew)</v>
       </c>
       <c r="C30" s="17" t="s">
-        <v>1244</v>
+        <v>1242</v>
       </c>
       <c r="D30" s="62"/>
       <c r="E30" s="62"/>
@@ -4992,7 +4993,7 @@
         <v>Neuron population in superior cervical ganglion (15) (bolew)</v>
       </c>
       <c r="C31" s="17" t="s">
-        <v>1245</v>
+        <v>1243</v>
       </c>
       <c r="D31" s="62"/>
       <c r="E31" s="62"/>
@@ -5010,7 +5011,7 @@
         <v>Neuron population in superior cervical ganglion (16) (bolew)</v>
       </c>
       <c r="C32" s="17" t="s">
-        <v>1246</v>
+        <v>1244</v>
       </c>
       <c r="D32" s="62"/>
       <c r="E32" s="62"/>
@@ -5028,7 +5029,7 @@
         <v>Neuron population in superior cervical ganglion (17) (bolew)</v>
       </c>
       <c r="C33" s="17" t="s">
-        <v>1247</v>
+        <v>1245</v>
       </c>
       <c r="D33" s="62"/>
       <c r="E33" s="62"/>
@@ -5051,6 +5052,9 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="2" max="2" width="35.57"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
@@ -8178,18 +8182,13 @@
         <v>388</v>
       </c>
       <c r="C2" s="18"/>
-      <c r="E2" s="16" t="s">
-        <v>389</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="16" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C3" s="31"/>
-      <c r="E3" s="40" t="s">
-        <v>391</v>
-      </c>
+      <c r="E3" s="40"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -8223,19 +8222,19 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>392</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>393</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>394</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>395</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>396</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>37</v>
@@ -8243,65 +8242,65 @@
     </row>
     <row r="2">
       <c r="A2" s="17" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="B2" s="25"/>
       <c r="C2" s="25"/>
       <c r="D2" s="17" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="E2" s="17" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="F2" s="23">
         <v>227.0</v>
       </c>
       <c r="G2" s="25" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="H2" s="16" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="17" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="B3" s="25"/>
       <c r="C3" s="25"/>
       <c r="D3" s="17" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="E3" s="17" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="F3" s="23">
         <v>226.0</v>
       </c>
       <c r="G3" s="25" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="H3" s="16" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="17" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="B4" s="25"/>
       <c r="C4" s="25"/>
       <c r="D4" s="17" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="E4" s="17" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="F4" s="23">
         <v>221.0</v>
       </c>
       <c r="G4" s="25" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="H4" s="16">
         <v>103.0</v>
@@ -8309,21 +8308,21 @@
     </row>
     <row r="5">
       <c r="A5" s="17" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="B5" s="25"/>
       <c r="C5" s="25"/>
       <c r="D5" s="17" t="s">
+        <v>404</v>
+      </c>
+      <c r="E5" s="17" t="s">
         <v>406</v>
-      </c>
-      <c r="E5" s="17" t="s">
-        <v>408</v>
       </c>
       <c r="F5" s="23">
         <v>222.0</v>
       </c>
       <c r="G5" s="25" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="H5" s="16">
         <v>103.0</v>
@@ -8331,21 +8330,21 @@
     </row>
     <row r="6">
       <c r="A6" s="17" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B6" s="25"/>
       <c r="C6" s="25"/>
       <c r="D6" s="17" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="E6" s="17" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="F6" s="23">
         <v>223.0</v>
       </c>
       <c r="G6" s="25" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="H6" s="16">
         <v>41.0</v>
@@ -8353,21 +8352,21 @@
     </row>
     <row r="7">
       <c r="A7" s="17" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="B7" s="25"/>
       <c r="C7" s="25"/>
       <c r="D7" s="17" t="s">
+        <v>409</v>
+      </c>
+      <c r="E7" s="17" t="s">
         <v>411</v>
-      </c>
-      <c r="E7" s="17" t="s">
-        <v>413</v>
       </c>
       <c r="F7" s="23">
         <v>224.0</v>
       </c>
       <c r="G7" s="25" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="H7" s="16">
         <v>41.0</v>
@@ -8375,21 +8374,21 @@
     </row>
     <row r="8">
       <c r="A8" s="17" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="B8" s="25"/>
       <c r="C8" s="25"/>
       <c r="D8" s="17" t="s">
+        <v>411</v>
+      </c>
+      <c r="E8" s="17" t="s">
         <v>413</v>
-      </c>
-      <c r="E8" s="17" t="s">
-        <v>415</v>
       </c>
       <c r="F8" s="23">
         <v>225.0</v>
       </c>
       <c r="G8" s="25" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="H8" s="16">
         <v>41.0</v>
@@ -8397,21 +8396,21 @@
     </row>
     <row r="9">
       <c r="A9" s="25" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="B9" s="25"/>
       <c r="C9" s="25"/>
       <c r="D9" s="25" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="E9" s="25" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="F9" s="23">
         <v>217.0</v>
       </c>
       <c r="G9" s="25" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="H9" s="16">
         <v>117.0</v>
@@ -8419,21 +8418,21 @@
     </row>
     <row r="10">
       <c r="A10" s="25" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="B10" s="25"/>
       <c r="C10" s="25"/>
       <c r="D10" s="25" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="E10" s="25" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="F10" s="23">
         <v>218.0</v>
       </c>
       <c r="G10" s="25" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="H10" s="16">
         <v>117.0</v>
@@ -8441,21 +8440,21 @@
     </row>
     <row r="11">
       <c r="A11" s="25" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="25"/>
       <c r="D11" s="25" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="E11" s="25" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="F11" s="23">
         <v>219.0</v>
       </c>
       <c r="G11" s="25" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="H11" s="16">
         <v>117.0</v>
@@ -8463,21 +8462,21 @@
     </row>
     <row r="12">
       <c r="A12" s="25" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="25"/>
       <c r="D12" s="25" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="E12" s="25" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="F12" s="32">
         <v>220.0</v>
       </c>
       <c r="G12" s="25" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="H12" s="16">
         <v>117.0</v>
@@ -8485,21 +8484,21 @@
     </row>
     <row r="13">
       <c r="A13" s="25" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="25"/>
       <c r="D13" s="25" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="E13" s="25" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="F13" s="23">
         <v>230.0</v>
       </c>
       <c r="G13" s="25" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="H13" s="16">
         <v>117.0</v>
@@ -8507,21 +8506,21 @@
     </row>
     <row r="14">
       <c r="A14" s="25" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="25"/>
       <c r="D14" s="25" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="E14" s="25" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="F14" s="23">
         <v>231.0</v>
       </c>
       <c r="G14" s="25" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="H14" s="16">
         <v>117.0</v>
@@ -8529,21 +8528,21 @@
     </row>
     <row r="15">
       <c r="A15" s="25" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="B15" s="25"/>
       <c r="C15" s="25"/>
       <c r="D15" s="25" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="E15" s="25" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="F15" s="23">
         <v>232.0</v>
       </c>
       <c r="G15" s="25" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="H15" s="16">
         <v>117.0</v>
@@ -8551,21 +8550,21 @@
     </row>
     <row r="16">
       <c r="A16" s="25" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="25"/>
       <c r="D16" s="25" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="E16" s="25" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="F16" s="23">
         <v>233.0</v>
       </c>
       <c r="G16" s="25" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="H16" s="16">
         <v>117.0</v>
@@ -8573,21 +8572,21 @@
     </row>
     <row r="17">
       <c r="A17" s="25" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="25" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="E17" s="25" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="F17" s="23">
         <v>234.0</v>
       </c>
       <c r="G17" s="25" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="H17" s="16">
         <v>117.0</v>
@@ -8595,21 +8594,21 @@
     </row>
     <row r="18">
       <c r="A18" s="25" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="B18" s="25"/>
       <c r="C18" s="25"/>
       <c r="D18" s="25" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="E18" s="25" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="F18" s="23">
         <v>235.0</v>
       </c>
       <c r="G18" s="25" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="H18" s="16">
         <v>117.0</v>
@@ -8617,21 +8616,21 @@
     </row>
     <row r="19">
       <c r="A19" s="25" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="B19" s="25"/>
       <c r="C19" s="25"/>
       <c r="D19" s="25" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="E19" s="25" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="F19" s="23">
         <v>236.0</v>
       </c>
       <c r="G19" s="25" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="H19" s="16">
         <v>117.0</v>
@@ -8639,21 +8638,21 @@
     </row>
     <row r="20">
       <c r="A20" s="25" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="B20" s="25"/>
       <c r="C20" s="25"/>
       <c r="D20" s="25" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="E20" s="25" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="F20" s="23">
         <v>237.0</v>
       </c>
       <c r="G20" s="25" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="H20" s="16">
         <v>117.0</v>
@@ -8661,21 +8660,21 @@
     </row>
     <row r="21">
       <c r="A21" s="25" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="B21" s="25"/>
       <c r="C21" s="25"/>
       <c r="D21" s="25" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="E21" s="25" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="F21" s="23">
         <v>238.0</v>
       </c>
       <c r="G21" s="25" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="H21" s="16">
         <v>117.0</v>
@@ -8683,21 +8682,21 @@
     </row>
     <row r="22">
       <c r="A22" s="25" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="B22" s="25"/>
       <c r="C22" s="25"/>
       <c r="D22" s="25" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="E22" s="25" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="F22" s="23">
         <v>239.0</v>
       </c>
       <c r="G22" s="25" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="H22" s="16">
         <v>117.0</v>
@@ -8705,21 +8704,21 @@
     </row>
     <row r="23">
       <c r="A23" s="25" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="B23" s="25"/>
       <c r="C23" s="25"/>
       <c r="D23" s="25" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="E23" s="25" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="F23" s="23">
         <v>240.0</v>
       </c>
       <c r="G23" s="25" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="H23" s="16">
         <v>117.0</v>
@@ -8727,21 +8726,21 @@
     </row>
     <row r="24">
       <c r="A24" s="25" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="B24" s="25"/>
       <c r="C24" s="25"/>
       <c r="D24" s="25" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="E24" s="25" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="F24" s="23">
         <v>241.0</v>
       </c>
       <c r="G24" s="25" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="H24" s="16">
         <v>117.0</v>
@@ -8749,15 +8748,15 @@
     </row>
     <row r="25">
       <c r="A25" s="53" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="B25" s="25"/>
       <c r="C25" s="25"/>
       <c r="D25" s="69" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="E25" s="69" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="F25" s="24" t="s">
         <v>54</v>
@@ -8768,15 +8767,15 @@
     </row>
     <row r="26">
       <c r="A26" s="53" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B26" s="25"/>
       <c r="C26" s="25"/>
       <c r="D26" s="69" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="E26" s="69" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="F26" s="24" t="s">
         <v>129</v>
@@ -8787,15 +8786,15 @@
     </row>
     <row r="27">
       <c r="A27" s="53" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="B27" s="25"/>
       <c r="C27" s="25"/>
       <c r="D27" s="69" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="E27" s="69" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="F27" s="24" t="s">
         <v>263</v>
@@ -8806,15 +8805,15 @@
     </row>
     <row r="28">
       <c r="A28" s="53" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="25"/>
       <c r="D28" s="24" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="E28" s="24" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="F28" s="24" t="s">
         <v>248</v>
@@ -8825,15 +8824,15 @@
     </row>
     <row r="29">
       <c r="A29" s="53" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="B29" s="25"/>
       <c r="C29" s="25"/>
       <c r="D29" s="24" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="E29" s="24" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="F29" s="24" t="s">
         <v>251</v>
@@ -8844,15 +8843,15 @@
     </row>
     <row r="30">
       <c r="A30" s="53" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="B30" s="25"/>
       <c r="C30" s="25"/>
       <c r="D30" s="24" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="E30" s="24" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="F30" s="24" t="s">
         <v>240</v>
@@ -8863,15 +8862,15 @@
     </row>
     <row r="31">
       <c r="A31" s="53" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="B31" s="25"/>
       <c r="C31" s="25"/>
       <c r="D31" s="24" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="E31" s="24" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="F31" s="24" t="s">
         <v>245</v>
@@ -8882,15 +8881,15 @@
     </row>
     <row r="32">
       <c r="A32" s="53" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="B32" s="25"/>
       <c r="C32" s="25"/>
       <c r="D32" s="24" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="E32" s="24" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="F32" s="24" t="s">
         <v>274</v>
@@ -8901,15 +8900,15 @@
     </row>
     <row r="33">
       <c r="A33" s="53" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="B33" s="25"/>
       <c r="C33" s="25"/>
       <c r="D33" s="24" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="E33" s="24" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="F33" s="24" t="s">
         <v>277</v>
@@ -8920,15 +8919,15 @@
     </row>
     <row r="34">
       <c r="A34" s="53" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="B34" s="25"/>
       <c r="C34" s="25"/>
       <c r="D34" s="24" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="E34" s="24" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="F34" s="53" t="s">
         <v>280</v>
@@ -8939,15 +8938,15 @@
     </row>
     <row r="35">
       <c r="A35" s="53" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="B35" s="25"/>
       <c r="C35" s="25"/>
       <c r="D35" s="24" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="E35" s="24" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="F35" s="24" t="s">
         <v>283</v>
@@ -8958,15 +8957,15 @@
     </row>
     <row r="36">
       <c r="A36" s="53" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="B36" s="25"/>
       <c r="C36" s="25"/>
       <c r="D36" s="24" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="E36" s="24" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="F36" s="24" t="s">
         <v>286</v>
@@ -8977,15 +8976,15 @@
     </row>
     <row r="37">
       <c r="A37" s="53" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="B37" s="25"/>
       <c r="C37" s="25"/>
       <c r="D37" s="24" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="E37" s="24" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="F37" s="24" t="s">
         <v>289</v>
@@ -8996,15 +8995,15 @@
     </row>
     <row r="38">
       <c r="A38" s="53" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="B38" s="25"/>
       <c r="C38" s="25"/>
       <c r="D38" s="24" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="E38" s="24" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="F38" s="24" t="s">
         <v>291</v>
@@ -9015,15 +9014,15 @@
     </row>
     <row r="39">
       <c r="A39" s="53" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="B39" s="25"/>
       <c r="C39" s="25"/>
       <c r="D39" s="24" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="E39" s="24" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="F39" s="24" t="s">
         <v>293</v>
@@ -9034,15 +9033,15 @@
     </row>
     <row r="40">
       <c r="A40" s="53" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="B40" s="25"/>
       <c r="C40" s="25"/>
       <c r="D40" s="24" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="E40" s="24" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="F40" s="24" t="s">
         <v>295</v>
@@ -9053,15 +9052,15 @@
     </row>
     <row r="41">
       <c r="A41" s="53" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="B41" s="25"/>
       <c r="C41" s="25"/>
       <c r="D41" s="24" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="E41" s="24" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="F41" s="24" t="s">
         <v>297</v>
@@ -9072,15 +9071,15 @@
     </row>
     <row r="42">
       <c r="A42" s="53" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="B42" s="25"/>
       <c r="C42" s="25"/>
       <c r="D42" s="24" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="E42" s="24" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="F42" s="24" t="s">
         <v>299</v>
@@ -9091,15 +9090,15 @@
     </row>
     <row r="43">
       <c r="A43" s="53" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="B43" s="25"/>
       <c r="C43" s="25"/>
       <c r="D43" s="24" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="E43" s="24" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="F43" s="24" t="s">
         <v>301</v>
@@ -9110,15 +9109,15 @@
     </row>
     <row r="44">
       <c r="A44" s="53" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="B44" s="25"/>
       <c r="C44" s="25"/>
       <c r="D44" s="24" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="E44" s="24" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="F44" s="24" t="s">
         <v>303</v>
@@ -9129,15 +9128,15 @@
     </row>
     <row r="45">
       <c r="A45" s="53" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="B45" s="25"/>
       <c r="C45" s="25"/>
       <c r="D45" s="24" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="E45" s="24" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="F45" s="24" t="s">
         <v>305</v>
@@ -9148,15 +9147,15 @@
     </row>
     <row r="46">
       <c r="A46" s="53" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="B46" s="25"/>
       <c r="C46" s="25"/>
       <c r="D46" s="24" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="E46" s="24" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="F46" s="24" t="s">
         <v>307</v>
@@ -9167,15 +9166,15 @@
     </row>
     <row r="47">
       <c r="A47" s="53" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="B47" s="25"/>
       <c r="C47" s="25"/>
       <c r="D47" s="24" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="E47" s="24" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="F47" s="24" t="s">
         <v>309</v>
@@ -9186,15 +9185,15 @@
     </row>
     <row r="48">
       <c r="A48" s="53" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="B48" s="25"/>
       <c r="C48" s="25"/>
       <c r="D48" s="24" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="E48" s="24" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="F48" s="24" t="s">
         <v>311</v>
@@ -9205,15 +9204,15 @@
     </row>
     <row r="49">
       <c r="A49" s="53" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="B49" s="25"/>
       <c r="C49" s="25"/>
       <c r="D49" s="24" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="E49" s="24" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="F49" s="24" t="s">
         <v>313</v>
@@ -9224,15 +9223,15 @@
     </row>
     <row r="50">
       <c r="A50" s="53" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="B50" s="25"/>
       <c r="C50" s="25"/>
       <c r="D50" s="24" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="E50" s="24" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="F50" s="24" t="s">
         <v>315</v>
@@ -9243,15 +9242,15 @@
     </row>
     <row r="51">
       <c r="A51" s="53" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="B51" s="25"/>
       <c r="C51" s="25"/>
       <c r="D51" s="24" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="E51" s="24" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="F51" s="24" t="s">
         <v>317</v>
@@ -9262,15 +9261,15 @@
     </row>
     <row r="52">
       <c r="A52" s="53" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="B52" s="25"/>
       <c r="C52" s="25"/>
       <c r="D52" s="24" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="E52" s="24" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="F52" s="24" t="s">
         <v>319</v>
@@ -9281,15 +9280,15 @@
     </row>
     <row r="53">
       <c r="A53" s="53" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="B53" s="25"/>
       <c r="C53" s="25"/>
       <c r="D53" s="24" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="E53" s="24" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="F53" s="24" t="s">
         <v>321</v>
@@ -9323,24 +9322,24 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>549</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>551</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>552</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>553</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="70" t="s">
+        <v>552</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>553</v>
+      </c>
+      <c r="D2" s="16" t="s">
         <v>554</v>
-      </c>
-      <c r="C2" s="16" t="s">
-        <v>555</v>
-      </c>
-      <c r="D2" s="16" t="s">
-        <v>556</v>
       </c>
     </row>
   </sheetData>
@@ -9362,7 +9361,8 @@
     <col customWidth="1" min="2" max="2" width="27.0"/>
     <col customWidth="1" min="3" max="3" width="21.57"/>
     <col customWidth="1" min="4" max="5" width="17.14"/>
-    <col customWidth="1" min="6" max="7" width="15.29"/>
+    <col customWidth="1" min="6" max="6" width="64.14"/>
+    <col customWidth="1" min="7" max="7" width="15.29"/>
     <col customWidth="1" min="8" max="8" width="12.57"/>
     <col customWidth="1" min="9" max="9" width="65.0"/>
   </cols>
@@ -9378,22 +9378,22 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>557</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>558</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>559</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>560</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>561</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>562</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>37</v>
@@ -9401,7 +9401,7 @@
     </row>
     <row r="2">
       <c r="A2" s="17" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="B2" s="17"/>
       <c r="C2" s="58"/>
@@ -9409,10 +9409,10 @@
         <v>388</v>
       </c>
       <c r="E2" s="69" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F2" s="71" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="G2" s="61"/>
       <c r="H2" s="25"/>
@@ -9423,16 +9423,16 @@
     </row>
     <row r="3">
       <c r="A3" s="17" t="s">
+        <v>563</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>564</v>
+      </c>
+      <c r="C3" s="58" t="s">
         <v>565</v>
       </c>
-      <c r="B3" s="17" t="s">
-        <v>566</v>
-      </c>
-      <c r="C3" s="58" t="s">
-        <v>567</v>
-      </c>
       <c r="D3" s="20" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="E3" s="20"/>
       <c r="F3" s="61"/>
@@ -9447,16 +9447,16 @@
     </row>
     <row r="4">
       <c r="A4" s="17" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="C4" s="58" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="D4" s="20" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="E4" s="20"/>
       <c r="F4" s="61"/>
@@ -9471,16 +9471,16 @@
     </row>
     <row r="5">
       <c r="A5" s="17" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="C5" s="58" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="D5" s="20" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="E5" s="20"/>
       <c r="F5" s="61"/>
@@ -9495,16 +9495,16 @@
     </row>
     <row r="6">
       <c r="A6" s="17" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="C6" s="58" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="D6" s="73" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="E6" s="73"/>
       <c r="F6" s="61"/>
@@ -9519,16 +9519,16 @@
     </row>
     <row r="7">
       <c r="A7" s="17" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="C7" s="58" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="D7" s="73" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="E7" s="73"/>
       <c r="F7" s="61"/>
@@ -9543,16 +9543,16 @@
     </row>
     <row r="8">
       <c r="A8" s="17" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="C8" s="58" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="D8" s="20" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="E8" s="20"/>
       <c r="F8" s="61"/>
@@ -9567,16 +9567,16 @@
     </row>
     <row r="9">
       <c r="A9" s="17" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="C9" s="58" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="D9" s="20" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="E9" s="20"/>
       <c r="F9" s="61"/>
@@ -9591,16 +9591,16 @@
     </row>
     <row r="10">
       <c r="A10" s="17" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="C10" s="75" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="D10" s="25" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="E10" s="25"/>
       <c r="F10" s="61"/>
@@ -9609,22 +9609,22 @@
       </c>
       <c r="H10" s="25"/>
       <c r="I10" s="62" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="J10" s="62"/>
     </row>
     <row r="11">
       <c r="A11" s="17" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="B11" s="17" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="C11" s="75" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="D11" s="25" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="E11" s="25"/>
       <c r="F11" s="61"/>
@@ -9633,22 +9633,22 @@
       </c>
       <c r="H11" s="25"/>
       <c r="I11" s="62" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="J11" s="62"/>
     </row>
     <row r="12">
       <c r="A12" s="17" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="B12" s="17" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="C12" s="75" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="D12" s="25" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="E12" s="25"/>
       <c r="F12" s="61"/>
@@ -9657,22 +9657,22 @@
       </c>
       <c r="H12" s="25"/>
       <c r="I12" s="62" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="J12" s="62"/>
     </row>
     <row r="13">
       <c r="A13" s="17" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="B13" s="17" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="C13" s="75" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="D13" s="25" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="E13" s="25"/>
       <c r="F13" s="61"/>
@@ -9681,22 +9681,22 @@
       </c>
       <c r="H13" s="25"/>
       <c r="I13" s="62" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="J13" s="62"/>
     </row>
     <row r="14">
       <c r="A14" s="17" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="B14" s="17" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="C14" s="75" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="D14" s="25" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="E14" s="25"/>
       <c r="F14" s="61"/>
@@ -9705,22 +9705,22 @@
       </c>
       <c r="H14" s="25"/>
       <c r="I14" s="62" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="J14" s="62"/>
     </row>
     <row r="15">
       <c r="A15" s="17" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="B15" s="17" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="C15" s="58" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="D15" s="24" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="E15" s="24"/>
       <c r="F15" s="61"/>
@@ -9735,16 +9735,16 @@
     </row>
     <row r="16">
       <c r="A16" s="17" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="B16" s="17" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="C16" s="58" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="D16" s="24" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="E16" s="24"/>
       <c r="F16" s="61"/>
@@ -9759,16 +9759,16 @@
     </row>
     <row r="17">
       <c r="A17" s="17" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="B17" s="17" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="C17" s="58" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="D17" s="24" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="E17" s="24"/>
       <c r="F17" s="61"/>
@@ -9783,16 +9783,16 @@
     </row>
     <row r="18">
       <c r="A18" s="17" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="B18" s="17" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="C18" s="58" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="D18" s="24" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="E18" s="24"/>
       <c r="F18" s="61"/>
@@ -9807,16 +9807,16 @@
     </row>
     <row r="19">
       <c r="A19" s="17" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="B19" s="17" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="C19" s="58" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="D19" s="24" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="E19" s="24"/>
       <c r="F19" s="61"/>
@@ -9831,16 +9831,16 @@
     </row>
     <row r="20">
       <c r="A20" s="17" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="B20" s="17" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="C20" s="58" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="D20" s="24" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="E20" s="24"/>
       <c r="F20" s="61"/>
@@ -9855,16 +9855,16 @@
     </row>
     <row r="21">
       <c r="A21" s="17" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="B21" s="17" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="C21" s="58" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="D21" s="24" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="E21" s="24"/>
       <c r="F21" s="61"/>
@@ -9879,16 +9879,16 @@
     </row>
     <row r="22">
       <c r="A22" s="17" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="B22" s="17" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="C22" s="58" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="D22" s="24" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="E22" s="24"/>
       <c r="F22" s="61"/>
@@ -9903,16 +9903,16 @@
     </row>
     <row r="23">
       <c r="A23" s="17" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="B23" s="17" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="C23" s="58" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="D23" s="24" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="E23" s="24"/>
       <c r="F23" s="61"/>
@@ -9927,16 +9927,16 @@
     </row>
     <row r="24">
       <c r="A24" s="17" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="B24" s="17" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="C24" s="58" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="D24" s="24" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="E24" s="24"/>
       <c r="F24" s="61"/>
@@ -9951,16 +9951,16 @@
     </row>
     <row r="25">
       <c r="A25" s="17" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="B25" s="17" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="C25" s="58" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="D25" s="24" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="E25" s="24"/>
       <c r="F25" s="61"/>
@@ -9975,16 +9975,16 @@
     </row>
     <row r="26">
       <c r="A26" s="17" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="B26" s="17" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="C26" s="58" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="D26" s="24" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="E26" s="24"/>
       <c r="F26" s="61"/>
@@ -9999,16 +9999,16 @@
     </row>
     <row r="27">
       <c r="A27" s="17" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="B27" s="17" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="C27" s="58" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="D27" s="24" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="E27" s="24"/>
       <c r="F27" s="61"/>
@@ -10023,16 +10023,16 @@
     </row>
     <row r="28">
       <c r="A28" s="17" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="B28" s="17" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="C28" s="58" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="D28" s="24" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="E28" s="24"/>
       <c r="F28" s="61"/>
@@ -10047,16 +10047,16 @@
     </row>
     <row r="29">
       <c r="A29" s="17" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="B29" s="17" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="C29" s="58" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="D29" s="24" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="E29" s="24"/>
       <c r="F29" s="61"/>
@@ -10071,16 +10071,16 @@
     </row>
     <row r="30">
       <c r="A30" s="17" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="B30" s="17" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="C30" s="58" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="D30" s="24" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="E30" s="24"/>
       <c r="F30" s="61"/>
@@ -10095,16 +10095,16 @@
     </row>
     <row r="31">
       <c r="A31" s="17" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="B31" s="17" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="C31" s="58" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="D31" s="24" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="E31" s="24"/>
       <c r="F31" s="61"/>
@@ -10119,16 +10119,16 @@
     </row>
     <row r="32">
       <c r="A32" s="17" t="s">
+        <v>627</v>
+      </c>
+      <c r="B32" s="17" t="s">
+        <v>628</v>
+      </c>
+      <c r="C32" s="58" t="s">
         <v>629</v>
       </c>
-      <c r="B32" s="17" t="s">
-        <v>630</v>
-      </c>
-      <c r="C32" s="58" t="s">
-        <v>631</v>
-      </c>
       <c r="D32" s="76" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="E32" s="76"/>
       <c r="F32" s="61"/>
@@ -10137,22 +10137,22 @@
       </c>
       <c r="H32" s="25"/>
       <c r="I32" s="77" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="J32" s="62"/>
     </row>
     <row r="33">
       <c r="A33" s="17" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="B33" s="17" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="C33" s="58" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="D33" s="25" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="E33" s="25"/>
       <c r="F33" s="61"/>
@@ -10161,22 +10161,22 @@
       </c>
       <c r="H33" s="17"/>
       <c r="I33" s="77" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="J33" s="62"/>
     </row>
     <row r="34">
       <c r="A34" s="17" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="B34" s="17" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="C34" s="58" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="D34" s="25" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="E34" s="25"/>
       <c r="F34" s="61"/>
@@ -10185,22 +10185,22 @@
       </c>
       <c r="H34" s="25"/>
       <c r="I34" s="61" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="J34" s="62"/>
     </row>
     <row r="35">
       <c r="A35" s="17" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="B35" s="17" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="C35" s="58" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="D35" s="25" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="E35" s="25"/>
       <c r="F35" s="61"/>
@@ -10209,22 +10209,22 @@
       </c>
       <c r="H35" s="25"/>
       <c r="I35" s="74" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="J35" s="62"/>
     </row>
     <row r="36">
       <c r="A36" s="17" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="B36" s="17" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="C36" s="58" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="D36" s="25" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="E36" s="25"/>
       <c r="F36" s="61"/>
@@ -10233,22 +10233,22 @@
       </c>
       <c r="H36" s="25"/>
       <c r="I36" s="74" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="J36" s="62"/>
     </row>
     <row r="37">
       <c r="A37" s="17" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="B37" s="17" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="C37" s="58" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="D37" s="25" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="E37" s="25"/>
       <c r="F37" s="61"/>
@@ -10257,22 +10257,22 @@
       </c>
       <c r="H37" s="25"/>
       <c r="I37" s="62" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="J37" s="62"/>
     </row>
     <row r="38">
       <c r="A38" s="17" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="B38" s="17" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="C38" s="58" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="D38" s="25" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="E38" s="25"/>
       <c r="F38" s="61"/>
@@ -10281,22 +10281,22 @@
       </c>
       <c r="H38" s="25"/>
       <c r="I38" s="62" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="J38" s="62"/>
     </row>
     <row r="39">
       <c r="A39" s="17" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="B39" s="17" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="C39" s="75" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="D39" s="25" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="E39" s="25"/>
       <c r="F39" s="61"/>
@@ -10305,22 +10305,22 @@
       </c>
       <c r="H39" s="25"/>
       <c r="I39" s="62" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="J39" s="62"/>
     </row>
     <row r="40">
       <c r="A40" s="17" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="B40" s="17" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="C40" s="75" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="D40" s="25" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="E40" s="25"/>
       <c r="F40" s="61"/>
@@ -10329,22 +10329,22 @@
       </c>
       <c r="H40" s="25"/>
       <c r="I40" s="62" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="J40" s="62"/>
     </row>
     <row r="41">
       <c r="A41" s="17" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="B41" s="17" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="C41" s="75" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="D41" s="25" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="E41" s="25"/>
       <c r="F41" s="61"/>
@@ -10353,22 +10353,22 @@
       </c>
       <c r="H41" s="25"/>
       <c r="I41" s="62" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="J41" s="62"/>
     </row>
     <row r="42">
       <c r="A42" s="17" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="B42" s="17" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="C42" s="75" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="D42" s="25" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="E42" s="25"/>
       <c r="F42" s="61"/>
@@ -10377,22 +10377,22 @@
       </c>
       <c r="H42" s="25"/>
       <c r="I42" s="62" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="J42" s="62"/>
     </row>
     <row r="43">
       <c r="A43" s="17" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="B43" s="17" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="C43" s="75" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="D43" s="25" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="E43" s="25"/>
       <c r="F43" s="61"/>
@@ -10401,22 +10401,22 @@
       </c>
       <c r="H43" s="25"/>
       <c r="I43" s="62" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="J43" s="62"/>
     </row>
     <row r="44">
       <c r="A44" s="17" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="B44" s="17" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="C44" s="58" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="D44" s="24" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="E44" s="24"/>
       <c r="F44" s="61"/>
@@ -10425,22 +10425,22 @@
       </c>
       <c r="H44" s="25"/>
       <c r="I44" s="62" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="J44" s="62"/>
     </row>
     <row r="45">
       <c r="A45" s="17" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="B45" s="17" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="C45" s="58" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="D45" s="24" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="E45" s="24"/>
       <c r="F45" s="61"/>
@@ -10449,22 +10449,22 @@
       </c>
       <c r="H45" s="25"/>
       <c r="I45" s="62" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="J45" s="62"/>
     </row>
     <row r="46">
       <c r="A46" s="17" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="B46" s="17" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="C46" s="58" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="D46" s="24" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="E46" s="24"/>
       <c r="F46" s="61"/>
@@ -10473,22 +10473,22 @@
       </c>
       <c r="H46" s="25"/>
       <c r="I46" s="62" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="J46" s="62"/>
     </row>
     <row r="47">
       <c r="A47" s="17" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="B47" s="17" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="C47" s="58" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="D47" s="24" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="E47" s="24"/>
       <c r="F47" s="61"/>
@@ -10497,22 +10497,22 @@
       </c>
       <c r="H47" s="25"/>
       <c r="I47" s="62" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="J47" s="62"/>
     </row>
     <row r="48">
       <c r="A48" s="17" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="B48" s="17" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="C48" s="58" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="D48" s="24" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="E48" s="24"/>
       <c r="F48" s="61"/>
@@ -10521,22 +10521,22 @@
       </c>
       <c r="H48" s="25"/>
       <c r="I48" s="62" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="J48" s="62"/>
     </row>
     <row r="49">
       <c r="A49" s="17" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="B49" s="17" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="C49" s="58" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="D49" s="24" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="E49" s="24"/>
       <c r="F49" s="61"/>
@@ -10545,22 +10545,22 @@
       </c>
       <c r="H49" s="25"/>
       <c r="I49" s="62" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="J49" s="62"/>
     </row>
     <row r="50">
       <c r="A50" s="17" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="B50" s="17" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="C50" s="58" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="D50" s="24" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="E50" s="24"/>
       <c r="F50" s="61"/>
@@ -10569,22 +10569,22 @@
       </c>
       <c r="H50" s="25"/>
       <c r="I50" s="62" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="J50" s="62"/>
     </row>
     <row r="51">
       <c r="A51" s="17" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="B51" s="17" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="C51" s="58" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="D51" s="24" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="E51" s="24"/>
       <c r="F51" s="61"/>
@@ -10593,22 +10593,22 @@
       </c>
       <c r="H51" s="25"/>
       <c r="I51" s="62" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="J51" s="62"/>
     </row>
     <row r="52">
       <c r="A52" s="17" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="B52" s="17" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="C52" s="58" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="D52" s="24" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="E52" s="24"/>
       <c r="F52" s="61"/>
@@ -10617,22 +10617,22 @@
       </c>
       <c r="H52" s="25"/>
       <c r="I52" s="62" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="J52" s="62"/>
     </row>
     <row r="53">
       <c r="A53" s="17" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="B53" s="17" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="C53" s="58" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="D53" s="24" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="E53" s="24"/>
       <c r="F53" s="61"/>
@@ -10641,22 +10641,22 @@
       </c>
       <c r="H53" s="25"/>
       <c r="I53" s="62" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="J53" s="62"/>
     </row>
     <row r="54">
       <c r="A54" s="17" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="B54" s="17" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="C54" s="58" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="D54" s="24" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="E54" s="24"/>
       <c r="F54" s="61"/>
@@ -10665,22 +10665,22 @@
       </c>
       <c r="H54" s="25"/>
       <c r="I54" s="62" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="J54" s="62"/>
     </row>
     <row r="55">
       <c r="A55" s="17" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="B55" s="17" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="C55" s="58" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="D55" s="24" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="E55" s="24"/>
       <c r="F55" s="61"/>
@@ -10689,22 +10689,22 @@
       </c>
       <c r="H55" s="25"/>
       <c r="I55" s="62" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="J55" s="62"/>
     </row>
     <row r="56">
       <c r="A56" s="17" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="B56" s="17" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="C56" s="58" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="D56" s="24" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="E56" s="24"/>
       <c r="F56" s="61"/>
@@ -10713,22 +10713,22 @@
       </c>
       <c r="H56" s="25"/>
       <c r="I56" s="62" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="J56" s="62"/>
     </row>
     <row r="57">
       <c r="A57" s="17" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="B57" s="17" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="C57" s="58" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="D57" s="24" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="E57" s="24"/>
       <c r="F57" s="61"/>
@@ -10737,22 +10737,22 @@
       </c>
       <c r="H57" s="25"/>
       <c r="I57" s="62" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="J57" s="62"/>
     </row>
     <row r="58">
       <c r="A58" s="17" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="B58" s="17" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="C58" s="58" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="D58" s="24" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="E58" s="24"/>
       <c r="F58" s="61"/>
@@ -10761,22 +10761,22 @@
       </c>
       <c r="H58" s="25"/>
       <c r="I58" s="62" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="J58" s="62"/>
     </row>
     <row r="59">
       <c r="A59" s="17" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="B59" s="17" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="C59" s="58" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="D59" s="24" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="E59" s="24"/>
       <c r="F59" s="61"/>
@@ -10785,22 +10785,22 @@
       </c>
       <c r="H59" s="25"/>
       <c r="I59" s="17" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="J59" s="62"/>
     </row>
     <row r="60">
       <c r="A60" s="17" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="B60" s="17" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="C60" s="58" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="D60" s="24" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="E60" s="24"/>
       <c r="F60" s="61"/>
@@ -10809,7 +10809,7 @@
       </c>
       <c r="H60" s="25"/>
       <c r="I60" s="62" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="J60" s="62"/>
     </row>
@@ -10827,6 +10827,10 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="3" max="3" width="40.29"/>
+    <col customWidth="1" min="4" max="4" width="5.0"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="78" t="s">
@@ -10836,2152 +10840,2152 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="16" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="B2" s="16"/>
       <c r="C2" s="79" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="16" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="B3" s="16"/>
       <c r="C3" s="79" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="16" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="B4" s="16"/>
       <c r="C4" s="79" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="16" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="B5" s="16"/>
       <c r="C5" s="79" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="16" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="B6" s="16"/>
       <c r="C6" s="79" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="16" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="B7" s="16"/>
       <c r="C7" s="79" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="16" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="B8" s="16"/>
       <c r="C8" s="79" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="16" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="B9" s="16"/>
       <c r="C9" s="79" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="16" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="B10" s="16"/>
       <c r="C10" s="79" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="16" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="B11" s="16"/>
       <c r="C11" s="79" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="16" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="B12" s="16"/>
       <c r="C12" s="79" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="16" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="B13" s="16"/>
       <c r="C13" s="79" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="16" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="B14" s="16"/>
       <c r="C14" s="79" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="16" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="B15" s="16"/>
       <c r="C15" s="79" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="16" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="B16" s="16"/>
       <c r="C16" s="79" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="16" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="B17" s="16"/>
       <c r="C17" s="79" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="16" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="B18" s="16"/>
       <c r="C18" s="79" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="16" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="B19" s="16"/>
       <c r="C19" s="79" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="16" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="B20" s="16"/>
       <c r="C20" s="79" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="16" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="B21" s="16"/>
       <c r="C21" s="79" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="16" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="B22" s="16"/>
       <c r="C22" s="79" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="16" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="B23" s="16"/>
       <c r="C23" s="79" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="16" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="B24" s="16"/>
       <c r="C24" s="79" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="16" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="B25" s="16"/>
       <c r="C25" s="79" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="16" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="B26" s="16"/>
       <c r="C26" s="79" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="16" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="B27" s="16"/>
       <c r="C27" s="79" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="16" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="B28" s="16"/>
       <c r="C28" s="79" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="16" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="B29" s="16"/>
       <c r="C29" s="79" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="16" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="B30" s="16"/>
       <c r="C30" s="79" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="16" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="B31" s="16"/>
       <c r="C31" s="79" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="16" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="B32" s="16"/>
       <c r="C32" s="79" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="16" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="B33" s="16"/>
       <c r="C33" s="79" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="16" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="B34" s="16"/>
       <c r="C34" s="79" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="16" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="B35" s="16"/>
       <c r="C35" s="79" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="16" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="B36" s="16"/>
       <c r="C36" s="79" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="16" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="B37" s="16"/>
       <c r="C37" s="79" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="16" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="B38" s="16"/>
       <c r="C38" s="79" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="16" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="B39" s="16"/>
       <c r="C39" s="79" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="16" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="B40" s="16"/>
       <c r="C40" s="79" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="16" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="B41" s="16"/>
       <c r="C41" s="79" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="16" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="B42" s="16"/>
       <c r="C42" s="79" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="16" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="B43" s="16"/>
       <c r="C43" s="79" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="16" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="B44" s="16"/>
       <c r="C44" s="79" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="16" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="B45" s="16"/>
       <c r="C45" s="79" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="16" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="B46" s="16"/>
       <c r="C46" s="79" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="16" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="B47" s="16"/>
       <c r="C47" s="79" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="16" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="B48" s="16"/>
       <c r="C48" s="79" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="16" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="B49" s="16"/>
       <c r="C49" s="79" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="16" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="B50" s="16"/>
       <c r="C50" s="79" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="16" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="B51" s="16"/>
       <c r="C51" s="79" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="16" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="B52" s="16"/>
       <c r="C52" s="79" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="16" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="B53" s="16"/>
       <c r="C53" s="79" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="16" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="B54" s="16"/>
       <c r="C54" s="79" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="16" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="B55" s="16"/>
       <c r="C55" s="79" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="16" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="B56" s="16"/>
       <c r="C56" s="79" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="16" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="B57" s="16"/>
       <c r="C57" s="79" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="16" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="B58" s="16"/>
       <c r="C58" s="79" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="16" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="B59" s="16"/>
       <c r="C59" s="79" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="16" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="B60" s="16"/>
       <c r="C60" s="79" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="16" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="B61" s="16"/>
       <c r="C61" s="79" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="16" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="B62" s="16"/>
       <c r="C62" s="79" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="16" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="B63" s="16"/>
       <c r="C63" s="79" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="16" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="B64" s="16"/>
       <c r="C64" s="79" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="16" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="B65" s="16"/>
       <c r="C65" s="79" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="16" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="B66" s="16"/>
       <c r="C66" s="79" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="16" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="B67" s="16"/>
       <c r="C67" s="79" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="16" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="B68" s="16"/>
       <c r="C68" s="79" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="16" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="B69" s="16"/>
       <c r="C69" s="79" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="16" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="B70" s="16"/>
       <c r="C70" s="79" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="16" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="B71" s="16"/>
       <c r="C71" s="79" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="16" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="B72" s="16"/>
       <c r="C72" s="79" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="16" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="B73" s="16"/>
       <c r="C73" s="79" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="16" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="B74" s="16"/>
       <c r="C74" s="79" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="16" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="B75" s="16"/>
       <c r="C75" s="79" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="16" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="B76" s="16"/>
       <c r="C76" s="79" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="16" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="B77" s="16"/>
       <c r="C77" s="79" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="16" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="B78" s="16"/>
       <c r="C78" s="79" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="16" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="B79" s="16"/>
       <c r="C79" s="79" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="16" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="B80" s="16"/>
       <c r="C80" s="79" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="16" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="B81" s="16"/>
       <c r="C81" s="79" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="16" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="B82" s="16"/>
       <c r="C82" s="79" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="16" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="B83" s="16"/>
       <c r="C83" s="79" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="16" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="B84" s="16"/>
       <c r="C84" s="79" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="16" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="B85" s="16"/>
       <c r="C85" s="79" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="16" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="B86" s="16"/>
       <c r="C86" s="79" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="16" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
       <c r="B87" s="16"/>
       <c r="C87" s="79" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="16" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="B88" s="16"/>
       <c r="C88" s="79" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="16" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="B89" s="16"/>
       <c r="C89" s="79" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="16" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="B90" s="16"/>
       <c r="C90" s="79" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="16" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="B91" s="16"/>
       <c r="C91" s="79" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="16" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="B92" s="16"/>
       <c r="C92" s="79" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="16" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="B93" s="16"/>
       <c r="C93" s="79" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="16" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="B94" s="16"/>
       <c r="C94" s="79" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="16" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="B95" s="16"/>
       <c r="C95" s="79" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="16" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="B96" s="16"/>
       <c r="C96" s="79" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="16" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
       <c r="B97" s="16"/>
       <c r="C97" s="79" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="16" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
       <c r="B98" s="16"/>
       <c r="C98" s="79" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="16" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
       <c r="B99" s="16"/>
       <c r="C99" s="79" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="16" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="B100" s="16"/>
       <c r="C100" s="79" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="16" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
       <c r="B101" s="16"/>
       <c r="C101" s="79" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="16" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
       <c r="B102" s="16"/>
       <c r="C102" s="79" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="16" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
       <c r="B103" s="16"/>
       <c r="C103" s="79" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="16" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
       <c r="B104" s="16"/>
       <c r="C104" s="79" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="16" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
       <c r="B105" s="16"/>
       <c r="C105" s="79" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="16" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="B106" s="16"/>
       <c r="C106" s="79" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="16" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="B107" s="16"/>
       <c r="C107" s="79" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="16" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="B108" s="16"/>
       <c r="C108" s="79" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="16" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="B109" s="16"/>
       <c r="C109" s="79" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="16" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
       <c r="B110" s="16"/>
       <c r="C110" s="79" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="16" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
       <c r="B111" s="16"/>
       <c r="C111" s="79" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="16" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
       <c r="B112" s="16"/>
       <c r="C112" s="79" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="16" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
       <c r="B113" s="16"/>
       <c r="C113" s="79" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="16" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="B114" s="16"/>
       <c r="C114" s="79" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="16" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
       <c r="B115" s="16"/>
       <c r="C115" s="79" t="s">
-        <v>941</v>
+        <v>939</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="16" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
       <c r="B116" s="16"/>
       <c r="C116" s="79" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="16" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
       <c r="B117" s="16"/>
       <c r="C117" s="79" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="16" t="s">
-        <v>946</v>
+        <v>944</v>
       </c>
       <c r="B118" s="16"/>
       <c r="C118" s="79" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="16" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
       <c r="B119" s="16"/>
       <c r="C119" s="79" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="16" t="s">
-        <v>950</v>
+        <v>948</v>
       </c>
       <c r="B120" s="16"/>
       <c r="C120" s="79" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="16" t="s">
-        <v>952</v>
+        <v>950</v>
       </c>
       <c r="B121" s="16"/>
       <c r="C121" s="79" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="16" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
       <c r="B122" s="16"/>
       <c r="C122" s="79" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="16" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
       <c r="B123" s="16"/>
       <c r="C123" s="79" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="16" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
       <c r="B124" s="16"/>
       <c r="C124" s="79" t="s">
-        <v>959</v>
+        <v>957</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="16" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
       <c r="B125" s="16"/>
       <c r="C125" s="79" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="16" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="B126" s="16"/>
       <c r="C126" s="79" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="16" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
       <c r="B127" s="16"/>
       <c r="C127" s="79" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="16" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
       <c r="B128" s="16"/>
       <c r="C128" s="79" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="16" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
       <c r="B129" s="16"/>
       <c r="C129" s="79" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="16" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
       <c r="B130" s="16"/>
       <c r="C130" s="79" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="16" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
       <c r="B131" s="16"/>
       <c r="C131" s="79" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="16" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
       <c r="B132" s="16"/>
       <c r="C132" s="79" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="16" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
       <c r="B133" s="16"/>
       <c r="C133" s="79" t="s">
-        <v>977</v>
+        <v>975</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="16" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
       <c r="B134" s="16"/>
       <c r="C134" s="79" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="16" t="s">
-        <v>980</v>
+        <v>978</v>
       </c>
       <c r="B135" s="16"/>
       <c r="C135" s="79" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="16" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
       <c r="B136" s="16"/>
       <c r="C136" s="79" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="16" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
       <c r="B137" s="16"/>
       <c r="C137" s="79" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="16" t="s">
-        <v>986</v>
+        <v>984</v>
       </c>
       <c r="B138" s="16"/>
       <c r="C138" s="79" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="16" t="s">
-        <v>988</v>
+        <v>986</v>
       </c>
       <c r="B139" s="16"/>
       <c r="C139" s="79" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="16" t="s">
-        <v>990</v>
+        <v>988</v>
       </c>
       <c r="B140" s="16"/>
       <c r="C140" s="79" t="s">
-        <v>991</v>
+        <v>989</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="16" t="s">
-        <v>992</v>
+        <v>990</v>
       </c>
       <c r="B141" s="16"/>
       <c r="C141" s="79" t="s">
-        <v>993</v>
+        <v>991</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="16" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
       <c r="B142" s="16"/>
       <c r="C142" s="79" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="16" t="s">
-        <v>996</v>
+        <v>994</v>
       </c>
       <c r="B143" s="16"/>
       <c r="C143" s="79" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="16" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
       <c r="B144" s="16"/>
       <c r="C144" s="79" t="s">
-        <v>999</v>
+        <v>997</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="16" t="s">
-        <v>1000</v>
+        <v>998</v>
       </c>
       <c r="B145" s="16"/>
       <c r="C145" s="79" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="16" t="s">
-        <v>1002</v>
+        <v>1000</v>
       </c>
       <c r="B146" s="16"/>
       <c r="C146" s="79" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="16" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="B147" s="16"/>
       <c r="C147" s="79" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="16" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="B148" s="16"/>
       <c r="C148" s="79" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="16" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
       <c r="B149" s="16"/>
       <c r="C149" s="79" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="16" t="s">
-        <v>1010</v>
+        <v>1008</v>
       </c>
       <c r="B150" s="16"/>
       <c r="C150" s="79" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="16" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
       <c r="B151" s="16"/>
       <c r="C151" s="79" t="s">
-        <v>1013</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="16" t="s">
-        <v>1014</v>
+        <v>1012</v>
       </c>
       <c r="B152" s="16"/>
       <c r="C152" s="79" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="16" t="s">
-        <v>1016</v>
+        <v>1014</v>
       </c>
       <c r="B153" s="16"/>
       <c r="C153" s="79" t="s">
-        <v>1017</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="16" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="B154" s="16"/>
       <c r="C154" s="79" t="s">
-        <v>1019</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="16" t="s">
-        <v>1020</v>
+        <v>1018</v>
       </c>
       <c r="B155" s="16"/>
       <c r="C155" s="79" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="16" t="s">
-        <v>1022</v>
+        <v>1020</v>
       </c>
       <c r="B156" s="16"/>
       <c r="C156" s="79" t="s">
-        <v>1023</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="16" t="s">
-        <v>1024</v>
+        <v>1022</v>
       </c>
       <c r="B157" s="16"/>
       <c r="C157" s="79" t="s">
-        <v>1025</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="16" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
       <c r="B158" s="16"/>
       <c r="C158" s="79" t="s">
-        <v>1027</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="16" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="B159" s="16"/>
       <c r="C159" s="79" t="s">
-        <v>1029</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="16" t="s">
-        <v>1030</v>
+        <v>1028</v>
       </c>
       <c r="B160" s="16"/>
       <c r="C160" s="79" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="16" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
       <c r="B161" s="16"/>
       <c r="C161" s="79" t="s">
-        <v>1033</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="16" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
       <c r="B162" s="16"/>
       <c r="C162" s="79" t="s">
-        <v>1035</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="16" t="s">
-        <v>1036</v>
+        <v>1034</v>
       </c>
       <c r="B163" s="16"/>
       <c r="C163" s="79" t="s">
-        <v>1037</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="16" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
       <c r="B164" s="16"/>
       <c r="C164" s="79" t="s">
-        <v>1039</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="16" t="s">
-        <v>1040</v>
+        <v>1038</v>
       </c>
       <c r="B165" s="16"/>
       <c r="C165" s="79" t="s">
-        <v>1041</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="16" t="s">
-        <v>1042</v>
+        <v>1040</v>
       </c>
       <c r="B166" s="16"/>
       <c r="C166" s="79" t="s">
-        <v>1043</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="16" t="s">
-        <v>1044</v>
+        <v>1042</v>
       </c>
       <c r="B167" s="16"/>
       <c r="C167" s="79" t="s">
-        <v>1045</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="16" t="s">
-        <v>1046</v>
+        <v>1044</v>
       </c>
       <c r="B168" s="16"/>
       <c r="C168" s="79" t="s">
-        <v>1047</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="16" t="s">
-        <v>1048</v>
+        <v>1046</v>
       </c>
       <c r="B169" s="16"/>
       <c r="C169" s="79" t="s">
-        <v>1049</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="16" t="s">
-        <v>1050</v>
+        <v>1048</v>
       </c>
       <c r="B170" s="16"/>
       <c r="C170" s="79" t="s">
-        <v>1051</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="16" t="s">
-        <v>1052</v>
+        <v>1050</v>
       </c>
       <c r="B171" s="16"/>
       <c r="C171" s="79" t="s">
-        <v>1053</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="16" t="s">
-        <v>1054</v>
+        <v>1052</v>
       </c>
       <c r="B172" s="16"/>
       <c r="C172" s="79" t="s">
-        <v>1055</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="16" t="s">
-        <v>1056</v>
+        <v>1054</v>
       </c>
       <c r="B173" s="16"/>
       <c r="C173" s="79" t="s">
-        <v>1057</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="16" t="s">
-        <v>1058</v>
+        <v>1056</v>
       </c>
       <c r="B174" s="16"/>
       <c r="C174" s="79" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="16" t="s">
-        <v>1060</v>
+        <v>1058</v>
       </c>
       <c r="B175" s="16"/>
       <c r="C175" s="79" t="s">
-        <v>1061</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="16" t="s">
-        <v>1062</v>
+        <v>1060</v>
       </c>
       <c r="B176" s="16"/>
       <c r="C176" s="79" t="s">
-        <v>1063</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="16" t="s">
-        <v>1064</v>
+        <v>1062</v>
       </c>
       <c r="B177" s="16"/>
       <c r="C177" s="79" t="s">
-        <v>1065</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="16" t="s">
-        <v>1066</v>
+        <v>1064</v>
       </c>
       <c r="B178" s="16"/>
       <c r="C178" s="79" t="s">
-        <v>1067</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="16" t="s">
-        <v>1068</v>
+        <v>1066</v>
       </c>
       <c r="B179" s="16"/>
       <c r="C179" s="79" t="s">
-        <v>1069</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="16" t="s">
-        <v>1070</v>
+        <v>1068</v>
       </c>
       <c r="B180" s="16"/>
       <c r="C180" s="79" t="s">
-        <v>1071</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="16" t="s">
-        <v>1072</v>
+        <v>1070</v>
       </c>
       <c r="B181" s="16"/>
       <c r="C181" s="79" t="s">
-        <v>1073</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="16" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="B182" s="16"/>
       <c r="C182" s="79" t="s">
-        <v>1075</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="16" t="s">
-        <v>1076</v>
+        <v>1074</v>
       </c>
       <c r="B183" s="16"/>
       <c r="C183" s="79" t="s">
-        <v>1077</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="16" t="s">
-        <v>1078</v>
+        <v>1076</v>
       </c>
       <c r="B184" s="16"/>
       <c r="C184" s="79" t="s">
-        <v>1079</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="16" t="s">
-        <v>1080</v>
+        <v>1078</v>
       </c>
       <c r="B185" s="16"/>
       <c r="C185" s="79" t="s">
-        <v>1081</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="16" t="s">
-        <v>1082</v>
+        <v>1080</v>
       </c>
       <c r="B186" s="16"/>
       <c r="C186" s="79" t="s">
-        <v>1083</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="16" t="s">
-        <v>1084</v>
+        <v>1082</v>
       </c>
       <c r="B187" s="16"/>
       <c r="C187" s="79" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="16" t="s">
-        <v>1086</v>
+        <v>1084</v>
       </c>
       <c r="B188" s="16"/>
       <c r="C188" s="79" t="s">
-        <v>1087</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="16" t="s">
-        <v>1088</v>
+        <v>1086</v>
       </c>
       <c r="B189" s="16"/>
       <c r="C189" s="79" t="s">
-        <v>1089</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="16" t="s">
-        <v>1090</v>
+        <v>1088</v>
       </c>
       <c r="B190" s="16"/>
       <c r="C190" s="79" t="s">
-        <v>1091</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="16" t="s">
-        <v>1092</v>
+        <v>1090</v>
       </c>
       <c r="B191" s="16"/>
       <c r="C191" s="79" t="s">
-        <v>1093</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="16" t="s">
-        <v>1094</v>
+        <v>1092</v>
       </c>
       <c r="B192" s="16"/>
       <c r="C192" s="79" t="s">
-        <v>1095</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="16" t="s">
-        <v>1096</v>
+        <v>1094</v>
       </c>
       <c r="B193" s="16"/>
       <c r="C193" s="79" t="s">
-        <v>1097</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="16" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
       <c r="B194" s="16"/>
       <c r="C194" s="79" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="16" t="s">
-        <v>1100</v>
+        <v>1098</v>
       </c>
       <c r="B195" s="16"/>
       <c r="C195" s="79" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="16" t="s">
-        <v>1102</v>
+        <v>1100</v>
       </c>
       <c r="B196" s="16"/>
       <c r="C196" s="79" t="s">
-        <v>1103</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="16" t="s">
-        <v>1104</v>
+        <v>1102</v>
       </c>
       <c r="B197" s="16"/>
       <c r="C197" s="79" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="16" t="s">
-        <v>1106</v>
+        <v>1104</v>
       </c>
       <c r="B198" s="16"/>
       <c r="C198" s="79" t="s">
-        <v>1107</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="16" t="s">
-        <v>1108</v>
+        <v>1106</v>
       </c>
       <c r="B199" s="16"/>
       <c r="C199" s="79" t="s">
-        <v>1109</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="16" t="s">
-        <v>1110</v>
+        <v>1108</v>
       </c>
       <c r="B200" s="16"/>
       <c r="C200" s="79" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="16" t="s">
-        <v>1112</v>
+        <v>1110</v>
       </c>
       <c r="B201" s="16"/>
       <c r="C201" s="79" t="s">
-        <v>1113</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="16" t="s">
-        <v>1114</v>
+        <v>1112</v>
       </c>
       <c r="B202" s="16"/>
       <c r="C202" s="79" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="16" t="s">
-        <v>1116</v>
+        <v>1114</v>
       </c>
       <c r="B203" s="16"/>
       <c r="C203" s="79" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="16" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
       <c r="B204" s="16"/>
       <c r="C204" s="79" t="s">
-        <v>1119</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="16" t="s">
-        <v>1120</v>
+        <v>1118</v>
       </c>
       <c r="B205" s="16"/>
       <c r="C205" s="79" t="s">
-        <v>1121</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="16" t="s">
-        <v>1122</v>
+        <v>1120</v>
       </c>
       <c r="B206" s="16"/>
       <c r="C206" s="79" t="s">
-        <v>1123</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="16" t="s">
-        <v>1124</v>
+        <v>1122</v>
       </c>
       <c r="B207" s="16"/>
       <c r="C207" s="79" t="s">
-        <v>1125</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="16" t="s">
-        <v>1126</v>
+        <v>1124</v>
       </c>
       <c r="B208" s="16"/>
       <c r="C208" s="79" t="s">
-        <v>1127</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="16" t="s">
-        <v>1128</v>
+        <v>1126</v>
       </c>
       <c r="B209" s="16"/>
       <c r="C209" s="79" t="s">
-        <v>1129</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="16" t="s">
-        <v>1130</v>
+        <v>1128</v>
       </c>
       <c r="B210" s="16"/>
       <c r="C210" s="79" t="s">
-        <v>1131</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="16" t="s">
-        <v>1132</v>
+        <v>1130</v>
       </c>
       <c r="B211" s="16"/>
       <c r="C211" s="79" t="s">
-        <v>1133</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="16" t="s">
-        <v>1134</v>
+        <v>1132</v>
       </c>
       <c r="B212" s="16"/>
       <c r="C212" s="79" t="s">
-        <v>1135</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="16" t="s">
-        <v>1136</v>
+        <v>1134</v>
       </c>
       <c r="B213" s="16"/>
       <c r="C213" s="79" t="s">
-        <v>1137</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="16" t="s">
-        <v>1138</v>
+        <v>1136</v>
       </c>
       <c r="B214" s="16"/>
       <c r="C214" s="79" t="s">
-        <v>1139</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="16" t="s">
-        <v>1140</v>
+        <v>1138</v>
       </c>
       <c r="B215" s="16"/>
       <c r="C215" s="79" t="s">
-        <v>1141</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="16" t="s">
-        <v>1142</v>
+        <v>1140</v>
       </c>
       <c r="B216" s="16"/>
       <c r="C216" s="79" t="s">
-        <v>1143</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="16" t="s">
-        <v>1144</v>
+        <v>1142</v>
       </c>
       <c r="B217" s="16"/>
       <c r="C217" s="79" t="s">
-        <v>1145</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="16" t="s">
-        <v>1146</v>
+        <v>1144</v>
       </c>
       <c r="B218" s="16"/>
       <c r="C218" s="79" t="s">
-        <v>1147</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="16" t="s">
-        <v>1148</v>
+        <v>1146</v>
       </c>
       <c r="B219" s="16"/>
       <c r="C219" s="79" t="s">
-        <v>1149</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="16" t="s">
-        <v>1150</v>
+        <v>1148</v>
       </c>
       <c r="B220" s="16"/>
       <c r="C220" s="79" t="s">
-        <v>1151</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="16" t="s">
-        <v>1152</v>
+        <v>1150</v>
       </c>
       <c r="B221" s="16"/>
       <c r="C221" s="79" t="s">
-        <v>1153</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="16" t="s">
-        <v>1154</v>
+        <v>1152</v>
       </c>
       <c r="B222" s="16"/>
       <c r="C222" s="79" t="s">
-        <v>1155</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="16" t="s">
-        <v>1156</v>
+        <v>1154</v>
       </c>
       <c r="B223" s="16"/>
       <c r="C223" s="79" t="s">
-        <v>1157</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="16" t="s">
-        <v>1158</v>
+        <v>1156</v>
       </c>
       <c r="B224" s="16"/>
       <c r="C224" s="79" t="s">
-        <v>1159</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="16" t="s">
-        <v>1160</v>
+        <v>1158</v>
       </c>
       <c r="B225" s="16"/>
       <c r="C225" s="79" t="s">
-        <v>1161</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="16" t="s">
-        <v>1162</v>
+        <v>1160</v>
       </c>
       <c r="B226" s="16"/>
       <c r="C226" s="79" t="s">
-        <v>1163</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="16" t="s">
-        <v>1164</v>
+        <v>1162</v>
       </c>
       <c r="B227" s="16"/>
       <c r="C227" s="79" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" s="16" t="s">
-        <v>1166</v>
+        <v>1164</v>
       </c>
       <c r="B228" s="16"/>
       <c r="C228" s="79" t="s">
-        <v>1167</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" s="16" t="s">
-        <v>1168</v>
+        <v>1166</v>
       </c>
       <c r="B229" s="16"/>
       <c r="C229" s="79" t="s">
-        <v>1169</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" s="16" t="s">
-        <v>1170</v>
+        <v>1168</v>
       </c>
       <c r="B230" s="16"/>
       <c r="C230" s="79" t="s">
-        <v>1171</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" s="16" t="s">
-        <v>1172</v>
+        <v>1170</v>
       </c>
       <c r="B231" s="16"/>
       <c r="C231" s="79" t="s">
-        <v>1173</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" s="16" t="s">
-        <v>1174</v>
+        <v>1172</v>
       </c>
       <c r="B232" s="16"/>
       <c r="C232" s="79" t="s">
-        <v>1175</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" s="16" t="s">
-        <v>1176</v>
+        <v>1174</v>
       </c>
       <c r="B233" s="16"/>
       <c r="C233" s="79" t="s">
-        <v>1177</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" s="16" t="s">
-        <v>1178</v>
+        <v>1176</v>
       </c>
       <c r="B234" s="16"/>
       <c r="C234" s="79" t="s">
-        <v>1179</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" s="16" t="s">
-        <v>1180</v>
+        <v>1178</v>
       </c>
       <c r="B235" s="16"/>
       <c r="C235" s="79" t="s">
-        <v>1181</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" s="16" t="s">
-        <v>1182</v>
+        <v>1180</v>
       </c>
       <c r="B236" s="16"/>
       <c r="C236" s="79" t="s">
-        <v>1183</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" s="16" t="s">
-        <v>1184</v>
+        <v>1182</v>
       </c>
       <c r="B237" s="16"/>
       <c r="C237" s="79" t="s">
-        <v>1185</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" s="16" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="B238" s="16"/>
       <c r="C238" s="79" t="s">
-        <v>1187</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" s="16" t="s">
-        <v>1188</v>
+        <v>1186</v>
       </c>
       <c r="B239" s="16"/>
       <c r="C239" s="79" t="s">
-        <v>1189</v>
+        <v>1187</v>
       </c>
     </row>
   </sheetData>

--- a/models/bolser-lewis/source/bolser-lewis.xlsx
+++ b/models/bolser-lewis/source/bolser-lewis.xlsx
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1616" uniqueCount="1258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1646" uniqueCount="1263">
   <si>
     <t>id</t>
   </si>
@@ -348,7 +348,7 @@
     <t>T1 sympathetic ganglion</t>
   </si>
   <si>
-    <t>FMA:6474</t>
+    <t>ILX:0785119</t>
   </si>
   <si>
     <t>Inferior cervical ganglion</t>
@@ -546,13 +546,13 @@
     <t>T1 ventral root</t>
   </si>
   <si>
-    <t>FMA:7643</t>
+    <t>ILX:0787722</t>
   </si>
   <si>
     <t>T1 white ramus</t>
   </si>
   <si>
-    <t>FMA:14056</t>
+    <t>ILX:0785971</t>
   </si>
   <si>
     <t>T1-ICG sympathetic cord</t>
@@ -579,7 +579,7 @@
     <t>Nerve sheath</t>
   </si>
   <si>
-    <t>ontologyTerms carotid nerve</t>
+    <t>External carotid nerve</t>
   </si>
   <si>
     <t>FMA:6579</t>
@@ -645,7 +645,7 @@
     <t>UBERON:0011326,ILX:0731053</t>
   </si>
   <si>
-    <t>ontologyTerms branch of superior laryngeal nerve</t>
+    <t>External branch of superior laryngeal nerve</t>
   </si>
   <si>
     <t>FMA:6243</t>
@@ -663,7 +663,7 @@
     <t>UBERON:0003716</t>
   </si>
   <si>
-    <t>ontologyTerms branch of inferior laryngeal nerve</t>
+    <t>External branch of inferior laryngeal nerve</t>
   </si>
   <si>
     <t>ILX:0738308</t>
@@ -3732,6 +3732,9 @@
     <t>ilxtr:neuron-type-bolew-unbranched-2</t>
   </si>
   <si>
+    <t>motor neurons</t>
+  </si>
+  <si>
     <t>Neuron population in T1 Rexed Lamina VII (intercostal projecting) (bolew)</t>
   </si>
   <si>
@@ -3756,6 +3759,9 @@
     <t>ilxtr:neuron-type-bolew-unbranched-6</t>
   </si>
   <si>
+    <t>Vagal sensory afferent neurons</t>
+  </si>
+  <si>
     <t>Neuron population in rostral ventrolateral medulla (bolew)</t>
   </si>
   <si>
@@ -3768,6 +3774,9 @@
     <t>ilxtr:neuron-type-bolew-unbranched-8</t>
   </si>
   <si>
+    <t>pseudounipolar neurons</t>
+  </si>
+  <si>
     <t>Neuron population in nodose ganglion lar proj (2) (bolew)</t>
   </si>
   <si>
@@ -3786,6 +3795,9 @@
     <t>ilxtr:neuron-type-bolew-unbranched-11</t>
   </si>
   <si>
+    <t>pseudomonopolar sensory neurons</t>
+  </si>
+  <si>
     <t>Neuron population in petrosal ganglion cs proj (2) (bolew)</t>
   </si>
   <si>
@@ -3793,6 +3805,9 @@
   </si>
   <si>
     <t>ilxtr:neuron-type-bolew-unbranched-13</t>
+  </si>
+  <si>
+    <t>sympathetic post-ganglionic neuron</t>
   </si>
   <si>
     <t>ilxtr:neuron-type-bolew-unbranched-14</t>
@@ -3847,7 +3862,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="27">
+  <fonts count="28">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -3900,6 +3915,11 @@
     <font>
       <color rgb="FF222222"/>
       <name val="Verdana"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <color/>
+      <name val="Arial"/>
     </font>
     <font>
       <b/>
@@ -4028,7 +4048,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="86">
+  <cellXfs count="88">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -4120,8 +4140,8 @@
     <xf borderId="0" fillId="6" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
+    <xf borderId="0" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="6" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
@@ -4132,7 +4152,7 @@
     <xf borderId="0" fillId="6" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -4162,7 +4182,7 @@
     <xf borderId="0" fillId="0" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -4181,14 +4201,11 @@
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="7" fontId="9" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
@@ -4196,10 +4213,16 @@
     <xf borderId="0" fillId="2" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="2" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
     <xf borderId="0" fillId="8" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -4220,22 +4243,22 @@
     <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="21" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="21" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="22" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="22" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="23" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="9" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
@@ -4250,7 +4273,7 @@
     <xf borderId="0" fillId="2" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="7" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -4259,10 +4282,10 @@
     <xf borderId="0" fillId="2" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="23" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="24" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="24" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="25" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -4271,15 +4294,18 @@
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="25" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="26" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="26" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="27" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="25" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="26" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4349,10 +4375,10 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="2" max="2" width="20.14"/>
-    <col customWidth="1" min="4" max="4" width="27.57"/>
+    <col customWidth="1" min="2" max="2" width="17.63"/>
+    <col customWidth="1" min="4" max="4" width="24.13"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -4394,7 +4420,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1">
       <c r="A1" s="8" t="s">
@@ -4438,13 +4464,19 @@
       <c r="B5" s="6" t="s">
         <v>1194</v>
       </c>
+      <c r="C5" s="12" t="s">
+        <v>1190</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="11" t="s">
         <v>1195</v>
       </c>
-      <c r="B6" s="80" t="s">
+      <c r="B6" s="81" t="s">
         <v>1196</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>1190</v>
       </c>
     </row>
     <row r="7">
@@ -4453,6 +4485,9 @@
       </c>
       <c r="B7" s="6" t="s">
         <v>1198</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>1190</v>
       </c>
     </row>
   </sheetData>
@@ -4473,10 +4508,10 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="2" max="2" width="18.14"/>
-    <col customWidth="1" min="4" max="4" width="15.57"/>
+    <col customWidth="1" min="2" max="2" width="15.88"/>
+    <col customWidth="1" min="4" max="4" width="13.63"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -4509,13 +4544,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="2" max="2" width="38.0"/>
-    <col customWidth="1" min="3" max="3" width="20.57"/>
-    <col customWidth="1" min="4" max="4" width="14.0"/>
-    <col customWidth="1" min="5" max="5" width="32.57"/>
-    <col customWidth="1" min="6" max="6" width="24.14"/>
+    <col customWidth="1" min="2" max="2" width="33.25"/>
+    <col customWidth="1" min="3" max="3" width="18.0"/>
+    <col customWidth="1" min="4" max="4" width="12.25"/>
+    <col customWidth="1" min="5" max="5" width="28.5"/>
+    <col customWidth="1" min="6" max="6" width="21.13"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -4541,7 +4576,7 @@
     <row r="2">
       <c r="B2" s="12"/>
       <c r="C2" s="12"/>
-      <c r="D2" s="71"/>
+      <c r="D2" s="72"/>
       <c r="E2" s="12"/>
       <c r="F2" s="12"/>
     </row>
@@ -4564,13 +4599,13 @@
       <selection activeCell="B2" sqref="B2" pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="2" max="2" width="61.86"/>
-    <col customWidth="1" min="3" max="3" width="22.29"/>
-    <col customWidth="1" min="4" max="4" width="65.43"/>
-    <col customWidth="1" min="5" max="5" width="46.86"/>
-    <col customWidth="1" min="6" max="6" width="64.43"/>
+    <col customWidth="1" min="2" max="2" width="54.13"/>
+    <col customWidth="1" min="3" max="3" width="19.5"/>
+    <col customWidth="1" min="4" max="4" width="57.25"/>
+    <col customWidth="1" min="5" max="5" width="41.0"/>
+    <col customWidth="1" min="6" max="6" width="56.38"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -4595,7 +4630,7 @@
       <c r="G1" s="6" t="s">
         <v>1202</v>
       </c>
-      <c r="H1" s="81" t="s">
+      <c r="H1" s="82" t="s">
         <v>1203</v>
       </c>
       <c r="I1" s="6" t="s">
@@ -4606,15 +4641,15 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="82" t="s">
+      <c r="A2" s="83" t="s">
         <v>1206</v>
       </c>
-      <c r="B2" s="82" t="s">
+      <c r="B2" s="83" t="s">
         <v>1207</v>
       </c>
-      <c r="C2" s="83"/>
-      <c r="D2" s="84"/>
-      <c r="E2" s="82" t="s">
+      <c r="C2" s="84"/>
+      <c r="D2" s="85"/>
+      <c r="E2" s="83" t="s">
         <v>1208</v>
       </c>
       <c r="F2" s="20" t="s">
@@ -4622,32 +4657,32 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="82" t="s">
+      <c r="A3" s="83" t="s">
         <v>1210</v>
       </c>
-      <c r="B3" s="82" t="s">
+      <c r="B3" s="83" t="s">
         <v>1211</v>
       </c>
-      <c r="C3" s="83"/>
-      <c r="D3" s="82" t="s">
+      <c r="C3" s="84"/>
+      <c r="D3" s="83" t="s">
         <v>1212</v>
       </c>
-      <c r="E3" s="82"/>
+      <c r="E3" s="83"/>
       <c r="F3" s="20"/>
     </row>
     <row r="4">
-      <c r="A4" s="62" t="s">
+      <c r="A4" s="63" t="s">
         <v>1213</v>
       </c>
-      <c r="B4" s="62" t="s">
+      <c r="B4" s="63" t="s">
         <v>1214</v>
       </c>
-      <c r="C4" s="85"/>
-      <c r="D4" s="62"/>
-      <c r="E4" s="62" t="s">
+      <c r="C4" s="86"/>
+      <c r="D4" s="63"/>
+      <c r="E4" s="63" t="s">
         <v>1215</v>
       </c>
-      <c r="F4" s="62" t="s">
+      <c r="F4" s="63" t="s">
         <v>1216</v>
       </c>
       <c r="G4" s="27"/>
@@ -4665,13 +4700,13 @@
       <c r="C5" s="20" t="s">
         <v>1218</v>
       </c>
-      <c r="D5" s="62"/>
-      <c r="E5" s="62"/>
-      <c r="F5" s="62"/>
+      <c r="D5" s="63"/>
+      <c r="E5" s="63"/>
+      <c r="F5" s="63"/>
       <c r="G5" s="27"/>
       <c r="H5" s="27"/>
       <c r="I5" s="27"/>
-      <c r="J5" s="27"/>
+      <c r="J5" s="77"/>
     </row>
     <row r="6">
       <c r="A6" s="20" t="s">
@@ -4683,99 +4718,109 @@
       <c r="C6" s="20" t="s">
         <v>1220</v>
       </c>
-      <c r="D6" s="62"/>
-      <c r="E6" s="62"/>
-      <c r="F6" s="62"/>
+      <c r="D6" s="63"/>
+      <c r="E6" s="63"/>
+      <c r="F6" s="63"/>
       <c r="G6" s="27"/>
       <c r="H6" s="27"/>
       <c r="I6" s="27"/>
-      <c r="J6" s="27"/>
+      <c r="J6" s="20" t="s">
+        <v>1221</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="20" t="s">
         <v>269</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>1221</v>
+        <v>1222</v>
       </c>
       <c r="C7" s="20" t="s">
-        <v>1222</v>
-      </c>
-      <c r="D7" s="62"/>
-      <c r="E7" s="62"/>
-      <c r="F7" s="62"/>
+        <v>1223</v>
+      </c>
+      <c r="D7" s="63"/>
+      <c r="E7" s="63"/>
+      <c r="F7" s="63"/>
       <c r="G7" s="27"/>
       <c r="H7" s="27"/>
       <c r="I7" s="27"/>
-      <c r="J7" s="27"/>
+      <c r="J7" s="20" t="s">
+        <v>1221</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="20" t="s">
         <v>271</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>1223</v>
+        <v>1224</v>
       </c>
       <c r="C8" s="20" t="s">
-        <v>1224</v>
-      </c>
-      <c r="D8" s="62"/>
-      <c r="E8" s="62"/>
-      <c r="F8" s="62"/>
+        <v>1225</v>
+      </c>
+      <c r="D8" s="63"/>
+      <c r="E8" s="63"/>
+      <c r="F8" s="63"/>
       <c r="G8" s="27"/>
       <c r="H8" s="27"/>
       <c r="I8" s="27"/>
-      <c r="J8" s="27"/>
+      <c r="J8" s="20" t="s">
+        <v>1221</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="20" t="s">
         <v>273</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>1225</v>
+        <v>1226</v>
       </c>
       <c r="C9" s="20" t="s">
-        <v>1226</v>
-      </c>
-      <c r="D9" s="62"/>
-      <c r="E9" s="62"/>
-      <c r="F9" s="62"/>
+        <v>1227</v>
+      </c>
+      <c r="D9" s="63"/>
+      <c r="E9" s="63"/>
+      <c r="F9" s="63"/>
       <c r="G9" s="27"/>
       <c r="H9" s="27"/>
       <c r="I9" s="27"/>
-      <c r="J9" s="27"/>
+      <c r="J9" s="20" t="s">
+        <v>1221</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="20" t="s">
         <v>275</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>1227</v>
+        <v>1228</v>
       </c>
       <c r="C10" s="20" t="s">
-        <v>1228</v>
-      </c>
-      <c r="D10" s="62"/>
-      <c r="E10" s="62"/>
-      <c r="F10" s="62"/>
+        <v>1229</v>
+      </c>
+      <c r="D10" s="63"/>
+      <c r="E10" s="63"/>
+      <c r="F10" s="63"/>
       <c r="G10" s="27"/>
       <c r="H10" s="27"/>
       <c r="I10" s="27"/>
-      <c r="J10" s="27"/>
+      <c r="J10" s="20" t="s">
+        <v>1230</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="20" t="s">
         <v>277</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>1229</v>
+        <v>1231</v>
       </c>
       <c r="C11" s="20" t="s">
-        <v>1230</v>
-      </c>
-      <c r="D11" s="62"/>
-      <c r="E11" s="62"/>
-      <c r="F11" s="62"/>
+        <v>1232</v>
+      </c>
+      <c r="D11" s="63"/>
+      <c r="E11" s="63"/>
+      <c r="F11" s="63"/>
       <c r="G11" s="27"/>
       <c r="H11" s="27"/>
       <c r="I11" s="27"/>
@@ -4786,90 +4831,100 @@
         <v>280</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>1231</v>
+        <v>1233</v>
       </c>
       <c r="C12" s="20" t="s">
-        <v>1232</v>
-      </c>
-      <c r="D12" s="62"/>
-      <c r="E12" s="62"/>
-      <c r="F12" s="62"/>
+        <v>1234</v>
+      </c>
+      <c r="D12" s="63"/>
+      <c r="E12" s="63"/>
+      <c r="F12" s="63"/>
       <c r="G12" s="27"/>
       <c r="H12" s="27"/>
       <c r="I12" s="27"/>
-      <c r="J12" s="27"/>
+      <c r="J12" s="20" t="s">
+        <v>1235</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="20" t="s">
         <v>283</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>1233</v>
+        <v>1236</v>
       </c>
       <c r="C13" s="20" t="s">
-        <v>1234</v>
-      </c>
-      <c r="D13" s="62"/>
-      <c r="E13" s="62"/>
-      <c r="F13" s="62"/>
+        <v>1237</v>
+      </c>
+      <c r="D13" s="63"/>
+      <c r="E13" s="63"/>
+      <c r="F13" s="63"/>
       <c r="G13" s="27"/>
       <c r="H13" s="27"/>
       <c r="I13" s="27"/>
-      <c r="J13" s="27"/>
+      <c r="J13" s="20" t="s">
+        <v>1235</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="20" t="s">
         <v>286</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>1235</v>
+        <v>1238</v>
       </c>
       <c r="C14" s="20" t="s">
-        <v>1236</v>
-      </c>
-      <c r="D14" s="62"/>
-      <c r="E14" s="62"/>
-      <c r="F14" s="62"/>
+        <v>1239</v>
+      </c>
+      <c r="D14" s="63"/>
+      <c r="E14" s="63"/>
+      <c r="F14" s="63"/>
       <c r="G14" s="27"/>
       <c r="H14" s="27"/>
       <c r="I14" s="27"/>
-      <c r="J14" s="27"/>
+      <c r="J14" s="20" t="s">
+        <v>1235</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="20" t="s">
         <v>289</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>1237</v>
+        <v>1240</v>
       </c>
       <c r="C15" s="20" t="s">
-        <v>1238</v>
-      </c>
-      <c r="D15" s="62"/>
-      <c r="E15" s="62"/>
-      <c r="F15" s="62"/>
+        <v>1241</v>
+      </c>
+      <c r="D15" s="63"/>
+      <c r="E15" s="63"/>
+      <c r="F15" s="63"/>
       <c r="G15" s="27"/>
       <c r="H15" s="27"/>
       <c r="I15" s="27"/>
-      <c r="J15" s="27"/>
+      <c r="J15" s="87" t="s">
+        <v>1242</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="20" t="s">
         <v>292</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>1239</v>
+        <v>1243</v>
       </c>
       <c r="C16" s="20" t="s">
-        <v>1240</v>
-      </c>
-      <c r="D16" s="62"/>
-      <c r="E16" s="62"/>
-      <c r="F16" s="62"/>
+        <v>1244</v>
+      </c>
+      <c r="D16" s="63"/>
+      <c r="E16" s="63"/>
+      <c r="F16" s="63"/>
       <c r="G16" s="27"/>
       <c r="H16" s="27"/>
       <c r="I16" s="27"/>
-      <c r="J16" s="27"/>
+      <c r="J16" s="87" t="s">
+        <v>1242</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="20" t="s">
@@ -4880,15 +4935,17 @@
         <v>Neuron population in superior cervical ganglion (1) (bolew)</v>
       </c>
       <c r="C17" s="20" t="s">
-        <v>1241</v>
-      </c>
-      <c r="D17" s="62"/>
-      <c r="E17" s="62"/>
-      <c r="F17" s="62"/>
+        <v>1245</v>
+      </c>
+      <c r="D17" s="63"/>
+      <c r="E17" s="63"/>
+      <c r="F17" s="63"/>
       <c r="G17" s="27"/>
       <c r="H17" s="27"/>
       <c r="I17" s="27"/>
-      <c r="J17" s="27"/>
+      <c r="J17" s="20" t="s">
+        <v>1246</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="20" t="s">
@@ -4899,15 +4956,17 @@
         <v>Neuron population in superior cervical ganglion (2) (bolew)</v>
       </c>
       <c r="C18" s="20" t="s">
-        <v>1242</v>
-      </c>
-      <c r="D18" s="62"/>
-      <c r="E18" s="62"/>
-      <c r="F18" s="62"/>
+        <v>1247</v>
+      </c>
+      <c r="D18" s="63"/>
+      <c r="E18" s="63"/>
+      <c r="F18" s="63"/>
       <c r="G18" s="27"/>
       <c r="H18" s="27"/>
       <c r="I18" s="27"/>
-      <c r="J18" s="27"/>
+      <c r="J18" s="12" t="s">
+        <v>1246</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="20" t="s">
@@ -4918,15 +4977,17 @@
         <v>Neuron population in superior cervical ganglion (3) (bolew)</v>
       </c>
       <c r="C19" s="20" t="s">
-        <v>1243</v>
-      </c>
-      <c r="D19" s="62"/>
-      <c r="E19" s="62"/>
-      <c r="F19" s="62"/>
+        <v>1248</v>
+      </c>
+      <c r="D19" s="63"/>
+      <c r="E19" s="63"/>
+      <c r="F19" s="63"/>
       <c r="G19" s="27"/>
       <c r="H19" s="27"/>
       <c r="I19" s="27"/>
-      <c r="J19" s="27"/>
+      <c r="J19" s="20" t="s">
+        <v>1246</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="20" t="s">
@@ -4937,15 +4998,17 @@
         <v>Neuron population in superior cervical ganglion (4) (bolew)</v>
       </c>
       <c r="C20" s="20" t="s">
-        <v>1244</v>
-      </c>
-      <c r="D20" s="62"/>
-      <c r="E20" s="62"/>
-      <c r="F20" s="62"/>
+        <v>1249</v>
+      </c>
+      <c r="D20" s="63"/>
+      <c r="E20" s="63"/>
+      <c r="F20" s="63"/>
       <c r="G20" s="27"/>
       <c r="H20" s="27"/>
       <c r="I20" s="27"/>
-      <c r="J20" s="27"/>
+      <c r="J20" s="12" t="s">
+        <v>1246</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="20" t="s">
@@ -4956,15 +5019,17 @@
         <v>Neuron population in superior cervical ganglion (5) (bolew)</v>
       </c>
       <c r="C21" s="20" t="s">
-        <v>1245</v>
-      </c>
-      <c r="D21" s="62"/>
-      <c r="E21" s="62"/>
-      <c r="F21" s="62"/>
+        <v>1250</v>
+      </c>
+      <c r="D21" s="63"/>
+      <c r="E21" s="63"/>
+      <c r="F21" s="63"/>
       <c r="G21" s="27"/>
       <c r="H21" s="27"/>
       <c r="I21" s="27"/>
-      <c r="J21" s="27"/>
+      <c r="J21" s="20" t="s">
+        <v>1246</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="20" t="s">
@@ -4975,15 +5040,17 @@
         <v>Neuron population in superior cervical ganglion (6) (bolew)</v>
       </c>
       <c r="C22" s="20" t="s">
-        <v>1246</v>
-      </c>
-      <c r="D22" s="62"/>
-      <c r="E22" s="62"/>
-      <c r="F22" s="62"/>
+        <v>1251</v>
+      </c>
+      <c r="D22" s="63"/>
+      <c r="E22" s="63"/>
+      <c r="F22" s="63"/>
       <c r="G22" s="27"/>
       <c r="H22" s="27"/>
       <c r="I22" s="27"/>
-      <c r="J22" s="27"/>
+      <c r="J22" s="12" t="s">
+        <v>1246</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="20" t="s">
@@ -4994,15 +5061,17 @@
         <v>Neuron population in superior cervical ganglion (7) (bolew)</v>
       </c>
       <c r="C23" s="20" t="s">
-        <v>1247</v>
-      </c>
-      <c r="D23" s="62"/>
-      <c r="E23" s="62"/>
-      <c r="F23" s="62"/>
+        <v>1252</v>
+      </c>
+      <c r="D23" s="63"/>
+      <c r="E23" s="63"/>
+      <c r="F23" s="63"/>
       <c r="G23" s="27"/>
       <c r="H23" s="27"/>
       <c r="I23" s="27"/>
-      <c r="J23" s="27"/>
+      <c r="J23" s="20" t="s">
+        <v>1246</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="20" t="s">
@@ -5013,15 +5082,17 @@
         <v>Neuron population in superior cervical ganglion (8) (bolew)</v>
       </c>
       <c r="C24" s="20" t="s">
-        <v>1248</v>
-      </c>
-      <c r="D24" s="62"/>
-      <c r="E24" s="62"/>
-      <c r="F24" s="62"/>
+        <v>1253</v>
+      </c>
+      <c r="D24" s="63"/>
+      <c r="E24" s="63"/>
+      <c r="F24" s="63"/>
       <c r="G24" s="27"/>
       <c r="H24" s="27"/>
       <c r="I24" s="27"/>
-      <c r="J24" s="27"/>
+      <c r="J24" s="12" t="s">
+        <v>1246</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="20" t="s">
@@ -5032,15 +5103,17 @@
         <v>Neuron population in superior cervical ganglion (9) (bolew)</v>
       </c>
       <c r="C25" s="20" t="s">
-        <v>1249</v>
-      </c>
-      <c r="D25" s="62"/>
-      <c r="E25" s="62"/>
-      <c r="F25" s="62"/>
+        <v>1254</v>
+      </c>
+      <c r="D25" s="63"/>
+      <c r="E25" s="63"/>
+      <c r="F25" s="63"/>
       <c r="G25" s="27"/>
       <c r="H25" s="27"/>
       <c r="I25" s="27"/>
-      <c r="J25" s="27"/>
+      <c r="J25" s="20" t="s">
+        <v>1246</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="20" t="s">
@@ -5051,15 +5124,17 @@
         <v>Neuron population in superior cervical ganglion (10) (bolew)</v>
       </c>
       <c r="C26" s="20" t="s">
-        <v>1250</v>
-      </c>
-      <c r="D26" s="62"/>
-      <c r="E26" s="62"/>
-      <c r="F26" s="62"/>
+        <v>1255</v>
+      </c>
+      <c r="D26" s="63"/>
+      <c r="E26" s="63"/>
+      <c r="F26" s="63"/>
       <c r="G26" s="27"/>
       <c r="H26" s="27"/>
       <c r="I26" s="27"/>
-      <c r="J26" s="27"/>
+      <c r="J26" s="12" t="s">
+        <v>1246</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="20" t="s">
@@ -5070,15 +5145,17 @@
         <v>Neuron population in superior cervical ganglion (11) (bolew)</v>
       </c>
       <c r="C27" s="20" t="s">
-        <v>1251</v>
-      </c>
-      <c r="D27" s="62"/>
-      <c r="E27" s="62"/>
-      <c r="F27" s="62"/>
+        <v>1256</v>
+      </c>
+      <c r="D27" s="63"/>
+      <c r="E27" s="63"/>
+      <c r="F27" s="63"/>
       <c r="G27" s="27"/>
       <c r="H27" s="27"/>
       <c r="I27" s="27"/>
-      <c r="J27" s="27"/>
+      <c r="J27" s="20" t="s">
+        <v>1246</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="20" t="s">
@@ -5089,15 +5166,17 @@
         <v>Neuron population in superior cervical ganglion (12) (bolew)</v>
       </c>
       <c r="C28" s="20" t="s">
-        <v>1252</v>
-      </c>
-      <c r="D28" s="62"/>
-      <c r="E28" s="62"/>
-      <c r="F28" s="62"/>
+        <v>1257</v>
+      </c>
+      <c r="D28" s="63"/>
+      <c r="E28" s="63"/>
+      <c r="F28" s="63"/>
       <c r="G28" s="27"/>
       <c r="H28" s="27"/>
       <c r="I28" s="27"/>
-      <c r="J28" s="27"/>
+      <c r="J28" s="12" t="s">
+        <v>1246</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="20" t="s">
@@ -5108,15 +5187,17 @@
         <v>Neuron population in superior cervical ganglion (13) (bolew)</v>
       </c>
       <c r="C29" s="20" t="s">
-        <v>1253</v>
-      </c>
-      <c r="D29" s="62"/>
-      <c r="E29" s="62"/>
-      <c r="F29" s="62"/>
+        <v>1258</v>
+      </c>
+      <c r="D29" s="63"/>
+      <c r="E29" s="63"/>
+      <c r="F29" s="63"/>
       <c r="G29" s="27"/>
       <c r="H29" s="27"/>
       <c r="I29" s="27"/>
-      <c r="J29" s="27"/>
+      <c r="J29" s="20" t="s">
+        <v>1246</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="20" t="s">
@@ -5127,15 +5208,17 @@
         <v>Neuron population in superior cervical ganglion (14) (bolew)</v>
       </c>
       <c r="C30" s="20" t="s">
-        <v>1254</v>
-      </c>
-      <c r="D30" s="62"/>
-      <c r="E30" s="62"/>
-      <c r="F30" s="62"/>
+        <v>1259</v>
+      </c>
+      <c r="D30" s="63"/>
+      <c r="E30" s="63"/>
+      <c r="F30" s="63"/>
       <c r="G30" s="27"/>
       <c r="H30" s="27"/>
       <c r="I30" s="27"/>
-      <c r="J30" s="27"/>
+      <c r="J30" s="12" t="s">
+        <v>1246</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="20" t="s">
@@ -5146,15 +5229,17 @@
         <v>Neuron population in superior cervical ganglion (15) (bolew)</v>
       </c>
       <c r="C31" s="20" t="s">
-        <v>1255</v>
-      </c>
-      <c r="D31" s="62"/>
-      <c r="E31" s="62"/>
-      <c r="F31" s="62"/>
+        <v>1260</v>
+      </c>
+      <c r="D31" s="63"/>
+      <c r="E31" s="63"/>
+      <c r="F31" s="63"/>
       <c r="G31" s="27"/>
       <c r="H31" s="27"/>
       <c r="I31" s="27"/>
-      <c r="J31" s="27"/>
+      <c r="J31" s="20" t="s">
+        <v>1246</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="20" t="s">
@@ -5165,15 +5250,17 @@
         <v>Neuron population in superior cervical ganglion (16) (bolew)</v>
       </c>
       <c r="C32" s="20" t="s">
-        <v>1256</v>
-      </c>
-      <c r="D32" s="62"/>
-      <c r="E32" s="62"/>
-      <c r="F32" s="62"/>
+        <v>1261</v>
+      </c>
+      <c r="D32" s="63"/>
+      <c r="E32" s="63"/>
+      <c r="F32" s="63"/>
       <c r="G32" s="27"/>
       <c r="H32" s="27"/>
       <c r="I32" s="27"/>
-      <c r="J32" s="27"/>
+      <c r="J32" s="12" t="s">
+        <v>1246</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="20" t="s">
@@ -5184,15 +5271,17 @@
         <v>Neuron population in superior cervical ganglion (17) (bolew)</v>
       </c>
       <c r="C33" s="20" t="s">
-        <v>1257</v>
-      </c>
-      <c r="D33" s="62"/>
-      <c r="E33" s="62"/>
-      <c r="F33" s="62"/>
+        <v>1262</v>
+      </c>
+      <c r="D33" s="63"/>
+      <c r="E33" s="63"/>
+      <c r="F33" s="63"/>
       <c r="G33" s="27"/>
       <c r="H33" s="27"/>
       <c r="I33" s="27"/>
-      <c r="J33" s="27"/>
+      <c r="J33" s="20" t="s">
+        <v>1246</v>
+      </c>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -5207,9 +5296,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="2" max="2" width="35.57"/>
+    <col customWidth="1" min="2" max="2" width="31.13"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -5352,10 +5441,10 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="2" max="2" width="26.71"/>
-    <col customWidth="1" min="3" max="3" width="19.14"/>
+    <col customWidth="1" min="2" max="2" width="23.38"/>
+    <col customWidth="1" min="3" max="3" width="16.75"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -5407,18 +5496,18 @@
       <selection activeCell="C2" sqref="C2" pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="2" max="2" width="50.71"/>
-    <col customWidth="1" min="3" max="3" width="42.43"/>
-    <col customWidth="1" min="4" max="4" width="12.86"/>
-    <col customWidth="1" min="5" max="5" width="0.43"/>
-    <col customWidth="1" min="6" max="6" width="8.57"/>
-    <col customWidth="1" min="7" max="7" width="12.14"/>
-    <col customWidth="1" min="8" max="8" width="17.14"/>
-    <col customWidth="1" min="9" max="9" width="12.0"/>
-    <col customWidth="1" min="11" max="11" width="14.57"/>
-    <col customWidth="1" min="12" max="12" width="9.71"/>
+    <col customWidth="1" min="2" max="2" width="44.38"/>
+    <col customWidth="1" min="3" max="3" width="37.13"/>
+    <col customWidth="1" min="4" max="4" width="11.25"/>
+    <col customWidth="1" min="5" max="5" width="0.38"/>
+    <col customWidth="1" min="6" max="6" width="7.5"/>
+    <col customWidth="1" min="7" max="7" width="10.63"/>
+    <col customWidth="1" min="8" max="8" width="15.0"/>
+    <col customWidth="1" min="9" max="9" width="10.5"/>
+    <col customWidth="1" min="11" max="11" width="12.75"/>
+    <col customWidth="1" min="12" max="12" width="8.5"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -6252,7 +6341,7 @@
       <c r="B42" s="49" t="s">
         <v>158</v>
       </c>
-      <c r="C42" s="43" t="s">
+      <c r="C42" s="31" t="s">
         <v>159</v>
       </c>
       <c r="D42" s="12"/>
@@ -6273,7 +6362,7 @@
       <c r="B43" s="49" t="s">
         <v>160</v>
       </c>
-      <c r="C43" s="43" t="s">
+      <c r="C43" s="31" t="s">
         <v>161</v>
       </c>
       <c r="D43" s="12"/>
@@ -6375,7 +6464,7 @@
       <c r="A48" s="25">
         <v>235.0</v>
       </c>
-      <c r="B48" s="49" t="s">
+      <c r="B48" s="8" t="s">
         <v>170</v>
       </c>
       <c r="C48" s="43" t="s">
@@ -6593,7 +6682,7 @@
       <c r="A58" s="15">
         <v>243.0</v>
       </c>
-      <c r="B58" s="49" t="s">
+      <c r="B58" s="8" t="s">
         <v>192</v>
       </c>
       <c r="C58" s="13" t="s">
@@ -6652,7 +6741,7 @@
       <c r="A61" s="15">
         <v>246.0</v>
       </c>
-      <c r="B61" s="49" t="s">
+      <c r="B61" s="8" t="s">
         <v>198</v>
       </c>
       <c r="C61" s="52" t="s">
@@ -6944,7 +7033,7 @@
       <c r="B76" s="57" t="s">
         <v>230</v>
       </c>
-      <c r="C76" s="31" t="s">
+      <c r="C76" s="58" t="s">
         <v>231</v>
       </c>
       <c r="E76" s="21"/>
@@ -7179,15 +7268,15 @@
       <c r="B87" s="8" t="s">
         <v>262</v>
       </c>
-      <c r="C87" s="58" t="s">
+      <c r="C87" s="59" t="s">
         <v>263</v>
       </c>
       <c r="D87" s="27"/>
-      <c r="E87" s="59"/>
+      <c r="E87" s="60"/>
       <c r="F87" s="27"/>
       <c r="G87" s="27"/>
-      <c r="H87" s="60"/>
-      <c r="I87" s="61">
+      <c r="H87" s="61"/>
+      <c r="I87" s="62">
         <v>229.0</v>
       </c>
       <c r="J87" s="24"/>
@@ -7203,15 +7292,15 @@
       <c r="B88" s="8" t="s">
         <v>265</v>
       </c>
-      <c r="C88" s="58" t="s">
+      <c r="C88" s="59" t="s">
         <v>263</v>
       </c>
       <c r="D88" s="27"/>
-      <c r="E88" s="59"/>
+      <c r="E88" s="60"/>
       <c r="F88" s="27"/>
       <c r="G88" s="27"/>
-      <c r="H88" s="60"/>
-      <c r="I88" s="61">
+      <c r="H88" s="61"/>
+      <c r="I88" s="62">
         <v>229.0</v>
       </c>
       <c r="J88" s="24"/>
@@ -7227,15 +7316,15 @@
       <c r="B89" s="8" t="s">
         <v>268</v>
       </c>
-      <c r="C89" s="58" t="s">
+      <c r="C89" s="59" t="s">
         <v>263</v>
       </c>
       <c r="D89" s="27"/>
-      <c r="E89" s="59"/>
+      <c r="E89" s="60"/>
       <c r="F89" s="27"/>
       <c r="G89" s="27"/>
-      <c r="H89" s="60"/>
-      <c r="I89" s="61">
+      <c r="H89" s="61"/>
+      <c r="I89" s="62">
         <v>229.0</v>
       </c>
       <c r="J89" s="24"/>
@@ -7251,15 +7340,15 @@
       <c r="B90" s="8" t="s">
         <v>270</v>
       </c>
-      <c r="C90" s="58" t="s">
+      <c r="C90" s="59" t="s">
         <v>263</v>
       </c>
       <c r="D90" s="27"/>
-      <c r="E90" s="59"/>
+      <c r="E90" s="60"/>
       <c r="F90" s="27"/>
       <c r="G90" s="27"/>
-      <c r="H90" s="60"/>
-      <c r="I90" s="61">
+      <c r="H90" s="61"/>
+      <c r="I90" s="62">
         <v>229.0</v>
       </c>
       <c r="J90" s="24"/>
@@ -7275,15 +7364,15 @@
       <c r="B91" s="8" t="s">
         <v>272</v>
       </c>
-      <c r="C91" s="58" t="s">
+      <c r="C91" s="59" t="s">
         <v>263</v>
       </c>
       <c r="D91" s="27"/>
-      <c r="E91" s="59"/>
+      <c r="E91" s="60"/>
       <c r="F91" s="27"/>
       <c r="G91" s="27"/>
-      <c r="H91" s="60"/>
-      <c r="I91" s="61">
+      <c r="H91" s="61"/>
+      <c r="I91" s="62">
         <v>229.0</v>
       </c>
       <c r="J91" s="24"/>
@@ -7299,15 +7388,15 @@
       <c r="B92" s="8" t="s">
         <v>274</v>
       </c>
-      <c r="C92" s="58" t="s">
+      <c r="C92" s="59" t="s">
         <v>263</v>
       </c>
       <c r="D92" s="27"/>
-      <c r="E92" s="59"/>
+      <c r="E92" s="60"/>
       <c r="F92" s="27"/>
       <c r="G92" s="27"/>
-      <c r="H92" s="60"/>
-      <c r="I92" s="61">
+      <c r="H92" s="61"/>
+      <c r="I92" s="62">
         <v>229.0</v>
       </c>
       <c r="J92" s="24"/>
@@ -7323,15 +7412,15 @@
       <c r="B93" s="8" t="s">
         <v>276</v>
       </c>
-      <c r="C93" s="58" t="s">
+      <c r="C93" s="59" t="s">
         <v>263</v>
       </c>
       <c r="D93" s="27"/>
-      <c r="E93" s="59"/>
+      <c r="E93" s="60"/>
       <c r="F93" s="27"/>
       <c r="G93" s="27"/>
-      <c r="H93" s="60"/>
-      <c r="I93" s="61">
+      <c r="H93" s="61"/>
+      <c r="I93" s="62">
         <v>229.0</v>
       </c>
       <c r="J93" s="24"/>
@@ -7347,15 +7436,15 @@
       <c r="B94" s="8" t="s">
         <v>279</v>
       </c>
-      <c r="C94" s="58" t="s">
+      <c r="C94" s="59" t="s">
         <v>263</v>
       </c>
       <c r="D94" s="27"/>
-      <c r="E94" s="59"/>
+      <c r="E94" s="60"/>
       <c r="F94" s="27"/>
       <c r="G94" s="27"/>
-      <c r="H94" s="60"/>
-      <c r="I94" s="61">
+      <c r="H94" s="61"/>
+      <c r="I94" s="62">
         <v>229.0</v>
       </c>
       <c r="J94" s="24"/>
@@ -7371,15 +7460,15 @@
       <c r="B95" s="8" t="s">
         <v>282</v>
       </c>
-      <c r="C95" s="58" t="s">
+      <c r="C95" s="59" t="s">
         <v>263</v>
       </c>
       <c r="D95" s="27"/>
-      <c r="E95" s="59"/>
+      <c r="E95" s="60"/>
       <c r="F95" s="27"/>
       <c r="G95" s="27"/>
-      <c r="H95" s="60"/>
-      <c r="I95" s="61">
+      <c r="H95" s="61"/>
+      <c r="I95" s="62">
         <v>229.0</v>
       </c>
       <c r="J95" s="24"/>
@@ -7395,15 +7484,15 @@
       <c r="B96" s="8" t="s">
         <v>285</v>
       </c>
-      <c r="C96" s="58" t="s">
+      <c r="C96" s="59" t="s">
         <v>263</v>
       </c>
       <c r="D96" s="27"/>
-      <c r="E96" s="59"/>
+      <c r="E96" s="60"/>
       <c r="F96" s="27"/>
       <c r="G96" s="27"/>
-      <c r="H96" s="60"/>
-      <c r="I96" s="61">
+      <c r="H96" s="61"/>
+      <c r="I96" s="62">
         <v>229.0</v>
       </c>
       <c r="J96" s="24"/>
@@ -7419,15 +7508,15 @@
       <c r="B97" s="8" t="s">
         <v>288</v>
       </c>
-      <c r="C97" s="58" t="s">
+      <c r="C97" s="59" t="s">
         <v>263</v>
       </c>
       <c r="D97" s="27"/>
-      <c r="E97" s="59"/>
+      <c r="E97" s="60"/>
       <c r="F97" s="27"/>
       <c r="G97" s="27"/>
-      <c r="H97" s="60"/>
-      <c r="I97" s="61">
+      <c r="H97" s="61"/>
+      <c r="I97" s="62">
         <v>229.0</v>
       </c>
       <c r="J97" s="24"/>
@@ -7443,15 +7532,15 @@
       <c r="B98" s="8" t="s">
         <v>291</v>
       </c>
-      <c r="C98" s="58" t="s">
+      <c r="C98" s="59" t="s">
         <v>263</v>
       </c>
       <c r="D98" s="27"/>
-      <c r="E98" s="59"/>
+      <c r="E98" s="60"/>
       <c r="F98" s="27"/>
       <c r="G98" s="27"/>
-      <c r="H98" s="60"/>
-      <c r="I98" s="61">
+      <c r="H98" s="61"/>
+      <c r="I98" s="62">
         <v>229.0</v>
       </c>
       <c r="J98" s="24"/>
@@ -7468,15 +7557,15 @@
         <f t="shared" ref="B99:B107" si="1">concat("Soma in superior cervical ganglion (",CONCAT(right(A99,1),") (bolew)"))</f>
         <v>Soma in superior cervical ganglion (1) (bolew)</v>
       </c>
-      <c r="C99" s="58" t="s">
+      <c r="C99" s="59" t="s">
         <v>263</v>
       </c>
       <c r="D99" s="27"/>
-      <c r="E99" s="59"/>
+      <c r="E99" s="60"/>
       <c r="F99" s="27"/>
       <c r="G99" s="27"/>
-      <c r="H99" s="60"/>
-      <c r="I99" s="61">
+      <c r="H99" s="61"/>
+      <c r="I99" s="62">
         <v>229.0</v>
       </c>
       <c r="J99" s="24"/>
@@ -7493,15 +7582,15 @@
         <f t="shared" si="1"/>
         <v>Soma in superior cervical ganglion (2) (bolew)</v>
       </c>
-      <c r="C100" s="58" t="s">
+      <c r="C100" s="59" t="s">
         <v>263</v>
       </c>
       <c r="D100" s="27"/>
-      <c r="E100" s="59"/>
+      <c r="E100" s="60"/>
       <c r="F100" s="27"/>
       <c r="G100" s="27"/>
-      <c r="H100" s="60"/>
-      <c r="I100" s="61">
+      <c r="H100" s="61"/>
+      <c r="I100" s="62">
         <v>229.0</v>
       </c>
       <c r="J100" s="24"/>
@@ -7518,15 +7607,15 @@
         <f t="shared" si="1"/>
         <v>Soma in superior cervical ganglion (3) (bolew)</v>
       </c>
-      <c r="C101" s="58" t="s">
+      <c r="C101" s="59" t="s">
         <v>263</v>
       </c>
       <c r="D101" s="27"/>
-      <c r="E101" s="59"/>
+      <c r="E101" s="60"/>
       <c r="F101" s="27"/>
       <c r="G101" s="27"/>
-      <c r="H101" s="60"/>
-      <c r="I101" s="61">
+      <c r="H101" s="61"/>
+      <c r="I101" s="62">
         <v>229.0</v>
       </c>
       <c r="J101" s="24"/>
@@ -7543,15 +7632,15 @@
         <f t="shared" si="1"/>
         <v>Soma in superior cervical ganglion (4) (bolew)</v>
       </c>
-      <c r="C102" s="58" t="s">
+      <c r="C102" s="59" t="s">
         <v>263</v>
       </c>
       <c r="D102" s="27"/>
-      <c r="E102" s="59"/>
+      <c r="E102" s="60"/>
       <c r="F102" s="27"/>
       <c r="G102" s="27"/>
-      <c r="H102" s="60"/>
-      <c r="I102" s="61">
+      <c r="H102" s="61"/>
+      <c r="I102" s="62">
         <v>229.0</v>
       </c>
       <c r="J102" s="24"/>
@@ -7568,15 +7657,15 @@
         <f t="shared" si="1"/>
         <v>Soma in superior cervical ganglion (5) (bolew)</v>
       </c>
-      <c r="C103" s="58" t="s">
+      <c r="C103" s="59" t="s">
         <v>263</v>
       </c>
       <c r="D103" s="27"/>
-      <c r="E103" s="59"/>
+      <c r="E103" s="60"/>
       <c r="F103" s="27"/>
       <c r="G103" s="27"/>
-      <c r="H103" s="60"/>
-      <c r="I103" s="61">
+      <c r="H103" s="61"/>
+      <c r="I103" s="62">
         <v>229.0</v>
       </c>
       <c r="J103" s="24"/>
@@ -7593,15 +7682,15 @@
         <f t="shared" si="1"/>
         <v>Soma in superior cervical ganglion (6) (bolew)</v>
       </c>
-      <c r="C104" s="58" t="s">
+      <c r="C104" s="59" t="s">
         <v>263</v>
       </c>
       <c r="D104" s="27"/>
-      <c r="E104" s="59"/>
+      <c r="E104" s="60"/>
       <c r="F104" s="27"/>
       <c r="G104" s="27"/>
-      <c r="H104" s="60"/>
-      <c r="I104" s="61">
+      <c r="H104" s="61"/>
+      <c r="I104" s="62">
         <v>229.0</v>
       </c>
       <c r="J104" s="24"/>
@@ -7618,15 +7707,15 @@
         <f t="shared" si="1"/>
         <v>Soma in superior cervical ganglion (7) (bolew)</v>
       </c>
-      <c r="C105" s="58" t="s">
+      <c r="C105" s="59" t="s">
         <v>263</v>
       </c>
       <c r="D105" s="27"/>
-      <c r="E105" s="59"/>
+      <c r="E105" s="60"/>
       <c r="F105" s="27"/>
       <c r="G105" s="27"/>
-      <c r="H105" s="60"/>
-      <c r="I105" s="61">
+      <c r="H105" s="61"/>
+      <c r="I105" s="62">
         <v>229.0</v>
       </c>
       <c r="J105" s="24"/>
@@ -7643,15 +7732,15 @@
         <f t="shared" si="1"/>
         <v>Soma in superior cervical ganglion (8) (bolew)</v>
       </c>
-      <c r="C106" s="58" t="s">
+      <c r="C106" s="59" t="s">
         <v>263</v>
       </c>
       <c r="D106" s="27"/>
-      <c r="E106" s="59"/>
+      <c r="E106" s="60"/>
       <c r="F106" s="27"/>
       <c r="G106" s="27"/>
-      <c r="H106" s="60"/>
-      <c r="I106" s="61">
+      <c r="H106" s="61"/>
+      <c r="I106" s="62">
         <v>229.0</v>
       </c>
       <c r="J106" s="24"/>
@@ -7668,15 +7757,15 @@
         <f t="shared" si="1"/>
         <v>Soma in superior cervical ganglion (9) (bolew)</v>
       </c>
-      <c r="C107" s="58" t="s">
+      <c r="C107" s="59" t="s">
         <v>263</v>
       </c>
       <c r="D107" s="27"/>
-      <c r="E107" s="59"/>
+      <c r="E107" s="60"/>
       <c r="F107" s="27"/>
       <c r="G107" s="27"/>
-      <c r="H107" s="60"/>
-      <c r="I107" s="61">
+      <c r="H107" s="61"/>
+      <c r="I107" s="62">
         <v>229.0</v>
       </c>
       <c r="J107" s="24"/>
@@ -7693,15 +7782,15 @@
         <f t="shared" ref="B108:B115" si="2">concat("Soma in superior cervical ganglion (",CONCAT(right(A108,2),") (bolew)"))</f>
         <v>Soma in superior cervical ganglion (10) (bolew)</v>
       </c>
-      <c r="C108" s="58" t="s">
+      <c r="C108" s="59" t="s">
         <v>263</v>
       </c>
       <c r="D108" s="27"/>
-      <c r="E108" s="59"/>
+      <c r="E108" s="60"/>
       <c r="F108" s="27"/>
       <c r="G108" s="27"/>
-      <c r="H108" s="60"/>
-      <c r="I108" s="61">
+      <c r="H108" s="61"/>
+      <c r="I108" s="62">
         <v>229.0</v>
       </c>
       <c r="J108" s="24"/>
@@ -7718,15 +7807,15 @@
         <f t="shared" si="2"/>
         <v>Soma in superior cervical ganglion (11) (bolew)</v>
       </c>
-      <c r="C109" s="58" t="s">
+      <c r="C109" s="59" t="s">
         <v>263</v>
       </c>
       <c r="D109" s="27"/>
-      <c r="E109" s="59"/>
+      <c r="E109" s="60"/>
       <c r="F109" s="27"/>
       <c r="G109" s="27"/>
-      <c r="H109" s="60"/>
-      <c r="I109" s="61">
+      <c r="H109" s="61"/>
+      <c r="I109" s="62">
         <v>229.0</v>
       </c>
       <c r="J109" s="24"/>
@@ -7743,15 +7832,15 @@
         <f t="shared" si="2"/>
         <v>Soma in superior cervical ganglion (12) (bolew)</v>
       </c>
-      <c r="C110" s="58" t="s">
+      <c r="C110" s="59" t="s">
         <v>263</v>
       </c>
       <c r="D110" s="27"/>
-      <c r="E110" s="59"/>
+      <c r="E110" s="60"/>
       <c r="F110" s="27"/>
       <c r="G110" s="27"/>
-      <c r="H110" s="60"/>
-      <c r="I110" s="61">
+      <c r="H110" s="61"/>
+      <c r="I110" s="62">
         <v>229.0</v>
       </c>
       <c r="J110" s="24"/>
@@ -7768,15 +7857,15 @@
         <f t="shared" si="2"/>
         <v>Soma in superior cervical ganglion (13) (bolew)</v>
       </c>
-      <c r="C111" s="58" t="s">
+      <c r="C111" s="59" t="s">
         <v>263</v>
       </c>
       <c r="D111" s="27"/>
-      <c r="E111" s="59"/>
+      <c r="E111" s="60"/>
       <c r="F111" s="27"/>
       <c r="G111" s="27"/>
-      <c r="H111" s="60"/>
-      <c r="I111" s="61">
+      <c r="H111" s="61"/>
+      <c r="I111" s="62">
         <v>229.0</v>
       </c>
       <c r="J111" s="24"/>
@@ -7793,15 +7882,15 @@
         <f t="shared" si="2"/>
         <v>Soma in superior cervical ganglion (14) (bolew)</v>
       </c>
-      <c r="C112" s="58" t="s">
+      <c r="C112" s="59" t="s">
         <v>263</v>
       </c>
       <c r="D112" s="27"/>
-      <c r="E112" s="59"/>
+      <c r="E112" s="60"/>
       <c r="F112" s="27"/>
       <c r="G112" s="27"/>
-      <c r="H112" s="60"/>
-      <c r="I112" s="61">
+      <c r="H112" s="61"/>
+      <c r="I112" s="62">
         <v>229.0</v>
       </c>
       <c r="J112" s="24"/>
@@ -7818,15 +7907,15 @@
         <f t="shared" si="2"/>
         <v>Soma in superior cervical ganglion (15) (bolew)</v>
       </c>
-      <c r="C113" s="58" t="s">
+      <c r="C113" s="59" t="s">
         <v>263</v>
       </c>
       <c r="D113" s="27"/>
-      <c r="E113" s="59"/>
+      <c r="E113" s="60"/>
       <c r="F113" s="27"/>
       <c r="G113" s="27"/>
-      <c r="H113" s="60"/>
-      <c r="I113" s="61">
+      <c r="H113" s="61"/>
+      <c r="I113" s="62">
         <v>229.0</v>
       </c>
       <c r="J113" s="24"/>
@@ -7843,15 +7932,15 @@
         <f t="shared" si="2"/>
         <v>Soma in superior cervical ganglion (16) (bolew)</v>
       </c>
-      <c r="C114" s="58" t="s">
+      <c r="C114" s="59" t="s">
         <v>263</v>
       </c>
       <c r="D114" s="27"/>
-      <c r="E114" s="59"/>
+      <c r="E114" s="60"/>
       <c r="F114" s="27"/>
       <c r="G114" s="27"/>
-      <c r="H114" s="60"/>
-      <c r="I114" s="61">
+      <c r="H114" s="61"/>
+      <c r="I114" s="62">
         <v>229.0</v>
       </c>
       <c r="J114" s="24"/>
@@ -7868,15 +7957,15 @@
         <f t="shared" si="2"/>
         <v>Soma in superior cervical ganglion (17) (bolew)</v>
       </c>
-      <c r="C115" s="58" t="s">
+      <c r="C115" s="59" t="s">
         <v>263</v>
       </c>
       <c r="D115" s="27"/>
-      <c r="E115" s="59"/>
+      <c r="E115" s="60"/>
       <c r="F115" s="27"/>
       <c r="G115" s="27"/>
-      <c r="H115" s="60"/>
-      <c r="I115" s="61">
+      <c r="H115" s="61"/>
+      <c r="I115" s="62">
         <v>229.0</v>
       </c>
       <c r="J115" s="24"/>
@@ -7902,11 +7991,11 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="2" max="2" width="38.14"/>
-    <col customWidth="1" min="3" max="3" width="31.14"/>
-    <col customWidth="1" min="4" max="4" width="29.43"/>
+    <col customWidth="1" min="2" max="2" width="33.38"/>
+    <col customWidth="1" min="3" max="3" width="27.25"/>
+    <col customWidth="1" min="4" max="4" width="25.75"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -7930,10 +8019,10 @@
       <c r="B2" s="27" t="s">
         <v>327</v>
       </c>
-      <c r="C2" s="62" t="s">
+      <c r="C2" s="63" t="s">
         <v>328</v>
       </c>
-      <c r="D2" s="63" t="s">
+      <c r="D2" s="64" t="s">
         <v>329</v>
       </c>
     </row>
@@ -7956,7 +8045,7 @@
       <c r="B4" s="27" t="s">
         <v>332</v>
       </c>
-      <c r="C4" s="64" t="s">
+      <c r="C4" s="65" t="s">
         <v>333</v>
       </c>
       <c r="D4" s="27"/>
@@ -7968,7 +8057,7 @@
       <c r="B5" s="27" t="s">
         <v>334</v>
       </c>
-      <c r="C5" s="64" t="s">
+      <c r="C5" s="65" t="s">
         <v>335</v>
       </c>
       <c r="D5" s="27"/>
@@ -7980,22 +8069,22 @@
       <c r="B6" s="27" t="s">
         <v>336</v>
       </c>
-      <c r="C6" s="64" t="s">
+      <c r="C6" s="65" t="s">
         <v>337</v>
       </c>
-      <c r="D6" s="62"/>
+      <c r="D6" s="63"/>
     </row>
     <row r="7">
       <c r="A7" s="22">
         <v>52.0</v>
       </c>
-      <c r="B7" s="62" t="s">
+      <c r="B7" s="63" t="s">
         <v>338</v>
       </c>
       <c r="C7" s="27" t="s">
         <v>339</v>
       </c>
-      <c r="D7" s="62"/>
+      <c r="D7" s="63"/>
     </row>
     <row r="8">
       <c r="A8" s="22">
@@ -8080,7 +8169,7 @@
       <c r="B14" s="27" t="s">
         <v>352</v>
       </c>
-      <c r="C14" s="65" t="s">
+      <c r="C14" s="66" t="s">
         <v>353</v>
       </c>
       <c r="D14" s="27"/>
@@ -8092,10 +8181,10 @@
       <c r="B15" s="27" t="s">
         <v>354</v>
       </c>
-      <c r="C15" s="66" t="s">
+      <c r="C15" s="67" t="s">
         <v>355</v>
       </c>
-      <c r="D15" s="62"/>
+      <c r="D15" s="63"/>
     </row>
     <row r="16">
       <c r="A16" s="22">
@@ -8104,7 +8193,7 @@
       <c r="B16" s="27" t="s">
         <v>356</v>
       </c>
-      <c r="C16" s="66" t="s">
+      <c r="C16" s="67" t="s">
         <v>357</v>
       </c>
       <c r="D16" s="22">
@@ -8118,7 +8207,7 @@
       <c r="B17" s="20" t="s">
         <v>358</v>
       </c>
-      <c r="C17" s="67" t="s">
+      <c r="C17" s="68" t="s">
         <v>359</v>
       </c>
       <c r="D17" s="22"/>
@@ -8144,7 +8233,7 @@
       <c r="B19" s="20" t="s">
         <v>362</v>
       </c>
-      <c r="C19" s="67" t="s">
+      <c r="C19" s="68" t="s">
         <v>328</v>
       </c>
       <c r="D19" s="25">
@@ -8158,7 +8247,7 @@
       <c r="B20" s="20" t="s">
         <v>363</v>
       </c>
-      <c r="C20" s="68" t="s">
+      <c r="C20" s="69" t="s">
         <v>364</v>
       </c>
       <c r="D20" s="25">
@@ -8228,7 +8317,7 @@
       <c r="B25" s="20" t="s">
         <v>257</v>
       </c>
-      <c r="C25" s="31" t="s">
+      <c r="C25" s="58" t="s">
         <v>373</v>
       </c>
       <c r="D25" s="12">
@@ -8242,7 +8331,7 @@
       <c r="B26" s="20" t="s">
         <v>374</v>
       </c>
-      <c r="C26" s="31" t="s">
+      <c r="C26" s="58" t="s">
         <v>375</v>
       </c>
       <c r="D26" s="20">
@@ -8359,12 +8448,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="16.57"/>
-    <col customWidth="1" min="6" max="6" width="17.14"/>
-    <col customWidth="1" min="7" max="7" width="16.29"/>
-    <col customWidth="1" min="8" max="8" width="29.14"/>
+    <col customWidth="1" min="1" max="1" width="14.5"/>
+    <col customWidth="1" min="6" max="6" width="15.0"/>
+    <col customWidth="1" min="7" max="7" width="14.25"/>
+    <col customWidth="1" min="8" max="8" width="25.5"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -8908,17 +8997,17 @@
       </c>
       <c r="B25" s="27"/>
       <c r="C25" s="27"/>
-      <c r="D25" s="69" t="s">
+      <c r="D25" s="70" t="s">
         <v>463</v>
       </c>
-      <c r="E25" s="69" t="s">
+      <c r="E25" s="70" t="s">
         <v>464</v>
       </c>
       <c r="F25" s="26" t="s">
         <v>58</v>
       </c>
       <c r="G25" s="27"/>
-      <c r="H25" s="62"/>
+      <c r="H25" s="63"/>
       <c r="I25" s="27"/>
     </row>
     <row r="26">
@@ -8927,17 +9016,17 @@
       </c>
       <c r="B26" s="27"/>
       <c r="C26" s="27"/>
-      <c r="D26" s="69" t="s">
+      <c r="D26" s="70" t="s">
         <v>466</v>
       </c>
-      <c r="E26" s="69" t="s">
+      <c r="E26" s="70" t="s">
         <v>467</v>
       </c>
       <c r="F26" s="26" t="s">
         <v>133</v>
       </c>
       <c r="G26" s="27"/>
-      <c r="H26" s="62"/>
+      <c r="H26" s="63"/>
       <c r="I26" s="27"/>
     </row>
     <row r="27">
@@ -8946,17 +9035,17 @@
       </c>
       <c r="B27" s="27"/>
       <c r="C27" s="27"/>
-      <c r="D27" s="69" t="s">
+      <c r="D27" s="70" t="s">
         <v>469</v>
       </c>
-      <c r="E27" s="69" t="s">
+      <c r="E27" s="70" t="s">
         <v>470</v>
       </c>
       <c r="F27" s="26" t="s">
         <v>267</v>
       </c>
       <c r="G27" s="27"/>
-      <c r="H27" s="62"/>
+      <c r="H27" s="63"/>
       <c r="I27" s="27"/>
     </row>
     <row r="28">
@@ -8975,7 +9064,7 @@
         <v>252</v>
       </c>
       <c r="G28" s="27"/>
-      <c r="H28" s="62"/>
+      <c r="H28" s="63"/>
       <c r="I28" s="27"/>
     </row>
     <row r="29">
@@ -8994,7 +9083,7 @@
         <v>255</v>
       </c>
       <c r="G29" s="27"/>
-      <c r="H29" s="62"/>
+      <c r="H29" s="63"/>
       <c r="I29" s="27"/>
     </row>
     <row r="30">
@@ -9013,7 +9102,7 @@
         <v>244</v>
       </c>
       <c r="G30" s="27"/>
-      <c r="H30" s="62"/>
+      <c r="H30" s="63"/>
       <c r="I30" s="27"/>
     </row>
     <row r="31">
@@ -9032,7 +9121,7 @@
         <v>249</v>
       </c>
       <c r="G31" s="27"/>
-      <c r="H31" s="62"/>
+      <c r="H31" s="63"/>
       <c r="I31" s="27"/>
     </row>
     <row r="32">
@@ -9051,7 +9140,7 @@
         <v>278</v>
       </c>
       <c r="G32" s="27"/>
-      <c r="H32" s="62"/>
+      <c r="H32" s="63"/>
       <c r="I32" s="27"/>
     </row>
     <row r="33">
@@ -9070,7 +9159,7 @@
         <v>281</v>
       </c>
       <c r="G33" s="27"/>
-      <c r="H33" s="62"/>
+      <c r="H33" s="63"/>
       <c r="I33" s="27"/>
     </row>
     <row r="34">
@@ -9089,7 +9178,7 @@
         <v>284</v>
       </c>
       <c r="G34" s="27"/>
-      <c r="H34" s="62"/>
+      <c r="H34" s="63"/>
       <c r="I34" s="27"/>
     </row>
     <row r="35">
@@ -9108,7 +9197,7 @@
         <v>287</v>
       </c>
       <c r="G35" s="27"/>
-      <c r="H35" s="62"/>
+      <c r="H35" s="63"/>
       <c r="I35" s="27"/>
     </row>
     <row r="36">
@@ -9127,7 +9216,7 @@
         <v>290</v>
       </c>
       <c r="G36" s="27"/>
-      <c r="H36" s="62"/>
+      <c r="H36" s="63"/>
       <c r="I36" s="27"/>
     </row>
     <row r="37">
@@ -9146,7 +9235,7 @@
         <v>293</v>
       </c>
       <c r="G37" s="27"/>
-      <c r="H37" s="62"/>
+      <c r="H37" s="63"/>
       <c r="I37" s="27"/>
     </row>
     <row r="38">
@@ -9165,7 +9254,7 @@
         <v>295</v>
       </c>
       <c r="G38" s="27"/>
-      <c r="H38" s="62"/>
+      <c r="H38" s="63"/>
       <c r="I38" s="27"/>
     </row>
     <row r="39">
@@ -9184,7 +9273,7 @@
         <v>297</v>
       </c>
       <c r="G39" s="27"/>
-      <c r="H39" s="62"/>
+      <c r="H39" s="63"/>
       <c r="I39" s="27"/>
     </row>
     <row r="40">
@@ -9203,7 +9292,7 @@
         <v>299</v>
       </c>
       <c r="G40" s="27"/>
-      <c r="H40" s="62"/>
+      <c r="H40" s="63"/>
       <c r="I40" s="27"/>
     </row>
     <row r="41">
@@ -9222,7 +9311,7 @@
         <v>301</v>
       </c>
       <c r="G41" s="27"/>
-      <c r="H41" s="62"/>
+      <c r="H41" s="63"/>
       <c r="I41" s="27"/>
     </row>
     <row r="42">
@@ -9241,7 +9330,7 @@
         <v>303</v>
       </c>
       <c r="G42" s="27"/>
-      <c r="H42" s="62"/>
+      <c r="H42" s="63"/>
       <c r="I42" s="27"/>
     </row>
     <row r="43">
@@ -9260,7 +9349,7 @@
         <v>305</v>
       </c>
       <c r="G43" s="27"/>
-      <c r="H43" s="62"/>
+      <c r="H43" s="63"/>
       <c r="I43" s="27"/>
     </row>
     <row r="44">
@@ -9279,7 +9368,7 @@
         <v>307</v>
       </c>
       <c r="G44" s="27"/>
-      <c r="H44" s="62"/>
+      <c r="H44" s="63"/>
       <c r="I44" s="27"/>
     </row>
     <row r="45">
@@ -9298,7 +9387,7 @@
         <v>309</v>
       </c>
       <c r="G45" s="27"/>
-      <c r="H45" s="62"/>
+      <c r="H45" s="63"/>
       <c r="I45" s="27"/>
     </row>
     <row r="46">
@@ -9317,7 +9406,7 @@
         <v>311</v>
       </c>
       <c r="G46" s="27"/>
-      <c r="H46" s="62"/>
+      <c r="H46" s="63"/>
       <c r="I46" s="27"/>
     </row>
     <row r="47">
@@ -9336,7 +9425,7 @@
         <v>313</v>
       </c>
       <c r="G47" s="27"/>
-      <c r="H47" s="62"/>
+      <c r="H47" s="63"/>
       <c r="I47" s="27"/>
     </row>
     <row r="48">
@@ -9355,7 +9444,7 @@
         <v>315</v>
       </c>
       <c r="G48" s="27"/>
-      <c r="H48" s="62"/>
+      <c r="H48" s="63"/>
       <c r="I48" s="27"/>
     </row>
     <row r="49">
@@ -9374,7 +9463,7 @@
         <v>317</v>
       </c>
       <c r="G49" s="27"/>
-      <c r="H49" s="62"/>
+      <c r="H49" s="63"/>
       <c r="I49" s="27"/>
     </row>
     <row r="50">
@@ -9393,7 +9482,7 @@
         <v>319</v>
       </c>
       <c r="G50" s="27"/>
-      <c r="H50" s="62"/>
+      <c r="H50" s="63"/>
       <c r="I50" s="27"/>
     </row>
     <row r="51">
@@ -9412,7 +9501,7 @@
         <v>321</v>
       </c>
       <c r="G51" s="27"/>
-      <c r="H51" s="62"/>
+      <c r="H51" s="63"/>
       <c r="I51" s="27"/>
     </row>
     <row r="52">
@@ -9431,7 +9520,7 @@
         <v>323</v>
       </c>
       <c r="G52" s="27"/>
-      <c r="H52" s="62"/>
+      <c r="H52" s="63"/>
       <c r="I52" s="27"/>
     </row>
     <row r="53">
@@ -9450,7 +9539,7 @@
         <v>325</v>
       </c>
       <c r="G53" s="27"/>
-      <c r="H53" s="62"/>
+      <c r="H53" s="63"/>
       <c r="I53" s="27"/>
     </row>
   </sheetData>
@@ -9466,11 +9555,11 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="16.0"/>
-    <col customWidth="1" min="2" max="2" width="49.43"/>
-    <col customWidth="1" min="4" max="4" width="84.0"/>
+    <col customWidth="1" min="1" max="1" width="14.0"/>
+    <col customWidth="1" min="2" max="2" width="43.25"/>
+    <col customWidth="1" min="4" max="4" width="73.5"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -9488,7 +9577,7 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="70" t="s">
+      <c r="A2" s="71" t="s">
         <v>552</v>
       </c>
       <c r="C2" s="12" t="s">
@@ -9511,16 +9600,16 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="25.86"/>
-    <col customWidth="1" min="2" max="2" width="27.0"/>
-    <col customWidth="1" min="3" max="3" width="21.57"/>
-    <col customWidth="1" min="4" max="5" width="17.14"/>
-    <col customWidth="1" min="6" max="6" width="64.14"/>
-    <col customWidth="1" min="7" max="7" width="15.29"/>
-    <col customWidth="1" min="8" max="8" width="12.57"/>
-    <col customWidth="1" min="9" max="9" width="65.0"/>
+    <col customWidth="1" min="1" max="1" width="22.63"/>
+    <col customWidth="1" min="2" max="2" width="23.63"/>
+    <col customWidth="1" min="3" max="3" width="18.88"/>
+    <col customWidth="1" min="4" max="5" width="15.0"/>
+    <col customWidth="1" min="6" max="6" width="56.13"/>
+    <col customWidth="1" min="7" max="7" width="13.38"/>
+    <col customWidth="1" min="8" max="8" width="11.0"/>
+    <col customWidth="1" min="9" max="9" width="56.88"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -9560,19 +9649,19 @@
         <v>561</v>
       </c>
       <c r="B2" s="20"/>
-      <c r="C2" s="58"/>
-      <c r="D2" s="69" t="s">
+      <c r="C2" s="59"/>
+      <c r="D2" s="70" t="s">
         <v>37</v>
       </c>
-      <c r="E2" s="69" t="s">
+      <c r="E2" s="70" t="s">
         <v>38</v>
       </c>
-      <c r="F2" s="71" t="s">
+      <c r="F2" s="72" t="s">
         <v>562</v>
       </c>
-      <c r="G2" s="61"/>
+      <c r="G2" s="62"/>
       <c r="H2" s="27"/>
-      <c r="I2" s="61"/>
+      <c r="I2" s="62"/>
       <c r="J2" s="20">
         <v>100.0</v>
       </c>
@@ -9584,22 +9673,22 @@
       <c r="B3" s="20" t="s">
         <v>564</v>
       </c>
-      <c r="C3" s="58" t="s">
+      <c r="C3" s="59" t="s">
         <v>565</v>
       </c>
       <c r="D3" s="22" t="s">
         <v>463</v>
       </c>
       <c r="E3" s="22"/>
-      <c r="F3" s="61"/>
-      <c r="G3" s="72" t="s">
+      <c r="F3" s="62"/>
+      <c r="G3" s="73" t="s">
         <v>146</v>
       </c>
       <c r="H3" s="27"/>
-      <c r="I3" s="61">
+      <c r="I3" s="62">
         <v>202.0</v>
       </c>
-      <c r="J3" s="62"/>
+      <c r="J3" s="63"/>
     </row>
     <row r="4">
       <c r="A4" s="20" t="s">
@@ -9608,22 +9697,22 @@
       <c r="B4" s="20" t="s">
         <v>567</v>
       </c>
-      <c r="C4" s="58" t="s">
+      <c r="C4" s="59" t="s">
         <v>565</v>
       </c>
       <c r="D4" s="22" t="s">
         <v>466</v>
       </c>
       <c r="E4" s="22"/>
-      <c r="F4" s="61"/>
-      <c r="G4" s="72" t="s">
+      <c r="F4" s="62"/>
+      <c r="G4" s="73" t="s">
         <v>146</v>
       </c>
       <c r="H4" s="27"/>
-      <c r="I4" s="61">
+      <c r="I4" s="62">
         <v>228.0</v>
       </c>
-      <c r="J4" s="62"/>
+      <c r="J4" s="63"/>
     </row>
     <row r="5">
       <c r="A5" s="20" t="s">
@@ -9632,22 +9721,22 @@
       <c r="B5" s="20" t="s">
         <v>569</v>
       </c>
-      <c r="C5" s="58" t="s">
+      <c r="C5" s="59" t="s">
         <v>565</v>
       </c>
       <c r="D5" s="22" t="s">
         <v>469</v>
       </c>
       <c r="E5" s="22"/>
-      <c r="F5" s="61"/>
-      <c r="G5" s="72" t="s">
+      <c r="F5" s="62"/>
+      <c r="G5" s="73" t="s">
         <v>146</v>
       </c>
       <c r="H5" s="27"/>
-      <c r="I5" s="61" t="s">
+      <c r="I5" s="62" t="s">
         <v>151</v>
       </c>
-      <c r="J5" s="62"/>
+      <c r="J5" s="63"/>
     </row>
     <row r="6">
       <c r="A6" s="20" t="s">
@@ -9656,22 +9745,22 @@
       <c r="B6" s="20" t="s">
         <v>571</v>
       </c>
-      <c r="C6" s="58" t="s">
+      <c r="C6" s="59" t="s">
         <v>565</v>
       </c>
-      <c r="D6" s="73" t="s">
+      <c r="D6" s="74" t="s">
         <v>472</v>
       </c>
-      <c r="E6" s="73"/>
-      <c r="F6" s="61"/>
-      <c r="G6" s="72" t="s">
+      <c r="E6" s="74"/>
+      <c r="F6" s="62"/>
+      <c r="G6" s="73" t="s">
         <v>146</v>
       </c>
       <c r="H6" s="27"/>
-      <c r="I6" s="74">
+      <c r="I6" s="75">
         <v>265.0</v>
       </c>
-      <c r="J6" s="62"/>
+      <c r="J6" s="63"/>
     </row>
     <row r="7">
       <c r="A7" s="20" t="s">
@@ -9680,22 +9769,22 @@
       <c r="B7" s="20" t="s">
         <v>573</v>
       </c>
-      <c r="C7" s="58" t="s">
+      <c r="C7" s="59" t="s">
         <v>565</v>
       </c>
-      <c r="D7" s="73" t="s">
+      <c r="D7" s="74" t="s">
         <v>475</v>
       </c>
-      <c r="E7" s="73"/>
-      <c r="F7" s="61"/>
-      <c r="G7" s="72" t="s">
+      <c r="E7" s="74"/>
+      <c r="F7" s="62"/>
+      <c r="G7" s="73" t="s">
         <v>146</v>
       </c>
       <c r="H7" s="27"/>
-      <c r="I7" s="74">
+      <c r="I7" s="75">
         <v>266.0</v>
       </c>
-      <c r="J7" s="62"/>
+      <c r="J7" s="63"/>
     </row>
     <row r="8">
       <c r="A8" s="20" t="s">
@@ -9704,22 +9793,22 @@
       <c r="B8" s="20" t="s">
         <v>575</v>
       </c>
-      <c r="C8" s="58" t="s">
+      <c r="C8" s="59" t="s">
         <v>565</v>
       </c>
       <c r="D8" s="22" t="s">
         <v>478</v>
       </c>
       <c r="E8" s="22"/>
-      <c r="F8" s="61"/>
-      <c r="G8" s="72" t="s">
+      <c r="F8" s="62"/>
+      <c r="G8" s="73" t="s">
         <v>146</v>
       </c>
       <c r="H8" s="27"/>
-      <c r="I8" s="61">
+      <c r="I8" s="62">
         <v>262.0</v>
       </c>
-      <c r="J8" s="62"/>
+      <c r="J8" s="63"/>
     </row>
     <row r="9">
       <c r="A9" s="20" t="s">
@@ -9728,22 +9817,22 @@
       <c r="B9" s="20" t="s">
         <v>577</v>
       </c>
-      <c r="C9" s="58" t="s">
+      <c r="C9" s="59" t="s">
         <v>565</v>
       </c>
       <c r="D9" s="22" t="s">
         <v>481</v>
       </c>
       <c r="E9" s="22"/>
-      <c r="F9" s="61"/>
-      <c r="G9" s="72" t="s">
+      <c r="F9" s="62"/>
+      <c r="G9" s="73" t="s">
         <v>146</v>
       </c>
       <c r="H9" s="27"/>
-      <c r="I9" s="61">
+      <c r="I9" s="62">
         <v>264.0</v>
       </c>
-      <c r="J9" s="62"/>
+      <c r="J9" s="63"/>
     </row>
     <row r="10">
       <c r="A10" s="20" t="s">
@@ -9752,22 +9841,22 @@
       <c r="B10" s="20" t="s">
         <v>579</v>
       </c>
-      <c r="C10" s="75" t="s">
+      <c r="C10" s="76" t="s">
         <v>565</v>
       </c>
       <c r="D10" s="27" t="s">
         <v>484</v>
       </c>
       <c r="E10" s="27"/>
-      <c r="F10" s="61"/>
-      <c r="G10" s="72" t="s">
+      <c r="F10" s="62"/>
+      <c r="G10" s="73" t="s">
         <v>146</v>
       </c>
       <c r="H10" s="27"/>
-      <c r="I10" s="62" t="s">
+      <c r="I10" s="63" t="s">
         <v>580</v>
       </c>
-      <c r="J10" s="62"/>
+      <c r="J10" s="63"/>
     </row>
     <row r="11">
       <c r="A11" s="20" t="s">
@@ -9776,22 +9865,22 @@
       <c r="B11" s="20" t="s">
         <v>582</v>
       </c>
-      <c r="C11" s="75" t="s">
+      <c r="C11" s="76" t="s">
         <v>565</v>
       </c>
       <c r="D11" s="27" t="s">
         <v>493</v>
       </c>
       <c r="E11" s="27"/>
-      <c r="F11" s="61"/>
-      <c r="G11" s="72" t="s">
+      <c r="F11" s="62"/>
+      <c r="G11" s="73" t="s">
         <v>146</v>
       </c>
       <c r="H11" s="27"/>
-      <c r="I11" s="62" t="s">
+      <c r="I11" s="63" t="s">
         <v>583</v>
       </c>
-      <c r="J11" s="62"/>
+      <c r="J11" s="63"/>
     </row>
     <row r="12">
       <c r="A12" s="20" t="s">
@@ -9800,22 +9889,22 @@
       <c r="B12" s="20" t="s">
         <v>585</v>
       </c>
-      <c r="C12" s="75" t="s">
+      <c r="C12" s="76" t="s">
         <v>565</v>
       </c>
       <c r="D12" s="27" t="s">
         <v>496</v>
       </c>
       <c r="E12" s="27"/>
-      <c r="F12" s="61"/>
-      <c r="G12" s="72" t="s">
+      <c r="F12" s="62"/>
+      <c r="G12" s="73" t="s">
         <v>146</v>
       </c>
       <c r="H12" s="27"/>
-      <c r="I12" s="62" t="s">
+      <c r="I12" s="63" t="s">
         <v>586</v>
       </c>
-      <c r="J12" s="62"/>
+      <c r="J12" s="63"/>
     </row>
     <row r="13">
       <c r="A13" s="20" t="s">
@@ -9824,22 +9913,22 @@
       <c r="B13" s="20" t="s">
         <v>588</v>
       </c>
-      <c r="C13" s="75" t="s">
+      <c r="C13" s="76" t="s">
         <v>565</v>
       </c>
       <c r="D13" s="27" t="s">
         <v>487</v>
       </c>
       <c r="E13" s="27"/>
-      <c r="F13" s="61"/>
-      <c r="G13" s="72" t="s">
+      <c r="F13" s="62"/>
+      <c r="G13" s="73" t="s">
         <v>146</v>
       </c>
       <c r="H13" s="27"/>
-      <c r="I13" s="62" t="s">
+      <c r="I13" s="63" t="s">
         <v>589</v>
       </c>
-      <c r="J13" s="62"/>
+      <c r="J13" s="63"/>
     </row>
     <row r="14">
       <c r="A14" s="20" t="s">
@@ -9848,22 +9937,22 @@
       <c r="B14" s="20" t="s">
         <v>591</v>
       </c>
-      <c r="C14" s="75" t="s">
+      <c r="C14" s="76" t="s">
         <v>565</v>
       </c>
       <c r="D14" s="27" t="s">
         <v>490</v>
       </c>
       <c r="E14" s="27"/>
-      <c r="F14" s="61"/>
-      <c r="G14" s="72" t="s">
+      <c r="F14" s="62"/>
+      <c r="G14" s="73" t="s">
         <v>146</v>
       </c>
       <c r="H14" s="27"/>
-      <c r="I14" s="62" t="s">
+      <c r="I14" s="63" t="s">
         <v>592</v>
       </c>
-      <c r="J14" s="62"/>
+      <c r="J14" s="63"/>
     </row>
     <row r="15">
       <c r="A15" s="20" t="s">
@@ -9872,22 +9961,22 @@
       <c r="B15" s="20" t="s">
         <v>594</v>
       </c>
-      <c r="C15" s="58" t="s">
+      <c r="C15" s="59" t="s">
         <v>565</v>
       </c>
       <c r="D15" s="26" t="s">
         <v>499</v>
       </c>
       <c r="E15" s="26"/>
-      <c r="F15" s="61"/>
-      <c r="G15" s="72" t="s">
+      <c r="F15" s="62"/>
+      <c r="G15" s="73" t="s">
         <v>146</v>
       </c>
       <c r="H15" s="27"/>
-      <c r="I15" s="61">
+      <c r="I15" s="62">
         <v>220.0</v>
       </c>
-      <c r="J15" s="62"/>
+      <c r="J15" s="63"/>
     </row>
     <row r="16">
       <c r="A16" s="20" t="s">
@@ -9896,22 +9985,22 @@
       <c r="B16" s="20" t="s">
         <v>596</v>
       </c>
-      <c r="C16" s="58" t="s">
+      <c r="C16" s="59" t="s">
         <v>565</v>
       </c>
       <c r="D16" s="26" t="s">
         <v>502</v>
       </c>
       <c r="E16" s="26"/>
-      <c r="F16" s="61"/>
-      <c r="G16" s="72" t="s">
+      <c r="F16" s="62"/>
+      <c r="G16" s="73" t="s">
         <v>146</v>
       </c>
       <c r="H16" s="27"/>
-      <c r="I16" s="61">
+      <c r="I16" s="62">
         <v>220.0</v>
       </c>
-      <c r="J16" s="62"/>
+      <c r="J16" s="63"/>
     </row>
     <row r="17">
       <c r="A17" s="20" t="s">
@@ -9920,22 +10009,22 @@
       <c r="B17" s="20" t="s">
         <v>598</v>
       </c>
-      <c r="C17" s="58" t="s">
+      <c r="C17" s="59" t="s">
         <v>565</v>
       </c>
       <c r="D17" s="26" t="s">
         <v>505</v>
       </c>
       <c r="E17" s="26"/>
-      <c r="F17" s="61"/>
-      <c r="G17" s="72" t="s">
+      <c r="F17" s="62"/>
+      <c r="G17" s="73" t="s">
         <v>146</v>
       </c>
       <c r="H17" s="27"/>
-      <c r="I17" s="61">
+      <c r="I17" s="62">
         <v>220.0</v>
       </c>
-      <c r="J17" s="62"/>
+      <c r="J17" s="63"/>
     </row>
     <row r="18">
       <c r="A18" s="20" t="s">
@@ -9944,22 +10033,22 @@
       <c r="B18" s="20" t="s">
         <v>600</v>
       </c>
-      <c r="C18" s="58" t="s">
+      <c r="C18" s="59" t="s">
         <v>565</v>
       </c>
       <c r="D18" s="26" t="s">
         <v>508</v>
       </c>
       <c r="E18" s="26"/>
-      <c r="F18" s="61"/>
-      <c r="G18" s="72" t="s">
+      <c r="F18" s="62"/>
+      <c r="G18" s="73" t="s">
         <v>146</v>
       </c>
       <c r="H18" s="27"/>
-      <c r="I18" s="61">
+      <c r="I18" s="62">
         <v>220.0</v>
       </c>
-      <c r="J18" s="62"/>
+      <c r="J18" s="63"/>
     </row>
     <row r="19">
       <c r="A19" s="20" t="s">
@@ -9968,22 +10057,22 @@
       <c r="B19" s="20" t="s">
         <v>602</v>
       </c>
-      <c r="C19" s="58" t="s">
+      <c r="C19" s="59" t="s">
         <v>565</v>
       </c>
       <c r="D19" s="26" t="s">
         <v>511</v>
       </c>
       <c r="E19" s="26"/>
-      <c r="F19" s="61"/>
-      <c r="G19" s="72" t="s">
+      <c r="F19" s="62"/>
+      <c r="G19" s="73" t="s">
         <v>146</v>
       </c>
       <c r="H19" s="27"/>
-      <c r="I19" s="61">
+      <c r="I19" s="62">
         <v>220.0</v>
       </c>
-      <c r="J19" s="62"/>
+      <c r="J19" s="63"/>
     </row>
     <row r="20">
       <c r="A20" s="20" t="s">
@@ -9992,22 +10081,22 @@
       <c r="B20" s="20" t="s">
         <v>604</v>
       </c>
-      <c r="C20" s="58" t="s">
+      <c r="C20" s="59" t="s">
         <v>565</v>
       </c>
       <c r="D20" s="26" t="s">
         <v>514</v>
       </c>
       <c r="E20" s="26"/>
-      <c r="F20" s="61"/>
-      <c r="G20" s="72" t="s">
+      <c r="F20" s="62"/>
+      <c r="G20" s="73" t="s">
         <v>146</v>
       </c>
       <c r="H20" s="27"/>
-      <c r="I20" s="61">
+      <c r="I20" s="62">
         <v>220.0</v>
       </c>
-      <c r="J20" s="62"/>
+      <c r="J20" s="63"/>
     </row>
     <row r="21">
       <c r="A21" s="20" t="s">
@@ -10016,22 +10105,22 @@
       <c r="B21" s="20" t="s">
         <v>606</v>
       </c>
-      <c r="C21" s="58" t="s">
+      <c r="C21" s="59" t="s">
         <v>565</v>
       </c>
       <c r="D21" s="26" t="s">
         <v>517</v>
       </c>
       <c r="E21" s="26"/>
-      <c r="F21" s="61"/>
-      <c r="G21" s="72" t="s">
+      <c r="F21" s="62"/>
+      <c r="G21" s="73" t="s">
         <v>146</v>
       </c>
       <c r="H21" s="27"/>
-      <c r="I21" s="61">
+      <c r="I21" s="62">
         <v>220.0</v>
       </c>
-      <c r="J21" s="62"/>
+      <c r="J21" s="63"/>
     </row>
     <row r="22">
       <c r="A22" s="20" t="s">
@@ -10040,22 +10129,22 @@
       <c r="B22" s="20" t="s">
         <v>608</v>
       </c>
-      <c r="C22" s="58" t="s">
+      <c r="C22" s="59" t="s">
         <v>565</v>
       </c>
       <c r="D22" s="26" t="s">
         <v>520</v>
       </c>
       <c r="E22" s="26"/>
-      <c r="F22" s="61"/>
-      <c r="G22" s="72" t="s">
+      <c r="F22" s="62"/>
+      <c r="G22" s="73" t="s">
         <v>146</v>
       </c>
       <c r="H22" s="27"/>
-      <c r="I22" s="61">
+      <c r="I22" s="62">
         <v>220.0</v>
       </c>
-      <c r="J22" s="62"/>
+      <c r="J22" s="63"/>
     </row>
     <row r="23">
       <c r="A23" s="20" t="s">
@@ -10064,22 +10153,22 @@
       <c r="B23" s="20" t="s">
         <v>610</v>
       </c>
-      <c r="C23" s="58" t="s">
+      <c r="C23" s="59" t="s">
         <v>565</v>
       </c>
       <c r="D23" s="26" t="s">
         <v>523</v>
       </c>
       <c r="E23" s="26"/>
-      <c r="F23" s="61"/>
-      <c r="G23" s="72" t="s">
+      <c r="F23" s="62"/>
+      <c r="G23" s="73" t="s">
         <v>146</v>
       </c>
       <c r="H23" s="27"/>
-      <c r="I23" s="61">
+      <c r="I23" s="62">
         <v>220.0</v>
       </c>
-      <c r="J23" s="62"/>
+      <c r="J23" s="63"/>
     </row>
     <row r="24">
       <c r="A24" s="20" t="s">
@@ -10088,22 +10177,22 @@
       <c r="B24" s="20" t="s">
         <v>612</v>
       </c>
-      <c r="C24" s="58" t="s">
+      <c r="C24" s="59" t="s">
         <v>565</v>
       </c>
       <c r="D24" s="26" t="s">
         <v>526</v>
       </c>
       <c r="E24" s="26"/>
-      <c r="F24" s="61"/>
-      <c r="G24" s="72" t="s">
+      <c r="F24" s="62"/>
+      <c r="G24" s="73" t="s">
         <v>146</v>
       </c>
       <c r="H24" s="27"/>
-      <c r="I24" s="61">
+      <c r="I24" s="62">
         <v>220.0</v>
       </c>
-      <c r="J24" s="62"/>
+      <c r="J24" s="63"/>
     </row>
     <row r="25">
       <c r="A25" s="20" t="s">
@@ -10112,22 +10201,22 @@
       <c r="B25" s="20" t="s">
         <v>614</v>
       </c>
-      <c r="C25" s="58" t="s">
+      <c r="C25" s="59" t="s">
         <v>565</v>
       </c>
       <c r="D25" s="26" t="s">
         <v>529</v>
       </c>
       <c r="E25" s="26"/>
-      <c r="F25" s="61"/>
-      <c r="G25" s="72" t="s">
+      <c r="F25" s="62"/>
+      <c r="G25" s="73" t="s">
         <v>146</v>
       </c>
       <c r="H25" s="27"/>
-      <c r="I25" s="61">
+      <c r="I25" s="62">
         <v>220.0</v>
       </c>
-      <c r="J25" s="62"/>
+      <c r="J25" s="63"/>
     </row>
     <row r="26">
       <c r="A26" s="20" t="s">
@@ -10136,22 +10225,22 @@
       <c r="B26" s="20" t="s">
         <v>616</v>
       </c>
-      <c r="C26" s="58" t="s">
+      <c r="C26" s="59" t="s">
         <v>565</v>
       </c>
       <c r="D26" s="26" t="s">
         <v>532</v>
       </c>
       <c r="E26" s="26"/>
-      <c r="F26" s="61"/>
-      <c r="G26" s="72" t="s">
+      <c r="F26" s="62"/>
+      <c r="G26" s="73" t="s">
         <v>146</v>
       </c>
       <c r="H26" s="27"/>
-      <c r="I26" s="61">
+      <c r="I26" s="62">
         <v>220.0</v>
       </c>
-      <c r="J26" s="62"/>
+      <c r="J26" s="63"/>
     </row>
     <row r="27">
       <c r="A27" s="20" t="s">
@@ -10160,22 +10249,22 @@
       <c r="B27" s="20" t="s">
         <v>618</v>
       </c>
-      <c r="C27" s="58" t="s">
+      <c r="C27" s="59" t="s">
         <v>565</v>
       </c>
       <c r="D27" s="26" t="s">
         <v>535</v>
       </c>
       <c r="E27" s="26"/>
-      <c r="F27" s="61"/>
-      <c r="G27" s="72" t="s">
+      <c r="F27" s="62"/>
+      <c r="G27" s="73" t="s">
         <v>146</v>
       </c>
       <c r="H27" s="27"/>
-      <c r="I27" s="61">
+      <c r="I27" s="62">
         <v>220.0</v>
       </c>
-      <c r="J27" s="62"/>
+      <c r="J27" s="63"/>
     </row>
     <row r="28">
       <c r="A28" s="20" t="s">
@@ -10184,22 +10273,22 @@
       <c r="B28" s="20" t="s">
         <v>620</v>
       </c>
-      <c r="C28" s="58" t="s">
+      <c r="C28" s="59" t="s">
         <v>565</v>
       </c>
       <c r="D28" s="26" t="s">
         <v>538</v>
       </c>
       <c r="E28" s="26"/>
-      <c r="F28" s="61"/>
-      <c r="G28" s="72" t="s">
+      <c r="F28" s="62"/>
+      <c r="G28" s="73" t="s">
         <v>146</v>
       </c>
       <c r="H28" s="27"/>
-      <c r="I28" s="61">
+      <c r="I28" s="62">
         <v>220.0</v>
       </c>
-      <c r="J28" s="62"/>
+      <c r="J28" s="63"/>
     </row>
     <row r="29">
       <c r="A29" s="20" t="s">
@@ -10208,22 +10297,22 @@
       <c r="B29" s="20" t="s">
         <v>622</v>
       </c>
-      <c r="C29" s="58" t="s">
+      <c r="C29" s="59" t="s">
         <v>565</v>
       </c>
       <c r="D29" s="26" t="s">
         <v>541</v>
       </c>
       <c r="E29" s="26"/>
-      <c r="F29" s="61"/>
-      <c r="G29" s="72" t="s">
+      <c r="F29" s="62"/>
+      <c r="G29" s="73" t="s">
         <v>146</v>
       </c>
       <c r="H29" s="27"/>
-      <c r="I29" s="61">
+      <c r="I29" s="62">
         <v>220.0</v>
       </c>
-      <c r="J29" s="62"/>
+      <c r="J29" s="63"/>
     </row>
     <row r="30">
       <c r="A30" s="20" t="s">
@@ -10232,22 +10321,22 @@
       <c r="B30" s="20" t="s">
         <v>624</v>
       </c>
-      <c r="C30" s="58" t="s">
+      <c r="C30" s="59" t="s">
         <v>565</v>
       </c>
       <c r="D30" s="26" t="s">
         <v>544</v>
       </c>
       <c r="E30" s="26"/>
-      <c r="F30" s="61"/>
-      <c r="G30" s="72" t="s">
+      <c r="F30" s="62"/>
+      <c r="G30" s="73" t="s">
         <v>146</v>
       </c>
       <c r="H30" s="27"/>
-      <c r="I30" s="61">
+      <c r="I30" s="62">
         <v>220.0</v>
       </c>
-      <c r="J30" s="62"/>
+      <c r="J30" s="63"/>
     </row>
     <row r="31">
       <c r="A31" s="20" t="s">
@@ -10256,22 +10345,22 @@
       <c r="B31" s="20" t="s">
         <v>626</v>
       </c>
-      <c r="C31" s="58" t="s">
+      <c r="C31" s="59" t="s">
         <v>565</v>
       </c>
       <c r="D31" s="26" t="s">
         <v>547</v>
       </c>
       <c r="E31" s="26"/>
-      <c r="F31" s="61"/>
-      <c r="G31" s="72" t="s">
+      <c r="F31" s="62"/>
+      <c r="G31" s="73" t="s">
         <v>146</v>
       </c>
       <c r="H31" s="27"/>
-      <c r="I31" s="61">
+      <c r="I31" s="62">
         <v>220.0</v>
       </c>
-      <c r="J31" s="62"/>
+      <c r="J31" s="63"/>
     </row>
     <row r="32">
       <c r="A32" s="20" t="s">
@@ -10280,22 +10369,22 @@
       <c r="B32" s="20" t="s">
         <v>628</v>
       </c>
-      <c r="C32" s="58" t="s">
+      <c r="C32" s="59" t="s">
         <v>629</v>
       </c>
-      <c r="D32" s="76" t="s">
+      <c r="D32" s="77" t="s">
         <v>464</v>
       </c>
-      <c r="E32" s="76"/>
-      <c r="F32" s="61"/>
-      <c r="G32" s="72" t="s">
+      <c r="E32" s="77"/>
+      <c r="F32" s="62"/>
+      <c r="G32" s="73" t="s">
         <v>140</v>
       </c>
       <c r="H32" s="27"/>
-      <c r="I32" s="77" t="s">
+      <c r="I32" s="78" t="s">
         <v>630</v>
       </c>
-      <c r="J32" s="62"/>
+      <c r="J32" s="63"/>
     </row>
     <row r="33">
       <c r="A33" s="20" t="s">
@@ -10304,22 +10393,22 @@
       <c r="B33" s="20" t="s">
         <v>632</v>
       </c>
-      <c r="C33" s="58" t="s">
+      <c r="C33" s="59" t="s">
         <v>629</v>
       </c>
       <c r="D33" s="27" t="s">
         <v>467</v>
       </c>
       <c r="E33" s="27"/>
-      <c r="F33" s="61"/>
-      <c r="G33" s="72" t="s">
+      <c r="F33" s="62"/>
+      <c r="G33" s="73" t="s">
         <v>140</v>
       </c>
       <c r="H33" s="20"/>
-      <c r="I33" s="77" t="s">
+      <c r="I33" s="78" t="s">
         <v>633</v>
       </c>
-      <c r="J33" s="62"/>
+      <c r="J33" s="63"/>
     </row>
     <row r="34">
       <c r="A34" s="20" t="s">
@@ -10328,22 +10417,22 @@
       <c r="B34" s="20" t="s">
         <v>635</v>
       </c>
-      <c r="C34" s="58" t="s">
+      <c r="C34" s="59" t="s">
         <v>629</v>
       </c>
       <c r="D34" s="27" t="s">
         <v>470</v>
       </c>
       <c r="E34" s="27"/>
-      <c r="F34" s="61"/>
-      <c r="G34" s="72" t="s">
+      <c r="F34" s="62"/>
+      <c r="G34" s="73" t="s">
         <v>140</v>
       </c>
       <c r="H34" s="27"/>
-      <c r="I34" s="61" t="s">
+      <c r="I34" s="62" t="s">
         <v>636</v>
       </c>
-      <c r="J34" s="62"/>
+      <c r="J34" s="63"/>
     </row>
     <row r="35">
       <c r="A35" s="20" t="s">
@@ -10352,22 +10441,22 @@
       <c r="B35" s="20" t="s">
         <v>638</v>
       </c>
-      <c r="C35" s="58" t="s">
+      <c r="C35" s="59" t="s">
         <v>629</v>
       </c>
       <c r="D35" s="27" t="s">
         <v>473</v>
       </c>
       <c r="E35" s="27"/>
-      <c r="F35" s="61"/>
-      <c r="G35" s="72" t="s">
+      <c r="F35" s="62"/>
+      <c r="G35" s="73" t="s">
         <v>140</v>
       </c>
       <c r="H35" s="27"/>
-      <c r="I35" s="74" t="s">
+      <c r="I35" s="75" t="s">
         <v>639</v>
       </c>
-      <c r="J35" s="62"/>
+      <c r="J35" s="63"/>
     </row>
     <row r="36">
       <c r="A36" s="20" t="s">
@@ -10376,22 +10465,22 @@
       <c r="B36" s="20" t="s">
         <v>641</v>
       </c>
-      <c r="C36" s="58" t="s">
+      <c r="C36" s="59" t="s">
         <v>629</v>
       </c>
       <c r="D36" s="27" t="s">
         <v>476</v>
       </c>
       <c r="E36" s="27"/>
-      <c r="F36" s="61"/>
-      <c r="G36" s="72" t="s">
+      <c r="F36" s="62"/>
+      <c r="G36" s="73" t="s">
         <v>140</v>
       </c>
       <c r="H36" s="27"/>
-      <c r="I36" s="74" t="s">
+      <c r="I36" s="75" t="s">
         <v>642</v>
       </c>
-      <c r="J36" s="62"/>
+      <c r="J36" s="63"/>
     </row>
     <row r="37">
       <c r="A37" s="20" t="s">
@@ -10400,22 +10489,22 @@
       <c r="B37" s="20" t="s">
         <v>644</v>
       </c>
-      <c r="C37" s="58" t="s">
+      <c r="C37" s="59" t="s">
         <v>629</v>
       </c>
       <c r="D37" s="27" t="s">
         <v>479</v>
       </c>
       <c r="E37" s="27"/>
-      <c r="F37" s="61"/>
-      <c r="G37" s="72" t="s">
+      <c r="F37" s="62"/>
+      <c r="G37" s="73" t="s">
         <v>140</v>
       </c>
       <c r="H37" s="27"/>
-      <c r="I37" s="62" t="s">
+      <c r="I37" s="63" t="s">
         <v>645</v>
       </c>
-      <c r="J37" s="62"/>
+      <c r="J37" s="63"/>
     </row>
     <row r="38">
       <c r="A38" s="20" t="s">
@@ -10424,22 +10513,22 @@
       <c r="B38" s="20" t="s">
         <v>647</v>
       </c>
-      <c r="C38" s="58" t="s">
+      <c r="C38" s="59" t="s">
         <v>629</v>
       </c>
       <c r="D38" s="27" t="s">
         <v>482</v>
       </c>
       <c r="E38" s="27"/>
-      <c r="F38" s="61"/>
-      <c r="G38" s="72" t="s">
+      <c r="F38" s="62"/>
+      <c r="G38" s="73" t="s">
         <v>140</v>
       </c>
       <c r="H38" s="27"/>
-      <c r="I38" s="62" t="s">
+      <c r="I38" s="63" t="s">
         <v>648</v>
       </c>
-      <c r="J38" s="62"/>
+      <c r="J38" s="63"/>
     </row>
     <row r="39">
       <c r="A39" s="20" t="s">
@@ -10448,22 +10537,22 @@
       <c r="B39" s="20" t="s">
         <v>650</v>
       </c>
-      <c r="C39" s="75" t="s">
+      <c r="C39" s="76" t="s">
         <v>629</v>
       </c>
       <c r="D39" s="27" t="s">
         <v>485</v>
       </c>
       <c r="E39" s="27"/>
-      <c r="F39" s="61"/>
-      <c r="G39" s="72" t="s">
+      <c r="F39" s="62"/>
+      <c r="G39" s="73" t="s">
         <v>140</v>
       </c>
       <c r="H39" s="27"/>
-      <c r="I39" s="62" t="s">
+      <c r="I39" s="63" t="s">
         <v>651</v>
       </c>
-      <c r="J39" s="62"/>
+      <c r="J39" s="63"/>
     </row>
     <row r="40">
       <c r="A40" s="20" t="s">
@@ -10472,22 +10561,22 @@
       <c r="B40" s="20" t="s">
         <v>653</v>
       </c>
-      <c r="C40" s="75" t="s">
+      <c r="C40" s="76" t="s">
         <v>629</v>
       </c>
       <c r="D40" s="27" t="s">
         <v>494</v>
       </c>
       <c r="E40" s="27"/>
-      <c r="F40" s="61"/>
-      <c r="G40" s="72" t="s">
+      <c r="F40" s="62"/>
+      <c r="G40" s="73" t="s">
         <v>140</v>
       </c>
       <c r="H40" s="27"/>
-      <c r="I40" s="62" t="s">
+      <c r="I40" s="63" t="s">
         <v>654</v>
       </c>
-      <c r="J40" s="62"/>
+      <c r="J40" s="63"/>
     </row>
     <row r="41">
       <c r="A41" s="20" t="s">
@@ -10496,22 +10585,22 @@
       <c r="B41" s="20" t="s">
         <v>656</v>
       </c>
-      <c r="C41" s="75" t="s">
+      <c r="C41" s="76" t="s">
         <v>629</v>
       </c>
       <c r="D41" s="27" t="s">
         <v>497</v>
       </c>
       <c r="E41" s="27"/>
-      <c r="F41" s="61"/>
-      <c r="G41" s="72" t="s">
+      <c r="F41" s="62"/>
+      <c r="G41" s="73" t="s">
         <v>140</v>
       </c>
       <c r="H41" s="27"/>
-      <c r="I41" s="62" t="s">
+      <c r="I41" s="63" t="s">
         <v>654</v>
       </c>
-      <c r="J41" s="62"/>
+      <c r="J41" s="63"/>
     </row>
     <row r="42">
       <c r="A42" s="20" t="s">
@@ -10520,22 +10609,22 @@
       <c r="B42" s="20" t="s">
         <v>658</v>
       </c>
-      <c r="C42" s="75" t="s">
+      <c r="C42" s="76" t="s">
         <v>629</v>
       </c>
       <c r="D42" s="27" t="s">
         <v>488</v>
       </c>
       <c r="E42" s="27"/>
-      <c r="F42" s="61"/>
-      <c r="G42" s="72" t="s">
+      <c r="F42" s="62"/>
+      <c r="G42" s="73" t="s">
         <v>140</v>
       </c>
       <c r="H42" s="27"/>
-      <c r="I42" s="62" t="s">
+      <c r="I42" s="63" t="s">
         <v>651</v>
       </c>
-      <c r="J42" s="62"/>
+      <c r="J42" s="63"/>
     </row>
     <row r="43">
       <c r="A43" s="20" t="s">
@@ -10544,22 +10633,22 @@
       <c r="B43" s="20" t="s">
         <v>660</v>
       </c>
-      <c r="C43" s="75" t="s">
+      <c r="C43" s="76" t="s">
         <v>629</v>
       </c>
       <c r="D43" s="27" t="s">
         <v>491</v>
       </c>
       <c r="E43" s="27"/>
-      <c r="F43" s="61"/>
-      <c r="G43" s="72" t="s">
+      <c r="F43" s="62"/>
+      <c r="G43" s="73" t="s">
         <v>140</v>
       </c>
       <c r="H43" s="27"/>
-      <c r="I43" s="62" t="s">
+      <c r="I43" s="63" t="s">
         <v>651</v>
       </c>
-      <c r="J43" s="62"/>
+      <c r="J43" s="63"/>
     </row>
     <row r="44">
       <c r="A44" s="20" t="s">
@@ -10568,22 +10657,22 @@
       <c r="B44" s="20" t="s">
         <v>662</v>
       </c>
-      <c r="C44" s="58" t="s">
+      <c r="C44" s="59" t="s">
         <v>629</v>
       </c>
       <c r="D44" s="26" t="s">
         <v>500</v>
       </c>
       <c r="E44" s="26"/>
-      <c r="F44" s="61"/>
-      <c r="G44" s="72" t="s">
+      <c r="F44" s="62"/>
+      <c r="G44" s="73" t="s">
         <v>140</v>
       </c>
       <c r="H44" s="27"/>
-      <c r="I44" s="62" t="s">
+      <c r="I44" s="63" t="s">
         <v>663</v>
       </c>
-      <c r="J44" s="62"/>
+      <c r="J44" s="63"/>
     </row>
     <row r="45">
       <c r="A45" s="20" t="s">
@@ -10592,22 +10681,22 @@
       <c r="B45" s="20" t="s">
         <v>665</v>
       </c>
-      <c r="C45" s="58" t="s">
+      <c r="C45" s="59" t="s">
         <v>629</v>
       </c>
       <c r="D45" s="26" t="s">
         <v>503</v>
       </c>
       <c r="E45" s="26"/>
-      <c r="F45" s="61"/>
-      <c r="G45" s="72" t="s">
+      <c r="F45" s="62"/>
+      <c r="G45" s="73" t="s">
         <v>140</v>
       </c>
       <c r="H45" s="27"/>
-      <c r="I45" s="62" t="s">
+      <c r="I45" s="63" t="s">
         <v>666</v>
       </c>
-      <c r="J45" s="62"/>
+      <c r="J45" s="63"/>
     </row>
     <row r="46">
       <c r="A46" s="20" t="s">
@@ -10616,22 +10705,22 @@
       <c r="B46" s="20" t="s">
         <v>668</v>
       </c>
-      <c r="C46" s="58" t="s">
+      <c r="C46" s="59" t="s">
         <v>629</v>
       </c>
       <c r="D46" s="26" t="s">
         <v>506</v>
       </c>
       <c r="E46" s="26"/>
-      <c r="F46" s="61"/>
-      <c r="G46" s="72" t="s">
+      <c r="F46" s="62"/>
+      <c r="G46" s="73" t="s">
         <v>140</v>
       </c>
       <c r="H46" s="27"/>
-      <c r="I46" s="62" t="s">
+      <c r="I46" s="63" t="s">
         <v>669</v>
       </c>
-      <c r="J46" s="62"/>
+      <c r="J46" s="63"/>
     </row>
     <row r="47">
       <c r="A47" s="20" t="s">
@@ -10640,22 +10729,22 @@
       <c r="B47" s="20" t="s">
         <v>671</v>
       </c>
-      <c r="C47" s="58" t="s">
+      <c r="C47" s="59" t="s">
         <v>629</v>
       </c>
       <c r="D47" s="26" t="s">
         <v>509</v>
       </c>
       <c r="E47" s="26"/>
-      <c r="F47" s="61"/>
-      <c r="G47" s="72" t="s">
+      <c r="F47" s="62"/>
+      <c r="G47" s="73" t="s">
         <v>140</v>
       </c>
       <c r="H47" s="27"/>
-      <c r="I47" s="62" t="s">
+      <c r="I47" s="63" t="s">
         <v>672</v>
       </c>
-      <c r="J47" s="62"/>
+      <c r="J47" s="63"/>
     </row>
     <row r="48">
       <c r="A48" s="20" t="s">
@@ -10664,22 +10753,22 @@
       <c r="B48" s="20" t="s">
         <v>674</v>
       </c>
-      <c r="C48" s="58" t="s">
+      <c r="C48" s="59" t="s">
         <v>629</v>
       </c>
       <c r="D48" s="26" t="s">
         <v>512</v>
       </c>
       <c r="E48" s="26"/>
-      <c r="F48" s="61"/>
-      <c r="G48" s="72" t="s">
+      <c r="F48" s="62"/>
+      <c r="G48" s="73" t="s">
         <v>140</v>
       </c>
       <c r="H48" s="27"/>
-      <c r="I48" s="62" t="s">
+      <c r="I48" s="63" t="s">
         <v>675</v>
       </c>
-      <c r="J48" s="62"/>
+      <c r="J48" s="63"/>
     </row>
     <row r="49">
       <c r="A49" s="20" t="s">
@@ -10688,22 +10777,22 @@
       <c r="B49" s="20" t="s">
         <v>677</v>
       </c>
-      <c r="C49" s="58" t="s">
+      <c r="C49" s="59" t="s">
         <v>629</v>
       </c>
       <c r="D49" s="26" t="s">
         <v>515</v>
       </c>
       <c r="E49" s="26"/>
-      <c r="F49" s="61"/>
-      <c r="G49" s="72" t="s">
+      <c r="F49" s="62"/>
+      <c r="G49" s="73" t="s">
         <v>140</v>
       </c>
       <c r="H49" s="27"/>
-      <c r="I49" s="62" t="s">
+      <c r="I49" s="63" t="s">
         <v>678</v>
       </c>
-      <c r="J49" s="62"/>
+      <c r="J49" s="63"/>
     </row>
     <row r="50">
       <c r="A50" s="20" t="s">
@@ -10712,22 +10801,22 @@
       <c r="B50" s="20" t="s">
         <v>680</v>
       </c>
-      <c r="C50" s="58" t="s">
+      <c r="C50" s="59" t="s">
         <v>629</v>
       </c>
       <c r="D50" s="26" t="s">
         <v>518</v>
       </c>
       <c r="E50" s="26"/>
-      <c r="F50" s="61"/>
-      <c r="G50" s="72" t="s">
+      <c r="F50" s="62"/>
+      <c r="G50" s="73" t="s">
         <v>140</v>
       </c>
       <c r="H50" s="27"/>
-      <c r="I50" s="62" t="s">
+      <c r="I50" s="63" t="s">
         <v>681</v>
       </c>
-      <c r="J50" s="62"/>
+      <c r="J50" s="63"/>
     </row>
     <row r="51">
       <c r="A51" s="20" t="s">
@@ -10736,22 +10825,22 @@
       <c r="B51" s="20" t="s">
         <v>683</v>
       </c>
-      <c r="C51" s="58" t="s">
+      <c r="C51" s="59" t="s">
         <v>629</v>
       </c>
       <c r="D51" s="26" t="s">
         <v>521</v>
       </c>
       <c r="E51" s="26"/>
-      <c r="F51" s="61"/>
-      <c r="G51" s="72" t="s">
+      <c r="F51" s="62"/>
+      <c r="G51" s="73" t="s">
         <v>140</v>
       </c>
       <c r="H51" s="27"/>
-      <c r="I51" s="62" t="s">
+      <c r="I51" s="63" t="s">
         <v>684</v>
       </c>
-      <c r="J51" s="62"/>
+      <c r="J51" s="63"/>
     </row>
     <row r="52">
       <c r="A52" s="20" t="s">
@@ -10760,22 +10849,22 @@
       <c r="B52" s="20" t="s">
         <v>686</v>
       </c>
-      <c r="C52" s="58" t="s">
+      <c r="C52" s="59" t="s">
         <v>629</v>
       </c>
       <c r="D52" s="26" t="s">
         <v>524</v>
       </c>
       <c r="E52" s="26"/>
-      <c r="F52" s="61"/>
-      <c r="G52" s="72" t="s">
+      <c r="F52" s="62"/>
+      <c r="G52" s="73" t="s">
         <v>140</v>
       </c>
       <c r="H52" s="27"/>
-      <c r="I52" s="62" t="s">
+      <c r="I52" s="63" t="s">
         <v>687</v>
       </c>
-      <c r="J52" s="62"/>
+      <c r="J52" s="63"/>
     </row>
     <row r="53">
       <c r="A53" s="20" t="s">
@@ -10784,22 +10873,22 @@
       <c r="B53" s="20" t="s">
         <v>689</v>
       </c>
-      <c r="C53" s="58" t="s">
+      <c r="C53" s="59" t="s">
         <v>629</v>
       </c>
       <c r="D53" s="26" t="s">
         <v>527</v>
       </c>
       <c r="E53" s="26"/>
-      <c r="F53" s="61"/>
-      <c r="G53" s="72" t="s">
+      <c r="F53" s="62"/>
+      <c r="G53" s="73" t="s">
         <v>140</v>
       </c>
       <c r="H53" s="27"/>
-      <c r="I53" s="62" t="s">
+      <c r="I53" s="63" t="s">
         <v>690</v>
       </c>
-      <c r="J53" s="62"/>
+      <c r="J53" s="63"/>
     </row>
     <row r="54">
       <c r="A54" s="20" t="s">
@@ -10808,22 +10897,22 @@
       <c r="B54" s="20" t="s">
         <v>692</v>
       </c>
-      <c r="C54" s="58" t="s">
+      <c r="C54" s="59" t="s">
         <v>629</v>
       </c>
       <c r="D54" s="26" t="s">
         <v>530</v>
       </c>
       <c r="E54" s="26"/>
-      <c r="F54" s="61"/>
-      <c r="G54" s="72" t="s">
+      <c r="F54" s="62"/>
+      <c r="G54" s="73" t="s">
         <v>140</v>
       </c>
       <c r="H54" s="27"/>
-      <c r="I54" s="62" t="s">
+      <c r="I54" s="63" t="s">
         <v>693</v>
       </c>
-      <c r="J54" s="62"/>
+      <c r="J54" s="63"/>
     </row>
     <row r="55">
       <c r="A55" s="20" t="s">
@@ -10832,22 +10921,22 @@
       <c r="B55" s="20" t="s">
         <v>695</v>
       </c>
-      <c r="C55" s="58" t="s">
+      <c r="C55" s="59" t="s">
         <v>629</v>
       </c>
       <c r="D55" s="26" t="s">
         <v>533</v>
       </c>
       <c r="E55" s="26"/>
-      <c r="F55" s="61"/>
-      <c r="G55" s="72" t="s">
+      <c r="F55" s="62"/>
+      <c r="G55" s="73" t="s">
         <v>140</v>
       </c>
       <c r="H55" s="27"/>
-      <c r="I55" s="62" t="s">
+      <c r="I55" s="63" t="s">
         <v>696</v>
       </c>
-      <c r="J55" s="62"/>
+      <c r="J55" s="63"/>
     </row>
     <row r="56">
       <c r="A56" s="20" t="s">
@@ -10856,22 +10945,22 @@
       <c r="B56" s="20" t="s">
         <v>698</v>
       </c>
-      <c r="C56" s="58" t="s">
+      <c r="C56" s="59" t="s">
         <v>629</v>
       </c>
       <c r="D56" s="26" t="s">
         <v>536</v>
       </c>
       <c r="E56" s="26"/>
-      <c r="F56" s="61"/>
-      <c r="G56" s="72" t="s">
+      <c r="F56" s="62"/>
+      <c r="G56" s="73" t="s">
         <v>140</v>
       </c>
       <c r="H56" s="27"/>
-      <c r="I56" s="62" t="s">
+      <c r="I56" s="63" t="s">
         <v>699</v>
       </c>
-      <c r="J56" s="62"/>
+      <c r="J56" s="63"/>
     </row>
     <row r="57">
       <c r="A57" s="20" t="s">
@@ -10880,22 +10969,22 @@
       <c r="B57" s="20" t="s">
         <v>701</v>
       </c>
-      <c r="C57" s="58" t="s">
+      <c r="C57" s="59" t="s">
         <v>629</v>
       </c>
       <c r="D57" s="26" t="s">
         <v>539</v>
       </c>
       <c r="E57" s="26"/>
-      <c r="F57" s="61"/>
-      <c r="G57" s="72" t="s">
+      <c r="F57" s="62"/>
+      <c r="G57" s="73" t="s">
         <v>140</v>
       </c>
       <c r="H57" s="27"/>
-      <c r="I57" s="62" t="s">
+      <c r="I57" s="63" t="s">
         <v>702</v>
       </c>
-      <c r="J57" s="62"/>
+      <c r="J57" s="63"/>
     </row>
     <row r="58">
       <c r="A58" s="20" t="s">
@@ -10904,22 +10993,22 @@
       <c r="B58" s="20" t="s">
         <v>704</v>
       </c>
-      <c r="C58" s="58" t="s">
+      <c r="C58" s="59" t="s">
         <v>629</v>
       </c>
       <c r="D58" s="26" t="s">
         <v>542</v>
       </c>
       <c r="E58" s="26"/>
-      <c r="F58" s="61"/>
-      <c r="G58" s="72" t="s">
+      <c r="F58" s="62"/>
+      <c r="G58" s="73" t="s">
         <v>140</v>
       </c>
       <c r="H58" s="27"/>
-      <c r="I58" s="62" t="s">
+      <c r="I58" s="63" t="s">
         <v>705</v>
       </c>
-      <c r="J58" s="62"/>
+      <c r="J58" s="63"/>
     </row>
     <row r="59">
       <c r="A59" s="20" t="s">
@@ -10928,22 +11017,22 @@
       <c r="B59" s="20" t="s">
         <v>707</v>
       </c>
-      <c r="C59" s="58" t="s">
+      <c r="C59" s="59" t="s">
         <v>629</v>
       </c>
       <c r="D59" s="26" t="s">
         <v>545</v>
       </c>
       <c r="E59" s="26"/>
-      <c r="F59" s="61"/>
-      <c r="G59" s="72" t="s">
+      <c r="F59" s="62"/>
+      <c r="G59" s="73" t="s">
         <v>140</v>
       </c>
       <c r="H59" s="27"/>
       <c r="I59" s="20" t="s">
         <v>708</v>
       </c>
-      <c r="J59" s="62"/>
+      <c r="J59" s="63"/>
     </row>
     <row r="60">
       <c r="A60" s="20" t="s">
@@ -10952,22 +11041,22 @@
       <c r="B60" s="20" t="s">
         <v>710</v>
       </c>
-      <c r="C60" s="58" t="s">
+      <c r="C60" s="59" t="s">
         <v>629</v>
       </c>
       <c r="D60" s="26" t="s">
         <v>548</v>
       </c>
       <c r="E60" s="26"/>
-      <c r="F60" s="61"/>
-      <c r="G60" s="72" t="s">
+      <c r="F60" s="62"/>
+      <c r="G60" s="73" t="s">
         <v>140</v>
       </c>
       <c r="H60" s="27"/>
-      <c r="I60" s="62" t="s">
+      <c r="I60" s="63" t="s">
         <v>711</v>
       </c>
-      <c r="J60" s="62"/>
+      <c r="J60" s="63"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -10982,14 +11071,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="3" max="3" width="40.29"/>
-    <col customWidth="1" min="4" max="4" width="5.0"/>
+    <col customWidth="1" min="3" max="3" width="35.25"/>
+    <col customWidth="1" min="4" max="4" width="4.38"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="78" t="s">
+      <c r="A1" s="79" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
@@ -11007,7 +11096,7 @@
         <v>712</v>
       </c>
       <c r="B2" s="12"/>
-      <c r="C2" s="79" t="s">
+      <c r="C2" s="80" t="s">
         <v>713</v>
       </c>
     </row>
@@ -11016,7 +11105,7 @@
         <v>714</v>
       </c>
       <c r="B3" s="12"/>
-      <c r="C3" s="79" t="s">
+      <c r="C3" s="80" t="s">
         <v>715</v>
       </c>
     </row>
@@ -11025,7 +11114,7 @@
         <v>716</v>
       </c>
       <c r="B4" s="12"/>
-      <c r="C4" s="79" t="s">
+      <c r="C4" s="80" t="s">
         <v>717</v>
       </c>
     </row>
@@ -11034,7 +11123,7 @@
         <v>718</v>
       </c>
       <c r="B5" s="12"/>
-      <c r="C5" s="79" t="s">
+      <c r="C5" s="80" t="s">
         <v>719</v>
       </c>
     </row>
@@ -11043,7 +11132,7 @@
         <v>720</v>
       </c>
       <c r="B6" s="12"/>
-      <c r="C6" s="79" t="s">
+      <c r="C6" s="80" t="s">
         <v>721</v>
       </c>
     </row>
@@ -11052,7 +11141,7 @@
         <v>722</v>
       </c>
       <c r="B7" s="12"/>
-      <c r="C7" s="79" t="s">
+      <c r="C7" s="80" t="s">
         <v>723</v>
       </c>
     </row>
@@ -11061,7 +11150,7 @@
         <v>724</v>
       </c>
       <c r="B8" s="12"/>
-      <c r="C8" s="79" t="s">
+      <c r="C8" s="80" t="s">
         <v>725</v>
       </c>
     </row>
@@ -11070,7 +11159,7 @@
         <v>726</v>
       </c>
       <c r="B9" s="12"/>
-      <c r="C9" s="79" t="s">
+      <c r="C9" s="80" t="s">
         <v>727</v>
       </c>
     </row>
@@ -11079,7 +11168,7 @@
         <v>728</v>
       </c>
       <c r="B10" s="12"/>
-      <c r="C10" s="79" t="s">
+      <c r="C10" s="80" t="s">
         <v>729</v>
       </c>
     </row>
@@ -11088,7 +11177,7 @@
         <v>730</v>
       </c>
       <c r="B11" s="12"/>
-      <c r="C11" s="79" t="s">
+      <c r="C11" s="80" t="s">
         <v>731</v>
       </c>
     </row>
@@ -11097,7 +11186,7 @@
         <v>732</v>
       </c>
       <c r="B12" s="12"/>
-      <c r="C12" s="79" t="s">
+      <c r="C12" s="80" t="s">
         <v>733</v>
       </c>
     </row>
@@ -11106,7 +11195,7 @@
         <v>734</v>
       </c>
       <c r="B13" s="12"/>
-      <c r="C13" s="79" t="s">
+      <c r="C13" s="80" t="s">
         <v>735</v>
       </c>
     </row>
@@ -11115,7 +11204,7 @@
         <v>736</v>
       </c>
       <c r="B14" s="12"/>
-      <c r="C14" s="79" t="s">
+      <c r="C14" s="80" t="s">
         <v>737</v>
       </c>
     </row>
@@ -11124,7 +11213,7 @@
         <v>738</v>
       </c>
       <c r="B15" s="12"/>
-      <c r="C15" s="79" t="s">
+      <c r="C15" s="80" t="s">
         <v>739</v>
       </c>
     </row>
@@ -11133,7 +11222,7 @@
         <v>740</v>
       </c>
       <c r="B16" s="12"/>
-      <c r="C16" s="79" t="s">
+      <c r="C16" s="80" t="s">
         <v>741</v>
       </c>
     </row>
@@ -11142,7 +11231,7 @@
         <v>742</v>
       </c>
       <c r="B17" s="12"/>
-      <c r="C17" s="79" t="s">
+      <c r="C17" s="80" t="s">
         <v>743</v>
       </c>
     </row>
@@ -11151,7 +11240,7 @@
         <v>744</v>
       </c>
       <c r="B18" s="12"/>
-      <c r="C18" s="79" t="s">
+      <c r="C18" s="80" t="s">
         <v>745</v>
       </c>
     </row>
@@ -11160,7 +11249,7 @@
         <v>746</v>
       </c>
       <c r="B19" s="12"/>
-      <c r="C19" s="79" t="s">
+      <c r="C19" s="80" t="s">
         <v>747</v>
       </c>
     </row>
@@ -11169,7 +11258,7 @@
         <v>748</v>
       </c>
       <c r="B20" s="12"/>
-      <c r="C20" s="79" t="s">
+      <c r="C20" s="80" t="s">
         <v>749</v>
       </c>
     </row>
@@ -11178,7 +11267,7 @@
         <v>750</v>
       </c>
       <c r="B21" s="12"/>
-      <c r="C21" s="79" t="s">
+      <c r="C21" s="80" t="s">
         <v>751</v>
       </c>
     </row>
@@ -11187,7 +11276,7 @@
         <v>752</v>
       </c>
       <c r="B22" s="12"/>
-      <c r="C22" s="79" t="s">
+      <c r="C22" s="80" t="s">
         <v>753</v>
       </c>
     </row>
@@ -11196,7 +11285,7 @@
         <v>754</v>
       </c>
       <c r="B23" s="12"/>
-      <c r="C23" s="79" t="s">
+      <c r="C23" s="80" t="s">
         <v>755</v>
       </c>
     </row>
@@ -11205,7 +11294,7 @@
         <v>756</v>
       </c>
       <c r="B24" s="12"/>
-      <c r="C24" s="79" t="s">
+      <c r="C24" s="80" t="s">
         <v>757</v>
       </c>
     </row>
@@ -11214,7 +11303,7 @@
         <v>758</v>
       </c>
       <c r="B25" s="12"/>
-      <c r="C25" s="79" t="s">
+      <c r="C25" s="80" t="s">
         <v>759</v>
       </c>
     </row>
@@ -11223,7 +11312,7 @@
         <v>760</v>
       </c>
       <c r="B26" s="12"/>
-      <c r="C26" s="79" t="s">
+      <c r="C26" s="80" t="s">
         <v>761</v>
       </c>
     </row>
@@ -11232,7 +11321,7 @@
         <v>762</v>
       </c>
       <c r="B27" s="12"/>
-      <c r="C27" s="79" t="s">
+      <c r="C27" s="80" t="s">
         <v>763</v>
       </c>
     </row>
@@ -11241,7 +11330,7 @@
         <v>764</v>
       </c>
       <c r="B28" s="12"/>
-      <c r="C28" s="79" t="s">
+      <c r="C28" s="80" t="s">
         <v>765</v>
       </c>
     </row>
@@ -11250,7 +11339,7 @@
         <v>766</v>
       </c>
       <c r="B29" s="12"/>
-      <c r="C29" s="79" t="s">
+      <c r="C29" s="80" t="s">
         <v>767</v>
       </c>
     </row>
@@ -11259,7 +11348,7 @@
         <v>768</v>
       </c>
       <c r="B30" s="12"/>
-      <c r="C30" s="79" t="s">
+      <c r="C30" s="80" t="s">
         <v>769</v>
       </c>
     </row>
@@ -11268,7 +11357,7 @@
         <v>770</v>
       </c>
       <c r="B31" s="12"/>
-      <c r="C31" s="79" t="s">
+      <c r="C31" s="80" t="s">
         <v>771</v>
       </c>
     </row>
@@ -11277,7 +11366,7 @@
         <v>772</v>
       </c>
       <c r="B32" s="12"/>
-      <c r="C32" s="79" t="s">
+      <c r="C32" s="80" t="s">
         <v>773</v>
       </c>
     </row>
@@ -11286,7 +11375,7 @@
         <v>774</v>
       </c>
       <c r="B33" s="12"/>
-      <c r="C33" s="79" t="s">
+      <c r="C33" s="80" t="s">
         <v>775</v>
       </c>
     </row>
@@ -11295,7 +11384,7 @@
         <v>776</v>
       </c>
       <c r="B34" s="12"/>
-      <c r="C34" s="79" t="s">
+      <c r="C34" s="80" t="s">
         <v>777</v>
       </c>
     </row>
@@ -11304,7 +11393,7 @@
         <v>778</v>
       </c>
       <c r="B35" s="12"/>
-      <c r="C35" s="79" t="s">
+      <c r="C35" s="80" t="s">
         <v>779</v>
       </c>
     </row>
@@ -11313,7 +11402,7 @@
         <v>780</v>
       </c>
       <c r="B36" s="12"/>
-      <c r="C36" s="79" t="s">
+      <c r="C36" s="80" t="s">
         <v>781</v>
       </c>
     </row>
@@ -11322,7 +11411,7 @@
         <v>782</v>
       </c>
       <c r="B37" s="12"/>
-      <c r="C37" s="79" t="s">
+      <c r="C37" s="80" t="s">
         <v>783</v>
       </c>
     </row>
@@ -11331,7 +11420,7 @@
         <v>784</v>
       </c>
       <c r="B38" s="12"/>
-      <c r="C38" s="79" t="s">
+      <c r="C38" s="80" t="s">
         <v>785</v>
       </c>
     </row>
@@ -11340,7 +11429,7 @@
         <v>786</v>
       </c>
       <c r="B39" s="12"/>
-      <c r="C39" s="79" t="s">
+      <c r="C39" s="80" t="s">
         <v>787</v>
       </c>
     </row>
@@ -11349,7 +11438,7 @@
         <v>788</v>
       </c>
       <c r="B40" s="12"/>
-      <c r="C40" s="79" t="s">
+      <c r="C40" s="80" t="s">
         <v>789</v>
       </c>
     </row>
@@ -11358,7 +11447,7 @@
         <v>790</v>
       </c>
       <c r="B41" s="12"/>
-      <c r="C41" s="79" t="s">
+      <c r="C41" s="80" t="s">
         <v>791</v>
       </c>
     </row>
@@ -11367,7 +11456,7 @@
         <v>792</v>
       </c>
       <c r="B42" s="12"/>
-      <c r="C42" s="79" t="s">
+      <c r="C42" s="80" t="s">
         <v>793</v>
       </c>
     </row>
@@ -11376,7 +11465,7 @@
         <v>794</v>
       </c>
       <c r="B43" s="12"/>
-      <c r="C43" s="79" t="s">
+      <c r="C43" s="80" t="s">
         <v>795</v>
       </c>
     </row>
@@ -11385,7 +11474,7 @@
         <v>796</v>
       </c>
       <c r="B44" s="12"/>
-      <c r="C44" s="79" t="s">
+      <c r="C44" s="80" t="s">
         <v>797</v>
       </c>
     </row>
@@ -11394,7 +11483,7 @@
         <v>798</v>
       </c>
       <c r="B45" s="12"/>
-      <c r="C45" s="79" t="s">
+      <c r="C45" s="80" t="s">
         <v>799</v>
       </c>
     </row>
@@ -11403,7 +11492,7 @@
         <v>800</v>
       </c>
       <c r="B46" s="12"/>
-      <c r="C46" s="79" t="s">
+      <c r="C46" s="80" t="s">
         <v>801</v>
       </c>
     </row>
@@ -11412,7 +11501,7 @@
         <v>802</v>
       </c>
       <c r="B47" s="12"/>
-      <c r="C47" s="79" t="s">
+      <c r="C47" s="80" t="s">
         <v>803</v>
       </c>
     </row>
@@ -11421,7 +11510,7 @@
         <v>804</v>
       </c>
       <c r="B48" s="12"/>
-      <c r="C48" s="79" t="s">
+      <c r="C48" s="80" t="s">
         <v>805</v>
       </c>
     </row>
@@ -11430,7 +11519,7 @@
         <v>806</v>
       </c>
       <c r="B49" s="12"/>
-      <c r="C49" s="79" t="s">
+      <c r="C49" s="80" t="s">
         <v>807</v>
       </c>
     </row>
@@ -11439,7 +11528,7 @@
         <v>808</v>
       </c>
       <c r="B50" s="12"/>
-      <c r="C50" s="79" t="s">
+      <c r="C50" s="80" t="s">
         <v>809</v>
       </c>
     </row>
@@ -11448,7 +11537,7 @@
         <v>810</v>
       </c>
       <c r="B51" s="12"/>
-      <c r="C51" s="79" t="s">
+      <c r="C51" s="80" t="s">
         <v>811</v>
       </c>
     </row>
@@ -11457,7 +11546,7 @@
         <v>812</v>
       </c>
       <c r="B52" s="12"/>
-      <c r="C52" s="79" t="s">
+      <c r="C52" s="80" t="s">
         <v>813</v>
       </c>
     </row>
@@ -11466,7 +11555,7 @@
         <v>814</v>
       </c>
       <c r="B53" s="12"/>
-      <c r="C53" s="79" t="s">
+      <c r="C53" s="80" t="s">
         <v>815</v>
       </c>
     </row>
@@ -11475,7 +11564,7 @@
         <v>816</v>
       </c>
       <c r="B54" s="12"/>
-      <c r="C54" s="79" t="s">
+      <c r="C54" s="80" t="s">
         <v>817</v>
       </c>
     </row>
@@ -11484,7 +11573,7 @@
         <v>818</v>
       </c>
       <c r="B55" s="12"/>
-      <c r="C55" s="79" t="s">
+      <c r="C55" s="80" t="s">
         <v>819</v>
       </c>
     </row>
@@ -11493,7 +11582,7 @@
         <v>820</v>
       </c>
       <c r="B56" s="12"/>
-      <c r="C56" s="79" t="s">
+      <c r="C56" s="80" t="s">
         <v>821</v>
       </c>
     </row>
@@ -11502,7 +11591,7 @@
         <v>822</v>
       </c>
       <c r="B57" s="12"/>
-      <c r="C57" s="79" t="s">
+      <c r="C57" s="80" t="s">
         <v>823</v>
       </c>
     </row>
@@ -11511,7 +11600,7 @@
         <v>824</v>
       </c>
       <c r="B58" s="12"/>
-      <c r="C58" s="79" t="s">
+      <c r="C58" s="80" t="s">
         <v>825</v>
       </c>
     </row>
@@ -11520,7 +11609,7 @@
         <v>826</v>
       </c>
       <c r="B59" s="12"/>
-      <c r="C59" s="79" t="s">
+      <c r="C59" s="80" t="s">
         <v>827</v>
       </c>
     </row>
@@ -11529,7 +11618,7 @@
         <v>828</v>
       </c>
       <c r="B60" s="12"/>
-      <c r="C60" s="79" t="s">
+      <c r="C60" s="80" t="s">
         <v>829</v>
       </c>
     </row>
@@ -11538,7 +11627,7 @@
         <v>830</v>
       </c>
       <c r="B61" s="12"/>
-      <c r="C61" s="79" t="s">
+      <c r="C61" s="80" t="s">
         <v>831</v>
       </c>
     </row>
@@ -11547,7 +11636,7 @@
         <v>832</v>
       </c>
       <c r="B62" s="12"/>
-      <c r="C62" s="79" t="s">
+      <c r="C62" s="80" t="s">
         <v>833</v>
       </c>
     </row>
@@ -11556,7 +11645,7 @@
         <v>834</v>
       </c>
       <c r="B63" s="12"/>
-      <c r="C63" s="79" t="s">
+      <c r="C63" s="80" t="s">
         <v>835</v>
       </c>
     </row>
@@ -11565,7 +11654,7 @@
         <v>836</v>
       </c>
       <c r="B64" s="12"/>
-      <c r="C64" s="79" t="s">
+      <c r="C64" s="80" t="s">
         <v>837</v>
       </c>
     </row>
@@ -11574,7 +11663,7 @@
         <v>838</v>
       </c>
       <c r="B65" s="12"/>
-      <c r="C65" s="79" t="s">
+      <c r="C65" s="80" t="s">
         <v>839</v>
       </c>
     </row>
@@ -11583,7 +11672,7 @@
         <v>840</v>
       </c>
       <c r="B66" s="12"/>
-      <c r="C66" s="79" t="s">
+      <c r="C66" s="80" t="s">
         <v>841</v>
       </c>
     </row>
@@ -11592,7 +11681,7 @@
         <v>842</v>
       </c>
       <c r="B67" s="12"/>
-      <c r="C67" s="79" t="s">
+      <c r="C67" s="80" t="s">
         <v>843</v>
       </c>
     </row>
@@ -11601,7 +11690,7 @@
         <v>844</v>
       </c>
       <c r="B68" s="12"/>
-      <c r="C68" s="79" t="s">
+      <c r="C68" s="80" t="s">
         <v>845</v>
       </c>
     </row>
@@ -11610,7 +11699,7 @@
         <v>846</v>
       </c>
       <c r="B69" s="12"/>
-      <c r="C69" s="79" t="s">
+      <c r="C69" s="80" t="s">
         <v>847</v>
       </c>
     </row>
@@ -11619,7 +11708,7 @@
         <v>848</v>
       </c>
       <c r="B70" s="12"/>
-      <c r="C70" s="79" t="s">
+      <c r="C70" s="80" t="s">
         <v>849</v>
       </c>
     </row>
@@ -11628,7 +11717,7 @@
         <v>850</v>
       </c>
       <c r="B71" s="12"/>
-      <c r="C71" s="79" t="s">
+      <c r="C71" s="80" t="s">
         <v>851</v>
       </c>
     </row>
@@ -11637,7 +11726,7 @@
         <v>852</v>
       </c>
       <c r="B72" s="12"/>
-      <c r="C72" s="79" t="s">
+      <c r="C72" s="80" t="s">
         <v>853</v>
       </c>
     </row>
@@ -11646,7 +11735,7 @@
         <v>854</v>
       </c>
       <c r="B73" s="12"/>
-      <c r="C73" s="79" t="s">
+      <c r="C73" s="80" t="s">
         <v>855</v>
       </c>
     </row>
@@ -11655,7 +11744,7 @@
         <v>856</v>
       </c>
       <c r="B74" s="12"/>
-      <c r="C74" s="79" t="s">
+      <c r="C74" s="80" t="s">
         <v>857</v>
       </c>
     </row>
@@ -11664,7 +11753,7 @@
         <v>858</v>
       </c>
       <c r="B75" s="12"/>
-      <c r="C75" s="79" t="s">
+      <c r="C75" s="80" t="s">
         <v>859</v>
       </c>
     </row>
@@ -11673,7 +11762,7 @@
         <v>860</v>
       </c>
       <c r="B76" s="12"/>
-      <c r="C76" s="79" t="s">
+      <c r="C76" s="80" t="s">
         <v>861</v>
       </c>
     </row>
@@ -11682,7 +11771,7 @@
         <v>862</v>
       </c>
       <c r="B77" s="12"/>
-      <c r="C77" s="79" t="s">
+      <c r="C77" s="80" t="s">
         <v>863</v>
       </c>
     </row>
@@ -11691,7 +11780,7 @@
         <v>864</v>
       </c>
       <c r="B78" s="12"/>
-      <c r="C78" s="79" t="s">
+      <c r="C78" s="80" t="s">
         <v>865</v>
       </c>
     </row>
@@ -11700,7 +11789,7 @@
         <v>866</v>
       </c>
       <c r="B79" s="12"/>
-      <c r="C79" s="79" t="s">
+      <c r="C79" s="80" t="s">
         <v>867</v>
       </c>
     </row>
@@ -11709,7 +11798,7 @@
         <v>868</v>
       </c>
       <c r="B80" s="12"/>
-      <c r="C80" s="79" t="s">
+      <c r="C80" s="80" t="s">
         <v>869</v>
       </c>
     </row>
@@ -11718,7 +11807,7 @@
         <v>870</v>
       </c>
       <c r="B81" s="12"/>
-      <c r="C81" s="79" t="s">
+      <c r="C81" s="80" t="s">
         <v>871</v>
       </c>
     </row>
@@ -11727,7 +11816,7 @@
         <v>872</v>
       </c>
       <c r="B82" s="12"/>
-      <c r="C82" s="79" t="s">
+      <c r="C82" s="80" t="s">
         <v>873</v>
       </c>
     </row>
@@ -11736,7 +11825,7 @@
         <v>874</v>
       </c>
       <c r="B83" s="12"/>
-      <c r="C83" s="79" t="s">
+      <c r="C83" s="80" t="s">
         <v>875</v>
       </c>
     </row>
@@ -11745,7 +11834,7 @@
         <v>876</v>
       </c>
       <c r="B84" s="12"/>
-      <c r="C84" s="79" t="s">
+      <c r="C84" s="80" t="s">
         <v>877</v>
       </c>
     </row>
@@ -11754,7 +11843,7 @@
         <v>878</v>
       </c>
       <c r="B85" s="12"/>
-      <c r="C85" s="79" t="s">
+      <c r="C85" s="80" t="s">
         <v>879</v>
       </c>
     </row>
@@ -11763,7 +11852,7 @@
         <v>880</v>
       </c>
       <c r="B86" s="12"/>
-      <c r="C86" s="79" t="s">
+      <c r="C86" s="80" t="s">
         <v>881</v>
       </c>
     </row>
@@ -11772,7 +11861,7 @@
         <v>882</v>
       </c>
       <c r="B87" s="12"/>
-      <c r="C87" s="79" t="s">
+      <c r="C87" s="80" t="s">
         <v>883</v>
       </c>
     </row>
@@ -11781,7 +11870,7 @@
         <v>884</v>
       </c>
       <c r="B88" s="12"/>
-      <c r="C88" s="79" t="s">
+      <c r="C88" s="80" t="s">
         <v>885</v>
       </c>
     </row>
@@ -11790,7 +11879,7 @@
         <v>886</v>
       </c>
       <c r="B89" s="12"/>
-      <c r="C89" s="79" t="s">
+      <c r="C89" s="80" t="s">
         <v>887</v>
       </c>
     </row>
@@ -11799,7 +11888,7 @@
         <v>888</v>
       </c>
       <c r="B90" s="12"/>
-      <c r="C90" s="79" t="s">
+      <c r="C90" s="80" t="s">
         <v>889</v>
       </c>
     </row>
@@ -11808,7 +11897,7 @@
         <v>890</v>
       </c>
       <c r="B91" s="12"/>
-      <c r="C91" s="79" t="s">
+      <c r="C91" s="80" t="s">
         <v>891</v>
       </c>
     </row>
@@ -11817,7 +11906,7 @@
         <v>892</v>
       </c>
       <c r="B92" s="12"/>
-      <c r="C92" s="79" t="s">
+      <c r="C92" s="80" t="s">
         <v>893</v>
       </c>
     </row>
@@ -11826,7 +11915,7 @@
         <v>894</v>
       </c>
       <c r="B93" s="12"/>
-      <c r="C93" s="79" t="s">
+      <c r="C93" s="80" t="s">
         <v>895</v>
       </c>
     </row>
@@ -11835,7 +11924,7 @@
         <v>896</v>
       </c>
       <c r="B94" s="12"/>
-      <c r="C94" s="79" t="s">
+      <c r="C94" s="80" t="s">
         <v>897</v>
       </c>
     </row>
@@ -11844,7 +11933,7 @@
         <v>898</v>
       </c>
       <c r="B95" s="12"/>
-      <c r="C95" s="79" t="s">
+      <c r="C95" s="80" t="s">
         <v>899</v>
       </c>
     </row>
@@ -11853,7 +11942,7 @@
         <v>900</v>
       </c>
       <c r="B96" s="12"/>
-      <c r="C96" s="79" t="s">
+      <c r="C96" s="80" t="s">
         <v>901</v>
       </c>
     </row>
@@ -11862,7 +11951,7 @@
         <v>902</v>
       </c>
       <c r="B97" s="12"/>
-      <c r="C97" s="79" t="s">
+      <c r="C97" s="80" t="s">
         <v>903</v>
       </c>
     </row>
@@ -11871,7 +11960,7 @@
         <v>904</v>
       </c>
       <c r="B98" s="12"/>
-      <c r="C98" s="79" t="s">
+      <c r="C98" s="80" t="s">
         <v>905</v>
       </c>
     </row>
@@ -11880,7 +11969,7 @@
         <v>906</v>
       </c>
       <c r="B99" s="12"/>
-      <c r="C99" s="79" t="s">
+      <c r="C99" s="80" t="s">
         <v>907</v>
       </c>
     </row>
@@ -11889,7 +11978,7 @@
         <v>908</v>
       </c>
       <c r="B100" s="12"/>
-      <c r="C100" s="79" t="s">
+      <c r="C100" s="80" t="s">
         <v>909</v>
       </c>
     </row>
@@ -11898,7 +11987,7 @@
         <v>910</v>
       </c>
       <c r="B101" s="12"/>
-      <c r="C101" s="79" t="s">
+      <c r="C101" s="80" t="s">
         <v>911</v>
       </c>
     </row>
@@ -11907,7 +11996,7 @@
         <v>912</v>
       </c>
       <c r="B102" s="12"/>
-      <c r="C102" s="79" t="s">
+      <c r="C102" s="80" t="s">
         <v>913</v>
       </c>
     </row>
@@ -11916,7 +12005,7 @@
         <v>914</v>
       </c>
       <c r="B103" s="12"/>
-      <c r="C103" s="79" t="s">
+      <c r="C103" s="80" t="s">
         <v>915</v>
       </c>
     </row>
@@ -11925,7 +12014,7 @@
         <v>916</v>
       </c>
       <c r="B104" s="12"/>
-      <c r="C104" s="79" t="s">
+      <c r="C104" s="80" t="s">
         <v>917</v>
       </c>
     </row>
@@ -11934,7 +12023,7 @@
         <v>918</v>
       </c>
       <c r="B105" s="12"/>
-      <c r="C105" s="79" t="s">
+      <c r="C105" s="80" t="s">
         <v>919</v>
       </c>
     </row>
@@ -11943,7 +12032,7 @@
         <v>920</v>
       </c>
       <c r="B106" s="12"/>
-      <c r="C106" s="79" t="s">
+      <c r="C106" s="80" t="s">
         <v>921</v>
       </c>
     </row>
@@ -11952,7 +12041,7 @@
         <v>922</v>
       </c>
       <c r="B107" s="12"/>
-      <c r="C107" s="79" t="s">
+      <c r="C107" s="80" t="s">
         <v>923</v>
       </c>
     </row>
@@ -11961,7 +12050,7 @@
         <v>924</v>
       </c>
       <c r="B108" s="12"/>
-      <c r="C108" s="79" t="s">
+      <c r="C108" s="80" t="s">
         <v>925</v>
       </c>
     </row>
@@ -11970,7 +12059,7 @@
         <v>926</v>
       </c>
       <c r="B109" s="12"/>
-      <c r="C109" s="79" t="s">
+      <c r="C109" s="80" t="s">
         <v>927</v>
       </c>
     </row>
@@ -11979,7 +12068,7 @@
         <v>928</v>
       </c>
       <c r="B110" s="12"/>
-      <c r="C110" s="79" t="s">
+      <c r="C110" s="80" t="s">
         <v>929</v>
       </c>
     </row>
@@ -11988,7 +12077,7 @@
         <v>930</v>
       </c>
       <c r="B111" s="12"/>
-      <c r="C111" s="79" t="s">
+      <c r="C111" s="80" t="s">
         <v>931</v>
       </c>
     </row>
@@ -11997,7 +12086,7 @@
         <v>932</v>
       </c>
       <c r="B112" s="12"/>
-      <c r="C112" s="79" t="s">
+      <c r="C112" s="80" t="s">
         <v>933</v>
       </c>
     </row>
@@ -12006,7 +12095,7 @@
         <v>934</v>
       </c>
       <c r="B113" s="12"/>
-      <c r="C113" s="79" t="s">
+      <c r="C113" s="80" t="s">
         <v>935</v>
       </c>
     </row>
@@ -12015,7 +12104,7 @@
         <v>936</v>
       </c>
       <c r="B114" s="12"/>
-      <c r="C114" s="79" t="s">
+      <c r="C114" s="80" t="s">
         <v>937</v>
       </c>
     </row>
@@ -12024,7 +12113,7 @@
         <v>938</v>
       </c>
       <c r="B115" s="12"/>
-      <c r="C115" s="79" t="s">
+      <c r="C115" s="80" t="s">
         <v>939</v>
       </c>
     </row>
@@ -12033,7 +12122,7 @@
         <v>940</v>
       </c>
       <c r="B116" s="12"/>
-      <c r="C116" s="79" t="s">
+      <c r="C116" s="80" t="s">
         <v>941</v>
       </c>
     </row>
@@ -12042,7 +12131,7 @@
         <v>942</v>
       </c>
       <c r="B117" s="12"/>
-      <c r="C117" s="79" t="s">
+      <c r="C117" s="80" t="s">
         <v>943</v>
       </c>
     </row>
@@ -12051,7 +12140,7 @@
         <v>944</v>
       </c>
       <c r="B118" s="12"/>
-      <c r="C118" s="79" t="s">
+      <c r="C118" s="80" t="s">
         <v>945</v>
       </c>
     </row>
@@ -12060,7 +12149,7 @@
         <v>946</v>
       </c>
       <c r="B119" s="12"/>
-      <c r="C119" s="79" t="s">
+      <c r="C119" s="80" t="s">
         <v>947</v>
       </c>
     </row>
@@ -12069,7 +12158,7 @@
         <v>948</v>
       </c>
       <c r="B120" s="12"/>
-      <c r="C120" s="79" t="s">
+      <c r="C120" s="80" t="s">
         <v>949</v>
       </c>
     </row>
@@ -12078,7 +12167,7 @@
         <v>950</v>
       </c>
       <c r="B121" s="12"/>
-      <c r="C121" s="79" t="s">
+      <c r="C121" s="80" t="s">
         <v>951</v>
       </c>
     </row>
@@ -12087,7 +12176,7 @@
         <v>952</v>
       </c>
       <c r="B122" s="12"/>
-      <c r="C122" s="79" t="s">
+      <c r="C122" s="80" t="s">
         <v>953</v>
       </c>
     </row>
@@ -12096,7 +12185,7 @@
         <v>954</v>
       </c>
       <c r="B123" s="12"/>
-      <c r="C123" s="79" t="s">
+      <c r="C123" s="80" t="s">
         <v>955</v>
       </c>
     </row>
@@ -12105,7 +12194,7 @@
         <v>956</v>
       </c>
       <c r="B124" s="12"/>
-      <c r="C124" s="79" t="s">
+      <c r="C124" s="80" t="s">
         <v>957</v>
       </c>
     </row>
@@ -12114,7 +12203,7 @@
         <v>958</v>
       </c>
       <c r="B125" s="12"/>
-      <c r="C125" s="79" t="s">
+      <c r="C125" s="80" t="s">
         <v>959</v>
       </c>
     </row>
@@ -12123,7 +12212,7 @@
         <v>960</v>
       </c>
       <c r="B126" s="12"/>
-      <c r="C126" s="79" t="s">
+      <c r="C126" s="80" t="s">
         <v>961</v>
       </c>
     </row>
@@ -12132,7 +12221,7 @@
         <v>962</v>
       </c>
       <c r="B127" s="12"/>
-      <c r="C127" s="79" t="s">
+      <c r="C127" s="80" t="s">
         <v>963</v>
       </c>
     </row>
@@ -12141,7 +12230,7 @@
         <v>964</v>
       </c>
       <c r="B128" s="12"/>
-      <c r="C128" s="79" t="s">
+      <c r="C128" s="80" t="s">
         <v>965</v>
       </c>
     </row>
@@ -12150,7 +12239,7 @@
         <v>966</v>
       </c>
       <c r="B129" s="12"/>
-      <c r="C129" s="79" t="s">
+      <c r="C129" s="80" t="s">
         <v>967</v>
       </c>
     </row>
@@ -12159,7 +12248,7 @@
         <v>968</v>
       </c>
       <c r="B130" s="12"/>
-      <c r="C130" s="79" t="s">
+      <c r="C130" s="80" t="s">
         <v>969</v>
       </c>
     </row>
@@ -12168,7 +12257,7 @@
         <v>970</v>
       </c>
       <c r="B131" s="12"/>
-      <c r="C131" s="79" t="s">
+      <c r="C131" s="80" t="s">
         <v>971</v>
       </c>
     </row>
@@ -12177,7 +12266,7 @@
         <v>972</v>
       </c>
       <c r="B132" s="12"/>
-      <c r="C132" s="79" t="s">
+      <c r="C132" s="80" t="s">
         <v>973</v>
       </c>
     </row>
@@ -12186,7 +12275,7 @@
         <v>974</v>
       </c>
       <c r="B133" s="12"/>
-      <c r="C133" s="79" t="s">
+      <c r="C133" s="80" t="s">
         <v>975</v>
       </c>
     </row>
@@ -12195,7 +12284,7 @@
         <v>976</v>
       </c>
       <c r="B134" s="12"/>
-      <c r="C134" s="79" t="s">
+      <c r="C134" s="80" t="s">
         <v>977</v>
       </c>
     </row>
@@ -12204,7 +12293,7 @@
         <v>978</v>
       </c>
       <c r="B135" s="12"/>
-      <c r="C135" s="79" t="s">
+      <c r="C135" s="80" t="s">
         <v>979</v>
       </c>
     </row>
@@ -12213,7 +12302,7 @@
         <v>980</v>
       </c>
       <c r="B136" s="12"/>
-      <c r="C136" s="79" t="s">
+      <c r="C136" s="80" t="s">
         <v>981</v>
       </c>
     </row>
@@ -12222,7 +12311,7 @@
         <v>982</v>
       </c>
       <c r="B137" s="12"/>
-      <c r="C137" s="79" t="s">
+      <c r="C137" s="80" t="s">
         <v>983</v>
       </c>
     </row>
@@ -12231,7 +12320,7 @@
         <v>984</v>
       </c>
       <c r="B138" s="12"/>
-      <c r="C138" s="79" t="s">
+      <c r="C138" s="80" t="s">
         <v>985</v>
       </c>
     </row>
@@ -12240,7 +12329,7 @@
         <v>986</v>
       </c>
       <c r="B139" s="12"/>
-      <c r="C139" s="79" t="s">
+      <c r="C139" s="80" t="s">
         <v>987</v>
       </c>
     </row>
@@ -12249,7 +12338,7 @@
         <v>988</v>
       </c>
       <c r="B140" s="12"/>
-      <c r="C140" s="79" t="s">
+      <c r="C140" s="80" t="s">
         <v>989</v>
       </c>
     </row>
@@ -12258,7 +12347,7 @@
         <v>990</v>
       </c>
       <c r="B141" s="12"/>
-      <c r="C141" s="79" t="s">
+      <c r="C141" s="80" t="s">
         <v>991</v>
       </c>
     </row>
@@ -12267,7 +12356,7 @@
         <v>992</v>
       </c>
       <c r="B142" s="12"/>
-      <c r="C142" s="79" t="s">
+      <c r="C142" s="80" t="s">
         <v>993</v>
       </c>
     </row>
@@ -12276,7 +12365,7 @@
         <v>994</v>
       </c>
       <c r="B143" s="12"/>
-      <c r="C143" s="79" t="s">
+      <c r="C143" s="80" t="s">
         <v>995</v>
       </c>
     </row>
@@ -12285,7 +12374,7 @@
         <v>996</v>
       </c>
       <c r="B144" s="12"/>
-      <c r="C144" s="79" t="s">
+      <c r="C144" s="80" t="s">
         <v>997</v>
       </c>
     </row>
@@ -12294,7 +12383,7 @@
         <v>998</v>
       </c>
       <c r="B145" s="12"/>
-      <c r="C145" s="79" t="s">
+      <c r="C145" s="80" t="s">
         <v>999</v>
       </c>
     </row>
@@ -12303,7 +12392,7 @@
         <v>1000</v>
       </c>
       <c r="B146" s="12"/>
-      <c r="C146" s="79" t="s">
+      <c r="C146" s="80" t="s">
         <v>1001</v>
       </c>
     </row>
@@ -12312,7 +12401,7 @@
         <v>1002</v>
       </c>
       <c r="B147" s="12"/>
-      <c r="C147" s="79" t="s">
+      <c r="C147" s="80" t="s">
         <v>1003</v>
       </c>
     </row>
@@ -12321,7 +12410,7 @@
         <v>1004</v>
       </c>
       <c r="B148" s="12"/>
-      <c r="C148" s="79" t="s">
+      <c r="C148" s="80" t="s">
         <v>1005</v>
       </c>
     </row>
@@ -12330,7 +12419,7 @@
         <v>1006</v>
       </c>
       <c r="B149" s="12"/>
-      <c r="C149" s="79" t="s">
+      <c r="C149" s="80" t="s">
         <v>1007</v>
       </c>
     </row>
@@ -12339,7 +12428,7 @@
         <v>1008</v>
       </c>
       <c r="B150" s="12"/>
-      <c r="C150" s="79" t="s">
+      <c r="C150" s="80" t="s">
         <v>1009</v>
       </c>
     </row>
@@ -12348,7 +12437,7 @@
         <v>1010</v>
       </c>
       <c r="B151" s="12"/>
-      <c r="C151" s="79" t="s">
+      <c r="C151" s="80" t="s">
         <v>1011</v>
       </c>
     </row>
@@ -12357,7 +12446,7 @@
         <v>1012</v>
       </c>
       <c r="B152" s="12"/>
-      <c r="C152" s="79" t="s">
+      <c r="C152" s="80" t="s">
         <v>1013</v>
       </c>
     </row>
@@ -12366,7 +12455,7 @@
         <v>1014</v>
       </c>
       <c r="B153" s="12"/>
-      <c r="C153" s="79" t="s">
+      <c r="C153" s="80" t="s">
         <v>1015</v>
       </c>
     </row>
@@ -12375,7 +12464,7 @@
         <v>1016</v>
       </c>
       <c r="B154" s="12"/>
-      <c r="C154" s="79" t="s">
+      <c r="C154" s="80" t="s">
         <v>1017</v>
       </c>
     </row>
@@ -12384,7 +12473,7 @@
         <v>1018</v>
       </c>
       <c r="B155" s="12"/>
-      <c r="C155" s="79" t="s">
+      <c r="C155" s="80" t="s">
         <v>1019</v>
       </c>
     </row>
@@ -12393,7 +12482,7 @@
         <v>1020</v>
       </c>
       <c r="B156" s="12"/>
-      <c r="C156" s="79" t="s">
+      <c r="C156" s="80" t="s">
         <v>1021</v>
       </c>
     </row>
@@ -12402,7 +12491,7 @@
         <v>1022</v>
       </c>
       <c r="B157" s="12"/>
-      <c r="C157" s="79" t="s">
+      <c r="C157" s="80" t="s">
         <v>1023</v>
       </c>
     </row>
@@ -12411,7 +12500,7 @@
         <v>1024</v>
       </c>
       <c r="B158" s="12"/>
-      <c r="C158" s="79" t="s">
+      <c r="C158" s="80" t="s">
         <v>1025</v>
       </c>
     </row>
@@ -12420,7 +12509,7 @@
         <v>1026</v>
       </c>
       <c r="B159" s="12"/>
-      <c r="C159" s="79" t="s">
+      <c r="C159" s="80" t="s">
         <v>1027</v>
       </c>
     </row>
@@ -12429,7 +12518,7 @@
         <v>1028</v>
       </c>
       <c r="B160" s="12"/>
-      <c r="C160" s="79" t="s">
+      <c r="C160" s="80" t="s">
         <v>1029</v>
       </c>
     </row>
@@ -12438,7 +12527,7 @@
         <v>1030</v>
       </c>
       <c r="B161" s="12"/>
-      <c r="C161" s="79" t="s">
+      <c r="C161" s="80" t="s">
         <v>1031</v>
       </c>
     </row>
@@ -12447,7 +12536,7 @@
         <v>1032</v>
       </c>
       <c r="B162" s="12"/>
-      <c r="C162" s="79" t="s">
+      <c r="C162" s="80" t="s">
         <v>1033</v>
       </c>
     </row>
@@ -12456,7 +12545,7 @@
         <v>1034</v>
       </c>
       <c r="B163" s="12"/>
-      <c r="C163" s="79" t="s">
+      <c r="C163" s="80" t="s">
         <v>1035</v>
       </c>
     </row>
@@ -12465,7 +12554,7 @@
         <v>1036</v>
       </c>
       <c r="B164" s="12"/>
-      <c r="C164" s="79" t="s">
+      <c r="C164" s="80" t="s">
         <v>1037</v>
       </c>
     </row>
@@ -12474,7 +12563,7 @@
         <v>1038</v>
       </c>
       <c r="B165" s="12"/>
-      <c r="C165" s="79" t="s">
+      <c r="C165" s="80" t="s">
         <v>1039</v>
       </c>
     </row>
@@ -12483,7 +12572,7 @@
         <v>1040</v>
       </c>
       <c r="B166" s="12"/>
-      <c r="C166" s="79" t="s">
+      <c r="C166" s="80" t="s">
         <v>1041</v>
       </c>
     </row>
@@ -12492,7 +12581,7 @@
         <v>1042</v>
       </c>
       <c r="B167" s="12"/>
-      <c r="C167" s="79" t="s">
+      <c r="C167" s="80" t="s">
         <v>1043</v>
       </c>
     </row>
@@ -12501,7 +12590,7 @@
         <v>1044</v>
       </c>
       <c r="B168" s="12"/>
-      <c r="C168" s="79" t="s">
+      <c r="C168" s="80" t="s">
         <v>1045</v>
       </c>
     </row>
@@ -12510,7 +12599,7 @@
         <v>1046</v>
       </c>
       <c r="B169" s="12"/>
-      <c r="C169" s="79" t="s">
+      <c r="C169" s="80" t="s">
         <v>1047</v>
       </c>
     </row>
@@ -12519,7 +12608,7 @@
         <v>1048</v>
       </c>
       <c r="B170" s="12"/>
-      <c r="C170" s="79" t="s">
+      <c r="C170" s="80" t="s">
         <v>1049</v>
       </c>
     </row>
@@ -12528,7 +12617,7 @@
         <v>1050</v>
       </c>
       <c r="B171" s="12"/>
-      <c r="C171" s="79" t="s">
+      <c r="C171" s="80" t="s">
         <v>1051</v>
       </c>
     </row>
@@ -12537,7 +12626,7 @@
         <v>1052</v>
       </c>
       <c r="B172" s="12"/>
-      <c r="C172" s="79" t="s">
+      <c r="C172" s="80" t="s">
         <v>1053</v>
       </c>
     </row>
@@ -12546,7 +12635,7 @@
         <v>1054</v>
       </c>
       <c r="B173" s="12"/>
-      <c r="C173" s="79" t="s">
+      <c r="C173" s="80" t="s">
         <v>1055</v>
       </c>
     </row>
@@ -12555,7 +12644,7 @@
         <v>1056</v>
       </c>
       <c r="B174" s="12"/>
-      <c r="C174" s="79" t="s">
+      <c r="C174" s="80" t="s">
         <v>1057</v>
       </c>
     </row>
@@ -12564,7 +12653,7 @@
         <v>1058</v>
       </c>
       <c r="B175" s="12"/>
-      <c r="C175" s="79" t="s">
+      <c r="C175" s="80" t="s">
         <v>1059</v>
       </c>
     </row>
@@ -12573,7 +12662,7 @@
         <v>1060</v>
       </c>
       <c r="B176" s="12"/>
-      <c r="C176" s="79" t="s">
+      <c r="C176" s="80" t="s">
         <v>1061</v>
       </c>
     </row>
@@ -12582,7 +12671,7 @@
         <v>1062</v>
       </c>
       <c r="B177" s="12"/>
-      <c r="C177" s="79" t="s">
+      <c r="C177" s="80" t="s">
         <v>1063</v>
       </c>
     </row>
@@ -12591,7 +12680,7 @@
         <v>1064</v>
       </c>
       <c r="B178" s="12"/>
-      <c r="C178" s="79" t="s">
+      <c r="C178" s="80" t="s">
         <v>1065</v>
       </c>
     </row>
@@ -12600,7 +12689,7 @@
         <v>1066</v>
       </c>
       <c r="B179" s="12"/>
-      <c r="C179" s="79" t="s">
+      <c r="C179" s="80" t="s">
         <v>1067</v>
       </c>
     </row>
@@ -12609,7 +12698,7 @@
         <v>1068</v>
       </c>
       <c r="B180" s="12"/>
-      <c r="C180" s="79" t="s">
+      <c r="C180" s="80" t="s">
         <v>1069</v>
       </c>
     </row>
@@ -12618,7 +12707,7 @@
         <v>1070</v>
       </c>
       <c r="B181" s="12"/>
-      <c r="C181" s="79" t="s">
+      <c r="C181" s="80" t="s">
         <v>1071</v>
       </c>
     </row>
@@ -12627,7 +12716,7 @@
         <v>1072</v>
       </c>
       <c r="B182" s="12"/>
-      <c r="C182" s="79" t="s">
+      <c r="C182" s="80" t="s">
         <v>1073</v>
       </c>
     </row>
@@ -12636,7 +12725,7 @@
         <v>1074</v>
       </c>
       <c r="B183" s="12"/>
-      <c r="C183" s="79" t="s">
+      <c r="C183" s="80" t="s">
         <v>1075</v>
       </c>
     </row>
@@ -12645,7 +12734,7 @@
         <v>1076</v>
       </c>
       <c r="B184" s="12"/>
-      <c r="C184" s="79" t="s">
+      <c r="C184" s="80" t="s">
         <v>1077</v>
       </c>
     </row>
@@ -12654,7 +12743,7 @@
         <v>1078</v>
       </c>
       <c r="B185" s="12"/>
-      <c r="C185" s="79" t="s">
+      <c r="C185" s="80" t="s">
         <v>1079</v>
       </c>
     </row>
@@ -12663,7 +12752,7 @@
         <v>1080</v>
       </c>
       <c r="B186" s="12"/>
-      <c r="C186" s="79" t="s">
+      <c r="C186" s="80" t="s">
         <v>1081</v>
       </c>
     </row>
@@ -12672,7 +12761,7 @@
         <v>1082</v>
       </c>
       <c r="B187" s="12"/>
-      <c r="C187" s="79" t="s">
+      <c r="C187" s="80" t="s">
         <v>1083</v>
       </c>
     </row>
@@ -12681,7 +12770,7 @@
         <v>1084</v>
       </c>
       <c r="B188" s="12"/>
-      <c r="C188" s="79" t="s">
+      <c r="C188" s="80" t="s">
         <v>1085</v>
       </c>
     </row>
@@ -12690,7 +12779,7 @@
         <v>1086</v>
       </c>
       <c r="B189" s="12"/>
-      <c r="C189" s="79" t="s">
+      <c r="C189" s="80" t="s">
         <v>1087</v>
       </c>
     </row>
@@ -12699,7 +12788,7 @@
         <v>1088</v>
       </c>
       <c r="B190" s="12"/>
-      <c r="C190" s="79" t="s">
+      <c r="C190" s="80" t="s">
         <v>1089</v>
       </c>
     </row>
@@ -12708,7 +12797,7 @@
         <v>1090</v>
       </c>
       <c r="B191" s="12"/>
-      <c r="C191" s="79" t="s">
+      <c r="C191" s="80" t="s">
         <v>1091</v>
       </c>
     </row>
@@ -12717,7 +12806,7 @@
         <v>1092</v>
       </c>
       <c r="B192" s="12"/>
-      <c r="C192" s="79" t="s">
+      <c r="C192" s="80" t="s">
         <v>1093</v>
       </c>
     </row>
@@ -12726,7 +12815,7 @@
         <v>1094</v>
       </c>
       <c r="B193" s="12"/>
-      <c r="C193" s="79" t="s">
+      <c r="C193" s="80" t="s">
         <v>1095</v>
       </c>
     </row>
@@ -12735,7 +12824,7 @@
         <v>1096</v>
       </c>
       <c r="B194" s="12"/>
-      <c r="C194" s="79" t="s">
+      <c r="C194" s="80" t="s">
         <v>1097</v>
       </c>
     </row>
@@ -12744,7 +12833,7 @@
         <v>1098</v>
       </c>
       <c r="B195" s="12"/>
-      <c r="C195" s="79" t="s">
+      <c r="C195" s="80" t="s">
         <v>1099</v>
       </c>
     </row>
@@ -12753,7 +12842,7 @@
         <v>1100</v>
       </c>
       <c r="B196" s="12"/>
-      <c r="C196" s="79" t="s">
+      <c r="C196" s="80" t="s">
         <v>1101</v>
       </c>
     </row>
@@ -12762,7 +12851,7 @@
         <v>1102</v>
       </c>
       <c r="B197" s="12"/>
-      <c r="C197" s="79" t="s">
+      <c r="C197" s="80" t="s">
         <v>1103</v>
       </c>
     </row>
@@ -12771,7 +12860,7 @@
         <v>1104</v>
       </c>
       <c r="B198" s="12"/>
-      <c r="C198" s="79" t="s">
+      <c r="C198" s="80" t="s">
         <v>1105</v>
       </c>
     </row>
@@ -12780,7 +12869,7 @@
         <v>1106</v>
       </c>
       <c r="B199" s="12"/>
-      <c r="C199" s="79" t="s">
+      <c r="C199" s="80" t="s">
         <v>1107</v>
       </c>
     </row>
@@ -12789,7 +12878,7 @@
         <v>1108</v>
       </c>
       <c r="B200" s="12"/>
-      <c r="C200" s="79" t="s">
+      <c r="C200" s="80" t="s">
         <v>1109</v>
       </c>
     </row>
@@ -12798,7 +12887,7 @@
         <v>1110</v>
       </c>
       <c r="B201" s="12"/>
-      <c r="C201" s="79" t="s">
+      <c r="C201" s="80" t="s">
         <v>1111</v>
       </c>
     </row>
@@ -12807,7 +12896,7 @@
         <v>1112</v>
       </c>
       <c r="B202" s="12"/>
-      <c r="C202" s="79" t="s">
+      <c r="C202" s="80" t="s">
         <v>1113</v>
       </c>
     </row>
@@ -12816,7 +12905,7 @@
         <v>1114</v>
       </c>
       <c r="B203" s="12"/>
-      <c r="C203" s="79" t="s">
+      <c r="C203" s="80" t="s">
         <v>1115</v>
       </c>
     </row>
@@ -12825,7 +12914,7 @@
         <v>1116</v>
       </c>
       <c r="B204" s="12"/>
-      <c r="C204" s="79" t="s">
+      <c r="C204" s="80" t="s">
         <v>1117</v>
       </c>
     </row>
@@ -12834,7 +12923,7 @@
         <v>1118</v>
       </c>
       <c r="B205" s="12"/>
-      <c r="C205" s="79" t="s">
+      <c r="C205" s="80" t="s">
         <v>1119</v>
       </c>
     </row>
@@ -12843,7 +12932,7 @@
         <v>1120</v>
       </c>
       <c r="B206" s="12"/>
-      <c r="C206" s="79" t="s">
+      <c r="C206" s="80" t="s">
         <v>1121</v>
       </c>
     </row>
@@ -12852,7 +12941,7 @@
         <v>1122</v>
       </c>
       <c r="B207" s="12"/>
-      <c r="C207" s="79" t="s">
+      <c r="C207" s="80" t="s">
         <v>1123</v>
       </c>
     </row>
@@ -12861,7 +12950,7 @@
         <v>1124</v>
       </c>
       <c r="B208" s="12"/>
-      <c r="C208" s="79" t="s">
+      <c r="C208" s="80" t="s">
         <v>1125</v>
       </c>
     </row>
@@ -12870,7 +12959,7 @@
         <v>1126</v>
       </c>
       <c r="B209" s="12"/>
-      <c r="C209" s="79" t="s">
+      <c r="C209" s="80" t="s">
         <v>1127</v>
       </c>
     </row>
@@ -12879,7 +12968,7 @@
         <v>1128</v>
       </c>
       <c r="B210" s="12"/>
-      <c r="C210" s="79" t="s">
+      <c r="C210" s="80" t="s">
         <v>1129</v>
       </c>
     </row>
@@ -12888,7 +12977,7 @@
         <v>1130</v>
       </c>
       <c r="B211" s="12"/>
-      <c r="C211" s="79" t="s">
+      <c r="C211" s="80" t="s">
         <v>1131</v>
       </c>
     </row>
@@ -12897,7 +12986,7 @@
         <v>1132</v>
       </c>
       <c r="B212" s="12"/>
-      <c r="C212" s="79" t="s">
+      <c r="C212" s="80" t="s">
         <v>1133</v>
       </c>
     </row>
@@ -12906,7 +12995,7 @@
         <v>1134</v>
       </c>
       <c r="B213" s="12"/>
-      <c r="C213" s="79" t="s">
+      <c r="C213" s="80" t="s">
         <v>1135</v>
       </c>
     </row>
@@ -12915,7 +13004,7 @@
         <v>1136</v>
       </c>
       <c r="B214" s="12"/>
-      <c r="C214" s="79" t="s">
+      <c r="C214" s="80" t="s">
         <v>1137</v>
       </c>
     </row>
@@ -12924,7 +13013,7 @@
         <v>1138</v>
       </c>
       <c r="B215" s="12"/>
-      <c r="C215" s="79" t="s">
+      <c r="C215" s="80" t="s">
         <v>1139</v>
       </c>
     </row>
@@ -12933,7 +13022,7 @@
         <v>1140</v>
       </c>
       <c r="B216" s="12"/>
-      <c r="C216" s="79" t="s">
+      <c r="C216" s="80" t="s">
         <v>1141</v>
       </c>
     </row>
@@ -12942,7 +13031,7 @@
         <v>1142</v>
       </c>
       <c r="B217" s="12"/>
-      <c r="C217" s="79" t="s">
+      <c r="C217" s="80" t="s">
         <v>1143</v>
       </c>
     </row>
@@ -12951,7 +13040,7 @@
         <v>1144</v>
       </c>
       <c r="B218" s="12"/>
-      <c r="C218" s="79" t="s">
+      <c r="C218" s="80" t="s">
         <v>1145</v>
       </c>
     </row>
@@ -12960,7 +13049,7 @@
         <v>1146</v>
       </c>
       <c r="B219" s="12"/>
-      <c r="C219" s="79" t="s">
+      <c r="C219" s="80" t="s">
         <v>1147</v>
       </c>
     </row>
@@ -12969,7 +13058,7 @@
         <v>1148</v>
       </c>
       <c r="B220" s="12"/>
-      <c r="C220" s="79" t="s">
+      <c r="C220" s="80" t="s">
         <v>1149</v>
       </c>
     </row>
@@ -12978,7 +13067,7 @@
         <v>1150</v>
       </c>
       <c r="B221" s="12"/>
-      <c r="C221" s="79" t="s">
+      <c r="C221" s="80" t="s">
         <v>1151</v>
       </c>
     </row>
@@ -12987,7 +13076,7 @@
         <v>1152</v>
       </c>
       <c r="B222" s="12"/>
-      <c r="C222" s="79" t="s">
+      <c r="C222" s="80" t="s">
         <v>1153</v>
       </c>
     </row>
@@ -12996,7 +13085,7 @@
         <v>1154</v>
       </c>
       <c r="B223" s="12"/>
-      <c r="C223" s="79" t="s">
+      <c r="C223" s="80" t="s">
         <v>1155</v>
       </c>
     </row>
@@ -13005,7 +13094,7 @@
         <v>1156</v>
       </c>
       <c r="B224" s="12"/>
-      <c r="C224" s="79" t="s">
+      <c r="C224" s="80" t="s">
         <v>1157</v>
       </c>
     </row>
@@ -13014,7 +13103,7 @@
         <v>1158</v>
       </c>
       <c r="B225" s="12"/>
-      <c r="C225" s="79" t="s">
+      <c r="C225" s="80" t="s">
         <v>1159</v>
       </c>
     </row>
@@ -13023,7 +13112,7 @@
         <v>1160</v>
       </c>
       <c r="B226" s="12"/>
-      <c r="C226" s="79" t="s">
+      <c r="C226" s="80" t="s">
         <v>1161</v>
       </c>
     </row>
@@ -13032,7 +13121,7 @@
         <v>1162</v>
       </c>
       <c r="B227" s="12"/>
-      <c r="C227" s="79" t="s">
+      <c r="C227" s="80" t="s">
         <v>1163</v>
       </c>
     </row>
@@ -13041,7 +13130,7 @@
         <v>1164</v>
       </c>
       <c r="B228" s="12"/>
-      <c r="C228" s="79" t="s">
+      <c r="C228" s="80" t="s">
         <v>1165</v>
       </c>
     </row>
@@ -13050,7 +13139,7 @@
         <v>1166</v>
       </c>
       <c r="B229" s="12"/>
-      <c r="C229" s="79" t="s">
+      <c r="C229" s="80" t="s">
         <v>1167</v>
       </c>
     </row>
@@ -13059,7 +13148,7 @@
         <v>1168</v>
       </c>
       <c r="B230" s="12"/>
-      <c r="C230" s="79" t="s">
+      <c r="C230" s="80" t="s">
         <v>1169</v>
       </c>
     </row>
@@ -13068,7 +13157,7 @@
         <v>1170</v>
       </c>
       <c r="B231" s="12"/>
-      <c r="C231" s="79" t="s">
+      <c r="C231" s="80" t="s">
         <v>1171</v>
       </c>
     </row>
@@ -13077,7 +13166,7 @@
         <v>1172</v>
       </c>
       <c r="B232" s="12"/>
-      <c r="C232" s="79" t="s">
+      <c r="C232" s="80" t="s">
         <v>1173</v>
       </c>
     </row>
@@ -13086,7 +13175,7 @@
         <v>1174</v>
       </c>
       <c r="B233" s="12"/>
-      <c r="C233" s="79" t="s">
+      <c r="C233" s="80" t="s">
         <v>1175</v>
       </c>
     </row>
@@ -13095,7 +13184,7 @@
         <v>1176</v>
       </c>
       <c r="B234" s="12"/>
-      <c r="C234" s="79" t="s">
+      <c r="C234" s="80" t="s">
         <v>1177</v>
       </c>
     </row>
@@ -13104,7 +13193,7 @@
         <v>1178</v>
       </c>
       <c r="B235" s="12"/>
-      <c r="C235" s="79" t="s">
+      <c r="C235" s="80" t="s">
         <v>1179</v>
       </c>
     </row>
@@ -13113,7 +13202,7 @@
         <v>1180</v>
       </c>
       <c r="B236" s="12"/>
-      <c r="C236" s="79" t="s">
+      <c r="C236" s="80" t="s">
         <v>1181</v>
       </c>
     </row>
@@ -13122,7 +13211,7 @@
         <v>1182</v>
       </c>
       <c r="B237" s="12"/>
-      <c r="C237" s="79" t="s">
+      <c r="C237" s="80" t="s">
         <v>1183</v>
       </c>
     </row>
@@ -13131,7 +13220,7 @@
         <v>1184</v>
       </c>
       <c r="B238" s="12"/>
-      <c r="C238" s="79" t="s">
+      <c r="C238" s="80" t="s">
         <v>1185</v>
       </c>
     </row>
@@ -13140,7 +13229,7 @@
         <v>1186</v>
       </c>
       <c r="B239" s="12"/>
-      <c r="C239" s="79" t="s">
+      <c r="C239" s="80" t="s">
         <v>1187</v>
       </c>
     </row>

--- a/models/bolser-lewis/source/bolser-lewis.xlsx
+++ b/models/bolser-lewis/source/bolser-lewis.xlsx
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1652" uniqueCount="1267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1657" uniqueCount="1269">
   <si>
     <t>id</t>
   </si>
@@ -849,7 +849,7 @@
     <t>109in222</t>
   </si>
   <si>
-    <t>ILX:0738327</t>
+    <t>UBERON:0000379</t>
   </si>
   <si>
     <t>Mucosa of trachea</t>
@@ -1701,6 +1701,9 @@
     <t>220, 237, 107in205, 262</t>
   </si>
   <si>
+    <t>external</t>
+  </si>
+  <si>
     <t>Aqueous solution</t>
   </si>
   <si>
@@ -1836,6 +1839,9 @@
     <t>Central nervous system tissue</t>
   </si>
   <si>
+    <t>UBERON:0003714</t>
+  </si>
+  <si>
     <t>UBERON:0001017</t>
   </si>
   <si>
@@ -2250,27 +2256,33 @@
     <t>ilxtr:neuron-type-bolew-unbranched-1</t>
   </si>
   <si>
+    <t>descending neuron</t>
+  </si>
+  <si>
     <t>Neuron 2 in T1 Rexed Lamina VII (scg projecting) (bolew)</t>
   </si>
   <si>
     <t>ilxtr:neuron-type-bolew-unbranched-2</t>
   </si>
   <si>
+    <t>preganglionic sympathetic neuron</t>
+  </si>
+  <si>
+    <t>Neuron 3 in T1 Rexed Lamina VII (intercostal projecting) (bolew)</t>
+  </si>
+  <si>
+    <t>ilxtr:neuron-type-bolew-unbranched-3</t>
+  </si>
+  <si>
+    <t>Neuron 4 in phrenic nucleus of C4 (bolew)</t>
+  </si>
+  <si>
+    <t>ilxtr:neuron-type-bolew-unbranched-4</t>
+  </si>
+  <si>
     <t>motor neurons</t>
   </si>
   <si>
-    <t>Neuron 3 in T1 Rexed Lamina VII (intercostal projecting) (bolew)</t>
-  </si>
-  <si>
-    <t>ilxtr:neuron-type-bolew-unbranched-3</t>
-  </si>
-  <si>
-    <t>Neuron 4 in phrenic nucleus of C4 (bolew)</t>
-  </si>
-  <si>
-    <t>ilxtr:neuron-type-bolew-unbranched-4</t>
-  </si>
-  <si>
     <t>Neuron 5 in phrenic nucleus of C5 (bolew)</t>
   </si>
   <si>
@@ -2283,9 +2295,6 @@
     <t>ilxtr:neuron-type-bolew-unbranched-6</t>
   </si>
   <si>
-    <t>Vagal sensory afferent neurons</t>
-  </si>
-  <si>
     <t>Neuron 7 in rostral ventrolateral medulla (bolew)</t>
   </si>
   <si>
@@ -2298,7 +2307,7 @@
     <t>ilxtr:neuron-type-bolew-unbranched-8</t>
   </si>
   <si>
-    <t>pseudounipolar neurons</t>
+    <t>sensory neuron</t>
   </si>
   <si>
     <t>Neuron 9 in nodose ganglion lar proj (2) (bolew)</t>
@@ -2317,9 +2326,6 @@
   </si>
   <si>
     <t>ilxtr:neuron-type-bolew-unbranched-11</t>
-  </si>
-  <si>
-    <t>pseudomonopolar sensory neurons</t>
   </si>
   <si>
     <t>Neuron 12 in petrosal ganglion cs proj (2) (bolew)</t>
@@ -3973,7 +3979,7 @@
       <color rgb="FF1155CC"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4018,6 +4024,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF4CCCC"/>
+        <bgColor rgb="FFF4CCCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor rgb="FFFFFF00"/>
       </patternFill>
@@ -4043,7 +4055,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="96">
+  <cellXfs count="98">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -4223,6 +4235,9 @@
     <xf borderId="0" fillId="7" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
+    <xf borderId="0" fillId="8" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
     <xf borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
@@ -4271,6 +4286,7 @@
     <xf borderId="0" fillId="2" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
@@ -4289,6 +4305,9 @@
     <xf borderId="0" fillId="0" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
+    <xf borderId="0" fillId="8" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
     <xf borderId="0" fillId="2" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
@@ -4305,10 +4324,7 @@
     <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="8" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="9" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -4446,2168 +4462,2168 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="92" t="s">
+      <c r="A1" s="94" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>771</v>
+        <v>773</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>772</v>
+        <v>774</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="12" t="s">
-        <v>777</v>
+        <v>779</v>
       </c>
       <c r="B2" s="12"/>
-      <c r="C2" s="93" t="s">
-        <v>778</v>
+      <c r="C2" s="95" t="s">
+        <v>780</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="12" t="s">
-        <v>779</v>
+        <v>781</v>
       </c>
       <c r="B3" s="12"/>
-      <c r="C3" s="93" t="s">
-        <v>780</v>
+      <c r="C3" s="95" t="s">
+        <v>782</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="12" t="s">
-        <v>781</v>
+        <v>783</v>
       </c>
       <c r="B4" s="12"/>
-      <c r="C4" s="93" t="s">
-        <v>782</v>
+      <c r="C4" s="95" t="s">
+        <v>784</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="12" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="B5" s="12"/>
-      <c r="C5" s="93" t="s">
-        <v>784</v>
+      <c r="C5" s="95" t="s">
+        <v>786</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="12" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="B6" s="12"/>
-      <c r="C6" s="93" t="s">
-        <v>786</v>
+      <c r="C6" s="95" t="s">
+        <v>788</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="12" t="s">
-        <v>787</v>
+        <v>789</v>
       </c>
       <c r="B7" s="12"/>
-      <c r="C7" s="93" t="s">
-        <v>788</v>
+      <c r="C7" s="95" t="s">
+        <v>790</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="12" t="s">
-        <v>789</v>
+        <v>791</v>
       </c>
       <c r="B8" s="12"/>
-      <c r="C8" s="93" t="s">
-        <v>790</v>
+      <c r="C8" s="95" t="s">
+        <v>792</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="12" t="s">
-        <v>791</v>
+        <v>793</v>
       </c>
       <c r="B9" s="12"/>
-      <c r="C9" s="93" t="s">
-        <v>792</v>
+      <c r="C9" s="95" t="s">
+        <v>794</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="12" t="s">
-        <v>793</v>
+        <v>795</v>
       </c>
       <c r="B10" s="12"/>
-      <c r="C10" s="93" t="s">
-        <v>794</v>
+      <c r="C10" s="95" t="s">
+        <v>796</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="12" t="s">
-        <v>795</v>
+        <v>797</v>
       </c>
       <c r="B11" s="12"/>
-      <c r="C11" s="93" t="s">
-        <v>796</v>
+      <c r="C11" s="95" t="s">
+        <v>798</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="12" t="s">
-        <v>797</v>
+        <v>799</v>
       </c>
       <c r="B12" s="12"/>
-      <c r="C12" s="93" t="s">
-        <v>798</v>
+      <c r="C12" s="95" t="s">
+        <v>800</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="12" t="s">
-        <v>799</v>
+        <v>801</v>
       </c>
       <c r="B13" s="12"/>
-      <c r="C13" s="93" t="s">
-        <v>800</v>
+      <c r="C13" s="95" t="s">
+        <v>802</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="12" t="s">
-        <v>801</v>
+        <v>803</v>
       </c>
       <c r="B14" s="12"/>
-      <c r="C14" s="93" t="s">
-        <v>802</v>
+      <c r="C14" s="95" t="s">
+        <v>804</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="12" t="s">
-        <v>803</v>
+        <v>805</v>
       </c>
       <c r="B15" s="12"/>
-      <c r="C15" s="93" t="s">
-        <v>804</v>
+      <c r="C15" s="95" t="s">
+        <v>806</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="12" t="s">
-        <v>805</v>
+        <v>807</v>
       </c>
       <c r="B16" s="12"/>
-      <c r="C16" s="93" t="s">
-        <v>806</v>
+      <c r="C16" s="95" t="s">
+        <v>808</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="12" t="s">
-        <v>807</v>
+        <v>809</v>
       </c>
       <c r="B17" s="12"/>
-      <c r="C17" s="93" t="s">
-        <v>808</v>
+      <c r="C17" s="95" t="s">
+        <v>810</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="12" t="s">
-        <v>809</v>
+        <v>811</v>
       </c>
       <c r="B18" s="12"/>
-      <c r="C18" s="93" t="s">
-        <v>810</v>
+      <c r="C18" s="95" t="s">
+        <v>812</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="12" t="s">
-        <v>811</v>
+        <v>813</v>
       </c>
       <c r="B19" s="12"/>
-      <c r="C19" s="93" t="s">
-        <v>812</v>
+      <c r="C19" s="95" t="s">
+        <v>814</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="12" t="s">
-        <v>813</v>
+        <v>815</v>
       </c>
       <c r="B20" s="12"/>
-      <c r="C20" s="93" t="s">
-        <v>814</v>
+      <c r="C20" s="95" t="s">
+        <v>816</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="12" t="s">
-        <v>815</v>
+        <v>817</v>
       </c>
       <c r="B21" s="12"/>
-      <c r="C21" s="93" t="s">
-        <v>816</v>
+      <c r="C21" s="95" t="s">
+        <v>818</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="12" t="s">
-        <v>817</v>
+        <v>819</v>
       </c>
       <c r="B22" s="12"/>
-      <c r="C22" s="93" t="s">
-        <v>818</v>
+      <c r="C22" s="95" t="s">
+        <v>820</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="12" t="s">
-        <v>819</v>
+        <v>821</v>
       </c>
       <c r="B23" s="12"/>
-      <c r="C23" s="93" t="s">
-        <v>820</v>
+      <c r="C23" s="95" t="s">
+        <v>822</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="12" t="s">
-        <v>821</v>
+        <v>823</v>
       </c>
       <c r="B24" s="12"/>
-      <c r="C24" s="93" t="s">
-        <v>822</v>
+      <c r="C24" s="95" t="s">
+        <v>824</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="12" t="s">
-        <v>823</v>
+        <v>825</v>
       </c>
       <c r="B25" s="12"/>
-      <c r="C25" s="93" t="s">
-        <v>824</v>
+      <c r="C25" s="95" t="s">
+        <v>826</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="12" t="s">
-        <v>825</v>
+        <v>827</v>
       </c>
       <c r="B26" s="12"/>
-      <c r="C26" s="93" t="s">
-        <v>826</v>
+      <c r="C26" s="95" t="s">
+        <v>828</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="12" t="s">
-        <v>827</v>
+        <v>829</v>
       </c>
       <c r="B27" s="12"/>
-      <c r="C27" s="93" t="s">
-        <v>828</v>
+      <c r="C27" s="95" t="s">
+        <v>830</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="12" t="s">
-        <v>829</v>
+        <v>831</v>
       </c>
       <c r="B28" s="12"/>
-      <c r="C28" s="93" t="s">
-        <v>830</v>
+      <c r="C28" s="95" t="s">
+        <v>832</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="12" t="s">
-        <v>831</v>
+        <v>833</v>
       </c>
       <c r="B29" s="12"/>
-      <c r="C29" s="93" t="s">
-        <v>832</v>
+      <c r="C29" s="95" t="s">
+        <v>834</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="12" t="s">
-        <v>833</v>
+        <v>835</v>
       </c>
       <c r="B30" s="12"/>
-      <c r="C30" s="93" t="s">
-        <v>834</v>
+      <c r="C30" s="95" t="s">
+        <v>836</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="12" t="s">
-        <v>835</v>
+        <v>837</v>
       </c>
       <c r="B31" s="12"/>
-      <c r="C31" s="93" t="s">
-        <v>836</v>
+      <c r="C31" s="95" t="s">
+        <v>838</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="12" t="s">
-        <v>837</v>
+        <v>839</v>
       </c>
       <c r="B32" s="12"/>
-      <c r="C32" s="93" t="s">
-        <v>838</v>
+      <c r="C32" s="95" t="s">
+        <v>840</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="12" t="s">
-        <v>839</v>
+        <v>841</v>
       </c>
       <c r="B33" s="12"/>
-      <c r="C33" s="93" t="s">
-        <v>840</v>
+      <c r="C33" s="95" t="s">
+        <v>842</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="12" t="s">
-        <v>841</v>
+        <v>843</v>
       </c>
       <c r="B34" s="12"/>
-      <c r="C34" s="93" t="s">
-        <v>842</v>
+      <c r="C34" s="95" t="s">
+        <v>844</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="12" t="s">
-        <v>843</v>
+        <v>845</v>
       </c>
       <c r="B35" s="12"/>
-      <c r="C35" s="93" t="s">
-        <v>844</v>
+      <c r="C35" s="95" t="s">
+        <v>846</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="12" t="s">
-        <v>845</v>
+        <v>847</v>
       </c>
       <c r="B36" s="12"/>
-      <c r="C36" s="93" t="s">
-        <v>846</v>
+      <c r="C36" s="95" t="s">
+        <v>848</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="12" t="s">
-        <v>847</v>
+        <v>849</v>
       </c>
       <c r="B37" s="12"/>
-      <c r="C37" s="93" t="s">
-        <v>848</v>
+      <c r="C37" s="95" t="s">
+        <v>850</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="12" t="s">
-        <v>849</v>
+        <v>851</v>
       </c>
       <c r="B38" s="12"/>
-      <c r="C38" s="93" t="s">
-        <v>850</v>
+      <c r="C38" s="95" t="s">
+        <v>852</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="12" t="s">
-        <v>851</v>
+        <v>853</v>
       </c>
       <c r="B39" s="12"/>
-      <c r="C39" s="93" t="s">
-        <v>852</v>
+      <c r="C39" s="95" t="s">
+        <v>854</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="12" t="s">
-        <v>853</v>
+        <v>855</v>
       </c>
       <c r="B40" s="12"/>
-      <c r="C40" s="93" t="s">
-        <v>854</v>
+      <c r="C40" s="95" t="s">
+        <v>856</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="12" t="s">
-        <v>855</v>
+        <v>857</v>
       </c>
       <c r="B41" s="12"/>
-      <c r="C41" s="93" t="s">
-        <v>856</v>
+      <c r="C41" s="95" t="s">
+        <v>858</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="12" t="s">
-        <v>857</v>
+        <v>859</v>
       </c>
       <c r="B42" s="12"/>
-      <c r="C42" s="93" t="s">
-        <v>858</v>
+      <c r="C42" s="95" t="s">
+        <v>860</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="12" t="s">
-        <v>859</v>
+        <v>861</v>
       </c>
       <c r="B43" s="12"/>
-      <c r="C43" s="93" t="s">
-        <v>860</v>
+      <c r="C43" s="95" t="s">
+        <v>862</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="12" t="s">
-        <v>861</v>
+        <v>863</v>
       </c>
       <c r="B44" s="12"/>
-      <c r="C44" s="93" t="s">
-        <v>862</v>
+      <c r="C44" s="95" t="s">
+        <v>864</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="12" t="s">
-        <v>863</v>
+        <v>865</v>
       </c>
       <c r="B45" s="12"/>
-      <c r="C45" s="93" t="s">
-        <v>864</v>
+      <c r="C45" s="95" t="s">
+        <v>866</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="12" t="s">
-        <v>865</v>
+        <v>867</v>
       </c>
       <c r="B46" s="12"/>
-      <c r="C46" s="93" t="s">
-        <v>866</v>
+      <c r="C46" s="95" t="s">
+        <v>868</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="12" t="s">
-        <v>867</v>
+        <v>869</v>
       </c>
       <c r="B47" s="12"/>
-      <c r="C47" s="93" t="s">
-        <v>868</v>
+      <c r="C47" s="95" t="s">
+        <v>870</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="12" t="s">
-        <v>869</v>
+        <v>871</v>
       </c>
       <c r="B48" s="12"/>
-      <c r="C48" s="93" t="s">
-        <v>870</v>
+      <c r="C48" s="95" t="s">
+        <v>872</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="12" t="s">
-        <v>871</v>
+        <v>873</v>
       </c>
       <c r="B49" s="12"/>
-      <c r="C49" s="93" t="s">
-        <v>872</v>
+      <c r="C49" s="95" t="s">
+        <v>874</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="12" t="s">
-        <v>873</v>
+        <v>875</v>
       </c>
       <c r="B50" s="12"/>
-      <c r="C50" s="93" t="s">
-        <v>874</v>
+      <c r="C50" s="95" t="s">
+        <v>876</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="12" t="s">
-        <v>875</v>
+        <v>877</v>
       </c>
       <c r="B51" s="12"/>
-      <c r="C51" s="93" t="s">
-        <v>876</v>
+      <c r="C51" s="95" t="s">
+        <v>878</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="12" t="s">
-        <v>877</v>
+        <v>879</v>
       </c>
       <c r="B52" s="12"/>
-      <c r="C52" s="93" t="s">
-        <v>878</v>
+      <c r="C52" s="95" t="s">
+        <v>880</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="12" t="s">
-        <v>879</v>
+        <v>881</v>
       </c>
       <c r="B53" s="12"/>
-      <c r="C53" s="93" t="s">
-        <v>880</v>
+      <c r="C53" s="95" t="s">
+        <v>882</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="12" t="s">
-        <v>881</v>
+        <v>883</v>
       </c>
       <c r="B54" s="12"/>
-      <c r="C54" s="93" t="s">
-        <v>882</v>
+      <c r="C54" s="95" t="s">
+        <v>884</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="12" t="s">
-        <v>883</v>
+        <v>885</v>
       </c>
       <c r="B55" s="12"/>
-      <c r="C55" s="93" t="s">
-        <v>884</v>
+      <c r="C55" s="95" t="s">
+        <v>886</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="12" t="s">
-        <v>885</v>
+        <v>887</v>
       </c>
       <c r="B56" s="12"/>
-      <c r="C56" s="93" t="s">
-        <v>886</v>
+      <c r="C56" s="95" t="s">
+        <v>888</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="12" t="s">
-        <v>887</v>
+        <v>889</v>
       </c>
       <c r="B57" s="12"/>
-      <c r="C57" s="93" t="s">
-        <v>888</v>
+      <c r="C57" s="95" t="s">
+        <v>890</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="12" t="s">
-        <v>889</v>
+        <v>891</v>
       </c>
       <c r="B58" s="12"/>
-      <c r="C58" s="93" t="s">
-        <v>890</v>
+      <c r="C58" s="95" t="s">
+        <v>892</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="12" t="s">
-        <v>891</v>
+        <v>893</v>
       </c>
       <c r="B59" s="12"/>
-      <c r="C59" s="93" t="s">
-        <v>892</v>
+      <c r="C59" s="95" t="s">
+        <v>894</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="12" t="s">
-        <v>893</v>
+        <v>895</v>
       </c>
       <c r="B60" s="12"/>
-      <c r="C60" s="93" t="s">
-        <v>894</v>
+      <c r="C60" s="95" t="s">
+        <v>896</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="12" t="s">
-        <v>895</v>
+        <v>897</v>
       </c>
       <c r="B61" s="12"/>
-      <c r="C61" s="93" t="s">
-        <v>896</v>
+      <c r="C61" s="95" t="s">
+        <v>898</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="12" t="s">
-        <v>897</v>
+        <v>899</v>
       </c>
       <c r="B62" s="12"/>
-      <c r="C62" s="93" t="s">
-        <v>898</v>
+      <c r="C62" s="95" t="s">
+        <v>900</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="12" t="s">
-        <v>899</v>
+        <v>901</v>
       </c>
       <c r="B63" s="12"/>
-      <c r="C63" s="93" t="s">
-        <v>900</v>
+      <c r="C63" s="95" t="s">
+        <v>902</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="12" t="s">
-        <v>901</v>
+        <v>903</v>
       </c>
       <c r="B64" s="12"/>
-      <c r="C64" s="93" t="s">
-        <v>902</v>
+      <c r="C64" s="95" t="s">
+        <v>904</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="12" t="s">
-        <v>903</v>
+        <v>905</v>
       </c>
       <c r="B65" s="12"/>
-      <c r="C65" s="93" t="s">
-        <v>904</v>
+      <c r="C65" s="95" t="s">
+        <v>906</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="12" t="s">
-        <v>905</v>
+        <v>907</v>
       </c>
       <c r="B66" s="12"/>
-      <c r="C66" s="93" t="s">
-        <v>906</v>
+      <c r="C66" s="95" t="s">
+        <v>908</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="12" t="s">
-        <v>907</v>
+        <v>909</v>
       </c>
       <c r="B67" s="12"/>
-      <c r="C67" s="93" t="s">
-        <v>908</v>
+      <c r="C67" s="95" t="s">
+        <v>910</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="12" t="s">
-        <v>909</v>
+        <v>911</v>
       </c>
       <c r="B68" s="12"/>
-      <c r="C68" s="93" t="s">
-        <v>910</v>
+      <c r="C68" s="95" t="s">
+        <v>912</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="12" t="s">
-        <v>911</v>
+        <v>913</v>
       </c>
       <c r="B69" s="12"/>
-      <c r="C69" s="93" t="s">
-        <v>912</v>
+      <c r="C69" s="95" t="s">
+        <v>914</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="12" t="s">
-        <v>913</v>
+        <v>915</v>
       </c>
       <c r="B70" s="12"/>
-      <c r="C70" s="93" t="s">
-        <v>914</v>
+      <c r="C70" s="95" t="s">
+        <v>916</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="12" t="s">
-        <v>915</v>
+        <v>917</v>
       </c>
       <c r="B71" s="12"/>
-      <c r="C71" s="93" t="s">
-        <v>916</v>
+      <c r="C71" s="95" t="s">
+        <v>918</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="12" t="s">
-        <v>917</v>
+        <v>919</v>
       </c>
       <c r="B72" s="12"/>
-      <c r="C72" s="93" t="s">
-        <v>918</v>
+      <c r="C72" s="95" t="s">
+        <v>920</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="12" t="s">
-        <v>919</v>
+        <v>921</v>
       </c>
       <c r="B73" s="12"/>
-      <c r="C73" s="93" t="s">
-        <v>920</v>
+      <c r="C73" s="95" t="s">
+        <v>922</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="12" t="s">
-        <v>921</v>
+        <v>923</v>
       </c>
       <c r="B74" s="12"/>
-      <c r="C74" s="93" t="s">
-        <v>922</v>
+      <c r="C74" s="95" t="s">
+        <v>924</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="12" t="s">
-        <v>923</v>
+        <v>925</v>
       </c>
       <c r="B75" s="12"/>
-      <c r="C75" s="93" t="s">
-        <v>924</v>
+      <c r="C75" s="95" t="s">
+        <v>926</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="12" t="s">
-        <v>925</v>
+        <v>927</v>
       </c>
       <c r="B76" s="12"/>
-      <c r="C76" s="93" t="s">
-        <v>926</v>
+      <c r="C76" s="95" t="s">
+        <v>928</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="12" t="s">
-        <v>927</v>
+        <v>929</v>
       </c>
       <c r="B77" s="12"/>
-      <c r="C77" s="93" t="s">
-        <v>928</v>
+      <c r="C77" s="95" t="s">
+        <v>930</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="12" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="B78" s="12"/>
-      <c r="C78" s="93" t="s">
-        <v>930</v>
+      <c r="C78" s="95" t="s">
+        <v>932</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="12" t="s">
-        <v>931</v>
+        <v>933</v>
       </c>
       <c r="B79" s="12"/>
-      <c r="C79" s="93" t="s">
-        <v>932</v>
+      <c r="C79" s="95" t="s">
+        <v>934</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="12" t="s">
-        <v>933</v>
+        <v>935</v>
       </c>
       <c r="B80" s="12"/>
-      <c r="C80" s="93" t="s">
-        <v>934</v>
+      <c r="C80" s="95" t="s">
+        <v>936</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="12" t="s">
-        <v>935</v>
+        <v>937</v>
       </c>
       <c r="B81" s="12"/>
-      <c r="C81" s="93" t="s">
-        <v>936</v>
+      <c r="C81" s="95" t="s">
+        <v>938</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="12" t="s">
-        <v>937</v>
+        <v>939</v>
       </c>
       <c r="B82" s="12"/>
-      <c r="C82" s="93" t="s">
-        <v>938</v>
+      <c r="C82" s="95" t="s">
+        <v>940</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="12" t="s">
-        <v>939</v>
+        <v>941</v>
       </c>
       <c r="B83" s="12"/>
-      <c r="C83" s="93" t="s">
-        <v>940</v>
+      <c r="C83" s="95" t="s">
+        <v>942</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="12" t="s">
-        <v>941</v>
+        <v>943</v>
       </c>
       <c r="B84" s="12"/>
-      <c r="C84" s="93" t="s">
-        <v>942</v>
+      <c r="C84" s="95" t="s">
+        <v>944</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="12" t="s">
-        <v>943</v>
+        <v>945</v>
       </c>
       <c r="B85" s="12"/>
-      <c r="C85" s="93" t="s">
-        <v>944</v>
+      <c r="C85" s="95" t="s">
+        <v>946</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="12" t="s">
-        <v>945</v>
+        <v>947</v>
       </c>
       <c r="B86" s="12"/>
-      <c r="C86" s="93" t="s">
-        <v>946</v>
+      <c r="C86" s="95" t="s">
+        <v>948</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="12" t="s">
-        <v>947</v>
+        <v>949</v>
       </c>
       <c r="B87" s="12"/>
-      <c r="C87" s="93" t="s">
-        <v>948</v>
+      <c r="C87" s="95" t="s">
+        <v>950</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="12" t="s">
-        <v>949</v>
+        <v>951</v>
       </c>
       <c r="B88" s="12"/>
-      <c r="C88" s="93" t="s">
-        <v>950</v>
+      <c r="C88" s="95" t="s">
+        <v>952</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="12" t="s">
-        <v>951</v>
+        <v>953</v>
       </c>
       <c r="B89" s="12"/>
-      <c r="C89" s="93" t="s">
-        <v>952</v>
+      <c r="C89" s="95" t="s">
+        <v>954</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="12" t="s">
-        <v>953</v>
+        <v>955</v>
       </c>
       <c r="B90" s="12"/>
-      <c r="C90" s="93" t="s">
-        <v>954</v>
+      <c r="C90" s="95" t="s">
+        <v>956</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="12" t="s">
-        <v>955</v>
+        <v>957</v>
       </c>
       <c r="B91" s="12"/>
-      <c r="C91" s="93" t="s">
-        <v>956</v>
+      <c r="C91" s="95" t="s">
+        <v>958</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="12" t="s">
-        <v>957</v>
+        <v>959</v>
       </c>
       <c r="B92" s="12"/>
-      <c r="C92" s="93" t="s">
-        <v>958</v>
+      <c r="C92" s="95" t="s">
+        <v>960</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="12" t="s">
-        <v>959</v>
+        <v>961</v>
       </c>
       <c r="B93" s="12"/>
-      <c r="C93" s="93" t="s">
-        <v>960</v>
+      <c r="C93" s="95" t="s">
+        <v>962</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="12" t="s">
-        <v>961</v>
+        <v>963</v>
       </c>
       <c r="B94" s="12"/>
-      <c r="C94" s="93" t="s">
-        <v>962</v>
+      <c r="C94" s="95" t="s">
+        <v>964</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="12" t="s">
-        <v>963</v>
+        <v>965</v>
       </c>
       <c r="B95" s="12"/>
-      <c r="C95" s="93" t="s">
-        <v>964</v>
+      <c r="C95" s="95" t="s">
+        <v>966</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="12" t="s">
-        <v>965</v>
+        <v>967</v>
       </c>
       <c r="B96" s="12"/>
-      <c r="C96" s="93" t="s">
-        <v>966</v>
+      <c r="C96" s="95" t="s">
+        <v>968</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="12" t="s">
-        <v>967</v>
+        <v>969</v>
       </c>
       <c r="B97" s="12"/>
-      <c r="C97" s="93" t="s">
-        <v>968</v>
+      <c r="C97" s="95" t="s">
+        <v>970</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="12" t="s">
-        <v>969</v>
+        <v>971</v>
       </c>
       <c r="B98" s="12"/>
-      <c r="C98" s="93" t="s">
-        <v>970</v>
+      <c r="C98" s="95" t="s">
+        <v>972</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="12" t="s">
-        <v>971</v>
+        <v>973</v>
       </c>
       <c r="B99" s="12"/>
-      <c r="C99" s="93" t="s">
-        <v>972</v>
+      <c r="C99" s="95" t="s">
+        <v>974</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="12" t="s">
-        <v>973</v>
+        <v>975</v>
       </c>
       <c r="B100" s="12"/>
-      <c r="C100" s="93" t="s">
-        <v>974</v>
+      <c r="C100" s="95" t="s">
+        <v>976</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="12" t="s">
-        <v>975</v>
+        <v>977</v>
       </c>
       <c r="B101" s="12"/>
-      <c r="C101" s="93" t="s">
-        <v>976</v>
+      <c r="C101" s="95" t="s">
+        <v>978</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="12" t="s">
-        <v>977</v>
+        <v>979</v>
       </c>
       <c r="B102" s="12"/>
-      <c r="C102" s="93" t="s">
-        <v>978</v>
+      <c r="C102" s="95" t="s">
+        <v>980</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="12" t="s">
-        <v>979</v>
+        <v>981</v>
       </c>
       <c r="B103" s="12"/>
-      <c r="C103" s="93" t="s">
-        <v>980</v>
+      <c r="C103" s="95" t="s">
+        <v>982</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="12" t="s">
-        <v>981</v>
+        <v>983</v>
       </c>
       <c r="B104" s="12"/>
-      <c r="C104" s="93" t="s">
-        <v>982</v>
+      <c r="C104" s="95" t="s">
+        <v>984</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="12" t="s">
-        <v>983</v>
+        <v>985</v>
       </c>
       <c r="B105" s="12"/>
-      <c r="C105" s="93" t="s">
-        <v>984</v>
+      <c r="C105" s="95" t="s">
+        <v>986</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="12" t="s">
-        <v>985</v>
+        <v>987</v>
       </c>
       <c r="B106" s="12"/>
-      <c r="C106" s="93" t="s">
-        <v>986</v>
+      <c r="C106" s="95" t="s">
+        <v>988</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="12" t="s">
-        <v>987</v>
+        <v>989</v>
       </c>
       <c r="B107" s="12"/>
-      <c r="C107" s="93" t="s">
-        <v>988</v>
+      <c r="C107" s="95" t="s">
+        <v>990</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="12" t="s">
-        <v>989</v>
+        <v>991</v>
       </c>
       <c r="B108" s="12"/>
-      <c r="C108" s="93" t="s">
-        <v>990</v>
+      <c r="C108" s="95" t="s">
+        <v>992</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="12" t="s">
-        <v>991</v>
+        <v>993</v>
       </c>
       <c r="B109" s="12"/>
-      <c r="C109" s="93" t="s">
-        <v>992</v>
+      <c r="C109" s="95" t="s">
+        <v>994</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="12" t="s">
-        <v>993</v>
+        <v>995</v>
       </c>
       <c r="B110" s="12"/>
-      <c r="C110" s="93" t="s">
-        <v>994</v>
+      <c r="C110" s="95" t="s">
+        <v>996</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="12" t="s">
-        <v>995</v>
+        <v>997</v>
       </c>
       <c r="B111" s="12"/>
-      <c r="C111" s="93" t="s">
-        <v>996</v>
+      <c r="C111" s="95" t="s">
+        <v>998</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="12" t="s">
-        <v>997</v>
+        <v>999</v>
       </c>
       <c r="B112" s="12"/>
-      <c r="C112" s="93" t="s">
-        <v>998</v>
+      <c r="C112" s="95" t="s">
+        <v>1000</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="12" t="s">
-        <v>999</v>
+        <v>1001</v>
       </c>
       <c r="B113" s="12"/>
-      <c r="C113" s="93" t="s">
-        <v>1000</v>
+      <c r="C113" s="95" t="s">
+        <v>1002</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="12" t="s">
-        <v>1001</v>
+        <v>1003</v>
       </c>
       <c r="B114" s="12"/>
-      <c r="C114" s="93" t="s">
-        <v>1002</v>
+      <c r="C114" s="95" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="12" t="s">
-        <v>1003</v>
+        <v>1005</v>
       </c>
       <c r="B115" s="12"/>
-      <c r="C115" s="93" t="s">
-        <v>1004</v>
+      <c r="C115" s="95" t="s">
+        <v>1006</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="12" t="s">
-        <v>1005</v>
+        <v>1007</v>
       </c>
       <c r="B116" s="12"/>
-      <c r="C116" s="93" t="s">
-        <v>1006</v>
+      <c r="C116" s="95" t="s">
+        <v>1008</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="12" t="s">
-        <v>1007</v>
+        <v>1009</v>
       </c>
       <c r="B117" s="12"/>
-      <c r="C117" s="93" t="s">
-        <v>1008</v>
+      <c r="C117" s="95" t="s">
+        <v>1010</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="12" t="s">
-        <v>1009</v>
+        <v>1011</v>
       </c>
       <c r="B118" s="12"/>
-      <c r="C118" s="93" t="s">
-        <v>1010</v>
+      <c r="C118" s="95" t="s">
+        <v>1012</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="12" t="s">
-        <v>1011</v>
+        <v>1013</v>
       </c>
       <c r="B119" s="12"/>
-      <c r="C119" s="93" t="s">
-        <v>1012</v>
+      <c r="C119" s="95" t="s">
+        <v>1014</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="12" t="s">
-        <v>1013</v>
+        <v>1015</v>
       </c>
       <c r="B120" s="12"/>
-      <c r="C120" s="93" t="s">
-        <v>1014</v>
+      <c r="C120" s="95" t="s">
+        <v>1016</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="12" t="s">
-        <v>1015</v>
+        <v>1017</v>
       </c>
       <c r="B121" s="12"/>
-      <c r="C121" s="93" t="s">
-        <v>1016</v>
+      <c r="C121" s="95" t="s">
+        <v>1018</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="12" t="s">
-        <v>1017</v>
+        <v>1019</v>
       </c>
       <c r="B122" s="12"/>
-      <c r="C122" s="93" t="s">
-        <v>1018</v>
+      <c r="C122" s="95" t="s">
+        <v>1020</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="12" t="s">
-        <v>1019</v>
+        <v>1021</v>
       </c>
       <c r="B123" s="12"/>
-      <c r="C123" s="93" t="s">
-        <v>1020</v>
+      <c r="C123" s="95" t="s">
+        <v>1022</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="12" t="s">
-        <v>1021</v>
+        <v>1023</v>
       </c>
       <c r="B124" s="12"/>
-      <c r="C124" s="93" t="s">
-        <v>1022</v>
+      <c r="C124" s="95" t="s">
+        <v>1024</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="12" t="s">
-        <v>1023</v>
+        <v>1025</v>
       </c>
       <c r="B125" s="12"/>
-      <c r="C125" s="93" t="s">
-        <v>1024</v>
+      <c r="C125" s="95" t="s">
+        <v>1026</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="12" t="s">
-        <v>1025</v>
+        <v>1027</v>
       </c>
       <c r="B126" s="12"/>
-      <c r="C126" s="93" t="s">
-        <v>1026</v>
+      <c r="C126" s="95" t="s">
+        <v>1028</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="12" t="s">
-        <v>1027</v>
+        <v>1029</v>
       </c>
       <c r="B127" s="12"/>
-      <c r="C127" s="93" t="s">
-        <v>1028</v>
+      <c r="C127" s="95" t="s">
+        <v>1030</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="12" t="s">
-        <v>1029</v>
+        <v>1031</v>
       </c>
       <c r="B128" s="12"/>
-      <c r="C128" s="93" t="s">
-        <v>1030</v>
+      <c r="C128" s="95" t="s">
+        <v>1032</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="12" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="B129" s="12"/>
-      <c r="C129" s="93" t="s">
-        <v>1032</v>
+      <c r="C129" s="95" t="s">
+        <v>1034</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="12" t="s">
-        <v>1033</v>
+        <v>1035</v>
       </c>
       <c r="B130" s="12"/>
-      <c r="C130" s="93" t="s">
-        <v>1034</v>
+      <c r="C130" s="95" t="s">
+        <v>1036</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="12" t="s">
-        <v>1035</v>
+        <v>1037</v>
       </c>
       <c r="B131" s="12"/>
-      <c r="C131" s="93" t="s">
-        <v>1036</v>
+      <c r="C131" s="95" t="s">
+        <v>1038</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="12" t="s">
-        <v>1037</v>
+        <v>1039</v>
       </c>
       <c r="B132" s="12"/>
-      <c r="C132" s="93" t="s">
-        <v>1038</v>
+      <c r="C132" s="95" t="s">
+        <v>1040</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="12" t="s">
-        <v>1039</v>
+        <v>1041</v>
       </c>
       <c r="B133" s="12"/>
-      <c r="C133" s="93" t="s">
-        <v>1040</v>
+      <c r="C133" s="95" t="s">
+        <v>1042</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="12" t="s">
-        <v>1041</v>
+        <v>1043</v>
       </c>
       <c r="B134" s="12"/>
-      <c r="C134" s="93" t="s">
-        <v>1042</v>
+      <c r="C134" s="95" t="s">
+        <v>1044</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="12" t="s">
-        <v>1043</v>
+        <v>1045</v>
       </c>
       <c r="B135" s="12"/>
-      <c r="C135" s="93" t="s">
-        <v>1044</v>
+      <c r="C135" s="95" t="s">
+        <v>1046</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="12" t="s">
-        <v>1045</v>
+        <v>1047</v>
       </c>
       <c r="B136" s="12"/>
-      <c r="C136" s="93" t="s">
-        <v>1046</v>
+      <c r="C136" s="95" t="s">
+        <v>1048</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="12" t="s">
-        <v>1047</v>
+        <v>1049</v>
       </c>
       <c r="B137" s="12"/>
-      <c r="C137" s="93" t="s">
-        <v>1048</v>
+      <c r="C137" s="95" t="s">
+        <v>1050</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="12" t="s">
-        <v>1049</v>
+        <v>1051</v>
       </c>
       <c r="B138" s="12"/>
-      <c r="C138" s="93" t="s">
-        <v>1050</v>
+      <c r="C138" s="95" t="s">
+        <v>1052</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="12" t="s">
-        <v>1051</v>
+        <v>1053</v>
       </c>
       <c r="B139" s="12"/>
-      <c r="C139" s="93" t="s">
-        <v>1052</v>
+      <c r="C139" s="95" t="s">
+        <v>1054</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="12" t="s">
-        <v>1053</v>
+        <v>1055</v>
       </c>
       <c r="B140" s="12"/>
-      <c r="C140" s="93" t="s">
-        <v>1054</v>
+      <c r="C140" s="95" t="s">
+        <v>1056</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="12" t="s">
-        <v>1055</v>
+        <v>1057</v>
       </c>
       <c r="B141" s="12"/>
-      <c r="C141" s="93" t="s">
-        <v>1056</v>
+      <c r="C141" s="95" t="s">
+        <v>1058</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="12" t="s">
-        <v>1057</v>
+        <v>1059</v>
       </c>
       <c r="B142" s="12"/>
-      <c r="C142" s="93" t="s">
-        <v>1058</v>
+      <c r="C142" s="95" t="s">
+        <v>1060</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="12" t="s">
-        <v>1059</v>
+        <v>1061</v>
       </c>
       <c r="B143" s="12"/>
-      <c r="C143" s="93" t="s">
-        <v>1060</v>
+      <c r="C143" s="95" t="s">
+        <v>1062</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="12" t="s">
-        <v>1061</v>
+        <v>1063</v>
       </c>
       <c r="B144" s="12"/>
-      <c r="C144" s="93" t="s">
-        <v>1062</v>
+      <c r="C144" s="95" t="s">
+        <v>1064</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="12" t="s">
-        <v>1063</v>
+        <v>1065</v>
       </c>
       <c r="B145" s="12"/>
-      <c r="C145" s="93" t="s">
-        <v>1064</v>
+      <c r="C145" s="95" t="s">
+        <v>1066</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="12" t="s">
-        <v>1065</v>
+        <v>1067</v>
       </c>
       <c r="B146" s="12"/>
-      <c r="C146" s="93" t="s">
-        <v>1066</v>
+      <c r="C146" s="95" t="s">
+        <v>1068</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="12" t="s">
-        <v>1067</v>
+        <v>1069</v>
       </c>
       <c r="B147" s="12"/>
-      <c r="C147" s="93" t="s">
-        <v>1068</v>
+      <c r="C147" s="95" t="s">
+        <v>1070</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="12" t="s">
-        <v>1069</v>
+        <v>1071</v>
       </c>
       <c r="B148" s="12"/>
-      <c r="C148" s="93" t="s">
-        <v>1070</v>
+      <c r="C148" s="95" t="s">
+        <v>1072</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="12" t="s">
-        <v>1071</v>
+        <v>1073</v>
       </c>
       <c r="B149" s="12"/>
-      <c r="C149" s="93" t="s">
-        <v>1072</v>
+      <c r="C149" s="95" t="s">
+        <v>1074</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="12" t="s">
-        <v>1073</v>
+        <v>1075</v>
       </c>
       <c r="B150" s="12"/>
-      <c r="C150" s="93" t="s">
-        <v>1074</v>
+      <c r="C150" s="95" t="s">
+        <v>1076</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="12" t="s">
-        <v>1075</v>
+        <v>1077</v>
       </c>
       <c r="B151" s="12"/>
-      <c r="C151" s="93" t="s">
-        <v>1076</v>
+      <c r="C151" s="95" t="s">
+        <v>1078</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="12" t="s">
-        <v>1077</v>
+        <v>1079</v>
       </c>
       <c r="B152" s="12"/>
-      <c r="C152" s="93" t="s">
-        <v>1078</v>
+      <c r="C152" s="95" t="s">
+        <v>1080</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="12" t="s">
-        <v>1079</v>
+        <v>1081</v>
       </c>
       <c r="B153" s="12"/>
-      <c r="C153" s="93" t="s">
-        <v>1080</v>
+      <c r="C153" s="95" t="s">
+        <v>1082</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="12" t="s">
-        <v>1081</v>
+        <v>1083</v>
       </c>
       <c r="B154" s="12"/>
-      <c r="C154" s="93" t="s">
-        <v>1082</v>
+      <c r="C154" s="95" t="s">
+        <v>1084</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="12" t="s">
-        <v>1083</v>
+        <v>1085</v>
       </c>
       <c r="B155" s="12"/>
-      <c r="C155" s="93" t="s">
-        <v>1084</v>
+      <c r="C155" s="95" t="s">
+        <v>1086</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="12" t="s">
-        <v>1085</v>
+        <v>1087</v>
       </c>
       <c r="B156" s="12"/>
-      <c r="C156" s="93" t="s">
-        <v>1086</v>
+      <c r="C156" s="95" t="s">
+        <v>1088</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="12" t="s">
-        <v>1087</v>
+        <v>1089</v>
       </c>
       <c r="B157" s="12"/>
-      <c r="C157" s="93" t="s">
-        <v>1088</v>
+      <c r="C157" s="95" t="s">
+        <v>1090</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="12" t="s">
-        <v>1089</v>
+        <v>1091</v>
       </c>
       <c r="B158" s="12"/>
-      <c r="C158" s="93" t="s">
-        <v>1090</v>
+      <c r="C158" s="95" t="s">
+        <v>1092</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="12" t="s">
-        <v>1091</v>
+        <v>1093</v>
       </c>
       <c r="B159" s="12"/>
-      <c r="C159" s="93" t="s">
-        <v>1092</v>
+      <c r="C159" s="95" t="s">
+        <v>1094</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="12" t="s">
-        <v>1093</v>
+        <v>1095</v>
       </c>
       <c r="B160" s="12"/>
-      <c r="C160" s="93" t="s">
-        <v>1094</v>
+      <c r="C160" s="95" t="s">
+        <v>1096</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="12" t="s">
-        <v>1095</v>
+        <v>1097</v>
       </c>
       <c r="B161" s="12"/>
-      <c r="C161" s="93" t="s">
-        <v>1096</v>
+      <c r="C161" s="95" t="s">
+        <v>1098</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="12" t="s">
-        <v>1097</v>
+        <v>1099</v>
       </c>
       <c r="B162" s="12"/>
-      <c r="C162" s="93" t="s">
-        <v>1098</v>
+      <c r="C162" s="95" t="s">
+        <v>1100</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="12" t="s">
-        <v>1099</v>
+        <v>1101</v>
       </c>
       <c r="B163" s="12"/>
-      <c r="C163" s="93" t="s">
-        <v>1100</v>
+      <c r="C163" s="95" t="s">
+        <v>1102</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="12" t="s">
-        <v>1101</v>
+        <v>1103</v>
       </c>
       <c r="B164" s="12"/>
-      <c r="C164" s="93" t="s">
-        <v>1102</v>
+      <c r="C164" s="95" t="s">
+        <v>1104</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="12" t="s">
-        <v>1103</v>
+        <v>1105</v>
       </c>
       <c r="B165" s="12"/>
-      <c r="C165" s="93" t="s">
-        <v>1104</v>
+      <c r="C165" s="95" t="s">
+        <v>1106</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="12" t="s">
-        <v>1105</v>
+        <v>1107</v>
       </c>
       <c r="B166" s="12"/>
-      <c r="C166" s="93" t="s">
-        <v>1106</v>
+      <c r="C166" s="95" t="s">
+        <v>1108</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="12" t="s">
-        <v>1107</v>
+        <v>1109</v>
       </c>
       <c r="B167" s="12"/>
-      <c r="C167" s="93" t="s">
-        <v>1108</v>
+      <c r="C167" s="95" t="s">
+        <v>1110</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="12" t="s">
-        <v>1109</v>
+        <v>1111</v>
       </c>
       <c r="B168" s="12"/>
-      <c r="C168" s="93" t="s">
-        <v>1110</v>
+      <c r="C168" s="95" t="s">
+        <v>1112</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="12" t="s">
-        <v>1111</v>
+        <v>1113</v>
       </c>
       <c r="B169" s="12"/>
-      <c r="C169" s="93" t="s">
-        <v>1112</v>
+      <c r="C169" s="95" t="s">
+        <v>1114</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="12" t="s">
-        <v>1113</v>
+        <v>1115</v>
       </c>
       <c r="B170" s="12"/>
-      <c r="C170" s="93" t="s">
-        <v>1114</v>
+      <c r="C170" s="95" t="s">
+        <v>1116</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="12" t="s">
-        <v>1115</v>
+        <v>1117</v>
       </c>
       <c r="B171" s="12"/>
-      <c r="C171" s="93" t="s">
-        <v>1116</v>
+      <c r="C171" s="95" t="s">
+        <v>1118</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="12" t="s">
-        <v>1117</v>
+        <v>1119</v>
       </c>
       <c r="B172" s="12"/>
-      <c r="C172" s="93" t="s">
-        <v>1118</v>
+      <c r="C172" s="95" t="s">
+        <v>1120</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="12" t="s">
-        <v>1119</v>
+        <v>1121</v>
       </c>
       <c r="B173" s="12"/>
-      <c r="C173" s="93" t="s">
-        <v>1120</v>
+      <c r="C173" s="95" t="s">
+        <v>1122</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="12" t="s">
-        <v>1121</v>
+        <v>1123</v>
       </c>
       <c r="B174" s="12"/>
-      <c r="C174" s="93" t="s">
-        <v>1122</v>
+      <c r="C174" s="95" t="s">
+        <v>1124</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="12" t="s">
-        <v>1123</v>
+        <v>1125</v>
       </c>
       <c r="B175" s="12"/>
-      <c r="C175" s="93" t="s">
-        <v>1124</v>
+      <c r="C175" s="95" t="s">
+        <v>1126</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="12" t="s">
-        <v>1125</v>
+        <v>1127</v>
       </c>
       <c r="B176" s="12"/>
-      <c r="C176" s="93" t="s">
-        <v>1126</v>
+      <c r="C176" s="95" t="s">
+        <v>1128</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="12" t="s">
-        <v>1127</v>
+        <v>1129</v>
       </c>
       <c r="B177" s="12"/>
-      <c r="C177" s="93" t="s">
-        <v>1128</v>
+      <c r="C177" s="95" t="s">
+        <v>1130</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="12" t="s">
-        <v>1129</v>
+        <v>1131</v>
       </c>
       <c r="B178" s="12"/>
-      <c r="C178" s="93" t="s">
-        <v>1130</v>
+      <c r="C178" s="95" t="s">
+        <v>1132</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="12" t="s">
-        <v>1131</v>
+        <v>1133</v>
       </c>
       <c r="B179" s="12"/>
-      <c r="C179" s="93" t="s">
-        <v>1132</v>
+      <c r="C179" s="95" t="s">
+        <v>1134</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="12" t="s">
-        <v>1133</v>
+        <v>1135</v>
       </c>
       <c r="B180" s="12"/>
-      <c r="C180" s="93" t="s">
-        <v>1134</v>
+      <c r="C180" s="95" t="s">
+        <v>1136</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="12" t="s">
-        <v>1135</v>
+        <v>1137</v>
       </c>
       <c r="B181" s="12"/>
-      <c r="C181" s="93" t="s">
-        <v>1136</v>
+      <c r="C181" s="95" t="s">
+        <v>1138</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="12" t="s">
-        <v>1137</v>
+        <v>1139</v>
       </c>
       <c r="B182" s="12"/>
-      <c r="C182" s="93" t="s">
-        <v>1138</v>
+      <c r="C182" s="95" t="s">
+        <v>1140</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="12" t="s">
-        <v>1139</v>
+        <v>1141</v>
       </c>
       <c r="B183" s="12"/>
-      <c r="C183" s="93" t="s">
-        <v>1140</v>
+      <c r="C183" s="95" t="s">
+        <v>1142</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="12" t="s">
-        <v>1141</v>
+        <v>1143</v>
       </c>
       <c r="B184" s="12"/>
-      <c r="C184" s="93" t="s">
-        <v>1142</v>
+      <c r="C184" s="95" t="s">
+        <v>1144</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="12" t="s">
-        <v>1143</v>
+        <v>1145</v>
       </c>
       <c r="B185" s="12"/>
-      <c r="C185" s="93" t="s">
-        <v>1144</v>
+      <c r="C185" s="95" t="s">
+        <v>1146</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="12" t="s">
-        <v>1145</v>
+        <v>1147</v>
       </c>
       <c r="B186" s="12"/>
-      <c r="C186" s="93" t="s">
-        <v>1146</v>
+      <c r="C186" s="95" t="s">
+        <v>1148</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="12" t="s">
-        <v>1147</v>
+        <v>1149</v>
       </c>
       <c r="B187" s="12"/>
-      <c r="C187" s="93" t="s">
-        <v>1148</v>
+      <c r="C187" s="95" t="s">
+        <v>1150</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="12" t="s">
-        <v>1149</v>
+        <v>1151</v>
       </c>
       <c r="B188" s="12"/>
-      <c r="C188" s="93" t="s">
-        <v>1150</v>
+      <c r="C188" s="95" t="s">
+        <v>1152</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="12" t="s">
-        <v>1151</v>
+        <v>1153</v>
       </c>
       <c r="B189" s="12"/>
-      <c r="C189" s="93" t="s">
-        <v>1152</v>
+      <c r="C189" s="95" t="s">
+        <v>1154</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="12" t="s">
-        <v>1153</v>
+        <v>1155</v>
       </c>
       <c r="B190" s="12"/>
-      <c r="C190" s="93" t="s">
-        <v>1154</v>
+      <c r="C190" s="95" t="s">
+        <v>1156</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="12" t="s">
-        <v>1155</v>
+        <v>1157</v>
       </c>
       <c r="B191" s="12"/>
-      <c r="C191" s="93" t="s">
-        <v>1156</v>
+      <c r="C191" s="95" t="s">
+        <v>1158</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="12" t="s">
-        <v>1157</v>
+        <v>1159</v>
       </c>
       <c r="B192" s="12"/>
-      <c r="C192" s="93" t="s">
-        <v>1158</v>
+      <c r="C192" s="95" t="s">
+        <v>1160</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="12" t="s">
-        <v>1159</v>
+        <v>1161</v>
       </c>
       <c r="B193" s="12"/>
-      <c r="C193" s="93" t="s">
-        <v>1160</v>
+      <c r="C193" s="95" t="s">
+        <v>1162</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="12" t="s">
-        <v>1161</v>
+        <v>1163</v>
       </c>
       <c r="B194" s="12"/>
-      <c r="C194" s="93" t="s">
-        <v>1162</v>
+      <c r="C194" s="95" t="s">
+        <v>1164</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="12" t="s">
-        <v>1163</v>
+        <v>1165</v>
       </c>
       <c r="B195" s="12"/>
-      <c r="C195" s="93" t="s">
-        <v>1164</v>
+      <c r="C195" s="95" t="s">
+        <v>1166</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="12" t="s">
-        <v>1165</v>
+        <v>1167</v>
       </c>
       <c r="B196" s="12"/>
-      <c r="C196" s="93" t="s">
-        <v>1166</v>
+      <c r="C196" s="95" t="s">
+        <v>1168</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="12" t="s">
-        <v>1167</v>
+        <v>1169</v>
       </c>
       <c r="B197" s="12"/>
-      <c r="C197" s="93" t="s">
-        <v>1168</v>
+      <c r="C197" s="95" t="s">
+        <v>1170</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="12" t="s">
-        <v>1169</v>
+        <v>1171</v>
       </c>
       <c r="B198" s="12"/>
-      <c r="C198" s="93" t="s">
-        <v>1170</v>
+      <c r="C198" s="95" t="s">
+        <v>1172</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="12" t="s">
-        <v>1171</v>
+        <v>1173</v>
       </c>
       <c r="B199" s="12"/>
-      <c r="C199" s="93" t="s">
-        <v>1172</v>
+      <c r="C199" s="95" t="s">
+        <v>1174</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="12" t="s">
-        <v>1173</v>
+        <v>1175</v>
       </c>
       <c r="B200" s="12"/>
-      <c r="C200" s="93" t="s">
-        <v>1174</v>
+      <c r="C200" s="95" t="s">
+        <v>1176</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="12" t="s">
-        <v>1175</v>
+        <v>1177</v>
       </c>
       <c r="B201" s="12"/>
-      <c r="C201" s="93" t="s">
-        <v>1176</v>
+      <c r="C201" s="95" t="s">
+        <v>1178</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="12" t="s">
-        <v>1177</v>
+        <v>1179</v>
       </c>
       <c r="B202" s="12"/>
-      <c r="C202" s="93" t="s">
-        <v>1178</v>
+      <c r="C202" s="95" t="s">
+        <v>1180</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="12" t="s">
-        <v>1179</v>
+        <v>1181</v>
       </c>
       <c r="B203" s="12"/>
-      <c r="C203" s="93" t="s">
-        <v>1180</v>
+      <c r="C203" s="95" t="s">
+        <v>1182</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="12" t="s">
-        <v>1181</v>
+        <v>1183</v>
       </c>
       <c r="B204" s="12"/>
-      <c r="C204" s="93" t="s">
-        <v>1182</v>
+      <c r="C204" s="95" t="s">
+        <v>1184</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="12" t="s">
-        <v>1183</v>
+        <v>1185</v>
       </c>
       <c r="B205" s="12"/>
-      <c r="C205" s="93" t="s">
-        <v>1184</v>
+      <c r="C205" s="95" t="s">
+        <v>1186</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="12" t="s">
-        <v>1185</v>
+        <v>1187</v>
       </c>
       <c r="B206" s="12"/>
-      <c r="C206" s="93" t="s">
-        <v>1186</v>
+      <c r="C206" s="95" t="s">
+        <v>1188</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="12" t="s">
-        <v>1187</v>
+        <v>1189</v>
       </c>
       <c r="B207" s="12"/>
-      <c r="C207" s="93" t="s">
-        <v>1188</v>
+      <c r="C207" s="95" t="s">
+        <v>1190</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="12" t="s">
-        <v>1189</v>
+        <v>1191</v>
       </c>
       <c r="B208" s="12"/>
-      <c r="C208" s="93" t="s">
-        <v>1190</v>
+      <c r="C208" s="95" t="s">
+        <v>1192</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="12" t="s">
-        <v>1191</v>
+        <v>1193</v>
       </c>
       <c r="B209" s="12"/>
-      <c r="C209" s="93" t="s">
-        <v>1192</v>
+      <c r="C209" s="95" t="s">
+        <v>1194</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="12" t="s">
-        <v>1193</v>
+        <v>1195</v>
       </c>
       <c r="B210" s="12"/>
-      <c r="C210" s="93" t="s">
-        <v>1194</v>
+      <c r="C210" s="95" t="s">
+        <v>1196</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="12" t="s">
-        <v>1195</v>
+        <v>1197</v>
       </c>
       <c r="B211" s="12"/>
-      <c r="C211" s="93" t="s">
-        <v>1196</v>
+      <c r="C211" s="95" t="s">
+        <v>1198</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="12" t="s">
-        <v>1197</v>
+        <v>1199</v>
       </c>
       <c r="B212" s="12"/>
-      <c r="C212" s="93" t="s">
-        <v>1198</v>
+      <c r="C212" s="95" t="s">
+        <v>1200</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="12" t="s">
-        <v>1199</v>
+        <v>1201</v>
       </c>
       <c r="B213" s="12"/>
-      <c r="C213" s="93" t="s">
-        <v>1200</v>
+      <c r="C213" s="95" t="s">
+        <v>1202</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="12" t="s">
-        <v>1201</v>
+        <v>1203</v>
       </c>
       <c r="B214" s="12"/>
-      <c r="C214" s="93" t="s">
-        <v>1202</v>
+      <c r="C214" s="95" t="s">
+        <v>1204</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="12" t="s">
-        <v>1203</v>
+        <v>1205</v>
       </c>
       <c r="B215" s="12"/>
-      <c r="C215" s="93" t="s">
-        <v>1204</v>
+      <c r="C215" s="95" t="s">
+        <v>1206</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="12" t="s">
-        <v>1205</v>
+        <v>1207</v>
       </c>
       <c r="B216" s="12"/>
-      <c r="C216" s="93" t="s">
-        <v>1206</v>
+      <c r="C216" s="95" t="s">
+        <v>1208</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="12" t="s">
-        <v>1207</v>
+        <v>1209</v>
       </c>
       <c r="B217" s="12"/>
-      <c r="C217" s="93" t="s">
-        <v>1208</v>
+      <c r="C217" s="95" t="s">
+        <v>1210</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="12" t="s">
-        <v>1209</v>
+        <v>1211</v>
       </c>
       <c r="B218" s="12"/>
-      <c r="C218" s="93" t="s">
-        <v>1210</v>
+      <c r="C218" s="95" t="s">
+        <v>1212</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="12" t="s">
-        <v>1211</v>
+        <v>1213</v>
       </c>
       <c r="B219" s="12"/>
-      <c r="C219" s="93" t="s">
-        <v>1212</v>
+      <c r="C219" s="95" t="s">
+        <v>1214</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="12" t="s">
-        <v>1213</v>
+        <v>1215</v>
       </c>
       <c r="B220" s="12"/>
-      <c r="C220" s="93" t="s">
-        <v>1214</v>
+      <c r="C220" s="95" t="s">
+        <v>1216</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="12" t="s">
-        <v>1215</v>
+        <v>1217</v>
       </c>
       <c r="B221" s="12"/>
-      <c r="C221" s="93" t="s">
-        <v>1216</v>
+      <c r="C221" s="95" t="s">
+        <v>1218</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="12" t="s">
-        <v>1217</v>
+        <v>1219</v>
       </c>
       <c r="B222" s="12"/>
-      <c r="C222" s="93" t="s">
-        <v>1218</v>
+      <c r="C222" s="95" t="s">
+        <v>1220</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="12" t="s">
-        <v>1219</v>
+        <v>1221</v>
       </c>
       <c r="B223" s="12"/>
-      <c r="C223" s="93" t="s">
-        <v>1220</v>
+      <c r="C223" s="95" t="s">
+        <v>1222</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="12" t="s">
-        <v>1221</v>
+        <v>1223</v>
       </c>
       <c r="B224" s="12"/>
-      <c r="C224" s="93" t="s">
-        <v>1222</v>
+      <c r="C224" s="95" t="s">
+        <v>1224</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="12" t="s">
-        <v>1223</v>
+        <v>1225</v>
       </c>
       <c r="B225" s="12"/>
-      <c r="C225" s="93" t="s">
-        <v>1224</v>
+      <c r="C225" s="95" t="s">
+        <v>1226</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="12" t="s">
-        <v>1225</v>
+        <v>1227</v>
       </c>
       <c r="B226" s="12"/>
-      <c r="C226" s="93" t="s">
-        <v>1226</v>
+      <c r="C226" s="95" t="s">
+        <v>1228</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="12" t="s">
-        <v>1227</v>
+        <v>1229</v>
       </c>
       <c r="B227" s="12"/>
-      <c r="C227" s="93" t="s">
-        <v>1228</v>
+      <c r="C227" s="95" t="s">
+        <v>1230</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" s="12" t="s">
-        <v>1229</v>
+        <v>1231</v>
       </c>
       <c r="B228" s="12"/>
-      <c r="C228" s="93" t="s">
-        <v>1230</v>
+      <c r="C228" s="95" t="s">
+        <v>1232</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" s="12" t="s">
-        <v>1231</v>
+        <v>1233</v>
       </c>
       <c r="B229" s="12"/>
-      <c r="C229" s="93" t="s">
-        <v>1232</v>
+      <c r="C229" s="95" t="s">
+        <v>1234</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" s="12" t="s">
-        <v>1233</v>
+        <v>1235</v>
       </c>
       <c r="B230" s="12"/>
-      <c r="C230" s="93" t="s">
-        <v>1234</v>
+      <c r="C230" s="95" t="s">
+        <v>1236</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" s="12" t="s">
-        <v>1235</v>
+        <v>1237</v>
       </c>
       <c r="B231" s="12"/>
-      <c r="C231" s="93" t="s">
-        <v>1236</v>
+      <c r="C231" s="95" t="s">
+        <v>1238</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" s="12" t="s">
-        <v>1237</v>
+        <v>1239</v>
       </c>
       <c r="B232" s="12"/>
-      <c r="C232" s="93" t="s">
-        <v>1238</v>
+      <c r="C232" s="95" t="s">
+        <v>1240</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" s="12" t="s">
-        <v>1239</v>
+        <v>1241</v>
       </c>
       <c r="B233" s="12"/>
-      <c r="C233" s="93" t="s">
-        <v>1240</v>
+      <c r="C233" s="95" t="s">
+        <v>1242</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" s="12" t="s">
-        <v>1241</v>
+        <v>1243</v>
       </c>
       <c r="B234" s="12"/>
-      <c r="C234" s="93" t="s">
-        <v>1242</v>
+      <c r="C234" s="95" t="s">
+        <v>1244</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" s="12" t="s">
-        <v>1243</v>
+        <v>1245</v>
       </c>
       <c r="B235" s="12"/>
-      <c r="C235" s="93" t="s">
-        <v>1244</v>
+      <c r="C235" s="95" t="s">
+        <v>1246</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" s="12" t="s">
-        <v>1245</v>
+        <v>1247</v>
       </c>
       <c r="B236" s="12"/>
-      <c r="C236" s="93" t="s">
-        <v>1246</v>
+      <c r="C236" s="95" t="s">
+        <v>1248</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" s="12" t="s">
-        <v>1247</v>
+        <v>1249</v>
       </c>
       <c r="B237" s="12"/>
-      <c r="C237" s="93" t="s">
-        <v>1248</v>
+      <c r="C237" s="95" t="s">
+        <v>1250</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" s="12" t="s">
-        <v>1249</v>
+        <v>1251</v>
       </c>
       <c r="B238" s="12"/>
-      <c r="C238" s="93" t="s">
-        <v>1250</v>
+      <c r="C238" s="95" t="s">
+        <v>1252</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" s="12" t="s">
-        <v>1251</v>
+        <v>1253</v>
       </c>
       <c r="B239" s="12"/>
-      <c r="C239" s="94" t="s">
-        <v>1252</v>
+      <c r="C239" s="96" t="s">
+        <v>1254</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" s="12" t="s">
-        <v>1253</v>
+        <v>1255</v>
       </c>
       <c r="B240" s="12"/>
-      <c r="C240" s="94" t="s">
-        <v>1254</v>
+      <c r="C240" s="96" t="s">
+        <v>1256</v>
       </c>
     </row>
   </sheetData>
@@ -6874,64 +6890,64 @@
         <v>1</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>1255</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="2">
       <c r="B2" s="12" t="s">
-        <v>1256</v>
+        <v>1258</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>1257</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="3">
       <c r="B3" s="12" t="s">
-        <v>1258</v>
+        <v>1260</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>1257</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="4">
       <c r="B4" s="12" t="s">
+        <v>1261</v>
+      </c>
+      <c r="C4" s="12" t="s">
         <v>1259</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>1257</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="11" t="s">
-        <v>1260</v>
+        <v>1262</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>1261</v>
+        <v>1263</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>1257</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="11" t="s">
-        <v>1262</v>
-      </c>
-      <c r="B6" s="95" t="s">
-        <v>1263</v>
+        <v>1264</v>
+      </c>
+      <c r="B6" s="97" t="s">
+        <v>1265</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>1257</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="11" t="s">
-        <v>1264</v>
+        <v>1266</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>1265</v>
+        <v>1267</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>1257</v>
+        <v>1259</v>
       </c>
     </row>
   </sheetData>
@@ -7014,13 +7030,13 @@
         <v>40</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>1266</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="2">
       <c r="B2" s="12"/>
       <c r="C2" s="12"/>
-      <c r="D2" s="68"/>
+      <c r="D2" s="69"/>
       <c r="E2" s="12"/>
       <c r="F2" s="12"/>
     </row>
@@ -8969,7 +8985,7 @@
       <c r="A85" s="15" t="s">
         <v>256</v>
       </c>
-      <c r="B85" s="59" t="s">
+      <c r="B85" s="61" t="s">
         <v>257</v>
       </c>
       <c r="C85" s="8" t="s">
@@ -8992,7 +9008,7 @@
       <c r="A86" s="15" t="s">
         <v>259</v>
       </c>
-      <c r="B86" s="59" t="s">
+      <c r="B86" s="12" t="s">
         <v>260</v>
       </c>
       <c r="C86" s="8" t="s">
@@ -9013,18 +9029,18 @@
       <c r="A87" s="28" t="s">
         <v>58</v>
       </c>
-      <c r="B87" s="61" t="s">
+      <c r="B87" s="62" t="s">
         <v>262</v>
       </c>
       <c r="C87" s="8" t="s">
         <v>263</v>
       </c>
       <c r="D87" s="29"/>
-      <c r="E87" s="62"/>
+      <c r="E87" s="63"/>
       <c r="F87" s="29"/>
       <c r="G87" s="29"/>
-      <c r="H87" s="63"/>
-      <c r="I87" s="64">
+      <c r="H87" s="64"/>
+      <c r="I87" s="65">
         <v>229.0</v>
       </c>
       <c r="J87" s="26"/>
@@ -9037,18 +9053,18 @@
       <c r="A88" s="28" t="s">
         <v>265</v>
       </c>
-      <c r="B88" s="61" t="s">
+      <c r="B88" s="62" t="s">
         <v>262</v>
       </c>
       <c r="C88" s="8" t="s">
         <v>266</v>
       </c>
       <c r="D88" s="29"/>
-      <c r="E88" s="62"/>
+      <c r="E88" s="63"/>
       <c r="F88" s="29"/>
       <c r="G88" s="29"/>
-      <c r="H88" s="63"/>
-      <c r="I88" s="64">
+      <c r="H88" s="64"/>
+      <c r="I88" s="65">
         <v>229.0</v>
       </c>
       <c r="J88" s="26"/>
@@ -9061,18 +9077,18 @@
       <c r="A89" s="28" t="s">
         <v>268</v>
       </c>
-      <c r="B89" s="61" t="s">
+      <c r="B89" s="62" t="s">
         <v>262</v>
       </c>
-      <c r="C89" s="65" t="s">
+      <c r="C89" s="66" t="s">
         <v>269</v>
       </c>
       <c r="D89" s="29"/>
-      <c r="E89" s="62"/>
+      <c r="E89" s="63"/>
       <c r="F89" s="29"/>
       <c r="G89" s="29"/>
-      <c r="H89" s="63"/>
-      <c r="I89" s="64">
+      <c r="H89" s="64"/>
+      <c r="I89" s="65">
         <v>229.0</v>
       </c>
       <c r="J89" s="26"/>
@@ -9085,18 +9101,18 @@
       <c r="A90" s="28" t="s">
         <v>252</v>
       </c>
-      <c r="B90" s="61" t="s">
+      <c r="B90" s="62" t="s">
         <v>262</v>
       </c>
       <c r="C90" s="8" t="s">
         <v>271</v>
       </c>
       <c r="D90" s="29"/>
-      <c r="E90" s="62"/>
+      <c r="E90" s="63"/>
       <c r="F90" s="29"/>
       <c r="G90" s="29"/>
-      <c r="H90" s="63"/>
-      <c r="I90" s="64">
+      <c r="H90" s="64"/>
+      <c r="I90" s="65">
         <v>229.0</v>
       </c>
       <c r="J90" s="26"/>
@@ -9109,18 +9125,18 @@
       <c r="A91" s="28" t="s">
         <v>255</v>
       </c>
-      <c r="B91" s="61" t="s">
+      <c r="B91" s="62" t="s">
         <v>262</v>
       </c>
       <c r="C91" s="8" t="s">
         <v>273</v>
       </c>
       <c r="D91" s="29"/>
-      <c r="E91" s="62"/>
+      <c r="E91" s="63"/>
       <c r="F91" s="29"/>
       <c r="G91" s="29"/>
-      <c r="H91" s="63"/>
-      <c r="I91" s="64">
+      <c r="H91" s="64"/>
+      <c r="I91" s="65">
         <v>229.0</v>
       </c>
       <c r="J91" s="26"/>
@@ -9133,18 +9149,18 @@
       <c r="A92" s="28" t="s">
         <v>244</v>
       </c>
-      <c r="B92" s="61" t="s">
+      <c r="B92" s="62" t="s">
         <v>262</v>
       </c>
       <c r="C92" s="8" t="s">
         <v>275</v>
       </c>
       <c r="D92" s="29"/>
-      <c r="E92" s="62"/>
+      <c r="E92" s="63"/>
       <c r="F92" s="29"/>
       <c r="G92" s="29"/>
-      <c r="H92" s="63"/>
-      <c r="I92" s="64">
+      <c r="H92" s="64"/>
+      <c r="I92" s="65">
         <v>229.0</v>
       </c>
       <c r="J92" s="26"/>
@@ -9157,18 +9173,18 @@
       <c r="A93" s="28" t="s">
         <v>249</v>
       </c>
-      <c r="B93" s="61" t="s">
+      <c r="B93" s="62" t="s">
         <v>262</v>
       </c>
       <c r="C93" s="8" t="s">
         <v>277</v>
       </c>
       <c r="D93" s="29"/>
-      <c r="E93" s="62"/>
+      <c r="E93" s="63"/>
       <c r="F93" s="29"/>
       <c r="G93" s="29"/>
-      <c r="H93" s="63"/>
-      <c r="I93" s="64">
+      <c r="H93" s="64"/>
+      <c r="I93" s="65">
         <v>229.0</v>
       </c>
       <c r="J93" s="26"/>
@@ -9181,18 +9197,18 @@
       <c r="A94" s="28" t="s">
         <v>279</v>
       </c>
-      <c r="B94" s="61" t="s">
+      <c r="B94" s="62" t="s">
         <v>262</v>
       </c>
       <c r="C94" s="8" t="s">
         <v>280</v>
       </c>
       <c r="D94" s="29"/>
-      <c r="E94" s="62"/>
+      <c r="E94" s="63"/>
       <c r="F94" s="29"/>
       <c r="G94" s="29"/>
-      <c r="H94" s="63"/>
-      <c r="I94" s="64">
+      <c r="H94" s="64"/>
+      <c r="I94" s="65">
         <v>229.0</v>
       </c>
       <c r="J94" s="26"/>
@@ -9205,18 +9221,18 @@
       <c r="A95" s="28" t="s">
         <v>282</v>
       </c>
-      <c r="B95" s="61" t="s">
+      <c r="B95" s="62" t="s">
         <v>262</v>
       </c>
       <c r="C95" s="8" t="s">
         <v>283</v>
       </c>
       <c r="D95" s="29"/>
-      <c r="E95" s="62"/>
+      <c r="E95" s="63"/>
       <c r="F95" s="29"/>
       <c r="G95" s="29"/>
-      <c r="H95" s="63"/>
-      <c r="I95" s="64">
+      <c r="H95" s="64"/>
+      <c r="I95" s="65">
         <v>229.0</v>
       </c>
       <c r="J95" s="26"/>
@@ -9229,18 +9245,18 @@
       <c r="A96" s="28" t="s">
         <v>285</v>
       </c>
-      <c r="B96" s="61" t="s">
+      <c r="B96" s="62" t="s">
         <v>262</v>
       </c>
       <c r="C96" s="8" t="s">
         <v>286</v>
       </c>
       <c r="D96" s="29"/>
-      <c r="E96" s="62"/>
+      <c r="E96" s="63"/>
       <c r="F96" s="29"/>
       <c r="G96" s="29"/>
-      <c r="H96" s="63"/>
-      <c r="I96" s="64">
+      <c r="H96" s="64"/>
+      <c r="I96" s="65">
         <v>229.0</v>
       </c>
       <c r="J96" s="26"/>
@@ -9253,18 +9269,18 @@
       <c r="A97" s="28" t="s">
         <v>288</v>
       </c>
-      <c r="B97" s="61" t="s">
+      <c r="B97" s="62" t="s">
         <v>262</v>
       </c>
       <c r="C97" s="8" t="s">
         <v>289</v>
       </c>
       <c r="D97" s="29"/>
-      <c r="E97" s="62"/>
+      <c r="E97" s="63"/>
       <c r="F97" s="29"/>
       <c r="G97" s="29"/>
-      <c r="H97" s="63"/>
-      <c r="I97" s="64">
+      <c r="H97" s="64"/>
+      <c r="I97" s="65">
         <v>229.0</v>
       </c>
       <c r="J97" s="26"/>
@@ -9277,18 +9293,18 @@
       <c r="A98" s="28" t="s">
         <v>291</v>
       </c>
-      <c r="B98" s="61" t="s">
+      <c r="B98" s="62" t="s">
         <v>262</v>
       </c>
       <c r="C98" s="8" t="s">
         <v>292</v>
       </c>
       <c r="D98" s="29"/>
-      <c r="E98" s="62"/>
+      <c r="E98" s="63"/>
       <c r="F98" s="29"/>
       <c r="G98" s="29"/>
-      <c r="H98" s="63"/>
-      <c r="I98" s="64">
+      <c r="H98" s="64"/>
+      <c r="I98" s="65">
         <v>229.0</v>
       </c>
       <c r="J98" s="26"/>
@@ -9301,7 +9317,7 @@
       <c r="A99" s="28" t="s">
         <v>294</v>
       </c>
-      <c r="B99" s="61" t="s">
+      <c r="B99" s="62" t="s">
         <v>262</v>
       </c>
       <c r="C99" s="8" t="str">
@@ -9309,11 +9325,11 @@
         <v>Soma in superior cervical ganglion (1) (bolew)</v>
       </c>
       <c r="D99" s="29"/>
-      <c r="E99" s="62"/>
+      <c r="E99" s="63"/>
       <c r="F99" s="29"/>
       <c r="G99" s="29"/>
-      <c r="H99" s="63"/>
-      <c r="I99" s="64">
+      <c r="H99" s="64"/>
+      <c r="I99" s="65">
         <v>229.0</v>
       </c>
       <c r="J99" s="26"/>
@@ -9326,7 +9342,7 @@
       <c r="A100" s="28" t="s">
         <v>296</v>
       </c>
-      <c r="B100" s="61" t="s">
+      <c r="B100" s="62" t="s">
         <v>262</v>
       </c>
       <c r="C100" s="8" t="str">
@@ -9334,11 +9350,11 @@
         <v>Soma in superior cervical ganglion (2) (bolew)</v>
       </c>
       <c r="D100" s="29"/>
-      <c r="E100" s="62"/>
+      <c r="E100" s="63"/>
       <c r="F100" s="29"/>
       <c r="G100" s="29"/>
-      <c r="H100" s="63"/>
-      <c r="I100" s="64">
+      <c r="H100" s="64"/>
+      <c r="I100" s="65">
         <v>229.0</v>
       </c>
       <c r="J100" s="26"/>
@@ -9351,7 +9367,7 @@
       <c r="A101" s="28" t="s">
         <v>298</v>
       </c>
-      <c r="B101" s="61" t="s">
+      <c r="B101" s="62" t="s">
         <v>262</v>
       </c>
       <c r="C101" s="8" t="str">
@@ -9359,11 +9375,11 @@
         <v>Soma in superior cervical ganglion (3) (bolew)</v>
       </c>
       <c r="D101" s="29"/>
-      <c r="E101" s="62"/>
+      <c r="E101" s="63"/>
       <c r="F101" s="29"/>
       <c r="G101" s="29"/>
-      <c r="H101" s="63"/>
-      <c r="I101" s="64">
+      <c r="H101" s="64"/>
+      <c r="I101" s="65">
         <v>229.0</v>
       </c>
       <c r="J101" s="26"/>
@@ -9376,7 +9392,7 @@
       <c r="A102" s="28" t="s">
         <v>300</v>
       </c>
-      <c r="B102" s="61" t="s">
+      <c r="B102" s="62" t="s">
         <v>262</v>
       </c>
       <c r="C102" s="8" t="str">
@@ -9384,11 +9400,11 @@
         <v>Soma in superior cervical ganglion (4) (bolew)</v>
       </c>
       <c r="D102" s="29"/>
-      <c r="E102" s="62"/>
+      <c r="E102" s="63"/>
       <c r="F102" s="29"/>
       <c r="G102" s="29"/>
-      <c r="H102" s="63"/>
-      <c r="I102" s="64">
+      <c r="H102" s="64"/>
+      <c r="I102" s="65">
         <v>229.0</v>
       </c>
       <c r="J102" s="26"/>
@@ -9401,7 +9417,7 @@
       <c r="A103" s="28" t="s">
         <v>302</v>
       </c>
-      <c r="B103" s="61" t="s">
+      <c r="B103" s="62" t="s">
         <v>262</v>
       </c>
       <c r="C103" s="8" t="str">
@@ -9409,11 +9425,11 @@
         <v>Soma in superior cervical ganglion (5) (bolew)</v>
       </c>
       <c r="D103" s="29"/>
-      <c r="E103" s="62"/>
+      <c r="E103" s="63"/>
       <c r="F103" s="29"/>
       <c r="G103" s="29"/>
-      <c r="H103" s="63"/>
-      <c r="I103" s="64">
+      <c r="H103" s="64"/>
+      <c r="I103" s="65">
         <v>229.0</v>
       </c>
       <c r="J103" s="26"/>
@@ -9426,7 +9442,7 @@
       <c r="A104" s="28" t="s">
         <v>304</v>
       </c>
-      <c r="B104" s="61" t="s">
+      <c r="B104" s="62" t="s">
         <v>262</v>
       </c>
       <c r="C104" s="8" t="str">
@@ -9434,11 +9450,11 @@
         <v>Soma in superior cervical ganglion (6) (bolew)</v>
       </c>
       <c r="D104" s="29"/>
-      <c r="E104" s="62"/>
+      <c r="E104" s="63"/>
       <c r="F104" s="29"/>
       <c r="G104" s="29"/>
-      <c r="H104" s="63"/>
-      <c r="I104" s="64">
+      <c r="H104" s="64"/>
+      <c r="I104" s="65">
         <v>229.0</v>
       </c>
       <c r="J104" s="26"/>
@@ -9451,7 +9467,7 @@
       <c r="A105" s="28" t="s">
         <v>306</v>
       </c>
-      <c r="B105" s="61" t="s">
+      <c r="B105" s="62" t="s">
         <v>262</v>
       </c>
       <c r="C105" s="8" t="str">
@@ -9459,11 +9475,11 @@
         <v>Soma in superior cervical ganglion (7) (bolew)</v>
       </c>
       <c r="D105" s="29"/>
-      <c r="E105" s="62"/>
+      <c r="E105" s="63"/>
       <c r="F105" s="29"/>
       <c r="G105" s="29"/>
-      <c r="H105" s="63"/>
-      <c r="I105" s="64">
+      <c r="H105" s="64"/>
+      <c r="I105" s="65">
         <v>229.0</v>
       </c>
       <c r="J105" s="26"/>
@@ -9476,7 +9492,7 @@
       <c r="A106" s="28" t="s">
         <v>308</v>
       </c>
-      <c r="B106" s="61" t="s">
+      <c r="B106" s="62" t="s">
         <v>262</v>
       </c>
       <c r="C106" s="8" t="str">
@@ -9484,11 +9500,11 @@
         <v>Soma in superior cervical ganglion (8) (bolew)</v>
       </c>
       <c r="D106" s="29"/>
-      <c r="E106" s="62"/>
+      <c r="E106" s="63"/>
       <c r="F106" s="29"/>
       <c r="G106" s="29"/>
-      <c r="H106" s="63"/>
-      <c r="I106" s="64">
+      <c r="H106" s="64"/>
+      <c r="I106" s="65">
         <v>229.0</v>
       </c>
       <c r="J106" s="26"/>
@@ -9501,7 +9517,7 @@
       <c r="A107" s="28" t="s">
         <v>310</v>
       </c>
-      <c r="B107" s="61" t="s">
+      <c r="B107" s="62" t="s">
         <v>262</v>
       </c>
       <c r="C107" s="8" t="str">
@@ -9509,11 +9525,11 @@
         <v>Soma in superior cervical ganglion (9) (bolew)</v>
       </c>
       <c r="D107" s="29"/>
-      <c r="E107" s="62"/>
+      <c r="E107" s="63"/>
       <c r="F107" s="29"/>
       <c r="G107" s="29"/>
-      <c r="H107" s="63"/>
-      <c r="I107" s="64">
+      <c r="H107" s="64"/>
+      <c r="I107" s="65">
         <v>229.0</v>
       </c>
       <c r="J107" s="26"/>
@@ -9526,7 +9542,7 @@
       <c r="A108" s="28" t="s">
         <v>312</v>
       </c>
-      <c r="B108" s="61" t="s">
+      <c r="B108" s="62" t="s">
         <v>262</v>
       </c>
       <c r="C108" s="8" t="str">
@@ -9534,11 +9550,11 @@
         <v>Soma in superior cervical ganglion (10) (bolew)</v>
       </c>
       <c r="D108" s="29"/>
-      <c r="E108" s="62"/>
+      <c r="E108" s="63"/>
       <c r="F108" s="29"/>
       <c r="G108" s="29"/>
-      <c r="H108" s="63"/>
-      <c r="I108" s="64">
+      <c r="H108" s="64"/>
+      <c r="I108" s="65">
         <v>229.0</v>
       </c>
       <c r="J108" s="26"/>
@@ -9551,7 +9567,7 @@
       <c r="A109" s="28" t="s">
         <v>314</v>
       </c>
-      <c r="B109" s="61" t="s">
+      <c r="B109" s="62" t="s">
         <v>262</v>
       </c>
       <c r="C109" s="8" t="str">
@@ -9559,11 +9575,11 @@
         <v>Soma in superior cervical ganglion (11) (bolew)</v>
       </c>
       <c r="D109" s="29"/>
-      <c r="E109" s="62"/>
+      <c r="E109" s="63"/>
       <c r="F109" s="29"/>
       <c r="G109" s="29"/>
-      <c r="H109" s="63"/>
-      <c r="I109" s="64">
+      <c r="H109" s="64"/>
+      <c r="I109" s="65">
         <v>229.0</v>
       </c>
       <c r="J109" s="26"/>
@@ -9576,7 +9592,7 @@
       <c r="A110" s="28" t="s">
         <v>316</v>
       </c>
-      <c r="B110" s="61" t="s">
+      <c r="B110" s="62" t="s">
         <v>262</v>
       </c>
       <c r="C110" s="8" t="str">
@@ -9584,11 +9600,11 @@
         <v>Soma in superior cervical ganglion (12) (bolew)</v>
       </c>
       <c r="D110" s="29"/>
-      <c r="E110" s="62"/>
+      <c r="E110" s="63"/>
       <c r="F110" s="29"/>
       <c r="G110" s="29"/>
-      <c r="H110" s="63"/>
-      <c r="I110" s="64">
+      <c r="H110" s="64"/>
+      <c r="I110" s="65">
         <v>229.0</v>
       </c>
       <c r="J110" s="26"/>
@@ -9601,7 +9617,7 @@
       <c r="A111" s="28" t="s">
         <v>318</v>
       </c>
-      <c r="B111" s="61" t="s">
+      <c r="B111" s="62" t="s">
         <v>262</v>
       </c>
       <c r="C111" s="8" t="str">
@@ -9609,11 +9625,11 @@
         <v>Soma in superior cervical ganglion (13) (bolew)</v>
       </c>
       <c r="D111" s="29"/>
-      <c r="E111" s="62"/>
+      <c r="E111" s="63"/>
       <c r="F111" s="29"/>
       <c r="G111" s="29"/>
-      <c r="H111" s="63"/>
-      <c r="I111" s="64">
+      <c r="H111" s="64"/>
+      <c r="I111" s="65">
         <v>229.0</v>
       </c>
       <c r="J111" s="26"/>
@@ -9626,7 +9642,7 @@
       <c r="A112" s="28" t="s">
         <v>320</v>
       </c>
-      <c r="B112" s="61" t="s">
+      <c r="B112" s="62" t="s">
         <v>262</v>
       </c>
       <c r="C112" s="8" t="str">
@@ -9634,11 +9650,11 @@
         <v>Soma in superior cervical ganglion (14) (bolew)</v>
       </c>
       <c r="D112" s="29"/>
-      <c r="E112" s="62"/>
+      <c r="E112" s="63"/>
       <c r="F112" s="29"/>
       <c r="G112" s="29"/>
-      <c r="H112" s="63"/>
-      <c r="I112" s="64">
+      <c r="H112" s="64"/>
+      <c r="I112" s="65">
         <v>229.0</v>
       </c>
       <c r="J112" s="26"/>
@@ -9651,7 +9667,7 @@
       <c r="A113" s="28" t="s">
         <v>322</v>
       </c>
-      <c r="B113" s="61" t="s">
+      <c r="B113" s="62" t="s">
         <v>262</v>
       </c>
       <c r="C113" s="8" t="str">
@@ -9659,11 +9675,11 @@
         <v>Soma in superior cervical ganglion (15) (bolew)</v>
       </c>
       <c r="D113" s="29"/>
-      <c r="E113" s="62"/>
+      <c r="E113" s="63"/>
       <c r="F113" s="29"/>
       <c r="G113" s="29"/>
-      <c r="H113" s="63"/>
-      <c r="I113" s="64">
+      <c r="H113" s="64"/>
+      <c r="I113" s="65">
         <v>229.0</v>
       </c>
       <c r="J113" s="26"/>
@@ -9676,7 +9692,7 @@
       <c r="A114" s="28" t="s">
         <v>324</v>
       </c>
-      <c r="B114" s="61" t="s">
+      <c r="B114" s="62" t="s">
         <v>262</v>
       </c>
       <c r="C114" s="8" t="str">
@@ -9684,11 +9700,11 @@
         <v>Soma in superior cervical ganglion (16) (bolew)</v>
       </c>
       <c r="D114" s="29"/>
-      <c r="E114" s="62"/>
+      <c r="E114" s="63"/>
       <c r="F114" s="29"/>
       <c r="G114" s="29"/>
-      <c r="H114" s="63"/>
-      <c r="I114" s="64">
+      <c r="H114" s="64"/>
+      <c r="I114" s="65">
         <v>229.0</v>
       </c>
       <c r="J114" s="26"/>
@@ -9701,7 +9717,7 @@
       <c r="A115" s="28" t="s">
         <v>326</v>
       </c>
-      <c r="B115" s="61" t="s">
+      <c r="B115" s="62" t="s">
         <v>262</v>
       </c>
       <c r="C115" s="8" t="str">
@@ -9709,11 +9725,11 @@
         <v>Soma in superior cervical ganglion (17) (bolew)</v>
       </c>
       <c r="D115" s="29"/>
-      <c r="E115" s="62"/>
+      <c r="E115" s="63"/>
       <c r="F115" s="29"/>
       <c r="G115" s="29"/>
-      <c r="H115" s="63"/>
-      <c r="I115" s="64">
+      <c r="H115" s="64"/>
+      <c r="I115" s="65">
         <v>229.0</v>
       </c>
       <c r="J115" s="26"/>
@@ -9792,19 +9808,19 @@
         <v>335</v>
       </c>
       <c r="B2" s="22"/>
-      <c r="C2" s="66"/>
-      <c r="D2" s="67" t="s">
+      <c r="C2" s="67"/>
+      <c r="D2" s="68" t="s">
         <v>37</v>
       </c>
-      <c r="E2" s="67" t="s">
+      <c r="E2" s="68" t="s">
         <v>38</v>
       </c>
-      <c r="F2" s="68" t="s">
+      <c r="F2" s="69" t="s">
         <v>336</v>
       </c>
-      <c r="G2" s="64"/>
+      <c r="G2" s="65"/>
       <c r="H2" s="29"/>
-      <c r="I2" s="64"/>
+      <c r="I2" s="65"/>
       <c r="J2" s="22">
         <v>100.0</v>
       </c>
@@ -9817,22 +9833,22 @@
       <c r="B3" s="22" t="s">
         <v>338</v>
       </c>
-      <c r="C3" s="66" t="s">
+      <c r="C3" s="67" t="s">
         <v>339</v>
       </c>
       <c r="D3" s="24" t="s">
         <v>340</v>
       </c>
       <c r="E3" s="24"/>
-      <c r="F3" s="64"/>
-      <c r="G3" s="69" t="s">
+      <c r="F3" s="65"/>
+      <c r="G3" s="70" t="s">
         <v>147</v>
       </c>
       <c r="H3" s="29"/>
-      <c r="I3" s="64">
+      <c r="I3" s="65">
         <v>202.0</v>
       </c>
-      <c r="J3" s="70"/>
+      <c r="J3" s="71"/>
       <c r="K3" s="22">
         <v>1.0</v>
       </c>
@@ -9844,22 +9860,22 @@
       <c r="B4" s="22" t="s">
         <v>342</v>
       </c>
-      <c r="C4" s="66" t="s">
+      <c r="C4" s="67" t="s">
         <v>339</v>
       </c>
       <c r="D4" s="24" t="s">
         <v>343</v>
       </c>
       <c r="E4" s="24"/>
-      <c r="F4" s="64"/>
-      <c r="G4" s="69" t="s">
+      <c r="F4" s="65"/>
+      <c r="G4" s="70" t="s">
         <v>147</v>
       </c>
       <c r="H4" s="29"/>
-      <c r="I4" s="64">
+      <c r="I4" s="65">
         <v>228.0</v>
       </c>
-      <c r="J4" s="70"/>
+      <c r="J4" s="71"/>
       <c r="K4" s="22">
         <v>2.0</v>
       </c>
@@ -9871,22 +9887,22 @@
       <c r="B5" s="22" t="s">
         <v>345</v>
       </c>
-      <c r="C5" s="66" t="s">
+      <c r="C5" s="67" t="s">
         <v>339</v>
       </c>
       <c r="D5" s="24" t="s">
         <v>346</v>
       </c>
       <c r="E5" s="24"/>
-      <c r="F5" s="64"/>
-      <c r="G5" s="69" t="s">
+      <c r="F5" s="65"/>
+      <c r="G5" s="70" t="s">
         <v>147</v>
       </c>
       <c r="H5" s="29"/>
-      <c r="I5" s="64" t="s">
+      <c r="I5" s="65" t="s">
         <v>152</v>
       </c>
-      <c r="J5" s="70"/>
+      <c r="J5" s="71"/>
       <c r="K5" s="22">
         <v>3.0</v>
       </c>
@@ -9898,22 +9914,22 @@
       <c r="B6" s="22" t="s">
         <v>348</v>
       </c>
-      <c r="C6" s="66" t="s">
+      <c r="C6" s="67" t="s">
         <v>339</v>
       </c>
-      <c r="D6" s="71" t="s">
+      <c r="D6" s="72" t="s">
         <v>349</v>
       </c>
-      <c r="E6" s="71"/>
-      <c r="F6" s="64"/>
-      <c r="G6" s="69" t="s">
+      <c r="E6" s="72"/>
+      <c r="F6" s="65"/>
+      <c r="G6" s="70" t="s">
         <v>147</v>
       </c>
       <c r="H6" s="29"/>
-      <c r="I6" s="72">
+      <c r="I6" s="73">
         <v>265.0</v>
       </c>
-      <c r="J6" s="70"/>
+      <c r="J6" s="71"/>
       <c r="K6" s="22">
         <v>4.0</v>
       </c>
@@ -9925,22 +9941,22 @@
       <c r="B7" s="22" t="s">
         <v>351</v>
       </c>
-      <c r="C7" s="66" t="s">
+      <c r="C7" s="67" t="s">
         <v>339</v>
       </c>
-      <c r="D7" s="71" t="s">
+      <c r="D7" s="72" t="s">
         <v>352</v>
       </c>
-      <c r="E7" s="71"/>
-      <c r="F7" s="64"/>
-      <c r="G7" s="69" t="s">
+      <c r="E7" s="72"/>
+      <c r="F7" s="65"/>
+      <c r="G7" s="70" t="s">
         <v>147</v>
       </c>
       <c r="H7" s="29"/>
-      <c r="I7" s="72">
+      <c r="I7" s="73">
         <v>266.0</v>
       </c>
-      <c r="J7" s="70"/>
+      <c r="J7" s="71"/>
       <c r="K7" s="22">
         <v>5.0</v>
       </c>
@@ -9952,22 +9968,22 @@
       <c r="B8" s="22" t="s">
         <v>354</v>
       </c>
-      <c r="C8" s="66" t="s">
+      <c r="C8" s="67" t="s">
         <v>339</v>
       </c>
       <c r="D8" s="24" t="s">
         <v>355</v>
       </c>
       <c r="E8" s="24"/>
-      <c r="F8" s="64"/>
-      <c r="G8" s="69" t="s">
+      <c r="F8" s="65"/>
+      <c r="G8" s="70" t="s">
         <v>147</v>
       </c>
       <c r="H8" s="29"/>
-      <c r="I8" s="64">
+      <c r="I8" s="65">
         <v>262.0</v>
       </c>
-      <c r="J8" s="70"/>
+      <c r="J8" s="71"/>
       <c r="K8" s="22">
         <v>6.0</v>
       </c>
@@ -9979,22 +9995,22 @@
       <c r="B9" s="22" t="s">
         <v>357</v>
       </c>
-      <c r="C9" s="66" t="s">
+      <c r="C9" s="67" t="s">
         <v>339</v>
       </c>
       <c r="D9" s="24" t="s">
         <v>358</v>
       </c>
       <c r="E9" s="24"/>
-      <c r="F9" s="64"/>
-      <c r="G9" s="69" t="s">
+      <c r="F9" s="65"/>
+      <c r="G9" s="70" t="s">
         <v>147</v>
       </c>
       <c r="H9" s="29"/>
-      <c r="I9" s="64">
+      <c r="I9" s="65">
         <v>264.0</v>
       </c>
-      <c r="J9" s="70"/>
+      <c r="J9" s="71"/>
       <c r="K9" s="22">
         <v>7.0</v>
       </c>
@@ -10006,22 +10022,22 @@
       <c r="B10" s="22" t="s">
         <v>360</v>
       </c>
-      <c r="C10" s="73" t="s">
+      <c r="C10" s="74" t="s">
         <v>339</v>
       </c>
       <c r="D10" s="29" t="s">
         <v>361</v>
       </c>
       <c r="E10" s="29"/>
-      <c r="F10" s="64"/>
-      <c r="G10" s="74" t="s">
+      <c r="F10" s="65"/>
+      <c r="G10" s="75" t="s">
         <v>147</v>
       </c>
       <c r="H10" s="29"/>
-      <c r="I10" s="70" t="s">
+      <c r="I10" s="71" t="s">
         <v>362</v>
       </c>
-      <c r="J10" s="70"/>
+      <c r="J10" s="71"/>
       <c r="K10" s="22">
         <v>8.0</v>
       </c>
@@ -10033,22 +10049,22 @@
       <c r="B11" s="22" t="s">
         <v>364</v>
       </c>
-      <c r="C11" s="73" t="s">
+      <c r="C11" s="74" t="s">
         <v>339</v>
       </c>
       <c r="D11" s="29" t="s">
         <v>365</v>
       </c>
       <c r="E11" s="29"/>
-      <c r="F11" s="64"/>
-      <c r="G11" s="74" t="s">
+      <c r="F11" s="65"/>
+      <c r="G11" s="75" t="s">
         <v>147</v>
       </c>
       <c r="H11" s="29"/>
-      <c r="I11" s="70" t="s">
+      <c r="I11" s="71" t="s">
         <v>366</v>
       </c>
-      <c r="J11" s="70"/>
+      <c r="J11" s="71"/>
       <c r="K11" s="22">
         <v>11.0</v>
       </c>
@@ -10060,22 +10076,22 @@
       <c r="B12" s="22" t="s">
         <v>368</v>
       </c>
-      <c r="C12" s="73" t="s">
+      <c r="C12" s="74" t="s">
         <v>339</v>
       </c>
       <c r="D12" s="29" t="s">
         <v>369</v>
       </c>
       <c r="E12" s="29"/>
-      <c r="F12" s="64"/>
-      <c r="G12" s="74" t="s">
+      <c r="F12" s="65"/>
+      <c r="G12" s="75" t="s">
         <v>147</v>
       </c>
       <c r="H12" s="29"/>
-      <c r="I12" s="70" t="s">
+      <c r="I12" s="71" t="s">
         <v>370</v>
       </c>
-      <c r="J12" s="70"/>
+      <c r="J12" s="71"/>
       <c r="K12" s="22">
         <v>12.0</v>
       </c>
@@ -10087,22 +10103,22 @@
       <c r="B13" s="22" t="s">
         <v>372</v>
       </c>
-      <c r="C13" s="73" t="s">
+      <c r="C13" s="74" t="s">
         <v>339</v>
       </c>
       <c r="D13" s="29" t="s">
         <v>373</v>
       </c>
       <c r="E13" s="29"/>
-      <c r="F13" s="64"/>
-      <c r="G13" s="74" t="s">
+      <c r="F13" s="65"/>
+      <c r="G13" s="75" t="s">
         <v>147</v>
       </c>
       <c r="H13" s="29"/>
-      <c r="I13" s="70" t="s">
+      <c r="I13" s="71" t="s">
         <v>374</v>
       </c>
-      <c r="J13" s="70"/>
+      <c r="J13" s="71"/>
       <c r="K13" s="22">
         <v>9.0</v>
       </c>
@@ -10114,22 +10130,22 @@
       <c r="B14" s="22" t="s">
         <v>376</v>
       </c>
-      <c r="C14" s="73" t="s">
+      <c r="C14" s="74" t="s">
         <v>339</v>
       </c>
       <c r="D14" s="29" t="s">
         <v>377</v>
       </c>
       <c r="E14" s="29"/>
-      <c r="F14" s="64"/>
-      <c r="G14" s="74" t="s">
+      <c r="F14" s="65"/>
+      <c r="G14" s="75" t="s">
         <v>147</v>
       </c>
       <c r="H14" s="29"/>
-      <c r="I14" s="70" t="s">
+      <c r="I14" s="71" t="s">
         <v>378</v>
       </c>
-      <c r="J14" s="70"/>
+      <c r="J14" s="71"/>
       <c r="K14" s="22">
         <v>10.0</v>
       </c>
@@ -10141,22 +10157,22 @@
       <c r="B15" s="22" t="s">
         <v>380</v>
       </c>
-      <c r="C15" s="66" t="s">
+      <c r="C15" s="67" t="s">
         <v>339</v>
       </c>
       <c r="D15" s="28" t="s">
         <v>381</v>
       </c>
       <c r="E15" s="28"/>
-      <c r="F15" s="64"/>
-      <c r="G15" s="69" t="s">
+      <c r="F15" s="65"/>
+      <c r="G15" s="70" t="s">
         <v>147</v>
       </c>
       <c r="H15" s="29"/>
-      <c r="I15" s="64">
+      <c r="I15" s="65">
         <v>220.0</v>
       </c>
-      <c r="J15" s="70"/>
+      <c r="J15" s="71"/>
       <c r="K15" s="22">
         <v>13.0</v>
       </c>
@@ -10168,23 +10184,23 @@
       <c r="B16" s="22" t="s">
         <v>383</v>
       </c>
-      <c r="C16" s="66" t="s">
+      <c r="C16" s="67" t="s">
         <v>339</v>
       </c>
       <c r="D16" s="28" t="s">
         <v>384</v>
       </c>
       <c r="E16" s="28"/>
-      <c r="F16" s="64"/>
-      <c r="G16" s="69" t="s">
+      <c r="F16" s="65"/>
+      <c r="G16" s="70" t="s">
         <v>147</v>
       </c>
       <c r="H16" s="29"/>
-      <c r="I16" s="64">
+      <c r="I16" s="65">
         <v>220.0</v>
       </c>
-      <c r="J16" s="70"/>
-      <c r="K16" s="64">
+      <c r="J16" s="71"/>
+      <c r="K16" s="65">
         <f t="shared" ref="K16:K31" si="1">1+K15</f>
         <v>14</v>
       </c>
@@ -10196,23 +10212,23 @@
       <c r="B17" s="22" t="s">
         <v>386</v>
       </c>
-      <c r="C17" s="66" t="s">
+      <c r="C17" s="67" t="s">
         <v>339</v>
       </c>
       <c r="D17" s="28" t="s">
         <v>387</v>
       </c>
       <c r="E17" s="28"/>
-      <c r="F17" s="64"/>
-      <c r="G17" s="69" t="s">
+      <c r="F17" s="65"/>
+      <c r="G17" s="70" t="s">
         <v>147</v>
       </c>
       <c r="H17" s="29"/>
-      <c r="I17" s="64">
+      <c r="I17" s="65">
         <v>220.0</v>
       </c>
-      <c r="J17" s="70"/>
-      <c r="K17" s="64">
+      <c r="J17" s="71"/>
+      <c r="K17" s="65">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
@@ -10224,23 +10240,23 @@
       <c r="B18" s="22" t="s">
         <v>389</v>
       </c>
-      <c r="C18" s="66" t="s">
+      <c r="C18" s="67" t="s">
         <v>339</v>
       </c>
       <c r="D18" s="28" t="s">
         <v>390</v>
       </c>
       <c r="E18" s="28"/>
-      <c r="F18" s="64"/>
-      <c r="G18" s="69" t="s">
+      <c r="F18" s="65"/>
+      <c r="G18" s="70" t="s">
         <v>147</v>
       </c>
       <c r="H18" s="29"/>
-      <c r="I18" s="64">
+      <c r="I18" s="65">
         <v>220.0</v>
       </c>
-      <c r="J18" s="70"/>
-      <c r="K18" s="64">
+      <c r="J18" s="71"/>
+      <c r="K18" s="65">
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
@@ -10252,23 +10268,23 @@
       <c r="B19" s="22" t="s">
         <v>392</v>
       </c>
-      <c r="C19" s="66" t="s">
+      <c r="C19" s="67" t="s">
         <v>339</v>
       </c>
       <c r="D19" s="28" t="s">
         <v>393</v>
       </c>
       <c r="E19" s="28"/>
-      <c r="F19" s="64"/>
-      <c r="G19" s="69" t="s">
+      <c r="F19" s="65"/>
+      <c r="G19" s="70" t="s">
         <v>147</v>
       </c>
       <c r="H19" s="29"/>
-      <c r="I19" s="64">
+      <c r="I19" s="65">
         <v>220.0</v>
       </c>
-      <c r="J19" s="70"/>
-      <c r="K19" s="64">
+      <c r="J19" s="71"/>
+      <c r="K19" s="65">
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
@@ -10280,23 +10296,23 @@
       <c r="B20" s="22" t="s">
         <v>395</v>
       </c>
-      <c r="C20" s="66" t="s">
+      <c r="C20" s="67" t="s">
         <v>339</v>
       </c>
       <c r="D20" s="28" t="s">
         <v>396</v>
       </c>
       <c r="E20" s="28"/>
-      <c r="F20" s="64"/>
-      <c r="G20" s="69" t="s">
+      <c r="F20" s="65"/>
+      <c r="G20" s="70" t="s">
         <v>147</v>
       </c>
       <c r="H20" s="29"/>
-      <c r="I20" s="64">
+      <c r="I20" s="65">
         <v>220.0</v>
       </c>
-      <c r="J20" s="70"/>
-      <c r="K20" s="64">
+      <c r="J20" s="71"/>
+      <c r="K20" s="65">
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
@@ -10308,23 +10324,23 @@
       <c r="B21" s="22" t="s">
         <v>398</v>
       </c>
-      <c r="C21" s="66" t="s">
+      <c r="C21" s="67" t="s">
         <v>339</v>
       </c>
       <c r="D21" s="28" t="s">
         <v>399</v>
       </c>
       <c r="E21" s="28"/>
-      <c r="F21" s="64"/>
-      <c r="G21" s="69" t="s">
+      <c r="F21" s="65"/>
+      <c r="G21" s="70" t="s">
         <v>147</v>
       </c>
       <c r="H21" s="29"/>
-      <c r="I21" s="64">
+      <c r="I21" s="65">
         <v>220.0</v>
       </c>
-      <c r="J21" s="70"/>
-      <c r="K21" s="64">
+      <c r="J21" s="71"/>
+      <c r="K21" s="65">
         <f t="shared" si="1"/>
         <v>19</v>
       </c>
@@ -10336,23 +10352,23 @@
       <c r="B22" s="22" t="s">
         <v>401</v>
       </c>
-      <c r="C22" s="66" t="s">
+      <c r="C22" s="67" t="s">
         <v>339</v>
       </c>
       <c r="D22" s="28" t="s">
         <v>402</v>
       </c>
       <c r="E22" s="28"/>
-      <c r="F22" s="64"/>
-      <c r="G22" s="69" t="s">
+      <c r="F22" s="65"/>
+      <c r="G22" s="70" t="s">
         <v>147</v>
       </c>
       <c r="H22" s="29"/>
-      <c r="I22" s="64">
+      <c r="I22" s="65">
         <v>220.0</v>
       </c>
-      <c r="J22" s="70"/>
-      <c r="K22" s="64">
+      <c r="J22" s="71"/>
+      <c r="K22" s="65">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
@@ -10364,23 +10380,23 @@
       <c r="B23" s="22" t="s">
         <v>404</v>
       </c>
-      <c r="C23" s="66" t="s">
+      <c r="C23" s="67" t="s">
         <v>339</v>
       </c>
       <c r="D23" s="28" t="s">
         <v>405</v>
       </c>
       <c r="E23" s="28"/>
-      <c r="F23" s="64"/>
-      <c r="G23" s="69" t="s">
+      <c r="F23" s="65"/>
+      <c r="G23" s="70" t="s">
         <v>147</v>
       </c>
       <c r="H23" s="29"/>
-      <c r="I23" s="64">
+      <c r="I23" s="65">
         <v>220.0</v>
       </c>
-      <c r="J23" s="70"/>
-      <c r="K23" s="64">
+      <c r="J23" s="71"/>
+      <c r="K23" s="65">
         <f t="shared" si="1"/>
         <v>21</v>
       </c>
@@ -10392,23 +10408,23 @@
       <c r="B24" s="22" t="s">
         <v>407</v>
       </c>
-      <c r="C24" s="66" t="s">
+      <c r="C24" s="67" t="s">
         <v>339</v>
       </c>
       <c r="D24" s="28" t="s">
         <v>408</v>
       </c>
       <c r="E24" s="28"/>
-      <c r="F24" s="64"/>
-      <c r="G24" s="69" t="s">
+      <c r="F24" s="65"/>
+      <c r="G24" s="70" t="s">
         <v>147</v>
       </c>
       <c r="H24" s="29"/>
-      <c r="I24" s="64">
+      <c r="I24" s="65">
         <v>220.0</v>
       </c>
-      <c r="J24" s="70"/>
-      <c r="K24" s="64">
+      <c r="J24" s="71"/>
+      <c r="K24" s="65">
         <f t="shared" si="1"/>
         <v>22</v>
       </c>
@@ -10420,23 +10436,23 @@
       <c r="B25" s="22" t="s">
         <v>410</v>
       </c>
-      <c r="C25" s="66" t="s">
+      <c r="C25" s="67" t="s">
         <v>339</v>
       </c>
       <c r="D25" s="28" t="s">
         <v>411</v>
       </c>
       <c r="E25" s="28"/>
-      <c r="F25" s="64"/>
-      <c r="G25" s="69" t="s">
+      <c r="F25" s="65"/>
+      <c r="G25" s="70" t="s">
         <v>147</v>
       </c>
       <c r="H25" s="29"/>
-      <c r="I25" s="64">
+      <c r="I25" s="65">
         <v>220.0</v>
       </c>
-      <c r="J25" s="70"/>
-      <c r="K25" s="64">
+      <c r="J25" s="71"/>
+      <c r="K25" s="65">
         <f t="shared" si="1"/>
         <v>23</v>
       </c>
@@ -10448,23 +10464,23 @@
       <c r="B26" s="22" t="s">
         <v>413</v>
       </c>
-      <c r="C26" s="66" t="s">
+      <c r="C26" s="67" t="s">
         <v>339</v>
       </c>
       <c r="D26" s="28" t="s">
         <v>414</v>
       </c>
       <c r="E26" s="28"/>
-      <c r="F26" s="64"/>
-      <c r="G26" s="69" t="s">
+      <c r="F26" s="65"/>
+      <c r="G26" s="70" t="s">
         <v>147</v>
       </c>
       <c r="H26" s="29"/>
-      <c r="I26" s="64">
+      <c r="I26" s="65">
         <v>220.0</v>
       </c>
-      <c r="J26" s="70"/>
-      <c r="K26" s="64">
+      <c r="J26" s="71"/>
+      <c r="K26" s="65">
         <f t="shared" si="1"/>
         <v>24</v>
       </c>
@@ -10476,23 +10492,23 @@
       <c r="B27" s="22" t="s">
         <v>416</v>
       </c>
-      <c r="C27" s="66" t="s">
+      <c r="C27" s="67" t="s">
         <v>339</v>
       </c>
       <c r="D27" s="28" t="s">
         <v>417</v>
       </c>
       <c r="E27" s="28"/>
-      <c r="F27" s="64"/>
-      <c r="G27" s="69" t="s">
+      <c r="F27" s="65"/>
+      <c r="G27" s="70" t="s">
         <v>147</v>
       </c>
       <c r="H27" s="29"/>
-      <c r="I27" s="64">
+      <c r="I27" s="65">
         <v>220.0</v>
       </c>
-      <c r="J27" s="70"/>
-      <c r="K27" s="64">
+      <c r="J27" s="71"/>
+      <c r="K27" s="65">
         <f t="shared" si="1"/>
         <v>25</v>
       </c>
@@ -10504,23 +10520,23 @@
       <c r="B28" s="22" t="s">
         <v>419</v>
       </c>
-      <c r="C28" s="66" t="s">
+      <c r="C28" s="67" t="s">
         <v>339</v>
       </c>
       <c r="D28" s="28" t="s">
         <v>420</v>
       </c>
       <c r="E28" s="28"/>
-      <c r="F28" s="64"/>
-      <c r="G28" s="69" t="s">
+      <c r="F28" s="65"/>
+      <c r="G28" s="70" t="s">
         <v>147</v>
       </c>
       <c r="H28" s="29"/>
-      <c r="I28" s="64">
+      <c r="I28" s="65">
         <v>220.0</v>
       </c>
-      <c r="J28" s="70"/>
-      <c r="K28" s="64">
+      <c r="J28" s="71"/>
+      <c r="K28" s="65">
         <f t="shared" si="1"/>
         <v>26</v>
       </c>
@@ -10532,23 +10548,23 @@
       <c r="B29" s="22" t="s">
         <v>422</v>
       </c>
-      <c r="C29" s="66" t="s">
+      <c r="C29" s="67" t="s">
         <v>339</v>
       </c>
       <c r="D29" s="28" t="s">
         <v>423</v>
       </c>
       <c r="E29" s="28"/>
-      <c r="F29" s="64"/>
-      <c r="G29" s="69" t="s">
+      <c r="F29" s="65"/>
+      <c r="G29" s="70" t="s">
         <v>147</v>
       </c>
       <c r="H29" s="29"/>
-      <c r="I29" s="64">
+      <c r="I29" s="65">
         <v>220.0</v>
       </c>
-      <c r="J29" s="70"/>
-      <c r="K29" s="64">
+      <c r="J29" s="71"/>
+      <c r="K29" s="65">
         <f t="shared" si="1"/>
         <v>27</v>
       </c>
@@ -10560,23 +10576,23 @@
       <c r="B30" s="22" t="s">
         <v>425</v>
       </c>
-      <c r="C30" s="66" t="s">
+      <c r="C30" s="67" t="s">
         <v>339</v>
       </c>
       <c r="D30" s="28" t="s">
         <v>426</v>
       </c>
       <c r="E30" s="28"/>
-      <c r="F30" s="64"/>
-      <c r="G30" s="69" t="s">
+      <c r="F30" s="65"/>
+      <c r="G30" s="70" t="s">
         <v>147</v>
       </c>
       <c r="H30" s="29"/>
-      <c r="I30" s="64">
+      <c r="I30" s="65">
         <v>220.0</v>
       </c>
-      <c r="J30" s="70"/>
-      <c r="K30" s="64">
+      <c r="J30" s="71"/>
+      <c r="K30" s="65">
         <f t="shared" si="1"/>
         <v>28</v>
       </c>
@@ -10588,23 +10604,23 @@
       <c r="B31" s="22" t="s">
         <v>428</v>
       </c>
-      <c r="C31" s="66" t="s">
+      <c r="C31" s="67" t="s">
         <v>339</v>
       </c>
       <c r="D31" s="28" t="s">
         <v>429</v>
       </c>
       <c r="E31" s="28"/>
-      <c r="F31" s="64"/>
-      <c r="G31" s="69" t="s">
+      <c r="F31" s="65"/>
+      <c r="G31" s="70" t="s">
         <v>147</v>
       </c>
       <c r="H31" s="29"/>
-      <c r="I31" s="64">
+      <c r="I31" s="65">
         <v>220.0</v>
       </c>
-      <c r="J31" s="70"/>
-      <c r="K31" s="64">
+      <c r="J31" s="71"/>
+      <c r="K31" s="65">
         <f t="shared" si="1"/>
         <v>29</v>
       </c>
@@ -10616,22 +10632,22 @@
       <c r="B32" s="22" t="s">
         <v>431</v>
       </c>
-      <c r="C32" s="66" t="s">
+      <c r="C32" s="67" t="s">
         <v>432</v>
       </c>
-      <c r="D32" s="75" t="s">
+      <c r="D32" s="76" t="s">
         <v>433</v>
       </c>
-      <c r="E32" s="75"/>
-      <c r="F32" s="64"/>
-      <c r="G32" s="69" t="s">
+      <c r="E32" s="76"/>
+      <c r="F32" s="65"/>
+      <c r="G32" s="70" t="s">
         <v>140</v>
       </c>
       <c r="H32" s="29"/>
-      <c r="I32" s="76" t="s">
+      <c r="I32" s="77" t="s">
         <v>434</v>
       </c>
-      <c r="J32" s="70"/>
+      <c r="J32" s="71"/>
       <c r="K32" s="22">
         <v>1.0</v>
       </c>
@@ -10643,22 +10659,22 @@
       <c r="B33" s="22" t="s">
         <v>436</v>
       </c>
-      <c r="C33" s="66" t="s">
+      <c r="C33" s="67" t="s">
         <v>432</v>
       </c>
       <c r="D33" s="29" t="s">
         <v>437</v>
       </c>
       <c r="E33" s="29"/>
-      <c r="F33" s="64"/>
-      <c r="G33" s="69" t="s">
+      <c r="F33" s="65"/>
+      <c r="G33" s="70" t="s">
         <v>140</v>
       </c>
       <c r="H33" s="22"/>
-      <c r="I33" s="76" t="s">
+      <c r="I33" s="77" t="s">
         <v>438</v>
       </c>
-      <c r="J33" s="70"/>
+      <c r="J33" s="71"/>
       <c r="K33" s="22">
         <v>2.0</v>
       </c>
@@ -10670,22 +10686,22 @@
       <c r="B34" s="22" t="s">
         <v>440</v>
       </c>
-      <c r="C34" s="66" t="s">
+      <c r="C34" s="67" t="s">
         <v>432</v>
       </c>
       <c r="D34" s="29" t="s">
         <v>441</v>
       </c>
       <c r="E34" s="29"/>
-      <c r="F34" s="64"/>
-      <c r="G34" s="69" t="s">
+      <c r="F34" s="65"/>
+      <c r="G34" s="70" t="s">
         <v>140</v>
       </c>
       <c r="H34" s="29"/>
-      <c r="I34" s="64" t="s">
+      <c r="I34" s="65" t="s">
         <v>442</v>
       </c>
-      <c r="J34" s="70"/>
+      <c r="J34" s="71"/>
       <c r="K34" s="22">
         <v>3.0</v>
       </c>
@@ -10697,22 +10713,22 @@
       <c r="B35" s="22" t="s">
         <v>444</v>
       </c>
-      <c r="C35" s="66" t="s">
+      <c r="C35" s="67" t="s">
         <v>432</v>
       </c>
       <c r="D35" s="29" t="s">
         <v>445</v>
       </c>
       <c r="E35" s="29"/>
-      <c r="F35" s="64"/>
-      <c r="G35" s="69" t="s">
+      <c r="F35" s="65"/>
+      <c r="G35" s="70" t="s">
         <v>140</v>
       </c>
       <c r="H35" s="29"/>
-      <c r="I35" s="72" t="s">
+      <c r="I35" s="73" t="s">
         <v>446</v>
       </c>
-      <c r="J35" s="70"/>
+      <c r="J35" s="71"/>
       <c r="K35" s="22">
         <v>4.0</v>
       </c>
@@ -10724,22 +10740,22 @@
       <c r="B36" s="22" t="s">
         <v>448</v>
       </c>
-      <c r="C36" s="66" t="s">
+      <c r="C36" s="67" t="s">
         <v>432</v>
       </c>
       <c r="D36" s="29" t="s">
         <v>449</v>
       </c>
       <c r="E36" s="29"/>
-      <c r="F36" s="64"/>
-      <c r="G36" s="69" t="s">
+      <c r="F36" s="65"/>
+      <c r="G36" s="70" t="s">
         <v>140</v>
       </c>
       <c r="H36" s="29"/>
-      <c r="I36" s="72" t="s">
+      <c r="I36" s="73" t="s">
         <v>450</v>
       </c>
-      <c r="J36" s="70"/>
+      <c r="J36" s="71"/>
       <c r="K36" s="22">
         <v>5.0</v>
       </c>
@@ -10751,22 +10767,22 @@
       <c r="B37" s="22" t="s">
         <v>452</v>
       </c>
-      <c r="C37" s="66" t="s">
+      <c r="C37" s="67" t="s">
         <v>432</v>
       </c>
       <c r="D37" s="29" t="s">
         <v>453</v>
       </c>
       <c r="E37" s="29"/>
-      <c r="F37" s="64"/>
-      <c r="G37" s="69" t="s">
+      <c r="F37" s="65"/>
+      <c r="G37" s="70" t="s">
         <v>140</v>
       </c>
       <c r="H37" s="29"/>
-      <c r="I37" s="70" t="s">
+      <c r="I37" s="71" t="s">
         <v>454</v>
       </c>
-      <c r="J37" s="70"/>
+      <c r="J37" s="71"/>
       <c r="K37" s="22">
         <v>6.0</v>
       </c>
@@ -10778,22 +10794,22 @@
       <c r="B38" s="22" t="s">
         <v>456</v>
       </c>
-      <c r="C38" s="66" t="s">
+      <c r="C38" s="67" t="s">
         <v>432</v>
       </c>
       <c r="D38" s="29" t="s">
         <v>457</v>
       </c>
       <c r="E38" s="29"/>
-      <c r="F38" s="64"/>
-      <c r="G38" s="69" t="s">
+      <c r="F38" s="65"/>
+      <c r="G38" s="70" t="s">
         <v>140</v>
       </c>
       <c r="H38" s="29"/>
-      <c r="I38" s="70" t="s">
+      <c r="I38" s="71" t="s">
         <v>458</v>
       </c>
-      <c r="J38" s="70"/>
+      <c r="J38" s="71"/>
       <c r="K38" s="22">
         <v>7.0</v>
       </c>
@@ -10805,22 +10821,22 @@
       <c r="B39" s="22" t="s">
         <v>460</v>
       </c>
-      <c r="C39" s="73" t="s">
+      <c r="C39" s="74" t="s">
         <v>432</v>
       </c>
       <c r="D39" s="29" t="s">
         <v>461</v>
       </c>
       <c r="E39" s="29"/>
-      <c r="F39" s="64"/>
-      <c r="G39" s="69" t="s">
+      <c r="F39" s="65"/>
+      <c r="G39" s="70" t="s">
         <v>140</v>
       </c>
       <c r="H39" s="29"/>
-      <c r="I39" s="70" t="s">
+      <c r="I39" s="71" t="s">
         <v>462</v>
       </c>
-      <c r="J39" s="70"/>
+      <c r="J39" s="71"/>
       <c r="K39" s="22">
         <v>8.0</v>
       </c>
@@ -10832,22 +10848,22 @@
       <c r="B40" s="22" t="s">
         <v>464</v>
       </c>
-      <c r="C40" s="73" t="s">
+      <c r="C40" s="74" t="s">
         <v>432</v>
       </c>
       <c r="D40" s="29" t="s">
         <v>465</v>
       </c>
       <c r="E40" s="29"/>
-      <c r="F40" s="64"/>
-      <c r="G40" s="69" t="s">
+      <c r="F40" s="65"/>
+      <c r="G40" s="70" t="s">
         <v>140</v>
       </c>
       <c r="H40" s="29"/>
-      <c r="I40" s="70" t="s">
+      <c r="I40" s="71" t="s">
         <v>466</v>
       </c>
-      <c r="J40" s="70"/>
+      <c r="J40" s="71"/>
       <c r="K40" s="22">
         <v>11.0</v>
       </c>
@@ -10859,22 +10875,22 @@
       <c r="B41" s="22" t="s">
         <v>468</v>
       </c>
-      <c r="C41" s="73" t="s">
+      <c r="C41" s="74" t="s">
         <v>432</v>
       </c>
       <c r="D41" s="29" t="s">
         <v>469</v>
       </c>
       <c r="E41" s="29"/>
-      <c r="F41" s="64"/>
-      <c r="G41" s="69" t="s">
+      <c r="F41" s="65"/>
+      <c r="G41" s="70" t="s">
         <v>140</v>
       </c>
       <c r="H41" s="29"/>
-      <c r="I41" s="70" t="s">
+      <c r="I41" s="71" t="s">
         <v>466</v>
       </c>
-      <c r="J41" s="70"/>
+      <c r="J41" s="71"/>
       <c r="K41" s="22">
         <v>12.0</v>
       </c>
@@ -10886,22 +10902,22 @@
       <c r="B42" s="22" t="s">
         <v>471</v>
       </c>
-      <c r="C42" s="73" t="s">
+      <c r="C42" s="74" t="s">
         <v>432</v>
       </c>
       <c r="D42" s="29" t="s">
         <v>472</v>
       </c>
       <c r="E42" s="29"/>
-      <c r="F42" s="64"/>
-      <c r="G42" s="69" t="s">
+      <c r="F42" s="65"/>
+      <c r="G42" s="70" t="s">
         <v>140</v>
       </c>
       <c r="H42" s="29"/>
-      <c r="I42" s="70" t="s">
+      <c r="I42" s="71" t="s">
         <v>462</v>
       </c>
-      <c r="J42" s="70"/>
+      <c r="J42" s="71"/>
       <c r="K42" s="22">
         <v>9.0</v>
       </c>
@@ -10913,22 +10929,22 @@
       <c r="B43" s="22" t="s">
         <v>474</v>
       </c>
-      <c r="C43" s="73" t="s">
+      <c r="C43" s="74" t="s">
         <v>432</v>
       </c>
       <c r="D43" s="29" t="s">
         <v>475</v>
       </c>
       <c r="E43" s="29"/>
-      <c r="F43" s="64"/>
-      <c r="G43" s="69" t="s">
+      <c r="F43" s="65"/>
+      <c r="G43" s="70" t="s">
         <v>140</v>
       </c>
       <c r="H43" s="29"/>
-      <c r="I43" s="70" t="s">
+      <c r="I43" s="71" t="s">
         <v>462</v>
       </c>
-      <c r="J43" s="70"/>
+      <c r="J43" s="71"/>
       <c r="K43" s="22">
         <v>10.0</v>
       </c>
@@ -10940,22 +10956,22 @@
       <c r="B44" s="22" t="s">
         <v>477</v>
       </c>
-      <c r="C44" s="66" t="s">
+      <c r="C44" s="67" t="s">
         <v>432</v>
       </c>
       <c r="D44" s="28" t="s">
         <v>478</v>
       </c>
       <c r="E44" s="28"/>
-      <c r="F44" s="64"/>
-      <c r="G44" s="69" t="s">
+      <c r="F44" s="65"/>
+      <c r="G44" s="70" t="s">
         <v>140</v>
       </c>
       <c r="H44" s="29"/>
-      <c r="I44" s="70" t="s">
+      <c r="I44" s="71" t="s">
         <v>479</v>
       </c>
-      <c r="J44" s="70"/>
+      <c r="J44" s="71"/>
       <c r="K44" s="22">
         <v>13.0</v>
       </c>
@@ -10967,23 +10983,23 @@
       <c r="B45" s="22" t="s">
         <v>481</v>
       </c>
-      <c r="C45" s="66" t="s">
+      <c r="C45" s="67" t="s">
         <v>432</v>
       </c>
       <c r="D45" s="28" t="s">
         <v>482</v>
       </c>
       <c r="E45" s="28"/>
-      <c r="F45" s="64"/>
-      <c r="G45" s="69" t="s">
+      <c r="F45" s="65"/>
+      <c r="G45" s="70" t="s">
         <v>140</v>
       </c>
       <c r="H45" s="29"/>
-      <c r="I45" s="70" t="s">
+      <c r="I45" s="71" t="s">
         <v>483</v>
       </c>
-      <c r="J45" s="70"/>
-      <c r="K45" s="70">
+      <c r="J45" s="71"/>
+      <c r="K45" s="71">
         <v>14.0</v>
       </c>
     </row>
@@ -10994,23 +11010,23 @@
       <c r="B46" s="22" t="s">
         <v>485</v>
       </c>
-      <c r="C46" s="66" t="s">
+      <c r="C46" s="67" t="s">
         <v>432</v>
       </c>
       <c r="D46" s="28" t="s">
         <v>486</v>
       </c>
       <c r="E46" s="28"/>
-      <c r="F46" s="64"/>
-      <c r="G46" s="69" t="s">
+      <c r="F46" s="65"/>
+      <c r="G46" s="70" t="s">
         <v>140</v>
       </c>
       <c r="H46" s="29"/>
-      <c r="I46" s="70" t="s">
+      <c r="I46" s="71" t="s">
         <v>487</v>
       </c>
-      <c r="J46" s="70"/>
-      <c r="K46" s="70">
+      <c r="J46" s="71"/>
+      <c r="K46" s="71">
         <v>15.0</v>
       </c>
     </row>
@@ -11021,23 +11037,23 @@
       <c r="B47" s="22" t="s">
         <v>489</v>
       </c>
-      <c r="C47" s="66" t="s">
+      <c r="C47" s="67" t="s">
         <v>432</v>
       </c>
       <c r="D47" s="28" t="s">
         <v>490</v>
       </c>
       <c r="E47" s="28"/>
-      <c r="F47" s="64"/>
-      <c r="G47" s="69" t="s">
+      <c r="F47" s="65"/>
+      <c r="G47" s="70" t="s">
         <v>140</v>
       </c>
       <c r="H47" s="29"/>
-      <c r="I47" s="70" t="s">
+      <c r="I47" s="71" t="s">
         <v>491</v>
       </c>
-      <c r="J47" s="70"/>
-      <c r="K47" s="70">
+      <c r="J47" s="71"/>
+      <c r="K47" s="71">
         <v>16.0</v>
       </c>
     </row>
@@ -11048,23 +11064,23 @@
       <c r="B48" s="22" t="s">
         <v>493</v>
       </c>
-      <c r="C48" s="66" t="s">
+      <c r="C48" s="67" t="s">
         <v>432</v>
       </c>
       <c r="D48" s="28" t="s">
         <v>494</v>
       </c>
       <c r="E48" s="28"/>
-      <c r="F48" s="64"/>
-      <c r="G48" s="69" t="s">
+      <c r="F48" s="65"/>
+      <c r="G48" s="70" t="s">
         <v>140</v>
       </c>
       <c r="H48" s="29"/>
-      <c r="I48" s="70" t="s">
+      <c r="I48" s="71" t="s">
         <v>495</v>
       </c>
-      <c r="J48" s="70"/>
-      <c r="K48" s="70">
+      <c r="J48" s="71"/>
+      <c r="K48" s="71">
         <v>17.0</v>
       </c>
     </row>
@@ -11075,23 +11091,23 @@
       <c r="B49" s="22" t="s">
         <v>497</v>
       </c>
-      <c r="C49" s="66" t="s">
+      <c r="C49" s="67" t="s">
         <v>432</v>
       </c>
       <c r="D49" s="28" t="s">
         <v>498</v>
       </c>
       <c r="E49" s="28"/>
-      <c r="F49" s="64"/>
-      <c r="G49" s="69" t="s">
+      <c r="F49" s="65"/>
+      <c r="G49" s="70" t="s">
         <v>140</v>
       </c>
       <c r="H49" s="29"/>
-      <c r="I49" s="70" t="s">
+      <c r="I49" s="71" t="s">
         <v>499</v>
       </c>
-      <c r="J49" s="70"/>
-      <c r="K49" s="70">
+      <c r="J49" s="71"/>
+      <c r="K49" s="71">
         <v>18.0</v>
       </c>
     </row>
@@ -11102,23 +11118,23 @@
       <c r="B50" s="22" t="s">
         <v>501</v>
       </c>
-      <c r="C50" s="66" t="s">
+      <c r="C50" s="67" t="s">
         <v>432</v>
       </c>
       <c r="D50" s="28" t="s">
         <v>502</v>
       </c>
       <c r="E50" s="28"/>
-      <c r="F50" s="64"/>
-      <c r="G50" s="69" t="s">
+      <c r="F50" s="65"/>
+      <c r="G50" s="70" t="s">
         <v>140</v>
       </c>
       <c r="H50" s="29"/>
-      <c r="I50" s="70" t="s">
+      <c r="I50" s="71" t="s">
         <v>503</v>
       </c>
-      <c r="J50" s="70"/>
-      <c r="K50" s="70">
+      <c r="J50" s="71"/>
+      <c r="K50" s="71">
         <v>19.0</v>
       </c>
     </row>
@@ -11129,23 +11145,23 @@
       <c r="B51" s="22" t="s">
         <v>505</v>
       </c>
-      <c r="C51" s="66" t="s">
+      <c r="C51" s="67" t="s">
         <v>432</v>
       </c>
       <c r="D51" s="28" t="s">
         <v>506</v>
       </c>
       <c r="E51" s="28"/>
-      <c r="F51" s="64"/>
-      <c r="G51" s="69" t="s">
+      <c r="F51" s="65"/>
+      <c r="G51" s="70" t="s">
         <v>140</v>
       </c>
       <c r="H51" s="29"/>
-      <c r="I51" s="70" t="s">
+      <c r="I51" s="71" t="s">
         <v>507</v>
       </c>
-      <c r="J51" s="70"/>
-      <c r="K51" s="70">
+      <c r="J51" s="71"/>
+      <c r="K51" s="71">
         <v>20.0</v>
       </c>
     </row>
@@ -11156,23 +11172,23 @@
       <c r="B52" s="22" t="s">
         <v>509</v>
       </c>
-      <c r="C52" s="66" t="s">
+      <c r="C52" s="67" t="s">
         <v>432</v>
       </c>
       <c r="D52" s="28" t="s">
         <v>510</v>
       </c>
       <c r="E52" s="28"/>
-      <c r="F52" s="64"/>
-      <c r="G52" s="69" t="s">
+      <c r="F52" s="65"/>
+      <c r="G52" s="70" t="s">
         <v>140</v>
       </c>
       <c r="H52" s="29"/>
-      <c r="I52" s="70" t="s">
+      <c r="I52" s="71" t="s">
         <v>511</v>
       </c>
-      <c r="J52" s="70"/>
-      <c r="K52" s="70">
+      <c r="J52" s="71"/>
+      <c r="K52" s="71">
         <v>21.0</v>
       </c>
     </row>
@@ -11183,23 +11199,23 @@
       <c r="B53" s="22" t="s">
         <v>513</v>
       </c>
-      <c r="C53" s="66" t="s">
+      <c r="C53" s="67" t="s">
         <v>432</v>
       </c>
       <c r="D53" s="28" t="s">
         <v>514</v>
       </c>
       <c r="E53" s="28"/>
-      <c r="F53" s="64"/>
-      <c r="G53" s="69" t="s">
+      <c r="F53" s="65"/>
+      <c r="G53" s="70" t="s">
         <v>140</v>
       </c>
       <c r="H53" s="29"/>
-      <c r="I53" s="70" t="s">
+      <c r="I53" s="71" t="s">
         <v>515</v>
       </c>
-      <c r="J53" s="70"/>
-      <c r="K53" s="70">
+      <c r="J53" s="71"/>
+      <c r="K53" s="71">
         <v>22.0</v>
       </c>
     </row>
@@ -11210,23 +11226,23 @@
       <c r="B54" s="22" t="s">
         <v>517</v>
       </c>
-      <c r="C54" s="66" t="s">
+      <c r="C54" s="67" t="s">
         <v>432</v>
       </c>
       <c r="D54" s="28" t="s">
         <v>518</v>
       </c>
       <c r="E54" s="28"/>
-      <c r="F54" s="64"/>
-      <c r="G54" s="69" t="s">
+      <c r="F54" s="65"/>
+      <c r="G54" s="70" t="s">
         <v>140</v>
       </c>
       <c r="H54" s="29"/>
       <c r="I54" s="22" t="s">
         <v>519</v>
       </c>
-      <c r="J54" s="70"/>
-      <c r="K54" s="70">
+      <c r="J54" s="71"/>
+      <c r="K54" s="71">
         <v>23.0</v>
       </c>
     </row>
@@ -11237,23 +11253,23 @@
       <c r="B55" s="22" t="s">
         <v>521</v>
       </c>
-      <c r="C55" s="66" t="s">
+      <c r="C55" s="67" t="s">
         <v>432</v>
       </c>
       <c r="D55" s="28" t="s">
         <v>522</v>
       </c>
       <c r="E55" s="28"/>
-      <c r="F55" s="64"/>
-      <c r="G55" s="69" t="s">
+      <c r="F55" s="65"/>
+      <c r="G55" s="70" t="s">
         <v>140</v>
       </c>
       <c r="H55" s="29"/>
-      <c r="I55" s="70" t="s">
+      <c r="I55" s="71" t="s">
         <v>523</v>
       </c>
-      <c r="J55" s="70"/>
-      <c r="K55" s="70">
+      <c r="J55" s="71"/>
+      <c r="K55" s="71">
         <v>24.0</v>
       </c>
     </row>
@@ -11264,23 +11280,23 @@
       <c r="B56" s="22" t="s">
         <v>525</v>
       </c>
-      <c r="C56" s="66" t="s">
+      <c r="C56" s="67" t="s">
         <v>432</v>
       </c>
       <c r="D56" s="28" t="s">
         <v>526</v>
       </c>
       <c r="E56" s="28"/>
-      <c r="F56" s="64"/>
-      <c r="G56" s="69" t="s">
+      <c r="F56" s="65"/>
+      <c r="G56" s="70" t="s">
         <v>140</v>
       </c>
       <c r="H56" s="29"/>
-      <c r="I56" s="70" t="s">
+      <c r="I56" s="71" t="s">
         <v>527</v>
       </c>
-      <c r="J56" s="70"/>
-      <c r="K56" s="70">
+      <c r="J56" s="71"/>
+      <c r="K56" s="71">
         <v>25.0</v>
       </c>
     </row>
@@ -11291,23 +11307,23 @@
       <c r="B57" s="22" t="s">
         <v>529</v>
       </c>
-      <c r="C57" s="66" t="s">
+      <c r="C57" s="67" t="s">
         <v>432</v>
       </c>
       <c r="D57" s="28" t="s">
         <v>530</v>
       </c>
       <c r="E57" s="28"/>
-      <c r="F57" s="64"/>
-      <c r="G57" s="69" t="s">
+      <c r="F57" s="65"/>
+      <c r="G57" s="70" t="s">
         <v>140</v>
       </c>
       <c r="H57" s="29"/>
-      <c r="I57" s="70" t="s">
+      <c r="I57" s="71" t="s">
         <v>531</v>
       </c>
-      <c r="J57" s="70"/>
-      <c r="K57" s="70">
+      <c r="J57" s="71"/>
+      <c r="K57" s="71">
         <v>26.0</v>
       </c>
     </row>
@@ -11318,23 +11334,23 @@
       <c r="B58" s="22" t="s">
         <v>533</v>
       </c>
-      <c r="C58" s="66" t="s">
+      <c r="C58" s="67" t="s">
         <v>432</v>
       </c>
       <c r="D58" s="28" t="s">
         <v>534</v>
       </c>
       <c r="E58" s="28"/>
-      <c r="F58" s="64"/>
-      <c r="G58" s="69" t="s">
+      <c r="F58" s="65"/>
+      <c r="G58" s="70" t="s">
         <v>140</v>
       </c>
       <c r="H58" s="29"/>
-      <c r="I58" s="70" t="s">
+      <c r="I58" s="71" t="s">
         <v>535</v>
       </c>
-      <c r="J58" s="70"/>
-      <c r="K58" s="70">
+      <c r="J58" s="71"/>
+      <c r="K58" s="71">
         <v>27.0</v>
       </c>
     </row>
@@ -11345,23 +11361,23 @@
       <c r="B59" s="22" t="s">
         <v>537</v>
       </c>
-      <c r="C59" s="66" t="s">
+      <c r="C59" s="67" t="s">
         <v>432</v>
       </c>
       <c r="D59" s="28" t="s">
         <v>538</v>
       </c>
       <c r="E59" s="28"/>
-      <c r="F59" s="64"/>
-      <c r="G59" s="69" t="s">
+      <c r="F59" s="65"/>
+      <c r="G59" s="70" t="s">
         <v>140</v>
       </c>
       <c r="H59" s="29"/>
       <c r="I59" s="22" t="s">
         <v>539</v>
       </c>
-      <c r="J59" s="70"/>
-      <c r="K59" s="70">
+      <c r="J59" s="71"/>
+      <c r="K59" s="71">
         <v>28.0</v>
       </c>
     </row>
@@ -11372,23 +11388,23 @@
       <c r="B60" s="22" t="s">
         <v>541</v>
       </c>
-      <c r="C60" s="66" t="s">
+      <c r="C60" s="67" t="s">
         <v>432</v>
       </c>
       <c r="D60" s="28" t="s">
         <v>542</v>
       </c>
       <c r="E60" s="28"/>
-      <c r="F60" s="64"/>
-      <c r="G60" s="69" t="s">
+      <c r="F60" s="65"/>
+      <c r="G60" s="70" t="s">
         <v>140</v>
       </c>
       <c r="H60" s="29"/>
-      <c r="I60" s="70" t="s">
+      <c r="I60" s="71" t="s">
         <v>543</v>
       </c>
-      <c r="J60" s="70"/>
-      <c r="K60" s="70">
+      <c r="J60" s="71"/>
+      <c r="K60" s="71">
         <v>29.0</v>
       </c>
     </row>
@@ -11403,13 +11419,17 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1.0" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
     <col customWidth="1" min="2" max="2" width="33.38"/>
     <col customWidth="1" min="3" max="3" width="27.25"/>
-    <col customWidth="1" min="4" max="4" width="25.75"/>
+    <col customWidth="1" min="4" max="4" width="14.38"/>
+    <col customWidth="1" min="5" max="5" width="25.75"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -11419,10 +11439,13 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="78" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>45</v>
       </c>
     </row>
@@ -11431,13 +11454,14 @@
         <v>53.0</v>
       </c>
       <c r="B2" s="29" t="s">
-        <v>544</v>
-      </c>
-      <c r="C2" s="70" t="s">
         <v>545</v>
       </c>
-      <c r="D2" s="77" t="s">
+      <c r="C2" s="78" t="s">
         <v>546</v>
+      </c>
+      <c r="D2" s="71"/>
+      <c r="E2" s="79" t="s">
+        <v>547</v>
       </c>
     </row>
     <row r="3">
@@ -11445,96 +11469,104 @@
         <v>48.0</v>
       </c>
       <c r="B3" s="29" t="s">
-        <v>547</v>
-      </c>
-      <c r="C3" s="29" t="s">
         <v>548</v>
       </c>
+      <c r="C3" t="s">
+        <v>549</v>
+      </c>
       <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
     </row>
     <row r="4">
       <c r="A4" s="24">
         <v>49.0</v>
       </c>
       <c r="B4" s="29" t="s">
-        <v>549</v>
-      </c>
-      <c r="C4" s="78" t="s">
         <v>550</v>
       </c>
-      <c r="D4" s="29"/>
+      <c r="C4" t="s">
+        <v>551</v>
+      </c>
+      <c r="D4" s="80"/>
+      <c r="E4" s="29"/>
     </row>
     <row r="5">
       <c r="A5" s="24">
         <v>50.0</v>
       </c>
       <c r="B5" s="29" t="s">
-        <v>551</v>
-      </c>
-      <c r="C5" s="78" t="s">
         <v>552</v>
       </c>
-      <c r="D5" s="29"/>
+      <c r="C5" t="s">
+        <v>553</v>
+      </c>
+      <c r="D5" s="80"/>
+      <c r="E5" s="29"/>
     </row>
     <row r="6">
       <c r="A6" s="24">
         <v>51.0</v>
       </c>
       <c r="B6" s="29" t="s">
-        <v>553</v>
-      </c>
-      <c r="C6" s="78" t="s">
         <v>554</v>
       </c>
-      <c r="D6" s="70"/>
+      <c r="C6" t="s">
+        <v>555</v>
+      </c>
+      <c r="D6" s="80"/>
+      <c r="E6" s="71"/>
     </row>
     <row r="7">
       <c r="A7" s="24">
         <v>52.0</v>
       </c>
-      <c r="B7" s="70" t="s">
-        <v>555</v>
-      </c>
-      <c r="C7" s="29" t="s">
+      <c r="B7" s="71" t="s">
         <v>556</v>
       </c>
-      <c r="D7" s="70"/>
+      <c r="C7" t="s">
+        <v>557</v>
+      </c>
+      <c r="D7" s="29"/>
+      <c r="E7" s="71"/>
     </row>
     <row r="8">
       <c r="A8" s="24">
         <v>83.0</v>
       </c>
       <c r="B8" s="29" t="s">
-        <v>557</v>
-      </c>
-      <c r="C8" s="29" t="s">
         <v>558</v>
       </c>
+      <c r="C8" t="s">
+        <v>559</v>
+      </c>
       <c r="D8" s="29"/>
+      <c r="E8" s="29"/>
     </row>
     <row r="9">
       <c r="A9" s="24">
         <v>84.0</v>
       </c>
       <c r="B9" s="29" t="s">
-        <v>559</v>
-      </c>
-      <c r="C9" s="29" t="s">
         <v>560</v>
       </c>
+      <c r="C9" t="s">
+        <v>561</v>
+      </c>
       <c r="D9" s="29"/>
+      <c r="E9" s="29"/>
     </row>
     <row r="10">
       <c r="A10" s="24">
         <v>54.0</v>
       </c>
       <c r="B10" s="29" t="s">
-        <v>561</v>
-      </c>
-      <c r="C10" s="29" t="s">
         <v>562</v>
       </c>
-      <c r="D10" s="27">
+      <c r="C10" t="s">
+        <v>563</v>
+      </c>
+      <c r="D10" s="29"/>
+      <c r="E10" s="27">
         <v>53.0</v>
       </c>
     </row>
@@ -11543,24 +11575,26 @@
         <v>55.0</v>
       </c>
       <c r="B11" s="29" t="s">
-        <v>563</v>
-      </c>
-      <c r="C11" s="29" t="s">
         <v>564</v>
       </c>
+      <c r="C11" t="s">
+        <v>565</v>
+      </c>
       <c r="D11" s="29"/>
+      <c r="E11" s="29"/>
     </row>
     <row r="12">
       <c r="A12" s="24">
         <v>56.0</v>
       </c>
       <c r="B12" s="29" t="s">
-        <v>565</v>
-      </c>
-      <c r="C12" s="29" t="s">
         <v>566</v>
       </c>
-      <c r="D12" s="24">
+      <c r="C12" t="s">
+        <v>567</v>
+      </c>
+      <c r="D12" s="29"/>
+      <c r="E12" s="24">
         <v>55.0</v>
       </c>
     </row>
@@ -11569,48 +11603,52 @@
         <v>85.0</v>
       </c>
       <c r="B13" s="29" t="s">
-        <v>567</v>
-      </c>
-      <c r="C13" s="29" t="s">
         <v>568</v>
       </c>
+      <c r="C13" t="s">
+        <v>569</v>
+      </c>
       <c r="D13" s="29"/>
+      <c r="E13" s="29"/>
     </row>
     <row r="14">
       <c r="A14" s="24">
         <v>2.0</v>
       </c>
       <c r="B14" s="29" t="s">
-        <v>569</v>
-      </c>
-      <c r="C14" s="79" t="s">
         <v>570</v>
       </c>
-      <c r="D14" s="29"/>
+      <c r="C14" s="78" t="s">
+        <v>571</v>
+      </c>
+      <c r="D14" s="81"/>
+      <c r="E14" s="29"/>
     </row>
     <row r="15">
       <c r="A15" s="24">
         <v>42.0</v>
       </c>
       <c r="B15" s="29" t="s">
-        <v>571</v>
-      </c>
-      <c r="C15" s="80" t="s">
         <v>572</v>
       </c>
-      <c r="D15" s="70"/>
+      <c r="C15" t="s">
+        <v>573</v>
+      </c>
+      <c r="D15" s="82"/>
+      <c r="E15" s="71"/>
     </row>
     <row r="16">
       <c r="A16" s="24">
         <v>41.0</v>
       </c>
       <c r="B16" s="29" t="s">
-        <v>573</v>
-      </c>
-      <c r="C16" s="80" t="s">
         <v>574</v>
       </c>
-      <c r="D16" s="24">
+      <c r="C16" t="s">
+        <v>575</v>
+      </c>
+      <c r="D16" s="82"/>
+      <c r="E16" s="24">
         <v>53.0</v>
       </c>
     </row>
@@ -11619,24 +11657,26 @@
         <v>100.0</v>
       </c>
       <c r="B17" s="22" t="s">
-        <v>575</v>
-      </c>
-      <c r="C17" s="81" t="s">
         <v>576</v>
       </c>
-      <c r="D17" s="24"/>
+      <c r="C17" t="s">
+        <v>577</v>
+      </c>
+      <c r="D17" s="83"/>
+      <c r="E17" s="24"/>
     </row>
     <row r="18">
       <c r="A18" s="27">
         <v>101.0</v>
       </c>
       <c r="B18" s="22" t="s">
-        <v>577</v>
-      </c>
-      <c r="C18" s="22" t="s">
         <v>578</v>
       </c>
-      <c r="D18" s="27">
+      <c r="C18" s="78" t="s">
+        <v>579</v>
+      </c>
+      <c r="D18" s="22"/>
+      <c r="E18" s="27">
         <v>100.0</v>
       </c>
     </row>
@@ -11645,12 +11685,13 @@
         <v>102.0</v>
       </c>
       <c r="B19" s="22" t="s">
-        <v>579</v>
-      </c>
-      <c r="C19" s="81" t="s">
-        <v>545</v>
-      </c>
-      <c r="D19" s="27">
+        <v>580</v>
+      </c>
+      <c r="C19" t="s">
+        <v>546</v>
+      </c>
+      <c r="D19" s="83"/>
+      <c r="E19" s="27">
         <v>100.0</v>
       </c>
     </row>
@@ -11659,12 +11700,13 @@
         <v>103.0</v>
       </c>
       <c r="B20" s="22" t="s">
-        <v>580</v>
-      </c>
-      <c r="C20" s="82" t="s">
         <v>581</v>
       </c>
-      <c r="D20" s="27">
+      <c r="C20" s="78" t="s">
+        <v>582</v>
+      </c>
+      <c r="D20" s="84"/>
+      <c r="E20" s="27">
         <v>101.0</v>
       </c>
     </row>
@@ -11673,12 +11715,13 @@
         <v>104.0</v>
       </c>
       <c r="B21" s="22" t="s">
-        <v>582</v>
-      </c>
-      <c r="C21" s="13" t="s">
         <v>583</v>
       </c>
-      <c r="D21" s="12">
+      <c r="C21" s="78" t="s">
+        <v>584</v>
+      </c>
+      <c r="D21" s="13"/>
+      <c r="E21" s="12">
         <v>53.0</v>
       </c>
     </row>
@@ -11687,12 +11730,13 @@
         <v>105.0</v>
       </c>
       <c r="B22" s="22" t="s">
-        <v>584</v>
-      </c>
-      <c r="C22" s="13" t="s">
         <v>585</v>
       </c>
-      <c r="D22" s="12">
+      <c r="C22" s="78" t="s">
+        <v>586</v>
+      </c>
+      <c r="D22" s="13"/>
+      <c r="E22" s="12">
         <v>111.0</v>
       </c>
     </row>
@@ -11701,12 +11745,13 @@
         <v>106.0</v>
       </c>
       <c r="B23" s="22" t="s">
-        <v>586</v>
-      </c>
-      <c r="C23" s="13" t="s">
         <v>587</v>
       </c>
-      <c r="D23" s="12">
+      <c r="C23" s="78" t="s">
+        <v>588</v>
+      </c>
+      <c r="D23" s="13"/>
+      <c r="E23" s="12">
         <v>111.0</v>
       </c>
     </row>
@@ -11715,12 +11760,15 @@
         <v>107.0</v>
       </c>
       <c r="B24" s="22" t="s">
-        <v>588</v>
-      </c>
-      <c r="C24" s="13" t="s">
         <v>589</v>
       </c>
-      <c r="D24" s="12">
+      <c r="C24" s="78" t="s">
+        <v>590</v>
+      </c>
+      <c r="D24" s="85" t="s">
+        <v>591</v>
+      </c>
+      <c r="E24" s="12">
         <v>116.0</v>
       </c>
     </row>
@@ -11731,10 +11779,11 @@
       <c r="B25" s="22" t="s">
         <v>258</v>
       </c>
-      <c r="C25" s="83" t="s">
-        <v>590</v>
-      </c>
-      <c r="D25" s="12">
+      <c r="C25" s="78" t="s">
+        <v>592</v>
+      </c>
+      <c r="D25" s="86"/>
+      <c r="E25" s="12">
         <v>111.0</v>
       </c>
     </row>
@@ -11743,12 +11792,13 @@
         <v>109.0</v>
       </c>
       <c r="B26" s="22" t="s">
-        <v>591</v>
-      </c>
-      <c r="C26" s="83" t="s">
-        <v>592</v>
-      </c>
-      <c r="D26" s="22">
+        <v>593</v>
+      </c>
+      <c r="C26" s="78" t="s">
+        <v>594</v>
+      </c>
+      <c r="D26" s="86"/>
+      <c r="E26" s="22">
         <v>111.0</v>
       </c>
     </row>
@@ -11757,12 +11807,13 @@
         <v>110.0</v>
       </c>
       <c r="B27" s="22" t="s">
-        <v>593</v>
-      </c>
-      <c r="C27" s="13" t="s">
-        <v>594</v>
-      </c>
-      <c r="D27" s="12">
+        <v>595</v>
+      </c>
+      <c r="C27" s="78" t="s">
+        <v>596</v>
+      </c>
+      <c r="D27" s="13"/>
+      <c r="E27" s="12">
         <v>111.0</v>
       </c>
     </row>
@@ -11771,11 +11822,12 @@
         <v>111.0</v>
       </c>
       <c r="B28" s="22" t="s">
-        <v>595</v>
-      </c>
-      <c r="C28" s="13" t="s">
-        <v>596</v>
-      </c>
+        <v>597</v>
+      </c>
+      <c r="C28" s="78" t="s">
+        <v>598</v>
+      </c>
+      <c r="D28" s="13"/>
     </row>
     <row r="29">
       <c r="A29" s="27">
@@ -11784,20 +11836,22 @@
       <c r="B29" s="22" t="s">
         <v>189</v>
       </c>
-      <c r="C29" s="12" t="s">
-        <v>597</v>
-      </c>
+      <c r="C29" s="78" t="s">
+        <v>599</v>
+      </c>
+      <c r="D29" s="12"/>
     </row>
     <row r="30">
       <c r="A30" s="27">
         <v>113.0</v>
       </c>
       <c r="B30" s="22" t="s">
-        <v>598</v>
-      </c>
-      <c r="C30" s="13" t="s">
-        <v>599</v>
-      </c>
+        <v>600</v>
+      </c>
+      <c r="C30" s="78" t="s">
+        <v>601</v>
+      </c>
+      <c r="D30" s="13"/>
     </row>
     <row r="31">
       <c r="A31" s="27">
@@ -11806,32 +11860,35 @@
       <c r="B31" s="22" t="s">
         <v>186</v>
       </c>
-      <c r="C31" s="13" t="s">
+      <c r="C31" s="78" t="s">
         <v>185</v>
       </c>
+      <c r="D31" s="13"/>
     </row>
     <row r="32">
       <c r="A32" s="27">
         <v>115.0</v>
       </c>
       <c r="B32" s="22" t="s">
-        <v>600</v>
-      </c>
-      <c r="C32" s="12" t="s">
-        <v>601</v>
-      </c>
+        <v>602</v>
+      </c>
+      <c r="C32" s="78" t="s">
+        <v>603</v>
+      </c>
+      <c r="D32" s="12"/>
     </row>
     <row r="33">
       <c r="A33" s="27">
         <v>116.0</v>
       </c>
       <c r="B33" s="22" t="s">
-        <v>602</v>
-      </c>
-      <c r="C33" s="13" t="s">
-        <v>603</v>
-      </c>
-      <c r="D33" s="12">
+        <v>604</v>
+      </c>
+      <c r="C33" s="78" t="s">
+        <v>605</v>
+      </c>
+      <c r="D33" s="13"/>
+      <c r="E33" s="12">
         <v>53.0</v>
       </c>
     </row>
@@ -11840,12 +11897,15 @@
         <v>117.0</v>
       </c>
       <c r="B34" s="22" t="s">
-        <v>604</v>
-      </c>
-      <c r="C34" s="13" t="s">
-        <v>605</v>
-      </c>
-      <c r="D34" s="12">
+        <v>606</v>
+      </c>
+      <c r="C34" s="78" t="s">
+        <v>590</v>
+      </c>
+      <c r="D34" s="85" t="s">
+        <v>607</v>
+      </c>
+      <c r="E34" s="12">
         <v>116.0</v>
       </c>
     </row>
@@ -11881,19 +11941,19 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>41</v>
@@ -11901,65 +11961,65 @@
     </row>
     <row r="2">
       <c r="A2" s="22" t="s">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="B2" s="29"/>
       <c r="C2" s="29"/>
       <c r="D2" s="22" t="s">
-        <v>612</v>
+        <v>614</v>
       </c>
       <c r="E2" s="22" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
       <c r="F2" s="27">
         <v>227.0</v>
       </c>
       <c r="G2" s="29" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="H2" s="12" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="22" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="B3" s="29"/>
       <c r="C3" s="29"/>
       <c r="D3" s="22" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
       <c r="E3" s="22" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="F3" s="27">
         <v>226.0</v>
       </c>
       <c r="G3" s="29" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="H3" s="12" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="22" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="B4" s="29"/>
       <c r="C4" s="29"/>
       <c r="D4" s="22" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="E4" s="22" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
       <c r="F4" s="27">
         <v>221.0</v>
       </c>
       <c r="G4" s="29" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="H4" s="12">
         <v>103.0</v>
@@ -11967,21 +12027,21 @@
     </row>
     <row r="5">
       <c r="A5" s="22" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
       <c r="B5" s="29"/>
       <c r="C5" s="29"/>
       <c r="D5" s="22" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
       <c r="E5" s="22" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
       <c r="F5" s="27">
         <v>222.0</v>
       </c>
       <c r="G5" s="29" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="H5" s="12">
         <v>103.0</v>
@@ -11989,21 +12049,21 @@
     </row>
     <row r="6">
       <c r="A6" s="22" t="s">
-        <v>623</v>
+        <v>625</v>
       </c>
       <c r="B6" s="29"/>
       <c r="C6" s="29"/>
       <c r="D6" s="22" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
       <c r="E6" s="22" t="s">
-        <v>625</v>
+        <v>627</v>
       </c>
       <c r="F6" s="27">
         <v>223.0</v>
       </c>
       <c r="G6" s="29" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="H6" s="12">
         <v>41.0</v>
@@ -12011,21 +12071,21 @@
     </row>
     <row r="7">
       <c r="A7" s="22" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="B7" s="29"/>
       <c r="C7" s="29"/>
       <c r="D7" s="22" t="s">
-        <v>625</v>
+        <v>627</v>
       </c>
       <c r="E7" s="22" t="s">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="F7" s="27">
         <v>224.0</v>
       </c>
       <c r="G7" s="29" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="H7" s="12">
         <v>41.0</v>
@@ -12033,21 +12093,21 @@
     </row>
     <row r="8">
       <c r="A8" s="22" t="s">
-        <v>628</v>
+        <v>630</v>
       </c>
       <c r="B8" s="29"/>
       <c r="C8" s="29"/>
       <c r="D8" s="22" t="s">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="E8" s="22" t="s">
-        <v>629</v>
+        <v>631</v>
       </c>
       <c r="F8" s="27">
         <v>225.0</v>
       </c>
       <c r="G8" s="29" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="H8" s="12">
         <v>41.0</v>
@@ -12055,21 +12115,21 @@
     </row>
     <row r="9">
       <c r="A9" s="29" t="s">
-        <v>630</v>
+        <v>632</v>
       </c>
       <c r="B9" s="29"/>
       <c r="C9" s="29"/>
       <c r="D9" s="29" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="E9" s="29" t="s">
-        <v>632</v>
+        <v>634</v>
       </c>
       <c r="F9" s="27">
         <v>217.0</v>
       </c>
       <c r="G9" s="29" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="H9" s="12">
         <v>117.0</v>
@@ -12077,21 +12137,21 @@
     </row>
     <row r="10">
       <c r="A10" s="29" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="B10" s="29"/>
       <c r="C10" s="29"/>
       <c r="D10" s="29" t="s">
-        <v>634</v>
+        <v>636</v>
       </c>
       <c r="E10" s="29" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
       <c r="F10" s="27">
         <v>218.0</v>
       </c>
       <c r="G10" s="29" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="H10" s="12">
         <v>117.0</v>
@@ -12099,21 +12159,21 @@
     </row>
     <row r="11">
       <c r="A11" s="29" t="s">
-        <v>636</v>
+        <v>638</v>
       </c>
       <c r="B11" s="29"/>
       <c r="C11" s="29"/>
       <c r="D11" s="29" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
       <c r="E11" s="29" t="s">
-        <v>638</v>
+        <v>640</v>
       </c>
       <c r="F11" s="27">
         <v>219.0</v>
       </c>
       <c r="G11" s="29" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="H11" s="12">
         <v>117.0</v>
@@ -12121,21 +12181,21 @@
     </row>
     <row r="12">
       <c r="A12" s="29" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
       <c r="B12" s="29"/>
       <c r="C12" s="29"/>
       <c r="D12" s="29" t="s">
-        <v>640</v>
+        <v>642</v>
       </c>
       <c r="E12" s="29" t="s">
-        <v>641</v>
+        <v>643</v>
       </c>
       <c r="F12" s="37">
         <v>220.0</v>
       </c>
       <c r="G12" s="29" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="H12" s="12">
         <v>117.0</v>
@@ -12143,21 +12203,21 @@
     </row>
     <row r="13">
       <c r="A13" s="29" t="s">
-        <v>642</v>
+        <v>644</v>
       </c>
       <c r="B13" s="29"/>
       <c r="C13" s="29"/>
       <c r="D13" s="29" t="s">
-        <v>643</v>
+        <v>645</v>
       </c>
       <c r="E13" s="29" t="s">
-        <v>644</v>
+        <v>646</v>
       </c>
       <c r="F13" s="27">
         <v>230.0</v>
       </c>
       <c r="G13" s="29" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="H13" s="12">
         <v>117.0</v>
@@ -12165,21 +12225,21 @@
     </row>
     <row r="14">
       <c r="A14" s="29" t="s">
-        <v>645</v>
+        <v>647</v>
       </c>
       <c r="B14" s="29"/>
       <c r="C14" s="29"/>
       <c r="D14" s="29" t="s">
-        <v>646</v>
+        <v>648</v>
       </c>
       <c r="E14" s="29" t="s">
-        <v>647</v>
+        <v>649</v>
       </c>
       <c r="F14" s="27">
         <v>231.0</v>
       </c>
       <c r="G14" s="29" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="H14" s="12">
         <v>117.0</v>
@@ -12187,21 +12247,21 @@
     </row>
     <row r="15">
       <c r="A15" s="29" t="s">
-        <v>648</v>
+        <v>650</v>
       </c>
       <c r="B15" s="29"/>
       <c r="C15" s="29"/>
       <c r="D15" s="29" t="s">
-        <v>649</v>
+        <v>651</v>
       </c>
       <c r="E15" s="29" t="s">
-        <v>650</v>
+        <v>652</v>
       </c>
       <c r="F15" s="27">
         <v>232.0</v>
       </c>
       <c r="G15" s="29" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="H15" s="12">
         <v>117.0</v>
@@ -12209,21 +12269,21 @@
     </row>
     <row r="16">
       <c r="A16" s="29" t="s">
-        <v>651</v>
+        <v>653</v>
       </c>
       <c r="B16" s="29"/>
       <c r="C16" s="29"/>
       <c r="D16" s="29" t="s">
-        <v>652</v>
+        <v>654</v>
       </c>
       <c r="E16" s="29" t="s">
-        <v>653</v>
+        <v>655</v>
       </c>
       <c r="F16" s="27">
         <v>233.0</v>
       </c>
       <c r="G16" s="29" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="H16" s="12">
         <v>117.0</v>
@@ -12231,21 +12291,21 @@
     </row>
     <row r="17">
       <c r="A17" s="29" t="s">
-        <v>654</v>
+        <v>656</v>
       </c>
       <c r="B17" s="29"/>
       <c r="C17" s="29"/>
       <c r="D17" s="29" t="s">
-        <v>655</v>
+        <v>657</v>
       </c>
       <c r="E17" s="29" t="s">
-        <v>656</v>
+        <v>658</v>
       </c>
       <c r="F17" s="27">
         <v>234.0</v>
       </c>
       <c r="G17" s="29" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="H17" s="12">
         <v>117.0</v>
@@ -12253,21 +12313,21 @@
     </row>
     <row r="18">
       <c r="A18" s="29" t="s">
-        <v>657</v>
+        <v>659</v>
       </c>
       <c r="B18" s="29"/>
       <c r="C18" s="29"/>
       <c r="D18" s="29" t="s">
-        <v>658</v>
+        <v>660</v>
       </c>
       <c r="E18" s="29" t="s">
-        <v>659</v>
+        <v>661</v>
       </c>
       <c r="F18" s="27">
         <v>235.0</v>
       </c>
       <c r="G18" s="29" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="H18" s="12">
         <v>117.0</v>
@@ -12275,21 +12335,21 @@
     </row>
     <row r="19">
       <c r="A19" s="29" t="s">
-        <v>660</v>
+        <v>662</v>
       </c>
       <c r="B19" s="29"/>
       <c r="C19" s="29"/>
       <c r="D19" s="29" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="E19" s="29" t="s">
-        <v>662</v>
+        <v>664</v>
       </c>
       <c r="F19" s="27">
         <v>236.0</v>
       </c>
       <c r="G19" s="29" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="H19" s="12">
         <v>117.0</v>
@@ -12297,21 +12357,21 @@
     </row>
     <row r="20">
       <c r="A20" s="29" t="s">
-        <v>663</v>
+        <v>665</v>
       </c>
       <c r="B20" s="29"/>
       <c r="C20" s="29"/>
       <c r="D20" s="29" t="s">
-        <v>664</v>
+        <v>666</v>
       </c>
       <c r="E20" s="29" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="F20" s="27">
         <v>237.0</v>
       </c>
       <c r="G20" s="29" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="H20" s="12">
         <v>117.0</v>
@@ -12319,21 +12379,21 @@
     </row>
     <row r="21">
       <c r="A21" s="29" t="s">
-        <v>666</v>
+        <v>668</v>
       </c>
       <c r="B21" s="29"/>
       <c r="C21" s="29"/>
       <c r="D21" s="29" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
       <c r="E21" s="29" t="s">
-        <v>668</v>
+        <v>670</v>
       </c>
       <c r="F21" s="27">
         <v>238.0</v>
       </c>
       <c r="G21" s="29" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="H21" s="12">
         <v>117.0</v>
@@ -12341,21 +12401,21 @@
     </row>
     <row r="22">
       <c r="A22" s="29" t="s">
-        <v>669</v>
+        <v>671</v>
       </c>
       <c r="B22" s="29"/>
       <c r="C22" s="29"/>
       <c r="D22" s="29" t="s">
-        <v>670</v>
+        <v>672</v>
       </c>
       <c r="E22" s="29" t="s">
-        <v>671</v>
+        <v>673</v>
       </c>
       <c r="F22" s="27">
         <v>239.0</v>
       </c>
       <c r="G22" s="29" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="H22" s="12">
         <v>117.0</v>
@@ -12363,21 +12423,21 @@
     </row>
     <row r="23">
       <c r="A23" s="29" t="s">
-        <v>672</v>
+        <v>674</v>
       </c>
       <c r="B23" s="29"/>
       <c r="C23" s="29"/>
       <c r="D23" s="29" t="s">
-        <v>673</v>
+        <v>675</v>
       </c>
       <c r="E23" s="29" t="s">
-        <v>674</v>
+        <v>676</v>
       </c>
       <c r="F23" s="27">
         <v>240.0</v>
       </c>
       <c r="G23" s="29" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="H23" s="12">
         <v>117.0</v>
@@ -12385,21 +12445,21 @@
     </row>
     <row r="24">
       <c r="A24" s="29" t="s">
-        <v>675</v>
+        <v>677</v>
       </c>
       <c r="B24" s="29"/>
       <c r="C24" s="29"/>
       <c r="D24" s="29" t="s">
-        <v>676</v>
+        <v>678</v>
       </c>
       <c r="E24" s="29" t="s">
-        <v>677</v>
+        <v>679</v>
       </c>
       <c r="F24" s="27">
         <v>241.0</v>
       </c>
       <c r="G24" s="29" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="H24" s="12">
         <v>117.0</v>
@@ -12407,64 +12467,64 @@
     </row>
     <row r="25">
       <c r="A25" s="48" t="s">
-        <v>678</v>
+        <v>680</v>
       </c>
       <c r="B25" s="29"/>
       <c r="C25" s="29"/>
-      <c r="D25" s="67" t="s">
+      <c r="D25" s="68" t="s">
         <v>340</v>
       </c>
-      <c r="E25" s="67" t="s">
+      <c r="E25" s="68" t="s">
         <v>433</v>
       </c>
       <c r="F25" s="28" t="s">
         <v>58</v>
       </c>
       <c r="G25" s="29"/>
-      <c r="H25" s="70"/>
+      <c r="H25" s="71"/>
       <c r="I25" s="29"/>
     </row>
     <row r="26">
       <c r="A26" s="48" t="s">
-        <v>679</v>
+        <v>681</v>
       </c>
       <c r="B26" s="29"/>
       <c r="C26" s="29"/>
-      <c r="D26" s="67" t="s">
+      <c r="D26" s="68" t="s">
         <v>343</v>
       </c>
-      <c r="E26" s="67" t="s">
+      <c r="E26" s="68" t="s">
         <v>437</v>
       </c>
       <c r="F26" s="28" t="s">
         <v>265</v>
       </c>
       <c r="G26" s="29"/>
-      <c r="H26" s="70"/>
+      <c r="H26" s="71"/>
       <c r="I26" s="29"/>
     </row>
     <row r="27">
       <c r="A27" s="48" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="B27" s="29"/>
       <c r="C27" s="29"/>
-      <c r="D27" s="67" t="s">
+      <c r="D27" s="68" t="s">
         <v>346</v>
       </c>
-      <c r="E27" s="67" t="s">
+      <c r="E27" s="68" t="s">
         <v>441</v>
       </c>
       <c r="F27" s="28" t="s">
         <v>268</v>
       </c>
       <c r="G27" s="29"/>
-      <c r="H27" s="70"/>
+      <c r="H27" s="71"/>
       <c r="I27" s="29"/>
     </row>
     <row r="28">
       <c r="A28" s="48" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="B28" s="29"/>
       <c r="C28" s="29"/>
@@ -12478,12 +12538,12 @@
         <v>252</v>
       </c>
       <c r="G28" s="29"/>
-      <c r="H28" s="70"/>
+      <c r="H28" s="71"/>
       <c r="I28" s="29"/>
     </row>
     <row r="29">
       <c r="A29" s="48" t="s">
-        <v>682</v>
+        <v>684</v>
       </c>
       <c r="B29" s="29"/>
       <c r="C29" s="29"/>
@@ -12497,12 +12557,12 @@
         <v>255</v>
       </c>
       <c r="G29" s="29"/>
-      <c r="H29" s="70"/>
+      <c r="H29" s="71"/>
       <c r="I29" s="29"/>
     </row>
     <row r="30">
       <c r="A30" s="48" t="s">
-        <v>683</v>
+        <v>685</v>
       </c>
       <c r="B30" s="29"/>
       <c r="C30" s="29"/>
@@ -12516,12 +12576,12 @@
         <v>244</v>
       </c>
       <c r="G30" s="29"/>
-      <c r="H30" s="70"/>
+      <c r="H30" s="71"/>
       <c r="I30" s="29"/>
     </row>
     <row r="31">
       <c r="A31" s="48" t="s">
-        <v>684</v>
+        <v>686</v>
       </c>
       <c r="B31" s="29"/>
       <c r="C31" s="29"/>
@@ -12535,12 +12595,12 @@
         <v>249</v>
       </c>
       <c r="G31" s="29"/>
-      <c r="H31" s="70"/>
+      <c r="H31" s="71"/>
       <c r="I31" s="29"/>
     </row>
     <row r="32">
       <c r="A32" s="48" t="s">
-        <v>685</v>
+        <v>687</v>
       </c>
       <c r="B32" s="29"/>
       <c r="C32" s="29"/>
@@ -12554,12 +12614,12 @@
         <v>279</v>
       </c>
       <c r="G32" s="29"/>
-      <c r="H32" s="70"/>
+      <c r="H32" s="71"/>
       <c r="I32" s="29"/>
     </row>
     <row r="33">
       <c r="A33" s="48" t="s">
-        <v>686</v>
+        <v>688</v>
       </c>
       <c r="B33" s="29"/>
       <c r="C33" s="29"/>
@@ -12573,12 +12633,12 @@
         <v>282</v>
       </c>
       <c r="G33" s="29"/>
-      <c r="H33" s="70"/>
+      <c r="H33" s="71"/>
       <c r="I33" s="29"/>
     </row>
     <row r="34">
       <c r="A34" s="48" t="s">
-        <v>687</v>
+        <v>689</v>
       </c>
       <c r="B34" s="29"/>
       <c r="C34" s="29"/>
@@ -12592,12 +12652,12 @@
         <v>285</v>
       </c>
       <c r="G34" s="29"/>
-      <c r="H34" s="70"/>
+      <c r="H34" s="71"/>
       <c r="I34" s="29"/>
     </row>
     <row r="35">
       <c r="A35" s="48" t="s">
-        <v>688</v>
+        <v>690</v>
       </c>
       <c r="B35" s="29"/>
       <c r="C35" s="29"/>
@@ -12611,12 +12671,12 @@
         <v>288</v>
       </c>
       <c r="G35" s="29"/>
-      <c r="H35" s="70"/>
+      <c r="H35" s="71"/>
       <c r="I35" s="29"/>
     </row>
     <row r="36">
       <c r="A36" s="48" t="s">
-        <v>689</v>
+        <v>691</v>
       </c>
       <c r="B36" s="29"/>
       <c r="C36" s="29"/>
@@ -12630,12 +12690,12 @@
         <v>291</v>
       </c>
       <c r="G36" s="29"/>
-      <c r="H36" s="70"/>
+      <c r="H36" s="71"/>
       <c r="I36" s="29"/>
     </row>
     <row r="37">
       <c r="A37" s="48" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="B37" s="29"/>
       <c r="C37" s="29"/>
@@ -12649,12 +12709,12 @@
         <v>294</v>
       </c>
       <c r="G37" s="29"/>
-      <c r="H37" s="70"/>
+      <c r="H37" s="71"/>
       <c r="I37" s="29"/>
     </row>
     <row r="38">
       <c r="A38" s="48" t="s">
-        <v>691</v>
+        <v>693</v>
       </c>
       <c r="B38" s="29"/>
       <c r="C38" s="29"/>
@@ -12668,12 +12728,12 @@
         <v>296</v>
       </c>
       <c r="G38" s="29"/>
-      <c r="H38" s="70"/>
+      <c r="H38" s="71"/>
       <c r="I38" s="29"/>
     </row>
     <row r="39">
       <c r="A39" s="48" t="s">
-        <v>692</v>
+        <v>694</v>
       </c>
       <c r="B39" s="29"/>
       <c r="C39" s="29"/>
@@ -12687,12 +12747,12 @@
         <v>298</v>
       </c>
       <c r="G39" s="29"/>
-      <c r="H39" s="70"/>
+      <c r="H39" s="71"/>
       <c r="I39" s="29"/>
     </row>
     <row r="40">
       <c r="A40" s="48" t="s">
-        <v>693</v>
+        <v>695</v>
       </c>
       <c r="B40" s="29"/>
       <c r="C40" s="29"/>
@@ -12706,12 +12766,12 @@
         <v>300</v>
       </c>
       <c r="G40" s="29"/>
-      <c r="H40" s="70"/>
+      <c r="H40" s="71"/>
       <c r="I40" s="29"/>
     </row>
     <row r="41">
       <c r="A41" s="48" t="s">
-        <v>694</v>
+        <v>696</v>
       </c>
       <c r="B41" s="29"/>
       <c r="C41" s="29"/>
@@ -12725,12 +12785,12 @@
         <v>302</v>
       </c>
       <c r="G41" s="29"/>
-      <c r="H41" s="70"/>
+      <c r="H41" s="71"/>
       <c r="I41" s="29"/>
     </row>
     <row r="42">
       <c r="A42" s="48" t="s">
-        <v>695</v>
+        <v>697</v>
       </c>
       <c r="B42" s="29"/>
       <c r="C42" s="29"/>
@@ -12744,12 +12804,12 @@
         <v>304</v>
       </c>
       <c r="G42" s="29"/>
-      <c r="H42" s="70"/>
+      <c r="H42" s="71"/>
       <c r="I42" s="29"/>
     </row>
     <row r="43">
       <c r="A43" s="48" t="s">
-        <v>696</v>
+        <v>698</v>
       </c>
       <c r="B43" s="29"/>
       <c r="C43" s="29"/>
@@ -12763,12 +12823,12 @@
         <v>306</v>
       </c>
       <c r="G43" s="29"/>
-      <c r="H43" s="70"/>
+      <c r="H43" s="71"/>
       <c r="I43" s="29"/>
     </row>
     <row r="44">
       <c r="A44" s="48" t="s">
-        <v>697</v>
+        <v>699</v>
       </c>
       <c r="B44" s="29"/>
       <c r="C44" s="29"/>
@@ -12782,12 +12842,12 @@
         <v>308</v>
       </c>
       <c r="G44" s="29"/>
-      <c r="H44" s="70"/>
+      <c r="H44" s="71"/>
       <c r="I44" s="29"/>
     </row>
     <row r="45">
       <c r="A45" s="48" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
       <c r="B45" s="29"/>
       <c r="C45" s="29"/>
@@ -12801,12 +12861,12 @@
         <v>310</v>
       </c>
       <c r="G45" s="29"/>
-      <c r="H45" s="70"/>
+      <c r="H45" s="71"/>
       <c r="I45" s="29"/>
     </row>
     <row r="46">
       <c r="A46" s="48" t="s">
-        <v>699</v>
+        <v>701</v>
       </c>
       <c r="B46" s="29"/>
       <c r="C46" s="29"/>
@@ -12820,12 +12880,12 @@
         <v>312</v>
       </c>
       <c r="G46" s="29"/>
-      <c r="H46" s="70"/>
+      <c r="H46" s="71"/>
       <c r="I46" s="29"/>
     </row>
     <row r="47">
       <c r="A47" s="48" t="s">
-        <v>700</v>
+        <v>702</v>
       </c>
       <c r="B47" s="29"/>
       <c r="C47" s="29"/>
@@ -12839,12 +12899,12 @@
         <v>314</v>
       </c>
       <c r="G47" s="29"/>
-      <c r="H47" s="70"/>
+      <c r="H47" s="71"/>
       <c r="I47" s="29"/>
     </row>
     <row r="48">
       <c r="A48" s="48" t="s">
-        <v>701</v>
+        <v>703</v>
       </c>
       <c r="B48" s="29"/>
       <c r="C48" s="29"/>
@@ -12858,12 +12918,12 @@
         <v>316</v>
       </c>
       <c r="G48" s="29"/>
-      <c r="H48" s="70"/>
+      <c r="H48" s="71"/>
       <c r="I48" s="29"/>
     </row>
     <row r="49">
       <c r="A49" s="48" t="s">
-        <v>702</v>
+        <v>704</v>
       </c>
       <c r="B49" s="29"/>
       <c r="C49" s="29"/>
@@ -12877,12 +12937,12 @@
         <v>318</v>
       </c>
       <c r="G49" s="29"/>
-      <c r="H49" s="70"/>
+      <c r="H49" s="71"/>
       <c r="I49" s="29"/>
     </row>
     <row r="50">
       <c r="A50" s="48" t="s">
-        <v>703</v>
+        <v>705</v>
       </c>
       <c r="B50" s="29"/>
       <c r="C50" s="29"/>
@@ -12896,12 +12956,12 @@
         <v>320</v>
       </c>
       <c r="G50" s="29"/>
-      <c r="H50" s="70"/>
+      <c r="H50" s="71"/>
       <c r="I50" s="29"/>
     </row>
     <row r="51">
       <c r="A51" s="48" t="s">
-        <v>704</v>
+        <v>706</v>
       </c>
       <c r="B51" s="29"/>
       <c r="C51" s="29"/>
@@ -12915,12 +12975,12 @@
         <v>322</v>
       </c>
       <c r="G51" s="29"/>
-      <c r="H51" s="70"/>
+      <c r="H51" s="71"/>
       <c r="I51" s="29"/>
     </row>
     <row r="52">
       <c r="A52" s="48" t="s">
-        <v>705</v>
+        <v>707</v>
       </c>
       <c r="B52" s="29"/>
       <c r="C52" s="29"/>
@@ -12934,12 +12994,12 @@
         <v>324</v>
       </c>
       <c r="G52" s="29"/>
-      <c r="H52" s="70"/>
+      <c r="H52" s="71"/>
       <c r="I52" s="29"/>
     </row>
     <row r="53">
       <c r="A53" s="48" t="s">
-        <v>706</v>
+        <v>708</v>
       </c>
       <c r="B53" s="29"/>
       <c r="C53" s="29"/>
@@ -12953,7 +13013,7 @@
         <v>326</v>
       </c>
       <c r="G53" s="29"/>
-      <c r="H53" s="70"/>
+      <c r="H53" s="71"/>
       <c r="I53" s="29"/>
     </row>
   </sheetData>
@@ -12979,8 +13039,10 @@
     <col customWidth="1" min="2" max="2" width="54.13"/>
     <col customWidth="1" min="3" max="3" width="19.5"/>
     <col customWidth="1" min="4" max="4" width="57.25"/>
-    <col customWidth="1" min="5" max="5" width="41.0"/>
-    <col customWidth="1" min="6" max="6" width="56.38"/>
+    <col customWidth="1" hidden="1" min="5" max="5" width="41.0"/>
+    <col customWidth="1" hidden="1" min="6" max="6" width="56.38"/>
+    <col hidden="1" min="7" max="9" width="12.63"/>
+    <col customWidth="1" min="10" max="10" width="48.75"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -12994,71 +13056,71 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>707</v>
+        <v>709</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>708</v>
+        <v>710</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>709</v>
+        <v>711</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>710</v>
-      </c>
-      <c r="H1" s="84" t="s">
-        <v>711</v>
+        <v>712</v>
+      </c>
+      <c r="H1" s="87" t="s">
+        <v>713</v>
       </c>
       <c r="I1" s="6" t="s">
-        <v>712</v>
+        <v>714</v>
       </c>
       <c r="J1" s="8" t="s">
-        <v>713</v>
+        <v>715</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="85" t="s">
-        <v>714</v>
-      </c>
-      <c r="B2" s="85" t="s">
-        <v>715</v>
-      </c>
-      <c r="C2" s="86"/>
-      <c r="D2" s="87"/>
-      <c r="E2" s="85" t="s">
+      <c r="A2" s="88" t="s">
         <v>716</v>
       </c>
+      <c r="B2" s="88" t="s">
+        <v>717</v>
+      </c>
+      <c r="C2" s="89"/>
+      <c r="D2" s="90"/>
+      <c r="E2" s="88" t="s">
+        <v>718</v>
+      </c>
       <c r="F2" s="22" t="s">
-        <v>717</v>
+        <v>719</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="85" t="s">
-        <v>718</v>
-      </c>
-      <c r="B3" s="85" t="s">
-        <v>719</v>
-      </c>
-      <c r="C3" s="86"/>
-      <c r="D3" s="85" t="s">
+      <c r="A3" s="88" t="s">
         <v>720</v>
       </c>
-      <c r="E3" s="85"/>
+      <c r="B3" s="88" t="s">
+        <v>721</v>
+      </c>
+      <c r="C3" s="89"/>
+      <c r="D3" s="88" t="s">
+        <v>722</v>
+      </c>
+      <c r="E3" s="88"/>
       <c r="F3" s="22"/>
     </row>
     <row r="4">
-      <c r="A4" s="70" t="s">
-        <v>721</v>
-      </c>
-      <c r="B4" s="70" t="s">
-        <v>722</v>
-      </c>
-      <c r="C4" s="88"/>
-      <c r="D4" s="70"/>
-      <c r="E4" s="70" t="s">
+      <c r="A4" s="71" t="s">
         <v>723</v>
       </c>
-      <c r="F4" s="70" t="s">
+      <c r="B4" s="71" t="s">
         <v>724</v>
+      </c>
+      <c r="C4" s="91"/>
+      <c r="D4" s="71"/>
+      <c r="E4" s="71" t="s">
+        <v>725</v>
+      </c>
+      <c r="F4" s="71" t="s">
+        <v>726</v>
       </c>
       <c r="G4" s="29"/>
       <c r="H4" s="29"/>
@@ -13070,37 +13132,39 @@
         <v>264</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>725</v>
+        <v>727</v>
       </c>
       <c r="C5" s="22" t="s">
-        <v>726</v>
-      </c>
-      <c r="D5" s="70"/>
-      <c r="E5" s="70"/>
-      <c r="F5" s="70"/>
+        <v>728</v>
+      </c>
+      <c r="D5" s="71"/>
+      <c r="E5" s="71"/>
+      <c r="F5" s="71"/>
       <c r="G5" s="29"/>
       <c r="H5" s="29"/>
       <c r="I5" s="29"/>
-      <c r="J5" s="89"/>
+      <c r="J5" s="92" t="s">
+        <v>729</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="22" t="s">
         <v>267</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>727</v>
+        <v>730</v>
       </c>
       <c r="C6" s="22" t="s">
-        <v>728</v>
-      </c>
-      <c r="D6" s="70"/>
-      <c r="E6" s="70"/>
-      <c r="F6" s="70"/>
+        <v>731</v>
+      </c>
+      <c r="D6" s="71"/>
+      <c r="E6" s="71"/>
+      <c r="F6" s="71"/>
       <c r="G6" s="29"/>
       <c r="H6" s="29"/>
       <c r="I6" s="29"/>
       <c r="J6" s="22" t="s">
-        <v>729</v>
+        <v>732</v>
       </c>
     </row>
     <row r="7">
@@ -13108,19 +13172,19 @@
         <v>270</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>730</v>
+        <v>733</v>
       </c>
       <c r="C7" s="22" t="s">
-        <v>731</v>
-      </c>
-      <c r="D7" s="70"/>
-      <c r="E7" s="70"/>
-      <c r="F7" s="70"/>
+        <v>734</v>
+      </c>
+      <c r="D7" s="71"/>
+      <c r="E7" s="71"/>
+      <c r="F7" s="71"/>
       <c r="G7" s="29"/>
       <c r="H7" s="29"/>
       <c r="I7" s="29"/>
       <c r="J7" s="22" t="s">
-        <v>729</v>
+        <v>732</v>
       </c>
     </row>
     <row r="8">
@@ -13128,19 +13192,19 @@
         <v>272</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>732</v>
+        <v>735</v>
       </c>
       <c r="C8" s="22" t="s">
-        <v>733</v>
-      </c>
-      <c r="D8" s="70"/>
-      <c r="E8" s="70"/>
-      <c r="F8" s="70"/>
+        <v>736</v>
+      </c>
+      <c r="D8" s="71"/>
+      <c r="E8" s="71"/>
+      <c r="F8" s="71"/>
       <c r="G8" s="29"/>
       <c r="H8" s="29"/>
       <c r="I8" s="29"/>
       <c r="J8" s="22" t="s">
-        <v>729</v>
+        <v>737</v>
       </c>
     </row>
     <row r="9">
@@ -13148,19 +13212,19 @@
         <v>274</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>734</v>
+        <v>738</v>
       </c>
       <c r="C9" s="22" t="s">
-        <v>735</v>
-      </c>
-      <c r="D9" s="70"/>
-      <c r="E9" s="70"/>
-      <c r="F9" s="70"/>
+        <v>739</v>
+      </c>
+      <c r="D9" s="71"/>
+      <c r="E9" s="71"/>
+      <c r="F9" s="71"/>
       <c r="G9" s="29"/>
       <c r="H9" s="29"/>
       <c r="I9" s="29"/>
       <c r="J9" s="22" t="s">
-        <v>729</v>
+        <v>737</v>
       </c>
     </row>
     <row r="10">
@@ -13168,19 +13232,19 @@
         <v>276</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>736</v>
+        <v>740</v>
       </c>
       <c r="C10" s="22" t="s">
-        <v>737</v>
-      </c>
-      <c r="D10" s="70"/>
-      <c r="E10" s="70"/>
-      <c r="F10" s="70"/>
+        <v>741</v>
+      </c>
+      <c r="D10" s="71"/>
+      <c r="E10" s="71"/>
+      <c r="F10" s="71"/>
       <c r="G10" s="29"/>
       <c r="H10" s="29"/>
       <c r="I10" s="29"/>
       <c r="J10" s="22" t="s">
-        <v>738</v>
+        <v>729</v>
       </c>
     </row>
     <row r="11">
@@ -13188,37 +13252,39 @@
         <v>278</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>739</v>
+        <v>742</v>
       </c>
       <c r="C11" s="22" t="s">
-        <v>740</v>
-      </c>
-      <c r="D11" s="70"/>
-      <c r="E11" s="70"/>
-      <c r="F11" s="70"/>
+        <v>743</v>
+      </c>
+      <c r="D11" s="71"/>
+      <c r="E11" s="71"/>
+      <c r="F11" s="71"/>
       <c r="G11" s="29"/>
       <c r="H11" s="29"/>
       <c r="I11" s="29"/>
-      <c r="J11" s="29"/>
+      <c r="J11" s="22" t="s">
+        <v>729</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="22" t="s">
         <v>281</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>741</v>
+        <v>744</v>
       </c>
       <c r="C12" s="22" t="s">
-        <v>742</v>
-      </c>
-      <c r="D12" s="70"/>
-      <c r="E12" s="70"/>
-      <c r="F12" s="70"/>
+        <v>745</v>
+      </c>
+      <c r="D12" s="71"/>
+      <c r="E12" s="71"/>
+      <c r="F12" s="71"/>
       <c r="G12" s="29"/>
       <c r="H12" s="29"/>
       <c r="I12" s="29"/>
       <c r="J12" s="22" t="s">
-        <v>743</v>
+        <v>746</v>
       </c>
     </row>
     <row r="13">
@@ -13226,19 +13292,19 @@
         <v>284</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>744</v>
+        <v>747</v>
       </c>
       <c r="C13" s="22" t="s">
-        <v>745</v>
-      </c>
-      <c r="D13" s="70"/>
-      <c r="E13" s="70"/>
-      <c r="F13" s="70"/>
+        <v>748</v>
+      </c>
+      <c r="D13" s="71"/>
+      <c r="E13" s="71"/>
+      <c r="F13" s="71"/>
       <c r="G13" s="29"/>
       <c r="H13" s="29"/>
       <c r="I13" s="29"/>
       <c r="J13" s="22" t="s">
-        <v>743</v>
+        <v>746</v>
       </c>
     </row>
     <row r="14">
@@ -13246,19 +13312,19 @@
         <v>287</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>746</v>
+        <v>749</v>
       </c>
       <c r="C14" s="22" t="s">
-        <v>747</v>
-      </c>
-      <c r="D14" s="70"/>
-      <c r="E14" s="70"/>
-      <c r="F14" s="70"/>
+        <v>750</v>
+      </c>
+      <c r="D14" s="71"/>
+      <c r="E14" s="71"/>
+      <c r="F14" s="71"/>
       <c r="G14" s="29"/>
       <c r="H14" s="29"/>
       <c r="I14" s="29"/>
       <c r="J14" s="22" t="s">
-        <v>743</v>
+        <v>746</v>
       </c>
     </row>
     <row r="15">
@@ -13266,19 +13332,19 @@
         <v>290</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>748</v>
+        <v>751</v>
       </c>
       <c r="C15" s="22" t="s">
-        <v>749</v>
-      </c>
-      <c r="D15" s="70"/>
-      <c r="E15" s="70"/>
-      <c r="F15" s="70"/>
+        <v>752</v>
+      </c>
+      <c r="D15" s="71"/>
+      <c r="E15" s="71"/>
+      <c r="F15" s="71"/>
       <c r="G15" s="29"/>
       <c r="H15" s="29"/>
       <c r="I15" s="29"/>
-      <c r="J15" s="90" t="s">
-        <v>750</v>
+      <c r="J15" s="22" t="s">
+        <v>746</v>
       </c>
     </row>
     <row r="16">
@@ -13286,19 +13352,19 @@
         <v>293</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>751</v>
+        <v>753</v>
       </c>
       <c r="C16" s="22" t="s">
-        <v>752</v>
-      </c>
-      <c r="D16" s="70"/>
-      <c r="E16" s="70"/>
-      <c r="F16" s="70"/>
+        <v>754</v>
+      </c>
+      <c r="D16" s="71"/>
+      <c r="E16" s="71"/>
+      <c r="F16" s="71"/>
       <c r="G16" s="29"/>
       <c r="H16" s="29"/>
       <c r="I16" s="29"/>
-      <c r="J16" s="90" t="s">
-        <v>750</v>
+      <c r="J16" s="22" t="s">
+        <v>746</v>
       </c>
     </row>
     <row r="17">
@@ -13310,16 +13376,16 @@
         <v>Neuron 13 in SCG (1) (bolew)</v>
       </c>
       <c r="C17" s="22" t="s">
-        <v>753</v>
-      </c>
-      <c r="D17" s="70"/>
-      <c r="E17" s="70"/>
-      <c r="F17" s="70"/>
+        <v>755</v>
+      </c>
+      <c r="D17" s="71"/>
+      <c r="E17" s="71"/>
+      <c r="F17" s="71"/>
       <c r="G17" s="29"/>
       <c r="H17" s="29"/>
       <c r="I17" s="29"/>
       <c r="J17" s="22" t="s">
-        <v>754</v>
+        <v>756</v>
       </c>
     </row>
     <row r="18">
@@ -13331,16 +13397,16 @@
         <v>Neuron 14 in SCG (2) (bolew)</v>
       </c>
       <c r="C18" s="22" t="s">
-        <v>755</v>
-      </c>
-      <c r="D18" s="70"/>
-      <c r="E18" s="70"/>
-      <c r="F18" s="70"/>
+        <v>757</v>
+      </c>
+      <c r="D18" s="71"/>
+      <c r="E18" s="71"/>
+      <c r="F18" s="71"/>
       <c r="G18" s="29"/>
       <c r="H18" s="29"/>
       <c r="I18" s="29"/>
       <c r="J18" s="12" t="s">
-        <v>754</v>
+        <v>756</v>
       </c>
     </row>
     <row r="19">
@@ -13352,16 +13418,16 @@
         <v>Neuron 15 in SCG (3) (bolew)</v>
       </c>
       <c r="C19" s="22" t="s">
-        <v>756</v>
-      </c>
-      <c r="D19" s="70"/>
-      <c r="E19" s="70"/>
-      <c r="F19" s="70"/>
+        <v>758</v>
+      </c>
+      <c r="D19" s="71"/>
+      <c r="E19" s="71"/>
+      <c r="F19" s="71"/>
       <c r="G19" s="29"/>
       <c r="H19" s="29"/>
       <c r="I19" s="29"/>
       <c r="J19" s="22" t="s">
-        <v>754</v>
+        <v>756</v>
       </c>
     </row>
     <row r="20">
@@ -13373,16 +13439,16 @@
         <v>Neuron 16 in SCG (4) (bolew)</v>
       </c>
       <c r="C20" s="22" t="s">
-        <v>757</v>
-      </c>
-      <c r="D20" s="70"/>
-      <c r="E20" s="70"/>
-      <c r="F20" s="70"/>
+        <v>759</v>
+      </c>
+      <c r="D20" s="71"/>
+      <c r="E20" s="71"/>
+      <c r="F20" s="71"/>
       <c r="G20" s="29"/>
       <c r="H20" s="29"/>
       <c r="I20" s="29"/>
       <c r="J20" s="12" t="s">
-        <v>754</v>
+        <v>756</v>
       </c>
     </row>
     <row r="21">
@@ -13394,16 +13460,16 @@
         <v>Neuron 17 in SCG (5) (bolew)</v>
       </c>
       <c r="C21" s="22" t="s">
-        <v>758</v>
-      </c>
-      <c r="D21" s="70"/>
-      <c r="E21" s="70"/>
-      <c r="F21" s="70"/>
+        <v>760</v>
+      </c>
+      <c r="D21" s="71"/>
+      <c r="E21" s="71"/>
+      <c r="F21" s="71"/>
       <c r="G21" s="29"/>
       <c r="H21" s="29"/>
       <c r="I21" s="29"/>
       <c r="J21" s="22" t="s">
-        <v>754</v>
+        <v>756</v>
       </c>
     </row>
     <row r="22">
@@ -13415,16 +13481,16 @@
         <v>Neuron 18 in SCG (6) (bolew)</v>
       </c>
       <c r="C22" s="22" t="s">
-        <v>759</v>
-      </c>
-      <c r="D22" s="70"/>
-      <c r="E22" s="70"/>
-      <c r="F22" s="70"/>
+        <v>761</v>
+      </c>
+      <c r="D22" s="71"/>
+      <c r="E22" s="71"/>
+      <c r="F22" s="71"/>
       <c r="G22" s="29"/>
       <c r="H22" s="29"/>
       <c r="I22" s="29"/>
       <c r="J22" s="12" t="s">
-        <v>754</v>
+        <v>756</v>
       </c>
     </row>
     <row r="23">
@@ -13436,16 +13502,16 @@
         <v>Neuron 19 in SCG (7) (bolew)</v>
       </c>
       <c r="C23" s="22" t="s">
-        <v>760</v>
-      </c>
-      <c r="D23" s="70"/>
-      <c r="E23" s="70"/>
-      <c r="F23" s="70"/>
+        <v>762</v>
+      </c>
+      <c r="D23" s="71"/>
+      <c r="E23" s="71"/>
+      <c r="F23" s="71"/>
       <c r="G23" s="29"/>
       <c r="H23" s="29"/>
       <c r="I23" s="29"/>
       <c r="J23" s="22" t="s">
-        <v>754</v>
+        <v>756</v>
       </c>
     </row>
     <row r="24">
@@ -13457,16 +13523,16 @@
         <v>Neuron 20 in SCG (8) (bolew)</v>
       </c>
       <c r="C24" s="22" t="s">
-        <v>761</v>
-      </c>
-      <c r="D24" s="70"/>
-      <c r="E24" s="70"/>
-      <c r="F24" s="70"/>
+        <v>763</v>
+      </c>
+      <c r="D24" s="71"/>
+      <c r="E24" s="71"/>
+      <c r="F24" s="71"/>
       <c r="G24" s="29"/>
       <c r="H24" s="29"/>
       <c r="I24" s="29"/>
       <c r="J24" s="12" t="s">
-        <v>754</v>
+        <v>756</v>
       </c>
     </row>
     <row r="25">
@@ -13478,16 +13544,16 @@
         <v>Neuron 21 in SCG (9) (bolew)</v>
       </c>
       <c r="C25" s="22" t="s">
-        <v>762</v>
-      </c>
-      <c r="D25" s="70"/>
-      <c r="E25" s="70"/>
-      <c r="F25" s="70"/>
+        <v>764</v>
+      </c>
+      <c r="D25" s="71"/>
+      <c r="E25" s="71"/>
+      <c r="F25" s="71"/>
       <c r="G25" s="29"/>
       <c r="H25" s="29"/>
       <c r="I25" s="29"/>
       <c r="J25" s="22" t="s">
-        <v>754</v>
+        <v>756</v>
       </c>
     </row>
     <row r="26">
@@ -13499,16 +13565,16 @@
         <v>Neuron 22 in SCG (10) (bolew)</v>
       </c>
       <c r="C26" s="22" t="s">
-        <v>763</v>
-      </c>
-      <c r="D26" s="70"/>
-      <c r="E26" s="70"/>
-      <c r="F26" s="70"/>
+        <v>765</v>
+      </c>
+      <c r="D26" s="71"/>
+      <c r="E26" s="71"/>
+      <c r="F26" s="71"/>
       <c r="G26" s="29"/>
       <c r="H26" s="29"/>
       <c r="I26" s="29"/>
       <c r="J26" s="12" t="s">
-        <v>754</v>
+        <v>756</v>
       </c>
     </row>
     <row r="27">
@@ -13520,16 +13586,16 @@
         <v>Neuron 23 in SCG (11) (bolew)</v>
       </c>
       <c r="C27" s="22" t="s">
-        <v>764</v>
-      </c>
-      <c r="D27" s="70"/>
-      <c r="E27" s="70"/>
-      <c r="F27" s="70"/>
+        <v>766</v>
+      </c>
+      <c r="D27" s="71"/>
+      <c r="E27" s="71"/>
+      <c r="F27" s="71"/>
       <c r="G27" s="29"/>
       <c r="H27" s="29"/>
       <c r="I27" s="29"/>
       <c r="J27" s="22" t="s">
-        <v>754</v>
+        <v>756</v>
       </c>
     </row>
     <row r="28">
@@ -13541,16 +13607,16 @@
         <v>Neuron 24 in SCG (12) (bolew)</v>
       </c>
       <c r="C28" s="22" t="s">
-        <v>765</v>
-      </c>
-      <c r="D28" s="70"/>
-      <c r="E28" s="70"/>
-      <c r="F28" s="70"/>
+        <v>767</v>
+      </c>
+      <c r="D28" s="71"/>
+      <c r="E28" s="71"/>
+      <c r="F28" s="71"/>
       <c r="G28" s="29"/>
       <c r="H28" s="29"/>
       <c r="I28" s="29"/>
       <c r="J28" s="12" t="s">
-        <v>754</v>
+        <v>756</v>
       </c>
     </row>
     <row r="29">
@@ -13562,16 +13628,16 @@
         <v>Neuron 25 in SCG (13) (bolew)</v>
       </c>
       <c r="C29" s="22" t="s">
-        <v>766</v>
-      </c>
-      <c r="D29" s="70"/>
-      <c r="E29" s="70"/>
-      <c r="F29" s="70"/>
+        <v>768</v>
+      </c>
+      <c r="D29" s="71"/>
+      <c r="E29" s="71"/>
+      <c r="F29" s="71"/>
       <c r="G29" s="29"/>
       <c r="H29" s="29"/>
       <c r="I29" s="29"/>
       <c r="J29" s="22" t="s">
-        <v>754</v>
+        <v>756</v>
       </c>
     </row>
     <row r="30">
@@ -13583,16 +13649,16 @@
         <v>Neuron 26 in SCG (14) (bolew)</v>
       </c>
       <c r="C30" s="22" t="s">
-        <v>767</v>
-      </c>
-      <c r="D30" s="70"/>
-      <c r="E30" s="70"/>
-      <c r="F30" s="70"/>
+        <v>769</v>
+      </c>
+      <c r="D30" s="71"/>
+      <c r="E30" s="71"/>
+      <c r="F30" s="71"/>
       <c r="G30" s="29"/>
       <c r="H30" s="29"/>
       <c r="I30" s="29"/>
       <c r="J30" s="12" t="s">
-        <v>754</v>
+        <v>756</v>
       </c>
     </row>
     <row r="31">
@@ -13604,16 +13670,16 @@
         <v>Neuron 27 in SCG (15) (bolew)</v>
       </c>
       <c r="C31" s="22" t="s">
-        <v>768</v>
-      </c>
-      <c r="D31" s="70"/>
-      <c r="E31" s="70"/>
-      <c r="F31" s="70"/>
+        <v>770</v>
+      </c>
+      <c r="D31" s="71"/>
+      <c r="E31" s="71"/>
+      <c r="F31" s="71"/>
       <c r="G31" s="29"/>
       <c r="H31" s="29"/>
       <c r="I31" s="29"/>
       <c r="J31" s="22" t="s">
-        <v>754</v>
+        <v>756</v>
       </c>
     </row>
     <row r="32">
@@ -13625,16 +13691,16 @@
         <v>Neuron 28 in SCG (16) (bolew)</v>
       </c>
       <c r="C32" s="22" t="s">
-        <v>769</v>
-      </c>
-      <c r="D32" s="70"/>
-      <c r="E32" s="70"/>
-      <c r="F32" s="70"/>
+        <v>771</v>
+      </c>
+      <c r="D32" s="71"/>
+      <c r="E32" s="71"/>
+      <c r="F32" s="71"/>
       <c r="G32" s="29"/>
       <c r="H32" s="29"/>
       <c r="I32" s="29"/>
       <c r="J32" s="12" t="s">
-        <v>754</v>
+        <v>756</v>
       </c>
     </row>
     <row r="33">
@@ -13646,16 +13712,16 @@
         <v>Neuron 29 in SCG (17) (bolew)</v>
       </c>
       <c r="C33" s="22" t="s">
-        <v>770</v>
-      </c>
-      <c r="D33" s="70"/>
-      <c r="E33" s="70"/>
-      <c r="F33" s="70"/>
+        <v>772</v>
+      </c>
+      <c r="D33" s="71"/>
+      <c r="E33" s="71"/>
+      <c r="F33" s="71"/>
       <c r="G33" s="29"/>
       <c r="H33" s="29"/>
       <c r="I33" s="29"/>
       <c r="J33" s="22" t="s">
-        <v>754</v>
+        <v>756</v>
       </c>
     </row>
   </sheetData>
@@ -13683,24 +13749,24 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>771</v>
+        <v>773</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>772</v>
+        <v>774</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>773</v>
+        <v>775</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="91" t="s">
-        <v>774</v>
+      <c r="A2" s="93" t="s">
+        <v>776</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>775</v>
+        <v>777</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>776</v>
+        <v>778</v>
       </c>
     </row>
   </sheetData>

--- a/models/bolser-lewis/source/bolser-lewis.xlsx
+++ b/models/bolser-lewis/source/bolser-lewis.xlsx
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1658" uniqueCount="1271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1658" uniqueCount="1269">
   <si>
     <t>id</t>
   </si>
@@ -585,10 +585,10 @@
     <t>Nerve sheath</t>
   </si>
   <si>
-    <t>ILX:0776616</t>
-  </si>
-  <si>
-    <t>External carotid nerve</t>
+    <t>ILX:0793621</t>
+  </si>
+  <si>
+    <t>External carotid nerve plexus</t>
   </si>
   <si>
     <t>ILX:0738293</t>
@@ -600,7 +600,7 @@
     <t>UBERON:0002024</t>
   </si>
   <si>
-    <t>Internal carotid nerve</t>
+    <t>Internal carotid nerve plexus</t>
   </si>
   <si>
     <t>UBERON:0001884</t>
@@ -1851,13 +1851,10 @@
     <t>UBERON:0001017</t>
   </si>
   <si>
-    <t>FMA:64182</t>
-  </si>
-  <si>
     <t>Wall of trachea</t>
   </si>
   <si>
-    <t>FMA:7470</t>
+    <t>ILX:0793684</t>
   </si>
   <si>
     <t>Wall of artery</t>
@@ -1872,19 +1869,16 @@
     <t>UBERON:0002384</t>
   </si>
   <si>
-    <t>FMA:54807</t>
-  </si>
-  <si>
     <t>Muscle of tongue</t>
   </si>
   <si>
-    <t>FMA:4668</t>
+    <t>UBERON:0000378</t>
   </si>
   <si>
     <t>Cartilage of epiglottis</t>
   </si>
   <si>
-    <t>FMA:55112</t>
+    <t>UBERON:0001742</t>
   </si>
   <si>
     <t>Extracellular fluid</t>
@@ -2271,7 +2265,7 @@
     <t>ilxtr:neuron-type-bolew-unbranched-2</t>
   </si>
   <si>
-    <t>preganglionic sympathetic neuron</t>
+    <t>pre-ganglionic sympathetic neuron</t>
   </si>
   <si>
     <t>Neuron 3 in T1 Rexed Lamina VII (intercostal projecting) (bolew)</t>
@@ -2286,7 +2280,7 @@
     <t>ilxtr:neuron-type-bolew-unbranched-4</t>
   </si>
   <si>
-    <t>motor neurons</t>
+    <t>motor neuron</t>
   </si>
   <si>
     <t>Neuron 5 in phrenic nucleus of C5 (bolew)</t>
@@ -4237,8 +4231,11 @@
     <xf borderId="0" fillId="6" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="4" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="6" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
@@ -4264,9 +4261,6 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
@@ -4329,7 +4323,7 @@
     <xf borderId="0" fillId="8" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -4490,2161 +4484,2161 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="12" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="B2" s="12"/>
       <c r="C2" s="98" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="12" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="B3" s="12"/>
       <c r="C3" s="98" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="12" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="B4" s="12"/>
       <c r="C4" s="98" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="12" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="B5" s="12"/>
       <c r="C5" s="98" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="12" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="B6" s="12"/>
       <c r="C6" s="98" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="12" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="B7" s="12"/>
       <c r="C7" s="98" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="12" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="B8" s="12"/>
       <c r="C8" s="98" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="12" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="B9" s="12"/>
       <c r="C9" s="98" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="12" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="B10" s="12"/>
       <c r="C10" s="98" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="12" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="B11" s="12"/>
       <c r="C11" s="98" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="12" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="B12" s="12"/>
       <c r="C12" s="98" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="12" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="B13" s="12"/>
       <c r="C13" s="98" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="12" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="B14" s="12"/>
       <c r="C14" s="98" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="12" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="B15" s="12"/>
       <c r="C15" s="98" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="12" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="B16" s="12"/>
       <c r="C16" s="98" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="12" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="B17" s="12"/>
       <c r="C17" s="98" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="12" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="B18" s="12"/>
       <c r="C18" s="98" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="12" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="B19" s="12"/>
       <c r="C19" s="98" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="12" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="B20" s="12"/>
       <c r="C20" s="98" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="12" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="B21" s="12"/>
       <c r="C21" s="98" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="12" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="B22" s="12"/>
       <c r="C22" s="98" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="12" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="B23" s="12"/>
       <c r="C23" s="98" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="12" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="B24" s="12"/>
       <c r="C24" s="98" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="12" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="B25" s="12"/>
       <c r="C25" s="98" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="12" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="B26" s="12"/>
       <c r="C26" s="98" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="12" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="B27" s="12"/>
       <c r="C27" s="98" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="12" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="B28" s="12"/>
       <c r="C28" s="98" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="12" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="B29" s="12"/>
       <c r="C29" s="98" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="12" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="B30" s="12"/>
       <c r="C30" s="98" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="12" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="B31" s="12"/>
       <c r="C31" s="98" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="12" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="B32" s="12"/>
       <c r="C32" s="98" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="12" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="B33" s="12"/>
       <c r="C33" s="98" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="12" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="B34" s="12"/>
       <c r="C34" s="98" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="12" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="B35" s="12"/>
       <c r="C35" s="98" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="12" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="B36" s="12"/>
       <c r="C36" s="98" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="12" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="B37" s="12"/>
       <c r="C37" s="98" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="12" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="B38" s="12"/>
       <c r="C38" s="98" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="12" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="B39" s="12"/>
       <c r="C39" s="98" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="12" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="B40" s="12"/>
       <c r="C40" s="98" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="12" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="B41" s="12"/>
       <c r="C41" s="98" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="12" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="B42" s="12"/>
       <c r="C42" s="98" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="12" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="B43" s="12"/>
       <c r="C43" s="98" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="12" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="B44" s="12"/>
       <c r="C44" s="98" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="12" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="B45" s="12"/>
       <c r="C45" s="98" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="12" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="B46" s="12"/>
       <c r="C46" s="98" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="12" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="B47" s="12"/>
       <c r="C47" s="98" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="12" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="B48" s="12"/>
       <c r="C48" s="98" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="12" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="B49" s="12"/>
       <c r="C49" s="98" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="12" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="B50" s="12"/>
       <c r="C50" s="98" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="12" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="B51" s="12"/>
       <c r="C51" s="98" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="12" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="B52" s="12"/>
       <c r="C52" s="98" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="12" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="B53" s="12"/>
       <c r="C53" s="98" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="12" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
       <c r="B54" s="12"/>
       <c r="C54" s="98" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="12" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
       <c r="B55" s="12"/>
       <c r="C55" s="98" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="12" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="B56" s="12"/>
       <c r="C56" s="98" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="12" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="B57" s="12"/>
       <c r="C57" s="98" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="12" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="B58" s="12"/>
       <c r="C58" s="98" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="12" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="B59" s="12"/>
       <c r="C59" s="98" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="12" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
       <c r="B60" s="12"/>
       <c r="C60" s="98" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="12" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
       <c r="B61" s="12"/>
       <c r="C61" s="98" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="12" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="B62" s="12"/>
       <c r="C62" s="98" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="12" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="B63" s="12"/>
       <c r="C63" s="98" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="12" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="B64" s="12"/>
       <c r="C64" s="98" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="12" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="B65" s="12"/>
       <c r="C65" s="98" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="12" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="B66" s="12"/>
       <c r="C66" s="98" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="12" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
       <c r="B67" s="12"/>
       <c r="C67" s="98" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="12" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
       <c r="B68" s="12"/>
       <c r="C68" s="98" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="12" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="B69" s="12"/>
       <c r="C69" s="98" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="12" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="B70" s="12"/>
       <c r="C70" s="98" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="12" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="B71" s="12"/>
       <c r="C71" s="98" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="12" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="B72" s="12"/>
       <c r="C72" s="98" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="12" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="B73" s="12"/>
       <c r="C73" s="98" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="12" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="B74" s="12"/>
       <c r="C74" s="98" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="12" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
       <c r="B75" s="12"/>
       <c r="C75" s="98" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="12" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="B76" s="12"/>
       <c r="C76" s="98" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="12" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="B77" s="12"/>
       <c r="C77" s="98" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="12" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="B78" s="12"/>
       <c r="C78" s="98" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="12" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
       <c r="B79" s="12"/>
       <c r="C79" s="98" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="12" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
       <c r="B80" s="12"/>
       <c r="C80" s="98" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="12" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="B81" s="12"/>
       <c r="C81" s="98" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="12" t="s">
-        <v>941</v>
+        <v>939</v>
       </c>
       <c r="B82" s="12"/>
       <c r="C82" s="98" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="12" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="B83" s="12"/>
       <c r="C83" s="98" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="12" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
       <c r="B84" s="12"/>
       <c r="C84" s="98" t="s">
-        <v>946</v>
+        <v>944</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="12" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
       <c r="B85" s="12"/>
       <c r="C85" s="98" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="12" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
       <c r="B86" s="12"/>
       <c r="C86" s="98" t="s">
-        <v>950</v>
+        <v>948</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="12" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
       <c r="B87" s="12"/>
       <c r="C87" s="98" t="s">
-        <v>952</v>
+        <v>950</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="12" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="B88" s="12"/>
       <c r="C88" s="98" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="12" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
       <c r="B89" s="12"/>
       <c r="C89" s="98" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="12" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
       <c r="B90" s="12"/>
       <c r="C90" s="98" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="12" t="s">
-        <v>959</v>
+        <v>957</v>
       </c>
       <c r="B91" s="12"/>
       <c r="C91" s="98" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="12" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="B92" s="12"/>
       <c r="C92" s="98" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="12" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
       <c r="B93" s="12"/>
       <c r="C93" s="98" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="12" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
       <c r="B94" s="12"/>
       <c r="C94" s="98" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="12" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
       <c r="B95" s="12"/>
       <c r="C95" s="98" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="12" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
       <c r="B96" s="12"/>
       <c r="C96" s="98" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="12" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
       <c r="B97" s="12"/>
       <c r="C97" s="98" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="12" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
       <c r="B98" s="12"/>
       <c r="C98" s="98" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="12" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
       <c r="B99" s="12"/>
       <c r="C99" s="98" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="12" t="s">
-        <v>977</v>
+        <v>975</v>
       </c>
       <c r="B100" s="12"/>
       <c r="C100" s="98" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="12" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
       <c r="B101" s="12"/>
       <c r="C101" s="98" t="s">
-        <v>980</v>
+        <v>978</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="12" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
       <c r="B102" s="12"/>
       <c r="C102" s="98" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="12" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
       <c r="B103" s="12"/>
       <c r="C103" s="98" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="12" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
       <c r="B104" s="12"/>
       <c r="C104" s="98" t="s">
-        <v>986</v>
+        <v>984</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="12" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
       <c r="B105" s="12"/>
       <c r="C105" s="98" t="s">
-        <v>988</v>
+        <v>986</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="12" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
       <c r="B106" s="12"/>
       <c r="C106" s="98" t="s">
-        <v>990</v>
+        <v>988</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="12" t="s">
-        <v>991</v>
+        <v>989</v>
       </c>
       <c r="B107" s="12"/>
       <c r="C107" s="98" t="s">
-        <v>992</v>
+        <v>990</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="12" t="s">
-        <v>993</v>
+        <v>991</v>
       </c>
       <c r="B108" s="12"/>
       <c r="C108" s="98" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="12" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
       <c r="B109" s="12"/>
       <c r="C109" s="98" t="s">
-        <v>996</v>
+        <v>994</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="12" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
       <c r="B110" s="12"/>
       <c r="C110" s="98" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="12" t="s">
-        <v>999</v>
+        <v>997</v>
       </c>
       <c r="B111" s="12"/>
       <c r="C111" s="98" t="s">
-        <v>1000</v>
+        <v>998</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="12" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
       <c r="B112" s="12"/>
       <c r="C112" s="98" t="s">
-        <v>1002</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="12" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="B113" s="12"/>
       <c r="C113" s="98" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="12" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="B114" s="12"/>
       <c r="C114" s="98" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="12" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
       <c r="B115" s="12"/>
       <c r="C115" s="98" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="12" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
       <c r="B116" s="12"/>
       <c r="C116" s="98" t="s">
-        <v>1010</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="12" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
       <c r="B117" s="12"/>
       <c r="C117" s="98" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="12" t="s">
-        <v>1013</v>
+        <v>1011</v>
       </c>
       <c r="B118" s="12"/>
       <c r="C118" s="98" t="s">
-        <v>1014</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="12" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="B119" s="12"/>
       <c r="C119" s="98" t="s">
-        <v>1016</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="12" t="s">
-        <v>1017</v>
+        <v>1015</v>
       </c>
       <c r="B120" s="12"/>
       <c r="C120" s="98" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="12" t="s">
-        <v>1019</v>
+        <v>1017</v>
       </c>
       <c r="B121" s="12"/>
       <c r="C121" s="98" t="s">
-        <v>1020</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="12" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
       <c r="B122" s="12"/>
       <c r="C122" s="98" t="s">
-        <v>1022</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="12" t="s">
-        <v>1023</v>
+        <v>1021</v>
       </c>
       <c r="B123" s="12"/>
       <c r="C123" s="98" t="s">
-        <v>1024</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="12" t="s">
-        <v>1025</v>
+        <v>1023</v>
       </c>
       <c r="B124" s="12"/>
       <c r="C124" s="98" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="12" t="s">
-        <v>1027</v>
+        <v>1025</v>
       </c>
       <c r="B125" s="12"/>
       <c r="C125" s="98" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="12" t="s">
-        <v>1029</v>
+        <v>1027</v>
       </c>
       <c r="B126" s="12"/>
       <c r="C126" s="98" t="s">
-        <v>1030</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="12" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
       <c r="B127" s="12"/>
       <c r="C127" s="98" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="12" t="s">
-        <v>1033</v>
+        <v>1031</v>
       </c>
       <c r="B128" s="12"/>
       <c r="C128" s="98" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="12" t="s">
-        <v>1035</v>
+        <v>1033</v>
       </c>
       <c r="B129" s="12"/>
       <c r="C129" s="98" t="s">
-        <v>1036</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="12" t="s">
-        <v>1037</v>
+        <v>1035</v>
       </c>
       <c r="B130" s="12"/>
       <c r="C130" s="98" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="12" t="s">
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="B131" s="12"/>
       <c r="C131" s="98" t="s">
-        <v>1040</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="12" t="s">
-        <v>1041</v>
+        <v>1039</v>
       </c>
       <c r="B132" s="12"/>
       <c r="C132" s="98" t="s">
-        <v>1042</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="12" t="s">
-        <v>1043</v>
+        <v>1041</v>
       </c>
       <c r="B133" s="12"/>
       <c r="C133" s="98" t="s">
-        <v>1044</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="12" t="s">
-        <v>1045</v>
+        <v>1043</v>
       </c>
       <c r="B134" s="12"/>
       <c r="C134" s="98" t="s">
-        <v>1046</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="12" t="s">
-        <v>1047</v>
+        <v>1045</v>
       </c>
       <c r="B135" s="12"/>
       <c r="C135" s="98" t="s">
-        <v>1048</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="12" t="s">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="B136" s="12"/>
       <c r="C136" s="98" t="s">
-        <v>1050</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="12" t="s">
-        <v>1051</v>
+        <v>1049</v>
       </c>
       <c r="B137" s="12"/>
       <c r="C137" s="98" t="s">
-        <v>1052</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="12" t="s">
-        <v>1053</v>
+        <v>1051</v>
       </c>
       <c r="B138" s="12"/>
       <c r="C138" s="98" t="s">
-        <v>1054</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="12" t="s">
-        <v>1055</v>
+        <v>1053</v>
       </c>
       <c r="B139" s="12"/>
       <c r="C139" s="98" t="s">
-        <v>1056</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="12" t="s">
-        <v>1057</v>
+        <v>1055</v>
       </c>
       <c r="B140" s="12"/>
       <c r="C140" s="98" t="s">
-        <v>1058</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="12" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
       <c r="B141" s="12"/>
       <c r="C141" s="98" t="s">
-        <v>1060</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="12" t="s">
-        <v>1061</v>
+        <v>1059</v>
       </c>
       <c r="B142" s="12"/>
       <c r="C142" s="98" t="s">
-        <v>1062</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="12" t="s">
-        <v>1063</v>
+        <v>1061</v>
       </c>
       <c r="B143" s="12"/>
       <c r="C143" s="98" t="s">
-        <v>1064</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="12" t="s">
-        <v>1065</v>
+        <v>1063</v>
       </c>
       <c r="B144" s="12"/>
       <c r="C144" s="98" t="s">
-        <v>1066</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="12" t="s">
-        <v>1067</v>
+        <v>1065</v>
       </c>
       <c r="B145" s="12"/>
       <c r="C145" s="98" t="s">
-        <v>1068</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="12" t="s">
-        <v>1069</v>
+        <v>1067</v>
       </c>
       <c r="B146" s="12"/>
       <c r="C146" s="98" t="s">
-        <v>1070</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="12" t="s">
-        <v>1071</v>
+        <v>1069</v>
       </c>
       <c r="B147" s="12"/>
       <c r="C147" s="98" t="s">
-        <v>1072</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="12" t="s">
-        <v>1073</v>
+        <v>1071</v>
       </c>
       <c r="B148" s="12"/>
       <c r="C148" s="98" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="12" t="s">
-        <v>1075</v>
+        <v>1073</v>
       </c>
       <c r="B149" s="12"/>
       <c r="C149" s="98" t="s">
-        <v>1076</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="12" t="s">
-        <v>1077</v>
+        <v>1075</v>
       </c>
       <c r="B150" s="12"/>
       <c r="C150" s="98" t="s">
-        <v>1078</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="12" t="s">
-        <v>1079</v>
+        <v>1077</v>
       </c>
       <c r="B151" s="12"/>
       <c r="C151" s="98" t="s">
-        <v>1080</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="12" t="s">
-        <v>1081</v>
+        <v>1079</v>
       </c>
       <c r="B152" s="12"/>
       <c r="C152" s="98" t="s">
-        <v>1082</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="12" t="s">
-        <v>1083</v>
+        <v>1081</v>
       </c>
       <c r="B153" s="12"/>
       <c r="C153" s="98" t="s">
-        <v>1084</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="12" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
       <c r="B154" s="12"/>
       <c r="C154" s="98" t="s">
-        <v>1086</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="12" t="s">
-        <v>1087</v>
+        <v>1085</v>
       </c>
       <c r="B155" s="12"/>
       <c r="C155" s="98" t="s">
-        <v>1088</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="12" t="s">
-        <v>1089</v>
+        <v>1087</v>
       </c>
       <c r="B156" s="12"/>
       <c r="C156" s="98" t="s">
-        <v>1090</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="12" t="s">
-        <v>1091</v>
+        <v>1089</v>
       </c>
       <c r="B157" s="12"/>
       <c r="C157" s="98" t="s">
-        <v>1092</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="12" t="s">
-        <v>1093</v>
+        <v>1091</v>
       </c>
       <c r="B158" s="12"/>
       <c r="C158" s="98" t="s">
-        <v>1094</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="12" t="s">
-        <v>1095</v>
+        <v>1093</v>
       </c>
       <c r="B159" s="12"/>
       <c r="C159" s="98" t="s">
-        <v>1096</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="12" t="s">
-        <v>1097</v>
+        <v>1095</v>
       </c>
       <c r="B160" s="12"/>
       <c r="C160" s="98" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="12" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
       <c r="B161" s="12"/>
       <c r="C161" s="98" t="s">
-        <v>1100</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="12" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="B162" s="12"/>
       <c r="C162" s="98" t="s">
-        <v>1102</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="12" t="s">
-        <v>1103</v>
+        <v>1101</v>
       </c>
       <c r="B163" s="12"/>
       <c r="C163" s="98" t="s">
-        <v>1104</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="12" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
       <c r="B164" s="12"/>
       <c r="C164" s="98" t="s">
-        <v>1106</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="12" t="s">
-        <v>1107</v>
+        <v>1105</v>
       </c>
       <c r="B165" s="12"/>
       <c r="C165" s="98" t="s">
-        <v>1108</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="12" t="s">
-        <v>1109</v>
+        <v>1107</v>
       </c>
       <c r="B166" s="12"/>
       <c r="C166" s="98" t="s">
-        <v>1110</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="12" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
       <c r="B167" s="12"/>
       <c r="C167" s="98" t="s">
-        <v>1112</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="12" t="s">
-        <v>1113</v>
+        <v>1111</v>
       </c>
       <c r="B168" s="12"/>
       <c r="C168" s="98" t="s">
-        <v>1114</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="12" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
       <c r="B169" s="12"/>
       <c r="C169" s="98" t="s">
-        <v>1116</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="12" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
       <c r="B170" s="12"/>
       <c r="C170" s="98" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="12" t="s">
-        <v>1119</v>
+        <v>1117</v>
       </c>
       <c r="B171" s="12"/>
       <c r="C171" s="98" t="s">
-        <v>1120</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="12" t="s">
-        <v>1121</v>
+        <v>1119</v>
       </c>
       <c r="B172" s="12"/>
       <c r="C172" s="98" t="s">
-        <v>1122</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="12" t="s">
-        <v>1123</v>
+        <v>1121</v>
       </c>
       <c r="B173" s="12"/>
       <c r="C173" s="98" t="s">
-        <v>1124</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="12" t="s">
-        <v>1125</v>
+        <v>1123</v>
       </c>
       <c r="B174" s="12"/>
       <c r="C174" s="98" t="s">
-        <v>1126</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="12" t="s">
-        <v>1127</v>
+        <v>1125</v>
       </c>
       <c r="B175" s="12"/>
       <c r="C175" s="98" t="s">
-        <v>1128</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="12" t="s">
-        <v>1129</v>
+        <v>1127</v>
       </c>
       <c r="B176" s="12"/>
       <c r="C176" s="98" t="s">
-        <v>1130</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="12" t="s">
-        <v>1131</v>
+        <v>1129</v>
       </c>
       <c r="B177" s="12"/>
       <c r="C177" s="98" t="s">
-        <v>1132</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="12" t="s">
-        <v>1133</v>
+        <v>1131</v>
       </c>
       <c r="B178" s="12"/>
       <c r="C178" s="98" t="s">
-        <v>1134</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="12" t="s">
-        <v>1135</v>
+        <v>1133</v>
       </c>
       <c r="B179" s="12"/>
       <c r="C179" s="98" t="s">
-        <v>1136</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="12" t="s">
-        <v>1137</v>
+        <v>1135</v>
       </c>
       <c r="B180" s="12"/>
       <c r="C180" s="98" t="s">
-        <v>1138</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="12" t="s">
-        <v>1139</v>
+        <v>1137</v>
       </c>
       <c r="B181" s="12"/>
       <c r="C181" s="98" t="s">
-        <v>1140</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="12" t="s">
-        <v>1141</v>
+        <v>1139</v>
       </c>
       <c r="B182" s="12"/>
       <c r="C182" s="98" t="s">
-        <v>1142</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="12" t="s">
-        <v>1143</v>
+        <v>1141</v>
       </c>
       <c r="B183" s="12"/>
       <c r="C183" s="98" t="s">
-        <v>1144</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="12" t="s">
-        <v>1145</v>
+        <v>1143</v>
       </c>
       <c r="B184" s="12"/>
       <c r="C184" s="98" t="s">
-        <v>1146</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="12" t="s">
-        <v>1147</v>
+        <v>1145</v>
       </c>
       <c r="B185" s="12"/>
       <c r="C185" s="98" t="s">
-        <v>1148</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="12" t="s">
-        <v>1149</v>
+        <v>1147</v>
       </c>
       <c r="B186" s="12"/>
       <c r="C186" s="98" t="s">
-        <v>1150</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="12" t="s">
-        <v>1151</v>
+        <v>1149</v>
       </c>
       <c r="B187" s="12"/>
       <c r="C187" s="98" t="s">
-        <v>1152</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="12" t="s">
-        <v>1153</v>
+        <v>1151</v>
       </c>
       <c r="B188" s="12"/>
       <c r="C188" s="98" t="s">
-        <v>1154</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="12" t="s">
-        <v>1155</v>
+        <v>1153</v>
       </c>
       <c r="B189" s="12"/>
       <c r="C189" s="98" t="s">
-        <v>1156</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="12" t="s">
-        <v>1157</v>
+        <v>1155</v>
       </c>
       <c r="B190" s="12"/>
       <c r="C190" s="98" t="s">
-        <v>1158</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="12" t="s">
-        <v>1159</v>
+        <v>1157</v>
       </c>
       <c r="B191" s="12"/>
       <c r="C191" s="98" t="s">
-        <v>1160</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="12" t="s">
-        <v>1161</v>
+        <v>1159</v>
       </c>
       <c r="B192" s="12"/>
       <c r="C192" s="98" t="s">
-        <v>1162</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="12" t="s">
-        <v>1163</v>
+        <v>1161</v>
       </c>
       <c r="B193" s="12"/>
       <c r="C193" s="98" t="s">
-        <v>1164</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="12" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="B194" s="12"/>
       <c r="C194" s="98" t="s">
-        <v>1166</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="12" t="s">
-        <v>1167</v>
+        <v>1165</v>
       </c>
       <c r="B195" s="12"/>
       <c r="C195" s="98" t="s">
-        <v>1168</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="12" t="s">
-        <v>1169</v>
+        <v>1167</v>
       </c>
       <c r="B196" s="12"/>
       <c r="C196" s="98" t="s">
-        <v>1170</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="12" t="s">
-        <v>1171</v>
+        <v>1169</v>
       </c>
       <c r="B197" s="12"/>
       <c r="C197" s="98" t="s">
-        <v>1172</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="12" t="s">
-        <v>1173</v>
+        <v>1171</v>
       </c>
       <c r="B198" s="12"/>
       <c r="C198" s="98" t="s">
-        <v>1174</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="12" t="s">
-        <v>1175</v>
+        <v>1173</v>
       </c>
       <c r="B199" s="12"/>
       <c r="C199" s="98" t="s">
-        <v>1176</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="12" t="s">
-        <v>1177</v>
+        <v>1175</v>
       </c>
       <c r="B200" s="12"/>
       <c r="C200" s="98" t="s">
-        <v>1178</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="12" t="s">
-        <v>1179</v>
+        <v>1177</v>
       </c>
       <c r="B201" s="12"/>
       <c r="C201" s="98" t="s">
-        <v>1180</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="12" t="s">
-        <v>1181</v>
+        <v>1179</v>
       </c>
       <c r="B202" s="12"/>
       <c r="C202" s="98" t="s">
-        <v>1182</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="12" t="s">
-        <v>1183</v>
+        <v>1181</v>
       </c>
       <c r="B203" s="12"/>
       <c r="C203" s="98" t="s">
-        <v>1184</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="12" t="s">
-        <v>1185</v>
+        <v>1183</v>
       </c>
       <c r="B204" s="12"/>
       <c r="C204" s="98" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="12" t="s">
-        <v>1187</v>
+        <v>1185</v>
       </c>
       <c r="B205" s="12"/>
       <c r="C205" s="98" t="s">
-        <v>1188</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="12" t="s">
-        <v>1189</v>
+        <v>1187</v>
       </c>
       <c r="B206" s="12"/>
       <c r="C206" s="98" t="s">
-        <v>1190</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="12" t="s">
-        <v>1191</v>
+        <v>1189</v>
       </c>
       <c r="B207" s="12"/>
       <c r="C207" s="98" t="s">
-        <v>1192</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="12" t="s">
-        <v>1193</v>
+        <v>1191</v>
       </c>
       <c r="B208" s="12"/>
       <c r="C208" s="98" t="s">
-        <v>1194</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="12" t="s">
-        <v>1195</v>
+        <v>1193</v>
       </c>
       <c r="B209" s="12"/>
       <c r="C209" s="98" t="s">
-        <v>1196</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="12" t="s">
-        <v>1197</v>
+        <v>1195</v>
       </c>
       <c r="B210" s="12"/>
       <c r="C210" s="98" t="s">
-        <v>1198</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="12" t="s">
-        <v>1199</v>
+        <v>1197</v>
       </c>
       <c r="B211" s="12"/>
       <c r="C211" s="98" t="s">
-        <v>1200</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="12" t="s">
-        <v>1201</v>
+        <v>1199</v>
       </c>
       <c r="B212" s="12"/>
       <c r="C212" s="98" t="s">
-        <v>1202</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="12" t="s">
-        <v>1203</v>
+        <v>1201</v>
       </c>
       <c r="B213" s="12"/>
       <c r="C213" s="98" t="s">
-        <v>1204</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="12" t="s">
-        <v>1205</v>
+        <v>1203</v>
       </c>
       <c r="B214" s="12"/>
       <c r="C214" s="98" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="12" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
       <c r="B215" s="12"/>
       <c r="C215" s="98" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="12" t="s">
-        <v>1209</v>
+        <v>1207</v>
       </c>
       <c r="B216" s="12"/>
       <c r="C216" s="98" t="s">
-        <v>1210</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="12" t="s">
-        <v>1211</v>
+        <v>1209</v>
       </c>
       <c r="B217" s="12"/>
       <c r="C217" s="98" t="s">
-        <v>1212</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="12" t="s">
-        <v>1213</v>
+        <v>1211</v>
       </c>
       <c r="B218" s="12"/>
       <c r="C218" s="98" t="s">
-        <v>1214</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="12" t="s">
-        <v>1215</v>
+        <v>1213</v>
       </c>
       <c r="B219" s="12"/>
       <c r="C219" s="98" t="s">
-        <v>1216</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="12" t="s">
-        <v>1217</v>
+        <v>1215</v>
       </c>
       <c r="B220" s="12"/>
       <c r="C220" s="98" t="s">
-        <v>1218</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="12" t="s">
-        <v>1219</v>
+        <v>1217</v>
       </c>
       <c r="B221" s="12"/>
       <c r="C221" s="98" t="s">
-        <v>1220</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="12" t="s">
-        <v>1221</v>
+        <v>1219</v>
       </c>
       <c r="B222" s="12"/>
       <c r="C222" s="98" t="s">
-        <v>1222</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="12" t="s">
-        <v>1223</v>
+        <v>1221</v>
       </c>
       <c r="B223" s="12"/>
       <c r="C223" s="98" t="s">
-        <v>1224</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="12" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
       <c r="B224" s="12"/>
       <c r="C224" s="98" t="s">
-        <v>1226</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="12" t="s">
-        <v>1227</v>
+        <v>1225</v>
       </c>
       <c r="B225" s="12"/>
       <c r="C225" s="98" t="s">
-        <v>1228</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="12" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
       <c r="B226" s="12"/>
       <c r="C226" s="98" t="s">
-        <v>1230</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="12" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
       <c r="B227" s="12"/>
       <c r="C227" s="98" t="s">
-        <v>1232</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" s="12" t="s">
-        <v>1233</v>
+        <v>1231</v>
       </c>
       <c r="B228" s="12"/>
       <c r="C228" s="98" t="s">
-        <v>1234</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" s="12" t="s">
-        <v>1235</v>
+        <v>1233</v>
       </c>
       <c r="B229" s="12"/>
       <c r="C229" s="98" t="s">
-        <v>1236</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" s="12" t="s">
-        <v>1237</v>
+        <v>1235</v>
       </c>
       <c r="B230" s="12"/>
       <c r="C230" s="98" t="s">
-        <v>1238</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" s="12" t="s">
-        <v>1239</v>
+        <v>1237</v>
       </c>
       <c r="B231" s="12"/>
       <c r="C231" s="98" t="s">
-        <v>1240</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" s="12" t="s">
-        <v>1241</v>
+        <v>1239</v>
       </c>
       <c r="B232" s="12"/>
       <c r="C232" s="98" t="s">
-        <v>1242</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" s="12" t="s">
-        <v>1243</v>
+        <v>1241</v>
       </c>
       <c r="B233" s="12"/>
       <c r="C233" s="98" t="s">
-        <v>1244</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" s="12" t="s">
-        <v>1245</v>
+        <v>1243</v>
       </c>
       <c r="B234" s="12"/>
       <c r="C234" s="98" t="s">
-        <v>1246</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" s="12" t="s">
-        <v>1247</v>
+        <v>1245</v>
       </c>
       <c r="B235" s="12"/>
       <c r="C235" s="98" t="s">
-        <v>1248</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" s="12" t="s">
-        <v>1249</v>
+        <v>1247</v>
       </c>
       <c r="B236" s="12"/>
       <c r="C236" s="98" t="s">
-        <v>1250</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" s="12" t="s">
-        <v>1251</v>
+        <v>1249</v>
       </c>
       <c r="B237" s="12"/>
       <c r="C237" s="98" t="s">
-        <v>1252</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" s="12" t="s">
-        <v>1253</v>
+        <v>1251</v>
       </c>
       <c r="B238" s="12"/>
       <c r="C238" s="98" t="s">
-        <v>1254</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" s="12" t="s">
-        <v>1255</v>
+        <v>1253</v>
       </c>
       <c r="B239" s="12"/>
       <c r="C239" s="99" t="s">
-        <v>1256</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" s="12" t="s">
-        <v>1257</v>
+        <v>1255</v>
       </c>
       <c r="B240" s="12"/>
       <c r="C240" s="99" t="s">
-        <v>1258</v>
+        <v>1256</v>
       </c>
     </row>
   </sheetData>
@@ -6911,64 +6905,64 @@
         <v>1</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="2">
       <c r="B2" s="12" t="s">
-        <v>1260</v>
+        <v>1258</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>1261</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="3">
       <c r="B3" s="12" t="s">
-        <v>1262</v>
+        <v>1260</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>1261</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="4">
       <c r="B4" s="12" t="s">
-        <v>1263</v>
+        <v>1261</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>1261</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="11" t="s">
-        <v>1264</v>
+        <v>1262</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>1265</v>
+        <v>1263</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>1261</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="11" t="s">
-        <v>1266</v>
+        <v>1264</v>
       </c>
       <c r="B6" s="100" t="s">
-        <v>1267</v>
+        <v>1265</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>1261</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="11" t="s">
-        <v>1268</v>
+        <v>1266</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>1269</v>
+        <v>1267</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>1261</v>
+        <v>1259</v>
       </c>
     </row>
   </sheetData>
@@ -7051,7 +7045,7 @@
         <v>40</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>1270</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="2">
@@ -8278,7 +8272,7 @@
       <c r="B48" s="57" t="s">
         <v>172</v>
       </c>
-      <c r="C48" s="8" t="s">
+      <c r="C48" s="58" t="s">
         <v>173</v>
       </c>
       <c r="D48" s="12"/>
@@ -8322,7 +8316,7 @@
       <c r="B50" s="22" t="s">
         <v>176</v>
       </c>
-      <c r="C50" s="56" t="s">
+      <c r="C50" s="58" t="s">
         <v>177</v>
       </c>
       <c r="D50" s="12"/>
@@ -8390,7 +8384,7 @@
       <c r="B53" s="33" t="s">
         <v>182</v>
       </c>
-      <c r="C53" s="58" t="s">
+      <c r="C53" s="59" t="s">
         <v>183</v>
       </c>
       <c r="D53" s="12"/>
@@ -8414,7 +8408,7 @@
       <c r="B54" s="33" t="s">
         <v>184</v>
       </c>
-      <c r="C54" s="58" t="s">
+      <c r="C54" s="59" t="s">
         <v>185</v>
       </c>
       <c r="D54" s="12"/>
@@ -8428,7 +8422,7 @@
       <c r="J54" s="27"/>
       <c r="K54" s="12"/>
       <c r="L54" s="12"/>
-      <c r="N54" s="59"/>
+      <c r="N54" s="60"/>
     </row>
     <row r="55">
       <c r="A55" s="15" t="s">
@@ -8453,7 +8447,7 @@
         <v>258.0</v>
       </c>
       <c r="L55" s="12"/>
-      <c r="N55" s="59"/>
+      <c r="N55" s="60"/>
     </row>
     <row r="56">
       <c r="A56" s="15" t="s">
@@ -8475,7 +8469,7 @@
       <c r="J56" s="27"/>
       <c r="K56" s="12"/>
       <c r="L56" s="12"/>
-      <c r="N56" s="59"/>
+      <c r="N56" s="60"/>
     </row>
     <row r="57">
       <c r="A57" s="15">
@@ -8565,7 +8559,7 @@
       <c r="A61" s="15">
         <v>246.0</v>
       </c>
-      <c r="B61" s="60" t="s">
+      <c r="B61" s="61" t="s">
         <v>200</v>
       </c>
       <c r="C61" s="8" t="s">
@@ -8585,7 +8579,7 @@
       <c r="A62" s="15">
         <v>247.0</v>
       </c>
-      <c r="B62" s="60" t="s">
+      <c r="B62" s="61" t="s">
         <v>202</v>
       </c>
       <c r="C62" s="56" t="s">
@@ -8649,7 +8643,7 @@
       <c r="A65" s="15">
         <v>250.0</v>
       </c>
-      <c r="B65" s="60" t="s">
+      <c r="B65" s="61" t="s">
         <v>210</v>
       </c>
       <c r="C65" s="56" t="s">
@@ -8669,7 +8663,7 @@
       <c r="A66" s="15">
         <v>251.0</v>
       </c>
-      <c r="B66" s="60" t="s">
+      <c r="B66" s="61" t="s">
         <v>212</v>
       </c>
       <c r="C66" s="56" t="s">
@@ -8729,7 +8723,7 @@
       <c r="A69" s="15">
         <v>254.0</v>
       </c>
-      <c r="B69" s="60" t="s">
+      <c r="B69" s="61" t="s">
         <v>218</v>
       </c>
       <c r="C69" s="8" t="s">
@@ -8789,7 +8783,7 @@
       <c r="A72" s="15">
         <v>257.0</v>
       </c>
-      <c r="B72" s="60" t="s">
+      <c r="B72" s="61" t="s">
         <v>224</v>
       </c>
       <c r="C72" s="8" t="s">
@@ -8809,7 +8803,7 @@
       <c r="A73" s="15">
         <v>258.0</v>
       </c>
-      <c r="B73" s="60" t="s">
+      <c r="B73" s="61" t="s">
         <v>226</v>
       </c>
       <c r="C73" s="8" t="s">
@@ -8852,7 +8846,7 @@
       <c r="B75" s="22" t="s">
         <v>230</v>
       </c>
-      <c r="C75" s="61" t="s">
+      <c r="C75" s="62" t="s">
         <v>231</v>
       </c>
       <c r="E75" s="24"/>
@@ -8872,7 +8866,7 @@
       <c r="B76" s="22" t="s">
         <v>232</v>
       </c>
-      <c r="C76" s="61" t="s">
+      <c r="C76" s="62" t="s">
         <v>233</v>
       </c>
       <c r="E76" s="24"/>
@@ -8889,7 +8883,7 @@
       <c r="A77" s="15" t="s">
         <v>234</v>
       </c>
-      <c r="B77" s="60" t="s">
+      <c r="B77" s="61" t="s">
         <v>235</v>
       </c>
       <c r="C77" s="8" t="s">
@@ -8913,7 +8907,7 @@
       <c r="A78" s="15" t="s">
         <v>238</v>
       </c>
-      <c r="B78" s="60" t="s">
+      <c r="B78" s="61" t="s">
         <v>239</v>
       </c>
       <c r="C78" s="8" t="s">
@@ -8937,7 +8931,7 @@
       <c r="A79" s="15" t="s">
         <v>241</v>
       </c>
-      <c r="B79" s="60" t="s">
+      <c r="B79" s="61" t="s">
         <v>242</v>
       </c>
       <c r="C79" s="8" t="s">
@@ -9025,7 +9019,7 @@
       <c r="A83" s="15">
         <v>265.0</v>
       </c>
-      <c r="B83" s="60" t="s">
+      <c r="B83" s="61" t="s">
         <v>252</v>
       </c>
       <c r="C83" s="8" t="s">
@@ -9047,7 +9041,7 @@
       <c r="A84" s="15">
         <v>266.0</v>
       </c>
-      <c r="B84" s="60" t="s">
+      <c r="B84" s="61" t="s">
         <v>255</v>
       </c>
       <c r="C84" s="8" t="s">
@@ -9069,7 +9063,7 @@
       <c r="A85" s="15" t="s">
         <v>258</v>
       </c>
-      <c r="B85" s="62" t="s">
+      <c r="B85" s="63" t="s">
         <v>259</v>
       </c>
       <c r="C85" s="8" t="s">
@@ -9115,18 +9109,18 @@
       <c r="A87" s="29" t="s">
         <v>59</v>
       </c>
-      <c r="B87" s="63" t="s">
+      <c r="B87" s="64" t="s">
         <v>264</v>
       </c>
       <c r="C87" s="8" t="s">
         <v>265</v>
       </c>
       <c r="D87" s="30"/>
-      <c r="E87" s="64"/>
+      <c r="E87" s="65"/>
       <c r="F87" s="30"/>
       <c r="G87" s="30"/>
-      <c r="H87" s="65"/>
-      <c r="I87" s="66">
+      <c r="H87" s="66"/>
+      <c r="I87" s="67">
         <v>229.0</v>
       </c>
       <c r="J87" s="27"/>
@@ -9139,18 +9133,18 @@
       <c r="A88" s="29" t="s">
         <v>267</v>
       </c>
-      <c r="B88" s="63" t="s">
+      <c r="B88" s="64" t="s">
         <v>264</v>
       </c>
       <c r="C88" s="8" t="s">
         <v>268</v>
       </c>
       <c r="D88" s="30"/>
-      <c r="E88" s="64"/>
+      <c r="E88" s="65"/>
       <c r="F88" s="30"/>
       <c r="G88" s="30"/>
-      <c r="H88" s="65"/>
-      <c r="I88" s="66">
+      <c r="H88" s="66"/>
+      <c r="I88" s="67">
         <v>229.0</v>
       </c>
       <c r="J88" s="27"/>
@@ -9163,18 +9157,18 @@
       <c r="A89" s="29" t="s">
         <v>270</v>
       </c>
-      <c r="B89" s="63" t="s">
+      <c r="B89" s="64" t="s">
         <v>264</v>
       </c>
-      <c r="C89" s="67" t="s">
+      <c r="C89" s="58" t="s">
         <v>271</v>
       </c>
       <c r="D89" s="30"/>
-      <c r="E89" s="64"/>
+      <c r="E89" s="65"/>
       <c r="F89" s="30"/>
       <c r="G89" s="30"/>
-      <c r="H89" s="65"/>
-      <c r="I89" s="66">
+      <c r="H89" s="66"/>
+      <c r="I89" s="67">
         <v>229.0</v>
       </c>
       <c r="J89" s="27"/>
@@ -9187,18 +9181,18 @@
       <c r="A90" s="29" t="s">
         <v>254</v>
       </c>
-      <c r="B90" s="63" t="s">
+      <c r="B90" s="64" t="s">
         <v>264</v>
       </c>
       <c r="C90" s="8" t="s">
         <v>273</v>
       </c>
       <c r="D90" s="30"/>
-      <c r="E90" s="64"/>
+      <c r="E90" s="65"/>
       <c r="F90" s="30"/>
       <c r="G90" s="30"/>
-      <c r="H90" s="65"/>
-      <c r="I90" s="66">
+      <c r="H90" s="66"/>
+      <c r="I90" s="67">
         <v>229.0</v>
       </c>
       <c r="J90" s="27"/>
@@ -9211,18 +9205,18 @@
       <c r="A91" s="29" t="s">
         <v>257</v>
       </c>
-      <c r="B91" s="63" t="s">
+      <c r="B91" s="64" t="s">
         <v>264</v>
       </c>
       <c r="C91" s="8" t="s">
         <v>275</v>
       </c>
       <c r="D91" s="30"/>
-      <c r="E91" s="64"/>
+      <c r="E91" s="65"/>
       <c r="F91" s="30"/>
       <c r="G91" s="30"/>
-      <c r="H91" s="65"/>
-      <c r="I91" s="66">
+      <c r="H91" s="66"/>
+      <c r="I91" s="67">
         <v>229.0</v>
       </c>
       <c r="J91" s="27"/>
@@ -9235,18 +9229,18 @@
       <c r="A92" s="29" t="s">
         <v>246</v>
       </c>
-      <c r="B92" s="63" t="s">
+      <c r="B92" s="64" t="s">
         <v>264</v>
       </c>
       <c r="C92" s="8" t="s">
         <v>277</v>
       </c>
       <c r="D92" s="30"/>
-      <c r="E92" s="64"/>
+      <c r="E92" s="65"/>
       <c r="F92" s="30"/>
       <c r="G92" s="30"/>
-      <c r="H92" s="65"/>
-      <c r="I92" s="66">
+      <c r="H92" s="66"/>
+      <c r="I92" s="67">
         <v>229.0</v>
       </c>
       <c r="J92" s="27"/>
@@ -9259,18 +9253,18 @@
       <c r="A93" s="29" t="s">
         <v>251</v>
       </c>
-      <c r="B93" s="63" t="s">
+      <c r="B93" s="64" t="s">
         <v>264</v>
       </c>
       <c r="C93" s="8" t="s">
         <v>279</v>
       </c>
       <c r="D93" s="30"/>
-      <c r="E93" s="64"/>
+      <c r="E93" s="65"/>
       <c r="F93" s="30"/>
       <c r="G93" s="30"/>
-      <c r="H93" s="65"/>
-      <c r="I93" s="66">
+      <c r="H93" s="66"/>
+      <c r="I93" s="67">
         <v>229.0</v>
       </c>
       <c r="J93" s="27"/>
@@ -9283,18 +9277,18 @@
       <c r="A94" s="29" t="s">
         <v>281</v>
       </c>
-      <c r="B94" s="63" t="s">
+      <c r="B94" s="64" t="s">
         <v>264</v>
       </c>
       <c r="C94" s="8" t="s">
         <v>282</v>
       </c>
       <c r="D94" s="30"/>
-      <c r="E94" s="64"/>
+      <c r="E94" s="65"/>
       <c r="F94" s="30"/>
       <c r="G94" s="30"/>
-      <c r="H94" s="65"/>
-      <c r="I94" s="66">
+      <c r="H94" s="66"/>
+      <c r="I94" s="67">
         <v>229.0</v>
       </c>
       <c r="J94" s="27"/>
@@ -9307,18 +9301,18 @@
       <c r="A95" s="29" t="s">
         <v>284</v>
       </c>
-      <c r="B95" s="63" t="s">
+      <c r="B95" s="64" t="s">
         <v>264</v>
       </c>
       <c r="C95" s="8" t="s">
         <v>285</v>
       </c>
       <c r="D95" s="30"/>
-      <c r="E95" s="64"/>
+      <c r="E95" s="65"/>
       <c r="F95" s="30"/>
       <c r="G95" s="30"/>
-      <c r="H95" s="65"/>
-      <c r="I95" s="66">
+      <c r="H95" s="66"/>
+      <c r="I95" s="67">
         <v>229.0</v>
       </c>
       <c r="J95" s="27"/>
@@ -9331,18 +9325,18 @@
       <c r="A96" s="29" t="s">
         <v>287</v>
       </c>
-      <c r="B96" s="63" t="s">
+      <c r="B96" s="64" t="s">
         <v>264</v>
       </c>
       <c r="C96" s="8" t="s">
         <v>288</v>
       </c>
       <c r="D96" s="30"/>
-      <c r="E96" s="64"/>
+      <c r="E96" s="65"/>
       <c r="F96" s="30"/>
       <c r="G96" s="30"/>
-      <c r="H96" s="65"/>
-      <c r="I96" s="66">
+      <c r="H96" s="66"/>
+      <c r="I96" s="67">
         <v>229.0</v>
       </c>
       <c r="J96" s="27"/>
@@ -9355,18 +9349,18 @@
       <c r="A97" s="29" t="s">
         <v>290</v>
       </c>
-      <c r="B97" s="63" t="s">
+      <c r="B97" s="64" t="s">
         <v>264</v>
       </c>
       <c r="C97" s="8" t="s">
         <v>291</v>
       </c>
       <c r="D97" s="30"/>
-      <c r="E97" s="64"/>
+      <c r="E97" s="65"/>
       <c r="F97" s="30"/>
       <c r="G97" s="30"/>
-      <c r="H97" s="65"/>
-      <c r="I97" s="66">
+      <c r="H97" s="66"/>
+      <c r="I97" s="67">
         <v>229.0</v>
       </c>
       <c r="J97" s="27"/>
@@ -9379,18 +9373,18 @@
       <c r="A98" s="29" t="s">
         <v>293</v>
       </c>
-      <c r="B98" s="63" t="s">
+      <c r="B98" s="64" t="s">
         <v>264</v>
       </c>
       <c r="C98" s="8" t="s">
         <v>294</v>
       </c>
       <c r="D98" s="30"/>
-      <c r="E98" s="64"/>
+      <c r="E98" s="65"/>
       <c r="F98" s="30"/>
       <c r="G98" s="30"/>
-      <c r="H98" s="65"/>
-      <c r="I98" s="66">
+      <c r="H98" s="66"/>
+      <c r="I98" s="67">
         <v>229.0</v>
       </c>
       <c r="J98" s="27"/>
@@ -9403,7 +9397,7 @@
       <c r="A99" s="29" t="s">
         <v>296</v>
       </c>
-      <c r="B99" s="63" t="s">
+      <c r="B99" s="64" t="s">
         <v>264</v>
       </c>
       <c r="C99" s="8" t="str">
@@ -9411,11 +9405,11 @@
         <v>Soma in superior cervical ganglion (1) (bolew)</v>
       </c>
       <c r="D99" s="30"/>
-      <c r="E99" s="64"/>
+      <c r="E99" s="65"/>
       <c r="F99" s="30"/>
       <c r="G99" s="30"/>
-      <c r="H99" s="65"/>
-      <c r="I99" s="66">
+      <c r="H99" s="66"/>
+      <c r="I99" s="67">
         <v>229.0</v>
       </c>
       <c r="J99" s="27"/>
@@ -9428,7 +9422,7 @@
       <c r="A100" s="29" t="s">
         <v>298</v>
       </c>
-      <c r="B100" s="63" t="s">
+      <c r="B100" s="64" t="s">
         <v>264</v>
       </c>
       <c r="C100" s="8" t="str">
@@ -9436,11 +9430,11 @@
         <v>Soma in superior cervical ganglion (2) (bolew)</v>
       </c>
       <c r="D100" s="30"/>
-      <c r="E100" s="64"/>
+      <c r="E100" s="65"/>
       <c r="F100" s="30"/>
       <c r="G100" s="30"/>
-      <c r="H100" s="65"/>
-      <c r="I100" s="66">
+      <c r="H100" s="66"/>
+      <c r="I100" s="67">
         <v>229.0</v>
       </c>
       <c r="J100" s="27"/>
@@ -9453,7 +9447,7 @@
       <c r="A101" s="29" t="s">
         <v>300</v>
       </c>
-      <c r="B101" s="63" t="s">
+      <c r="B101" s="64" t="s">
         <v>264</v>
       </c>
       <c r="C101" s="8" t="str">
@@ -9461,11 +9455,11 @@
         <v>Soma in superior cervical ganglion (3) (bolew)</v>
       </c>
       <c r="D101" s="30"/>
-      <c r="E101" s="64"/>
+      <c r="E101" s="65"/>
       <c r="F101" s="30"/>
       <c r="G101" s="30"/>
-      <c r="H101" s="65"/>
-      <c r="I101" s="66">
+      <c r="H101" s="66"/>
+      <c r="I101" s="67">
         <v>229.0</v>
       </c>
       <c r="J101" s="27"/>
@@ -9478,7 +9472,7 @@
       <c r="A102" s="29" t="s">
         <v>302</v>
       </c>
-      <c r="B102" s="63" t="s">
+      <c r="B102" s="64" t="s">
         <v>264</v>
       </c>
       <c r="C102" s="8" t="str">
@@ -9486,11 +9480,11 @@
         <v>Soma in superior cervical ganglion (4) (bolew)</v>
       </c>
       <c r="D102" s="30"/>
-      <c r="E102" s="64"/>
+      <c r="E102" s="65"/>
       <c r="F102" s="30"/>
       <c r="G102" s="30"/>
-      <c r="H102" s="65"/>
-      <c r="I102" s="66">
+      <c r="H102" s="66"/>
+      <c r="I102" s="67">
         <v>229.0</v>
       </c>
       <c r="J102" s="27"/>
@@ -9503,7 +9497,7 @@
       <c r="A103" s="29" t="s">
         <v>304</v>
       </c>
-      <c r="B103" s="63" t="s">
+      <c r="B103" s="64" t="s">
         <v>264</v>
       </c>
       <c r="C103" s="8" t="str">
@@ -9511,11 +9505,11 @@
         <v>Soma in superior cervical ganglion (5) (bolew)</v>
       </c>
       <c r="D103" s="30"/>
-      <c r="E103" s="64"/>
+      <c r="E103" s="65"/>
       <c r="F103" s="30"/>
       <c r="G103" s="30"/>
-      <c r="H103" s="65"/>
-      <c r="I103" s="66">
+      <c r="H103" s="66"/>
+      <c r="I103" s="67">
         <v>229.0</v>
       </c>
       <c r="J103" s="27"/>
@@ -9528,7 +9522,7 @@
       <c r="A104" s="29" t="s">
         <v>306</v>
       </c>
-      <c r="B104" s="63" t="s">
+      <c r="B104" s="64" t="s">
         <v>264</v>
       </c>
       <c r="C104" s="8" t="str">
@@ -9536,11 +9530,11 @@
         <v>Soma in superior cervical ganglion (6) (bolew)</v>
       </c>
       <c r="D104" s="30"/>
-      <c r="E104" s="64"/>
+      <c r="E104" s="65"/>
       <c r="F104" s="30"/>
       <c r="G104" s="30"/>
-      <c r="H104" s="65"/>
-      <c r="I104" s="66">
+      <c r="H104" s="66"/>
+      <c r="I104" s="67">
         <v>229.0</v>
       </c>
       <c r="J104" s="27"/>
@@ -9553,7 +9547,7 @@
       <c r="A105" s="29" t="s">
         <v>308</v>
       </c>
-      <c r="B105" s="63" t="s">
+      <c r="B105" s="64" t="s">
         <v>264</v>
       </c>
       <c r="C105" s="8" t="str">
@@ -9561,11 +9555,11 @@
         <v>Soma in superior cervical ganglion (7) (bolew)</v>
       </c>
       <c r="D105" s="30"/>
-      <c r="E105" s="64"/>
+      <c r="E105" s="65"/>
       <c r="F105" s="30"/>
       <c r="G105" s="30"/>
-      <c r="H105" s="65"/>
-      <c r="I105" s="66">
+      <c r="H105" s="66"/>
+      <c r="I105" s="67">
         <v>229.0</v>
       </c>
       <c r="J105" s="27"/>
@@ -9578,7 +9572,7 @@
       <c r="A106" s="29" t="s">
         <v>310</v>
       </c>
-      <c r="B106" s="63" t="s">
+      <c r="B106" s="64" t="s">
         <v>264</v>
       </c>
       <c r="C106" s="8" t="str">
@@ -9586,11 +9580,11 @@
         <v>Soma in superior cervical ganglion (8) (bolew)</v>
       </c>
       <c r="D106" s="30"/>
-      <c r="E106" s="64"/>
+      <c r="E106" s="65"/>
       <c r="F106" s="30"/>
       <c r="G106" s="30"/>
-      <c r="H106" s="65"/>
-      <c r="I106" s="66">
+      <c r="H106" s="66"/>
+      <c r="I106" s="67">
         <v>229.0</v>
       </c>
       <c r="J106" s="27"/>
@@ -9603,7 +9597,7 @@
       <c r="A107" s="29" t="s">
         <v>312</v>
       </c>
-      <c r="B107" s="63" t="s">
+      <c r="B107" s="64" t="s">
         <v>264</v>
       </c>
       <c r="C107" s="8" t="str">
@@ -9611,11 +9605,11 @@
         <v>Soma in superior cervical ganglion (9) (bolew)</v>
       </c>
       <c r="D107" s="30"/>
-      <c r="E107" s="64"/>
+      <c r="E107" s="65"/>
       <c r="F107" s="30"/>
       <c r="G107" s="30"/>
-      <c r="H107" s="65"/>
-      <c r="I107" s="66">
+      <c r="H107" s="66"/>
+      <c r="I107" s="67">
         <v>229.0</v>
       </c>
       <c r="J107" s="27"/>
@@ -9628,7 +9622,7 @@
       <c r="A108" s="29" t="s">
         <v>314</v>
       </c>
-      <c r="B108" s="63" t="s">
+      <c r="B108" s="64" t="s">
         <v>264</v>
       </c>
       <c r="C108" s="8" t="str">
@@ -9636,11 +9630,11 @@
         <v>Soma in superior cervical ganglion (10) (bolew)</v>
       </c>
       <c r="D108" s="30"/>
-      <c r="E108" s="64"/>
+      <c r="E108" s="65"/>
       <c r="F108" s="30"/>
       <c r="G108" s="30"/>
-      <c r="H108" s="65"/>
-      <c r="I108" s="66">
+      <c r="H108" s="66"/>
+      <c r="I108" s="67">
         <v>229.0</v>
       </c>
       <c r="J108" s="27"/>
@@ -9653,7 +9647,7 @@
       <c r="A109" s="29" t="s">
         <v>316</v>
       </c>
-      <c r="B109" s="63" t="s">
+      <c r="B109" s="64" t="s">
         <v>264</v>
       </c>
       <c r="C109" s="8" t="str">
@@ -9661,11 +9655,11 @@
         <v>Soma in superior cervical ganglion (11) (bolew)</v>
       </c>
       <c r="D109" s="30"/>
-      <c r="E109" s="64"/>
+      <c r="E109" s="65"/>
       <c r="F109" s="30"/>
       <c r="G109" s="30"/>
-      <c r="H109" s="65"/>
-      <c r="I109" s="66">
+      <c r="H109" s="66"/>
+      <c r="I109" s="67">
         <v>229.0</v>
       </c>
       <c r="J109" s="27"/>
@@ -9678,7 +9672,7 @@
       <c r="A110" s="29" t="s">
         <v>318</v>
       </c>
-      <c r="B110" s="63" t="s">
+      <c r="B110" s="64" t="s">
         <v>264</v>
       </c>
       <c r="C110" s="8" t="str">
@@ -9686,11 +9680,11 @@
         <v>Soma in superior cervical ganglion (12) (bolew)</v>
       </c>
       <c r="D110" s="30"/>
-      <c r="E110" s="64"/>
+      <c r="E110" s="65"/>
       <c r="F110" s="30"/>
       <c r="G110" s="30"/>
-      <c r="H110" s="65"/>
-      <c r="I110" s="66">
+      <c r="H110" s="66"/>
+      <c r="I110" s="67">
         <v>229.0</v>
       </c>
       <c r="J110" s="27"/>
@@ -9703,7 +9697,7 @@
       <c r="A111" s="29" t="s">
         <v>320</v>
       </c>
-      <c r="B111" s="63" t="s">
+      <c r="B111" s="64" t="s">
         <v>264</v>
       </c>
       <c r="C111" s="8" t="str">
@@ -9711,11 +9705,11 @@
         <v>Soma in superior cervical ganglion (13) (bolew)</v>
       </c>
       <c r="D111" s="30"/>
-      <c r="E111" s="64"/>
+      <c r="E111" s="65"/>
       <c r="F111" s="30"/>
       <c r="G111" s="30"/>
-      <c r="H111" s="65"/>
-      <c r="I111" s="66">
+      <c r="H111" s="66"/>
+      <c r="I111" s="67">
         <v>229.0</v>
       </c>
       <c r="J111" s="27"/>
@@ -9728,7 +9722,7 @@
       <c r="A112" s="29" t="s">
         <v>322</v>
       </c>
-      <c r="B112" s="63" t="s">
+      <c r="B112" s="64" t="s">
         <v>264</v>
       </c>
       <c r="C112" s="8" t="str">
@@ -9736,11 +9730,11 @@
         <v>Soma in superior cervical ganglion (14) (bolew)</v>
       </c>
       <c r="D112" s="30"/>
-      <c r="E112" s="64"/>
+      <c r="E112" s="65"/>
       <c r="F112" s="30"/>
       <c r="G112" s="30"/>
-      <c r="H112" s="65"/>
-      <c r="I112" s="66">
+      <c r="H112" s="66"/>
+      <c r="I112" s="67">
         <v>229.0</v>
       </c>
       <c r="J112" s="27"/>
@@ -9753,7 +9747,7 @@
       <c r="A113" s="29" t="s">
         <v>324</v>
       </c>
-      <c r="B113" s="63" t="s">
+      <c r="B113" s="64" t="s">
         <v>264</v>
       </c>
       <c r="C113" s="8" t="str">
@@ -9761,11 +9755,11 @@
         <v>Soma in superior cervical ganglion (15) (bolew)</v>
       </c>
       <c r="D113" s="30"/>
-      <c r="E113" s="64"/>
+      <c r="E113" s="65"/>
       <c r="F113" s="30"/>
       <c r="G113" s="30"/>
-      <c r="H113" s="65"/>
-      <c r="I113" s="66">
+      <c r="H113" s="66"/>
+      <c r="I113" s="67">
         <v>229.0</v>
       </c>
       <c r="J113" s="27"/>
@@ -9778,7 +9772,7 @@
       <c r="A114" s="29" t="s">
         <v>326</v>
       </c>
-      <c r="B114" s="63" t="s">
+      <c r="B114" s="64" t="s">
         <v>264</v>
       </c>
       <c r="C114" s="8" t="str">
@@ -9786,11 +9780,11 @@
         <v>Soma in superior cervical ganglion (16) (bolew)</v>
       </c>
       <c r="D114" s="30"/>
-      <c r="E114" s="64"/>
+      <c r="E114" s="65"/>
       <c r="F114" s="30"/>
       <c r="G114" s="30"/>
-      <c r="H114" s="65"/>
-      <c r="I114" s="66">
+      <c r="H114" s="66"/>
+      <c r="I114" s="67">
         <v>229.0</v>
       </c>
       <c r="J114" s="27"/>
@@ -9803,7 +9797,7 @@
       <c r="A115" s="29" t="s">
         <v>328</v>
       </c>
-      <c r="B115" s="63" t="s">
+      <c r="B115" s="64" t="s">
         <v>264</v>
       </c>
       <c r="C115" s="8" t="str">
@@ -9811,11 +9805,11 @@
         <v>Soma in superior cervical ganglion (17) (bolew)</v>
       </c>
       <c r="D115" s="30"/>
-      <c r="E115" s="64"/>
+      <c r="E115" s="65"/>
       <c r="F115" s="30"/>
       <c r="G115" s="30"/>
-      <c r="H115" s="65"/>
-      <c r="I115" s="66">
+      <c r="H115" s="66"/>
+      <c r="I115" s="67">
         <v>229.0</v>
       </c>
       <c r="J115" s="27"/>
@@ -9904,9 +9898,9 @@
       <c r="F2" s="70" t="s">
         <v>338</v>
       </c>
-      <c r="G2" s="66"/>
+      <c r="G2" s="67"/>
       <c r="H2" s="30"/>
-      <c r="I2" s="66"/>
+      <c r="I2" s="67"/>
       <c r="J2" s="23">
         <v>100.0</v>
       </c>
@@ -9926,12 +9920,12 @@
         <v>342</v>
       </c>
       <c r="E3" s="25"/>
-      <c r="F3" s="66"/>
+      <c r="F3" s="67"/>
       <c r="G3" s="71" t="s">
         <v>149</v>
       </c>
       <c r="H3" s="30"/>
-      <c r="I3" s="66">
+      <c r="I3" s="67">
         <v>202.0</v>
       </c>
       <c r="J3" s="72"/>
@@ -9953,12 +9947,12 @@
         <v>345</v>
       </c>
       <c r="E4" s="25"/>
-      <c r="F4" s="66"/>
+      <c r="F4" s="67"/>
       <c r="G4" s="71" t="s">
         <v>149</v>
       </c>
       <c r="H4" s="30"/>
-      <c r="I4" s="66">
+      <c r="I4" s="67">
         <v>228.0</v>
       </c>
       <c r="J4" s="72"/>
@@ -9980,7 +9974,7 @@
         <v>348</v>
       </c>
       <c r="E5" s="25"/>
-      <c r="F5" s="66"/>
+      <c r="F5" s="67"/>
       <c r="G5" s="71" t="s">
         <v>149</v>
       </c>
@@ -10007,7 +10001,7 @@
         <v>351</v>
       </c>
       <c r="E6" s="74"/>
-      <c r="F6" s="66"/>
+      <c r="F6" s="67"/>
       <c r="G6" s="71" t="s">
         <v>149</v>
       </c>
@@ -10034,7 +10028,7 @@
         <v>354</v>
       </c>
       <c r="E7" s="74"/>
-      <c r="F7" s="66"/>
+      <c r="F7" s="67"/>
       <c r="G7" s="71" t="s">
         <v>149</v>
       </c>
@@ -10061,12 +10055,12 @@
         <v>357</v>
       </c>
       <c r="E8" s="25"/>
-      <c r="F8" s="66"/>
+      <c r="F8" s="67"/>
       <c r="G8" s="71" t="s">
         <v>149</v>
       </c>
       <c r="H8" s="30"/>
-      <c r="I8" s="66">
+      <c r="I8" s="67">
         <v>262.0</v>
       </c>
       <c r="J8" s="72"/>
@@ -10088,12 +10082,12 @@
         <v>360</v>
       </c>
       <c r="E9" s="25"/>
-      <c r="F9" s="66"/>
+      <c r="F9" s="67"/>
       <c r="G9" s="71" t="s">
         <v>149</v>
       </c>
       <c r="H9" s="30"/>
-      <c r="I9" s="66">
+      <c r="I9" s="67">
         <v>264.0</v>
       </c>
       <c r="J9" s="72"/>
@@ -10115,7 +10109,7 @@
         <v>363</v>
       </c>
       <c r="E10" s="30"/>
-      <c r="F10" s="66"/>
+      <c r="F10" s="67"/>
       <c r="G10" s="77" t="s">
         <v>149</v>
       </c>
@@ -10142,7 +10136,7 @@
         <v>367</v>
       </c>
       <c r="E11" s="30"/>
-      <c r="F11" s="66"/>
+      <c r="F11" s="67"/>
       <c r="G11" s="77" t="s">
         <v>149</v>
       </c>
@@ -10169,7 +10163,7 @@
         <v>371</v>
       </c>
       <c r="E12" s="30"/>
-      <c r="F12" s="66"/>
+      <c r="F12" s="67"/>
       <c r="G12" s="77" t="s">
         <v>149</v>
       </c>
@@ -10196,7 +10190,7 @@
         <v>375</v>
       </c>
       <c r="E13" s="30"/>
-      <c r="F13" s="66"/>
+      <c r="F13" s="67"/>
       <c r="G13" s="77" t="s">
         <v>149</v>
       </c>
@@ -10223,7 +10217,7 @@
         <v>379</v>
       </c>
       <c r="E14" s="30"/>
-      <c r="F14" s="66"/>
+      <c r="F14" s="67"/>
       <c r="G14" s="77" t="s">
         <v>149</v>
       </c>
@@ -10250,7 +10244,7 @@
         <v>383</v>
       </c>
       <c r="E15" s="29"/>
-      <c r="F15" s="66"/>
+      <c r="F15" s="67"/>
       <c r="G15" s="71" t="s">
         <v>149</v>
       </c>
@@ -10277,7 +10271,7 @@
         <v>386</v>
       </c>
       <c r="E16" s="29"/>
-      <c r="F16" s="66"/>
+      <c r="F16" s="67"/>
       <c r="G16" s="71" t="s">
         <v>149</v>
       </c>
@@ -10286,7 +10280,7 @@
         <v>220.0</v>
       </c>
       <c r="J16" s="72"/>
-      <c r="K16" s="66">
+      <c r="K16" s="67">
         <f t="shared" ref="K16:K31" si="1">1+K15</f>
         <v>14</v>
       </c>
@@ -10305,7 +10299,7 @@
         <v>389</v>
       </c>
       <c r="E17" s="29"/>
-      <c r="F17" s="66"/>
+      <c r="F17" s="67"/>
       <c r="G17" s="71" t="s">
         <v>149</v>
       </c>
@@ -10314,7 +10308,7 @@
         <v>220.0</v>
       </c>
       <c r="J17" s="72"/>
-      <c r="K17" s="66">
+      <c r="K17" s="67">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
@@ -10333,7 +10327,7 @@
         <v>392</v>
       </c>
       <c r="E18" s="29"/>
-      <c r="F18" s="66"/>
+      <c r="F18" s="67"/>
       <c r="G18" s="71" t="s">
         <v>149</v>
       </c>
@@ -10342,7 +10336,7 @@
         <v>220.0</v>
       </c>
       <c r="J18" s="72"/>
-      <c r="K18" s="66">
+      <c r="K18" s="67">
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
@@ -10361,7 +10355,7 @@
         <v>395</v>
       </c>
       <c r="E19" s="29"/>
-      <c r="F19" s="66"/>
+      <c r="F19" s="67"/>
       <c r="G19" s="71" t="s">
         <v>149</v>
       </c>
@@ -10370,7 +10364,7 @@
         <v>220.0</v>
       </c>
       <c r="J19" s="72"/>
-      <c r="K19" s="66">
+      <c r="K19" s="67">
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
@@ -10389,7 +10383,7 @@
         <v>398</v>
       </c>
       <c r="E20" s="29"/>
-      <c r="F20" s="66"/>
+      <c r="F20" s="67"/>
       <c r="G20" s="71" t="s">
         <v>149</v>
       </c>
@@ -10398,7 +10392,7 @@
         <v>220.0</v>
       </c>
       <c r="J20" s="72"/>
-      <c r="K20" s="66">
+      <c r="K20" s="67">
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
@@ -10417,7 +10411,7 @@
         <v>401</v>
       </c>
       <c r="E21" s="29"/>
-      <c r="F21" s="66"/>
+      <c r="F21" s="67"/>
       <c r="G21" s="71" t="s">
         <v>149</v>
       </c>
@@ -10426,7 +10420,7 @@
         <v>220.0</v>
       </c>
       <c r="J21" s="72"/>
-      <c r="K21" s="66">
+      <c r="K21" s="67">
         <f t="shared" si="1"/>
         <v>19</v>
       </c>
@@ -10445,7 +10439,7 @@
         <v>404</v>
       </c>
       <c r="E22" s="29"/>
-      <c r="F22" s="66"/>
+      <c r="F22" s="67"/>
       <c r="G22" s="71" t="s">
         <v>149</v>
       </c>
@@ -10454,7 +10448,7 @@
         <v>220.0</v>
       </c>
       <c r="J22" s="72"/>
-      <c r="K22" s="66">
+      <c r="K22" s="67">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
@@ -10473,7 +10467,7 @@
         <v>407</v>
       </c>
       <c r="E23" s="29"/>
-      <c r="F23" s="66"/>
+      <c r="F23" s="67"/>
       <c r="G23" s="71" t="s">
         <v>149</v>
       </c>
@@ -10482,7 +10476,7 @@
         <v>220.0</v>
       </c>
       <c r="J23" s="72"/>
-      <c r="K23" s="66">
+      <c r="K23" s="67">
         <f t="shared" si="1"/>
         <v>21</v>
       </c>
@@ -10501,7 +10495,7 @@
         <v>410</v>
       </c>
       <c r="E24" s="29"/>
-      <c r="F24" s="66"/>
+      <c r="F24" s="67"/>
       <c r="G24" s="71" t="s">
         <v>149</v>
       </c>
@@ -10510,7 +10504,7 @@
         <v>220.0</v>
       </c>
       <c r="J24" s="72"/>
-      <c r="K24" s="66">
+      <c r="K24" s="67">
         <f t="shared" si="1"/>
         <v>22</v>
       </c>
@@ -10529,7 +10523,7 @@
         <v>413</v>
       </c>
       <c r="E25" s="29"/>
-      <c r="F25" s="66"/>
+      <c r="F25" s="67"/>
       <c r="G25" s="71" t="s">
         <v>149</v>
       </c>
@@ -10538,7 +10532,7 @@
         <v>220.0</v>
       </c>
       <c r="J25" s="72"/>
-      <c r="K25" s="66">
+      <c r="K25" s="67">
         <f t="shared" si="1"/>
         <v>23</v>
       </c>
@@ -10557,7 +10551,7 @@
         <v>416</v>
       </c>
       <c r="E26" s="29"/>
-      <c r="F26" s="66"/>
+      <c r="F26" s="67"/>
       <c r="G26" s="71" t="s">
         <v>149</v>
       </c>
@@ -10566,7 +10560,7 @@
         <v>220.0</v>
       </c>
       <c r="J26" s="72"/>
-      <c r="K26" s="66">
+      <c r="K26" s="67">
         <f t="shared" si="1"/>
         <v>24</v>
       </c>
@@ -10585,7 +10579,7 @@
         <v>419</v>
       </c>
       <c r="E27" s="29"/>
-      <c r="F27" s="66"/>
+      <c r="F27" s="67"/>
       <c r="G27" s="71" t="s">
         <v>149</v>
       </c>
@@ -10594,7 +10588,7 @@
         <v>220.0</v>
       </c>
       <c r="J27" s="72"/>
-      <c r="K27" s="66">
+      <c r="K27" s="67">
         <f t="shared" si="1"/>
         <v>25</v>
       </c>
@@ -10613,7 +10607,7 @@
         <v>422</v>
       </c>
       <c r="E28" s="29"/>
-      <c r="F28" s="66"/>
+      <c r="F28" s="67"/>
       <c r="G28" s="71" t="s">
         <v>149</v>
       </c>
@@ -10622,7 +10616,7 @@
         <v>220.0</v>
       </c>
       <c r="J28" s="72"/>
-      <c r="K28" s="66">
+      <c r="K28" s="67">
         <f t="shared" si="1"/>
         <v>26</v>
       </c>
@@ -10641,7 +10635,7 @@
         <v>425</v>
       </c>
       <c r="E29" s="29"/>
-      <c r="F29" s="66"/>
+      <c r="F29" s="67"/>
       <c r="G29" s="71" t="s">
         <v>149</v>
       </c>
@@ -10650,7 +10644,7 @@
         <v>220.0</v>
       </c>
       <c r="J29" s="72"/>
-      <c r="K29" s="66">
+      <c r="K29" s="67">
         <f t="shared" si="1"/>
         <v>27</v>
       </c>
@@ -10669,7 +10663,7 @@
         <v>428</v>
       </c>
       <c r="E30" s="29"/>
-      <c r="F30" s="66"/>
+      <c r="F30" s="67"/>
       <c r="G30" s="71" t="s">
         <v>149</v>
       </c>
@@ -10678,7 +10672,7 @@
         <v>220.0</v>
       </c>
       <c r="J30" s="72"/>
-      <c r="K30" s="66">
+      <c r="K30" s="67">
         <f t="shared" si="1"/>
         <v>28</v>
       </c>
@@ -10697,7 +10691,7 @@
         <v>431</v>
       </c>
       <c r="E31" s="29"/>
-      <c r="F31" s="66"/>
+      <c r="F31" s="67"/>
       <c r="G31" s="71" t="s">
         <v>149</v>
       </c>
@@ -10706,7 +10700,7 @@
         <v>220.0</v>
       </c>
       <c r="J31" s="72"/>
-      <c r="K31" s="66">
+      <c r="K31" s="67">
         <f t="shared" si="1"/>
         <v>29</v>
       </c>
@@ -10725,7 +10719,7 @@
         <v>435</v>
       </c>
       <c r="E32" s="79"/>
-      <c r="F32" s="66"/>
+      <c r="F32" s="67"/>
       <c r="G32" s="71" t="s">
         <v>142</v>
       </c>
@@ -10752,7 +10746,7 @@
         <v>439</v>
       </c>
       <c r="E33" s="30"/>
-      <c r="F33" s="66"/>
+      <c r="F33" s="67"/>
       <c r="G33" s="71" t="s">
         <v>142</v>
       </c>
@@ -10779,12 +10773,12 @@
         <v>443</v>
       </c>
       <c r="E34" s="30"/>
-      <c r="F34" s="66"/>
+      <c r="F34" s="67"/>
       <c r="G34" s="71" t="s">
         <v>142</v>
       </c>
       <c r="H34" s="30"/>
-      <c r="I34" s="66" t="s">
+      <c r="I34" s="67" t="s">
         <v>444</v>
       </c>
       <c r="J34" s="72"/>
@@ -10806,7 +10800,7 @@
         <v>447</v>
       </c>
       <c r="E35" s="30"/>
-      <c r="F35" s="66"/>
+      <c r="F35" s="67"/>
       <c r="G35" s="71" t="s">
         <v>142</v>
       </c>
@@ -10833,7 +10827,7 @@
         <v>451</v>
       </c>
       <c r="E36" s="30"/>
-      <c r="F36" s="66"/>
+      <c r="F36" s="67"/>
       <c r="G36" s="71" t="s">
         <v>142</v>
       </c>
@@ -10860,7 +10854,7 @@
         <v>455</v>
       </c>
       <c r="E37" s="30"/>
-      <c r="F37" s="66"/>
+      <c r="F37" s="67"/>
       <c r="G37" s="71" t="s">
         <v>142</v>
       </c>
@@ -10887,7 +10881,7 @@
         <v>459</v>
       </c>
       <c r="E38" s="30"/>
-      <c r="F38" s="66"/>
+      <c r="F38" s="67"/>
       <c r="G38" s="71" t="s">
         <v>142</v>
       </c>
@@ -10914,7 +10908,7 @@
         <v>463</v>
       </c>
       <c r="E39" s="30"/>
-      <c r="F39" s="66"/>
+      <c r="F39" s="67"/>
       <c r="G39" s="71" t="s">
         <v>142</v>
       </c>
@@ -10941,7 +10935,7 @@
         <v>467</v>
       </c>
       <c r="E40" s="30"/>
-      <c r="F40" s="66"/>
+      <c r="F40" s="67"/>
       <c r="G40" s="71" t="s">
         <v>142</v>
       </c>
@@ -10968,7 +10962,7 @@
         <v>471</v>
       </c>
       <c r="E41" s="30"/>
-      <c r="F41" s="66"/>
+      <c r="F41" s="67"/>
       <c r="G41" s="71" t="s">
         <v>142</v>
       </c>
@@ -10995,7 +10989,7 @@
         <v>474</v>
       </c>
       <c r="E42" s="30"/>
-      <c r="F42" s="66"/>
+      <c r="F42" s="67"/>
       <c r="G42" s="71" t="s">
         <v>142</v>
       </c>
@@ -11022,7 +11016,7 @@
         <v>477</v>
       </c>
       <c r="E43" s="30"/>
-      <c r="F43" s="66"/>
+      <c r="F43" s="67"/>
       <c r="G43" s="71" t="s">
         <v>142</v>
       </c>
@@ -11049,7 +11043,7 @@
         <v>480</v>
       </c>
       <c r="E44" s="29"/>
-      <c r="F44" s="66"/>
+      <c r="F44" s="67"/>
       <c r="G44" s="71" t="s">
         <v>142</v>
       </c>
@@ -11076,7 +11070,7 @@
         <v>484</v>
       </c>
       <c r="E45" s="29"/>
-      <c r="F45" s="66"/>
+      <c r="F45" s="67"/>
       <c r="G45" s="71" t="s">
         <v>142</v>
       </c>
@@ -11103,7 +11097,7 @@
         <v>488</v>
       </c>
       <c r="E46" s="29"/>
-      <c r="F46" s="66"/>
+      <c r="F46" s="67"/>
       <c r="G46" s="71" t="s">
         <v>142</v>
       </c>
@@ -11130,7 +11124,7 @@
         <v>492</v>
       </c>
       <c r="E47" s="29"/>
-      <c r="F47" s="66"/>
+      <c r="F47" s="67"/>
       <c r="G47" s="71" t="s">
         <v>142</v>
       </c>
@@ -11157,7 +11151,7 @@
         <v>496</v>
       </c>
       <c r="E48" s="29"/>
-      <c r="F48" s="66"/>
+      <c r="F48" s="67"/>
       <c r="G48" s="71" t="s">
         <v>142</v>
       </c>
@@ -11184,7 +11178,7 @@
         <v>500</v>
       </c>
       <c r="E49" s="29"/>
-      <c r="F49" s="66"/>
+      <c r="F49" s="67"/>
       <c r="G49" s="71" t="s">
         <v>142</v>
       </c>
@@ -11211,7 +11205,7 @@
         <v>504</v>
       </c>
       <c r="E50" s="29"/>
-      <c r="F50" s="66"/>
+      <c r="F50" s="67"/>
       <c r="G50" s="71" t="s">
         <v>142</v>
       </c>
@@ -11238,7 +11232,7 @@
         <v>508</v>
       </c>
       <c r="E51" s="29"/>
-      <c r="F51" s="66"/>
+      <c r="F51" s="67"/>
       <c r="G51" s="71" t="s">
         <v>142</v>
       </c>
@@ -11265,7 +11259,7 @@
         <v>512</v>
       </c>
       <c r="E52" s="29"/>
-      <c r="F52" s="66"/>
+      <c r="F52" s="67"/>
       <c r="G52" s="71" t="s">
         <v>142</v>
       </c>
@@ -11292,7 +11286,7 @@
         <v>516</v>
       </c>
       <c r="E53" s="29"/>
-      <c r="F53" s="66"/>
+      <c r="F53" s="67"/>
       <c r="G53" s="71" t="s">
         <v>142</v>
       </c>
@@ -11319,7 +11313,7 @@
         <v>520</v>
       </c>
       <c r="E54" s="29"/>
-      <c r="F54" s="66"/>
+      <c r="F54" s="67"/>
       <c r="G54" s="71" t="s">
         <v>142</v>
       </c>
@@ -11346,7 +11340,7 @@
         <v>524</v>
       </c>
       <c r="E55" s="29"/>
-      <c r="F55" s="66"/>
+      <c r="F55" s="67"/>
       <c r="G55" s="71" t="s">
         <v>142</v>
       </c>
@@ -11373,7 +11367,7 @@
         <v>528</v>
       </c>
       <c r="E56" s="29"/>
-      <c r="F56" s="66"/>
+      <c r="F56" s="67"/>
       <c r="G56" s="71" t="s">
         <v>142</v>
       </c>
@@ -11400,7 +11394,7 @@
         <v>532</v>
       </c>
       <c r="E57" s="29"/>
-      <c r="F57" s="66"/>
+      <c r="F57" s="67"/>
       <c r="G57" s="71" t="s">
         <v>142</v>
       </c>
@@ -11427,7 +11421,7 @@
         <v>536</v>
       </c>
       <c r="E58" s="29"/>
-      <c r="F58" s="66"/>
+      <c r="F58" s="67"/>
       <c r="G58" s="71" t="s">
         <v>142</v>
       </c>
@@ -11454,7 +11448,7 @@
         <v>540</v>
       </c>
       <c r="E59" s="29"/>
-      <c r="F59" s="66"/>
+      <c r="F59" s="67"/>
       <c r="G59" s="71" t="s">
         <v>142</v>
       </c>
@@ -11481,7 +11475,7 @@
         <v>544</v>
       </c>
       <c r="E60" s="29"/>
-      <c r="F60" s="66"/>
+      <c r="F60" s="67"/>
       <c r="G60" s="71" t="s">
         <v>142</v>
       </c>
@@ -11865,10 +11859,10 @@
       <c r="B25" s="23" t="s">
         <v>260</v>
       </c>
-      <c r="C25" s="81" t="s">
-        <v>594</v>
-      </c>
-      <c r="D25" s="89"/>
+      <c r="C25" s="12" t="s">
+        <v>259</v>
+      </c>
+      <c r="D25" s="12"/>
       <c r="E25" s="12">
         <v>111.0</v>
       </c>
@@ -11878,12 +11872,12 @@
         <v>109.0</v>
       </c>
       <c r="B26" s="23" t="s">
+        <v>594</v>
+      </c>
+      <c r="C26" s="12" t="s">
         <v>595</v>
       </c>
-      <c r="C26" s="81" t="s">
-        <v>596</v>
-      </c>
-      <c r="D26" s="89"/>
+      <c r="D26" s="12"/>
       <c r="E26" s="23">
         <v>111.0</v>
       </c>
@@ -11893,12 +11887,12 @@
         <v>110.0</v>
       </c>
       <c r="B27" s="23" t="s">
+        <v>596</v>
+      </c>
+      <c r="C27" s="81" t="s">
         <v>597</v>
       </c>
-      <c r="C27" s="81" t="s">
-        <v>598</v>
-      </c>
-      <c r="D27" s="13"/>
+      <c r="D27" s="89"/>
       <c r="E27" s="12">
         <v>111.0</v>
       </c>
@@ -11908,12 +11902,12 @@
         <v>111.0</v>
       </c>
       <c r="B28" s="23" t="s">
+        <v>598</v>
+      </c>
+      <c r="C28" s="81" t="s">
         <v>599</v>
       </c>
-      <c r="C28" s="81" t="s">
-        <v>600</v>
-      </c>
-      <c r="D28" s="13"/>
+      <c r="D28" s="89"/>
     </row>
     <row r="29">
       <c r="A29" s="28">
@@ -11922,8 +11916,8 @@
       <c r="B29" s="23" t="s">
         <v>191</v>
       </c>
-      <c r="C29" s="81" t="s">
-        <v>601</v>
+      <c r="C29" s="12" t="s">
+        <v>190</v>
       </c>
       <c r="D29" s="12"/>
     </row>
@@ -11932,12 +11926,12 @@
         <v>113.0</v>
       </c>
       <c r="B30" s="23" t="s">
-        <v>602</v>
-      </c>
-      <c r="C30" s="81" t="s">
-        <v>603</v>
-      </c>
-      <c r="D30" s="13"/>
+        <v>600</v>
+      </c>
+      <c r="C30" s="12" t="s">
+        <v>601</v>
+      </c>
+      <c r="D30" s="12"/>
     </row>
     <row r="31">
       <c r="A31" s="28">
@@ -11949,17 +11943,17 @@
       <c r="C31" s="81" t="s">
         <v>187</v>
       </c>
-      <c r="D31" s="13"/>
+      <c r="D31" s="89"/>
     </row>
     <row r="32">
       <c r="A32" s="28">
         <v>115.0</v>
       </c>
       <c r="B32" s="23" t="s">
-        <v>604</v>
-      </c>
-      <c r="C32" s="81" t="s">
-        <v>605</v>
+        <v>602</v>
+      </c>
+      <c r="C32" s="12" t="s">
+        <v>603</v>
       </c>
       <c r="D32" s="12"/>
     </row>
@@ -11968,10 +11962,10 @@
         <v>116.0</v>
       </c>
       <c r="B33" s="23" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="C33" s="81" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="D33" s="13"/>
       <c r="E33" s="12">
@@ -11983,13 +11977,13 @@
         <v>117.0</v>
       </c>
       <c r="B34" s="23" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="C34" s="81" t="s">
         <v>592</v>
       </c>
       <c r="D34" s="88" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="E34" s="12">
         <v>116.0</v>
@@ -12027,19 +12021,19 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>608</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>609</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>610</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>611</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>612</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>613</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>614</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>41</v>
@@ -12047,65 +12041,65 @@
     </row>
     <row r="2">
       <c r="A2" s="23" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="B2" s="30"/>
       <c r="C2" s="30"/>
       <c r="D2" s="23" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="F2" s="28">
         <v>227.0</v>
       </c>
       <c r="G2" s="30" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="H2" s="12" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="23" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="B3" s="30"/>
       <c r="C3" s="30"/>
       <c r="D3" s="23" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="E3" s="23" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="F3" s="28">
         <v>226.0</v>
       </c>
       <c r="G3" s="30" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="H3" s="12" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="23" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="B4" s="30"/>
       <c r="C4" s="30"/>
       <c r="D4" s="23" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="E4" s="23" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="F4" s="28">
         <v>221.0</v>
       </c>
       <c r="G4" s="30" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="H4" s="12">
         <v>103.0</v>
@@ -12113,21 +12107,21 @@
     </row>
     <row r="5">
       <c r="A5" s="23" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="B5" s="30"/>
       <c r="C5" s="30"/>
       <c r="D5" s="23" t="s">
+        <v>622</v>
+      </c>
+      <c r="E5" s="23" t="s">
         <v>624</v>
-      </c>
-      <c r="E5" s="23" t="s">
-        <v>626</v>
       </c>
       <c r="F5" s="28">
         <v>222.0</v>
       </c>
       <c r="G5" s="30" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="H5" s="12">
         <v>103.0</v>
@@ -12135,21 +12129,21 @@
     </row>
     <row r="6">
       <c r="A6" s="23" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="B6" s="30"/>
       <c r="C6" s="30"/>
       <c r="D6" s="23" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="E6" s="23" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="F6" s="28">
         <v>223.0</v>
       </c>
       <c r="G6" s="30" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="H6" s="12">
         <v>41.0</v>
@@ -12157,21 +12151,21 @@
     </row>
     <row r="7">
       <c r="A7" s="23" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="B7" s="30"/>
       <c r="C7" s="30"/>
       <c r="D7" s="23" t="s">
+        <v>627</v>
+      </c>
+      <c r="E7" s="23" t="s">
         <v>629</v>
-      </c>
-      <c r="E7" s="23" t="s">
-        <v>631</v>
       </c>
       <c r="F7" s="28">
         <v>224.0</v>
       </c>
       <c r="G7" s="30" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="H7" s="12">
         <v>41.0</v>
@@ -12179,21 +12173,21 @@
     </row>
     <row r="8">
       <c r="A8" s="23" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="B8" s="30"/>
       <c r="C8" s="30"/>
       <c r="D8" s="23" t="s">
+        <v>629</v>
+      </c>
+      <c r="E8" s="23" t="s">
         <v>631</v>
-      </c>
-      <c r="E8" s="23" t="s">
-        <v>633</v>
       </c>
       <c r="F8" s="28">
         <v>225.0</v>
       </c>
       <c r="G8" s="30" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="H8" s="12">
         <v>41.0</v>
@@ -12201,21 +12195,21 @@
     </row>
     <row r="9">
       <c r="A9" s="30" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="B9" s="30"/>
       <c r="C9" s="30"/>
       <c r="D9" s="30" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="E9" s="30" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="F9" s="28">
         <v>217.0</v>
       </c>
       <c r="G9" s="30" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="H9" s="12">
         <v>117.0</v>
@@ -12223,21 +12217,21 @@
     </row>
     <row r="10">
       <c r="A10" s="30" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="B10" s="30"/>
       <c r="C10" s="30"/>
       <c r="D10" s="30" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="E10" s="30" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="F10" s="28">
         <v>218.0</v>
       </c>
       <c r="G10" s="30" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="H10" s="12">
         <v>117.0</v>
@@ -12245,21 +12239,21 @@
     </row>
     <row r="11">
       <c r="A11" s="30" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="B11" s="30"/>
       <c r="C11" s="30"/>
       <c r="D11" s="30" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="E11" s="30" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="F11" s="28">
         <v>219.0</v>
       </c>
       <c r="G11" s="30" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="H11" s="12">
         <v>117.0</v>
@@ -12267,21 +12261,21 @@
     </row>
     <row r="12">
       <c r="A12" s="30" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="B12" s="30"/>
       <c r="C12" s="30"/>
       <c r="D12" s="30" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="E12" s="30" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="F12" s="38">
         <v>220.0</v>
       </c>
       <c r="G12" s="30" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="H12" s="12">
         <v>117.0</v>
@@ -12289,21 +12283,21 @@
     </row>
     <row r="13">
       <c r="A13" s="30" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="B13" s="30"/>
       <c r="C13" s="30"/>
       <c r="D13" s="30" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="E13" s="30" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="F13" s="28">
         <v>230.0</v>
       </c>
       <c r="G13" s="30" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="H13" s="12">
         <v>117.0</v>
@@ -12311,21 +12305,21 @@
     </row>
     <row r="14">
       <c r="A14" s="30" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="B14" s="30"/>
       <c r="C14" s="30"/>
       <c r="D14" s="30" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="E14" s="30" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="F14" s="28">
         <v>231.0</v>
       </c>
       <c r="G14" s="30" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="H14" s="12">
         <v>117.0</v>
@@ -12333,21 +12327,21 @@
     </row>
     <row r="15">
       <c r="A15" s="30" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="B15" s="30"/>
       <c r="C15" s="30"/>
       <c r="D15" s="30" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="E15" s="30" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="F15" s="28">
         <v>232.0</v>
       </c>
       <c r="G15" s="30" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="H15" s="12">
         <v>117.0</v>
@@ -12355,21 +12349,21 @@
     </row>
     <row r="16">
       <c r="A16" s="30" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="B16" s="30"/>
       <c r="C16" s="30"/>
       <c r="D16" s="30" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="E16" s="30" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="F16" s="28">
         <v>233.0</v>
       </c>
       <c r="G16" s="30" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="H16" s="12">
         <v>117.0</v>
@@ -12377,21 +12371,21 @@
     </row>
     <row r="17">
       <c r="A17" s="30" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="B17" s="30"/>
       <c r="C17" s="30"/>
       <c r="D17" s="30" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="E17" s="30" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="F17" s="28">
         <v>234.0</v>
       </c>
       <c r="G17" s="30" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="H17" s="12">
         <v>117.0</v>
@@ -12399,21 +12393,21 @@
     </row>
     <row r="18">
       <c r="A18" s="30" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="B18" s="30"/>
       <c r="C18" s="30"/>
       <c r="D18" s="30" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="E18" s="30" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="F18" s="28">
         <v>235.0</v>
       </c>
       <c r="G18" s="30" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="H18" s="12">
         <v>117.0</v>
@@ -12421,21 +12415,21 @@
     </row>
     <row r="19">
       <c r="A19" s="30" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="B19" s="30"/>
       <c r="C19" s="30"/>
       <c r="D19" s="30" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="E19" s="30" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="F19" s="28">
         <v>236.0</v>
       </c>
       <c r="G19" s="30" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="H19" s="12">
         <v>117.0</v>
@@ -12443,21 +12437,21 @@
     </row>
     <row r="20">
       <c r="A20" s="30" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="B20" s="30"/>
       <c r="C20" s="30"/>
       <c r="D20" s="30" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="E20" s="30" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="F20" s="28">
         <v>237.0</v>
       </c>
       <c r="G20" s="30" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="H20" s="12">
         <v>117.0</v>
@@ -12465,21 +12459,21 @@
     </row>
     <row r="21">
       <c r="A21" s="30" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="B21" s="30"/>
       <c r="C21" s="30"/>
       <c r="D21" s="30" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="E21" s="30" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="F21" s="28">
         <v>238.0</v>
       </c>
       <c r="G21" s="30" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="H21" s="12">
         <v>117.0</v>
@@ -12487,21 +12481,21 @@
     </row>
     <row r="22">
       <c r="A22" s="30" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="B22" s="30"/>
       <c r="C22" s="30"/>
       <c r="D22" s="30" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="E22" s="30" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="F22" s="28">
         <v>239.0</v>
       </c>
       <c r="G22" s="30" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="H22" s="12">
         <v>117.0</v>
@@ -12509,21 +12503,21 @@
     </row>
     <row r="23">
       <c r="A23" s="30" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="B23" s="30"/>
       <c r="C23" s="30"/>
       <c r="D23" s="30" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="E23" s="30" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="F23" s="28">
         <v>240.0</v>
       </c>
       <c r="G23" s="30" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="H23" s="12">
         <v>117.0</v>
@@ -12531,21 +12525,21 @@
     </row>
     <row r="24">
       <c r="A24" s="30" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="B24" s="30"/>
       <c r="C24" s="30"/>
       <c r="D24" s="30" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="E24" s="30" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="F24" s="28">
         <v>241.0</v>
       </c>
       <c r="G24" s="30" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="H24" s="12">
         <v>117.0</v>
@@ -12553,7 +12547,7 @@
     </row>
     <row r="25">
       <c r="A25" s="49" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="B25" s="30"/>
       <c r="C25" s="30"/>
@@ -12572,7 +12566,7 @@
     </row>
     <row r="26">
       <c r="A26" s="49" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="B26" s="30"/>
       <c r="C26" s="30"/>
@@ -12591,7 +12585,7 @@
     </row>
     <row r="27">
       <c r="A27" s="49" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="B27" s="30"/>
       <c r="C27" s="30"/>
@@ -12610,7 +12604,7 @@
     </row>
     <row r="28">
       <c r="A28" s="49" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="B28" s="30"/>
       <c r="C28" s="30"/>
@@ -12629,7 +12623,7 @@
     </row>
     <row r="29">
       <c r="A29" s="49" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="B29" s="30"/>
       <c r="C29" s="30"/>
@@ -12648,7 +12642,7 @@
     </row>
     <row r="30">
       <c r="A30" s="49" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="B30" s="30"/>
       <c r="C30" s="30"/>
@@ -12667,7 +12661,7 @@
     </row>
     <row r="31">
       <c r="A31" s="49" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="B31" s="30"/>
       <c r="C31" s="30"/>
@@ -12686,7 +12680,7 @@
     </row>
     <row r="32">
       <c r="A32" s="49" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="B32" s="30"/>
       <c r="C32" s="30"/>
@@ -12705,7 +12699,7 @@
     </row>
     <row r="33">
       <c r="A33" s="49" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="B33" s="30"/>
       <c r="C33" s="30"/>
@@ -12724,7 +12718,7 @@
     </row>
     <row r="34">
       <c r="A34" s="49" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="B34" s="30"/>
       <c r="C34" s="30"/>
@@ -12743,7 +12737,7 @@
     </row>
     <row r="35">
       <c r="A35" s="49" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="B35" s="30"/>
       <c r="C35" s="30"/>
@@ -12762,7 +12756,7 @@
     </row>
     <row r="36">
       <c r="A36" s="49" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="B36" s="30"/>
       <c r="C36" s="30"/>
@@ -12781,7 +12775,7 @@
     </row>
     <row r="37">
       <c r="A37" s="49" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="B37" s="30"/>
       <c r="C37" s="30"/>
@@ -12800,7 +12794,7 @@
     </row>
     <row r="38">
       <c r="A38" s="49" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="B38" s="30"/>
       <c r="C38" s="30"/>
@@ -12819,7 +12813,7 @@
     </row>
     <row r="39">
       <c r="A39" s="49" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="B39" s="30"/>
       <c r="C39" s="30"/>
@@ -12838,7 +12832,7 @@
     </row>
     <row r="40">
       <c r="A40" s="49" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="B40" s="30"/>
       <c r="C40" s="30"/>
@@ -12857,7 +12851,7 @@
     </row>
     <row r="41">
       <c r="A41" s="49" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="B41" s="30"/>
       <c r="C41" s="30"/>
@@ -12876,7 +12870,7 @@
     </row>
     <row r="42">
       <c r="A42" s="49" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="B42" s="30"/>
       <c r="C42" s="30"/>
@@ -12895,7 +12889,7 @@
     </row>
     <row r="43">
       <c r="A43" s="49" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="B43" s="30"/>
       <c r="C43" s="30"/>
@@ -12914,7 +12908,7 @@
     </row>
     <row r="44">
       <c r="A44" s="49" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="B44" s="30"/>
       <c r="C44" s="30"/>
@@ -12933,7 +12927,7 @@
     </row>
     <row r="45">
       <c r="A45" s="49" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="B45" s="30"/>
       <c r="C45" s="30"/>
@@ -12952,7 +12946,7 @@
     </row>
     <row r="46">
       <c r="A46" s="49" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="B46" s="30"/>
       <c r="C46" s="30"/>
@@ -12971,7 +12965,7 @@
     </row>
     <row r="47">
       <c r="A47" s="49" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="B47" s="30"/>
       <c r="C47" s="30"/>
@@ -12990,7 +12984,7 @@
     </row>
     <row r="48">
       <c r="A48" s="49" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="B48" s="30"/>
       <c r="C48" s="30"/>
@@ -13009,7 +13003,7 @@
     </row>
     <row r="49">
       <c r="A49" s="49" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="B49" s="30"/>
       <c r="C49" s="30"/>
@@ -13028,7 +13022,7 @@
     </row>
     <row r="50">
       <c r="A50" s="49" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="B50" s="30"/>
       <c r="C50" s="30"/>
@@ -13047,7 +13041,7 @@
     </row>
     <row r="51">
       <c r="A51" s="49" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="B51" s="30"/>
       <c r="C51" s="30"/>
@@ -13066,7 +13060,7 @@
     </row>
     <row r="52">
       <c r="A52" s="49" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="B52" s="30"/>
       <c r="C52" s="30"/>
@@ -13085,7 +13079,7 @@
     </row>
     <row r="53">
       <c r="A53" s="49" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="B53" s="30"/>
       <c r="C53" s="30"/>
@@ -13142,71 +13136,71 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>709</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>710</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>711</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="6" t="s">
         <v>712</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="90" t="s">
         <v>713</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="I1" s="6" t="s">
         <v>714</v>
       </c>
-      <c r="H1" s="90" t="s">
+      <c r="J1" s="8" t="s">
         <v>715</v>
-      </c>
-      <c r="I1" s="6" t="s">
-        <v>716</v>
-      </c>
-      <c r="J1" s="8" t="s">
-        <v>717</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="91" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="B2" s="91" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="C2" s="92"/>
       <c r="D2" s="93"/>
       <c r="E2" s="91" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="F2" s="23" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="91" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="B3" s="91" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="C3" s="92"/>
       <c r="D3" s="91" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="E3" s="91"/>
       <c r="F3" s="23"/>
     </row>
     <row r="4">
       <c r="A4" s="72" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="B4" s="72" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="C4" s="94"/>
       <c r="D4" s="72"/>
       <c r="E4" s="72" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="F4" s="72" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="G4" s="30"/>
       <c r="H4" s="30"/>
@@ -13218,10 +13212,10 @@
         <v>266</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="C5" s="23" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="D5" s="72"/>
       <c r="E5" s="72"/>
@@ -13230,7 +13224,7 @@
       <c r="H5" s="30"/>
       <c r="I5" s="30"/>
       <c r="J5" s="95" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
     </row>
     <row r="6">
@@ -13238,10 +13232,10 @@
         <v>269</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="C6" s="23" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="D6" s="72"/>
       <c r="E6" s="72"/>
@@ -13250,7 +13244,7 @@
       <c r="H6" s="30"/>
       <c r="I6" s="30"/>
       <c r="J6" s="23" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
     </row>
     <row r="7">
@@ -13258,10 +13252,10 @@
         <v>272</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="C7" s="23" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="D7" s="72"/>
       <c r="E7" s="72"/>
@@ -13270,7 +13264,7 @@
       <c r="H7" s="30"/>
       <c r="I7" s="30"/>
       <c r="J7" s="23" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
     </row>
     <row r="8">
@@ -13278,10 +13272,10 @@
         <v>274</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="C8" s="23" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="D8" s="72"/>
       <c r="E8" s="72"/>
@@ -13290,7 +13284,7 @@
       <c r="H8" s="30"/>
       <c r="I8" s="30"/>
       <c r="J8" s="23" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
     </row>
     <row r="9">
@@ -13298,10 +13292,10 @@
         <v>276</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="C9" s="23" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="D9" s="72"/>
       <c r="E9" s="72"/>
@@ -13310,7 +13304,7 @@
       <c r="H9" s="30"/>
       <c r="I9" s="30"/>
       <c r="J9" s="23" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
     </row>
     <row r="10">
@@ -13318,10 +13312,10 @@
         <v>278</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="C10" s="23" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="D10" s="72"/>
       <c r="E10" s="72"/>
@@ -13330,7 +13324,7 @@
       <c r="H10" s="30"/>
       <c r="I10" s="30"/>
       <c r="J10" s="23" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
     </row>
     <row r="11">
@@ -13338,10 +13332,10 @@
         <v>280</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="C11" s="23" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="D11" s="72"/>
       <c r="E11" s="72"/>
@@ -13350,7 +13344,7 @@
       <c r="H11" s="30"/>
       <c r="I11" s="30"/>
       <c r="J11" s="23" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
     </row>
     <row r="12">
@@ -13358,10 +13352,10 @@
         <v>283</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="C12" s="23" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="D12" s="72"/>
       <c r="E12" s="72"/>
@@ -13370,7 +13364,7 @@
       <c r="H12" s="30"/>
       <c r="I12" s="30"/>
       <c r="J12" s="23" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
     </row>
     <row r="13">
@@ -13378,10 +13372,10 @@
         <v>286</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="C13" s="23" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="D13" s="72"/>
       <c r="E13" s="72"/>
@@ -13390,7 +13384,7 @@
       <c r="H13" s="30"/>
       <c r="I13" s="30"/>
       <c r="J13" s="23" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
     </row>
     <row r="14">
@@ -13398,10 +13392,10 @@
         <v>289</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="C14" s="23" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="D14" s="72"/>
       <c r="E14" s="72"/>
@@ -13410,7 +13404,7 @@
       <c r="H14" s="30"/>
       <c r="I14" s="30"/>
       <c r="J14" s="23" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
     </row>
     <row r="15">
@@ -13418,10 +13412,10 @@
         <v>292</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="C15" s="23" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="D15" s="72"/>
       <c r="E15" s="72"/>
@@ -13430,7 +13424,7 @@
       <c r="H15" s="30"/>
       <c r="I15" s="30"/>
       <c r="J15" s="23" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
     </row>
     <row r="16">
@@ -13438,10 +13432,10 @@
         <v>295</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="C16" s="23" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="D16" s="72"/>
       <c r="E16" s="72"/>
@@ -13450,7 +13444,7 @@
       <c r="H16" s="30"/>
       <c r="I16" s="30"/>
       <c r="J16" s="23" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
     </row>
     <row r="17">
@@ -13462,7 +13456,7 @@
         <v>Neuron 13 in SCG (1) (bolew)</v>
       </c>
       <c r="C17" s="23" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="D17" s="72"/>
       <c r="E17" s="72"/>
@@ -13471,7 +13465,7 @@
       <c r="H17" s="30"/>
       <c r="I17" s="30"/>
       <c r="J17" s="23" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
     </row>
     <row r="18">
@@ -13483,7 +13477,7 @@
         <v>Neuron 14 in SCG (2) (bolew)</v>
       </c>
       <c r="C18" s="23" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="D18" s="72"/>
       <c r="E18" s="72"/>
@@ -13492,7 +13486,7 @@
       <c r="H18" s="30"/>
       <c r="I18" s="30"/>
       <c r="J18" s="12" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
     </row>
     <row r="19">
@@ -13504,7 +13498,7 @@
         <v>Neuron 15 in SCG (3) (bolew)</v>
       </c>
       <c r="C19" s="23" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="D19" s="72"/>
       <c r="E19" s="72"/>
@@ -13513,7 +13507,7 @@
       <c r="H19" s="30"/>
       <c r="I19" s="30"/>
       <c r="J19" s="23" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
     </row>
     <row r="20">
@@ -13525,7 +13519,7 @@
         <v>Neuron 16 in SCG (4) (bolew)</v>
       </c>
       <c r="C20" s="23" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="D20" s="72"/>
       <c r="E20" s="72"/>
@@ -13534,7 +13528,7 @@
       <c r="H20" s="30"/>
       <c r="I20" s="30"/>
       <c r="J20" s="12" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
     </row>
     <row r="21">
@@ -13546,7 +13540,7 @@
         <v>Neuron 17 in SCG (5) (bolew)</v>
       </c>
       <c r="C21" s="23" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="D21" s="72"/>
       <c r="E21" s="72"/>
@@ -13555,7 +13549,7 @@
       <c r="H21" s="30"/>
       <c r="I21" s="30"/>
       <c r="J21" s="23" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
     </row>
     <row r="22">
@@ -13567,7 +13561,7 @@
         <v>Neuron 18 in SCG (6) (bolew)</v>
       </c>
       <c r="C22" s="23" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="D22" s="72"/>
       <c r="E22" s="72"/>
@@ -13576,7 +13570,7 @@
       <c r="H22" s="30"/>
       <c r="I22" s="30"/>
       <c r="J22" s="12" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
     </row>
     <row r="23">
@@ -13588,7 +13582,7 @@
         <v>Neuron 19 in SCG (7) (bolew)</v>
       </c>
       <c r="C23" s="23" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="D23" s="72"/>
       <c r="E23" s="72"/>
@@ -13597,7 +13591,7 @@
       <c r="H23" s="30"/>
       <c r="I23" s="30"/>
       <c r="J23" s="23" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
     </row>
     <row r="24">
@@ -13609,7 +13603,7 @@
         <v>Neuron 20 in SCG (8) (bolew)</v>
       </c>
       <c r="C24" s="23" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="D24" s="72"/>
       <c r="E24" s="72"/>
@@ -13618,7 +13612,7 @@
       <c r="H24" s="30"/>
       <c r="I24" s="30"/>
       <c r="J24" s="12" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
     </row>
     <row r="25">
@@ -13630,7 +13624,7 @@
         <v>Neuron 21 in SCG (9) (bolew)</v>
       </c>
       <c r="C25" s="23" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="D25" s="72"/>
       <c r="E25" s="72"/>
@@ -13639,7 +13633,7 @@
       <c r="H25" s="30"/>
       <c r="I25" s="30"/>
       <c r="J25" s="23" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
     </row>
     <row r="26">
@@ -13651,7 +13645,7 @@
         <v>Neuron 22 in SCG (10) (bolew)</v>
       </c>
       <c r="C26" s="23" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="D26" s="72"/>
       <c r="E26" s="72"/>
@@ -13660,7 +13654,7 @@
       <c r="H26" s="30"/>
       <c r="I26" s="30"/>
       <c r="J26" s="12" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
     </row>
     <row r="27">
@@ -13672,7 +13666,7 @@
         <v>Neuron 23 in SCG (11) (bolew)</v>
       </c>
       <c r="C27" s="23" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="D27" s="72"/>
       <c r="E27" s="72"/>
@@ -13681,7 +13675,7 @@
       <c r="H27" s="30"/>
       <c r="I27" s="30"/>
       <c r="J27" s="23" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
     </row>
     <row r="28">
@@ -13693,7 +13687,7 @@
         <v>Neuron 24 in SCG (12) (bolew)</v>
       </c>
       <c r="C28" s="23" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="D28" s="72"/>
       <c r="E28" s="72"/>
@@ -13702,7 +13696,7 @@
       <c r="H28" s="30"/>
       <c r="I28" s="30"/>
       <c r="J28" s="12" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
     </row>
     <row r="29">
@@ -13714,7 +13708,7 @@
         <v>Neuron 25 in SCG (13) (bolew)</v>
       </c>
       <c r="C29" s="23" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="D29" s="72"/>
       <c r="E29" s="72"/>
@@ -13723,7 +13717,7 @@
       <c r="H29" s="30"/>
       <c r="I29" s="30"/>
       <c r="J29" s="23" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
     </row>
     <row r="30">
@@ -13735,7 +13729,7 @@
         <v>Neuron 26 in SCG (14) (bolew)</v>
       </c>
       <c r="C30" s="23" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="D30" s="72"/>
       <c r="E30" s="72"/>
@@ -13744,7 +13738,7 @@
       <c r="H30" s="30"/>
       <c r="I30" s="30"/>
       <c r="J30" s="12" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
     </row>
     <row r="31">
@@ -13756,7 +13750,7 @@
         <v>Neuron 27 in SCG (15) (bolew)</v>
       </c>
       <c r="C31" s="23" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="D31" s="72"/>
       <c r="E31" s="72"/>
@@ -13765,7 +13759,7 @@
       <c r="H31" s="30"/>
       <c r="I31" s="30"/>
       <c r="J31" s="23" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
     </row>
     <row r="32">
@@ -13777,7 +13771,7 @@
         <v>Neuron 28 in SCG (16) (bolew)</v>
       </c>
       <c r="C32" s="23" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="D32" s="72"/>
       <c r="E32" s="72"/>
@@ -13786,7 +13780,7 @@
       <c r="H32" s="30"/>
       <c r="I32" s="30"/>
       <c r="J32" s="12" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
     </row>
     <row r="33">
@@ -13798,7 +13792,7 @@
         <v>Neuron 29 in SCG (17) (bolew)</v>
       </c>
       <c r="C33" s="23" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="D33" s="72"/>
       <c r="E33" s="72"/>
@@ -13807,7 +13801,7 @@
       <c r="H33" s="30"/>
       <c r="I33" s="30"/>
       <c r="J33" s="23" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
     </row>
   </sheetData>
@@ -13835,24 +13829,24 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>773</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>774</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>775</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>776</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>777</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="96" t="s">
+        <v>776</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>777</v>
+      </c>
+      <c r="D2" s="12" t="s">
         <v>778</v>
-      </c>
-      <c r="C2" s="12" t="s">
-        <v>779</v>
-      </c>
-      <c r="D2" s="12" t="s">
-        <v>780</v>
       </c>
     </row>
   </sheetData>
